--- a/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
+++ b/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlu\Documents\Source\Repos\voltigeScore\mallar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PdI6n2wWe1BCLpZSUVKb6Viv2S5eDDxdev/RLVBc6uGkqKIeSnzxpXt+L8Ip+7bcU/gK26fAQjqxcl2KM0Nr6Q==" workbookSaltValue="84UlA07g1xLdi6rLqV4A4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="10320" windowHeight="7656" tabRatio="941" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="941" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -19,7 +24,54 @@
     <sheet name="Individuell tekniska övningar" sheetId="35" r:id="rId9"/>
     <sheet name="Individuellt tekniskt artistisk" sheetId="36" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="bord" localSheetId="1">'Häst, individuell'!$L$2</definedName>
+    <definedName name="bord" localSheetId="5">'Ind kür tekn 1'!$L$3</definedName>
+    <definedName name="bord" localSheetId="6">'Ind kür tekn 2 3'!$L$3</definedName>
+    <definedName name="bord" localSheetId="3">'Individuell junior grund 2'!$L$3</definedName>
+    <definedName name="bord" localSheetId="7">'Individuell kür artistisk'!$L$3</definedName>
+    <definedName name="bord" localSheetId="2">'Individuell minior grund 1'!$L$3</definedName>
+    <definedName name="bord" localSheetId="4">'Individuell senior grund 3'!$L$3</definedName>
+    <definedName name="bord" localSheetId="8">'Individuell tekniska övningar'!$L$3</definedName>
+    <definedName name="bord" localSheetId="9">'Individuellt tekniskt artistisk'!$L$4</definedName>
+    <definedName name="id" localSheetId="1">'Häst, individuell'!$U$1</definedName>
+    <definedName name="id" localSheetId="5">'Ind kür tekn 1'!$U$1</definedName>
+    <definedName name="id" localSheetId="6">'Ind kür tekn 2 3'!$U$1</definedName>
+    <definedName name="id" localSheetId="3">'Individuell junior grund 2'!$U$1</definedName>
+    <definedName name="id" localSheetId="7">'Individuell kür artistisk'!$U$1</definedName>
+    <definedName name="id" localSheetId="2">'Individuell minior grund 1'!$U$1</definedName>
+    <definedName name="id" localSheetId="4">'Individuell senior grund 3'!$U$1</definedName>
+    <definedName name="id" localSheetId="8">'Individuell tekniska övningar'!$U$1</definedName>
+    <definedName name="id" localSheetId="9">'Individuellt tekniskt artistisk'!$U$1</definedName>
+    <definedName name="klass" localSheetId="1">'Häst, individuell'!$L$3</definedName>
+    <definedName name="klass" localSheetId="5">'Ind kür tekn 1'!$L$4</definedName>
+    <definedName name="klass" localSheetId="6">'Ind kür tekn 2 3'!$L$4</definedName>
+    <definedName name="klass" localSheetId="3">'Individuell junior grund 2'!$L$4</definedName>
+    <definedName name="klass" localSheetId="7">'Individuell kür artistisk'!$L$4</definedName>
+    <definedName name="klass" localSheetId="2">'Individuell minior grund 1'!$L$4</definedName>
+    <definedName name="klass" localSheetId="4">'Individuell senior grund 3'!$L$4</definedName>
+    <definedName name="klass" localSheetId="8">'Individuell tekniska övningar'!$L$4</definedName>
+    <definedName name="klass" localSheetId="9">'Individuellt tekniskt artistisk'!$L$5</definedName>
+    <definedName name="moment" localSheetId="1">'Häst, individuell'!$L$4</definedName>
+    <definedName name="moment" localSheetId="5">'Ind kür tekn 1'!$L$5</definedName>
+    <definedName name="moment" localSheetId="6">'Ind kür tekn 2 3'!$L$5</definedName>
+    <definedName name="moment" localSheetId="3">'Individuell junior grund 2'!$L$5</definedName>
+    <definedName name="moment" localSheetId="7">'Individuell kür artistisk'!$L$5</definedName>
+    <definedName name="moment" localSheetId="2">'Individuell minior grund 1'!$L$5</definedName>
+    <definedName name="moment" localSheetId="4">'Individuell senior grund 3'!$L$5</definedName>
+    <definedName name="moment" localSheetId="8">'Individuell tekniska övningar'!$L$5</definedName>
+    <definedName name="moment" localSheetId="9">'Individuellt tekniskt artistisk'!$L$6</definedName>
+    <definedName name="result" localSheetId="1">'Häst, individuell'!$K$25:$L$25</definedName>
+    <definedName name="result" localSheetId="5">'Ind kür tekn 1'!$L$33</definedName>
+    <definedName name="result" localSheetId="6">'Ind kür tekn 2 3'!$L$33</definedName>
+    <definedName name="result" localSheetId="3">'Individuell junior grund 2'!$L$27</definedName>
+    <definedName name="result" localSheetId="7">'Individuell kür artistisk'!$L$23</definedName>
+    <definedName name="result" localSheetId="2">'Individuell minior grund 1'!$L$26</definedName>
+    <definedName name="result" localSheetId="4">'Individuell senior grund 3'!$L$27</definedName>
+    <definedName name="result" localSheetId="8">'Individuell tekniska övningar'!$L$30</definedName>
+    <definedName name="result" localSheetId="9">'Individuellt tekniskt artistisk'!$L$24</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -857,7 +909,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -2724,259 +2776,7 @@
     <xf numFmtId="167" fontId="1" fillId="3" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3032,14 +2832,269 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3047,18 +3102,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Dezimal 2" xfId="2"/>
     <cellStyle name="Dezimal 2 2" xfId="4"/>
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Standard 2" xfId="3"/>
-    <cellStyle name="Tusental" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3081,7 +3133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3123,7 +3175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3156,9 +3208,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3191,6 +3260,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3374,53 +3460,53 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="18" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="18" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="320" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="320" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="319" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="320" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="320" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="320" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="283" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="283" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="283" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="208" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="208"/>
     </row>
-    <row r="11" spans="1:8" s="284" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="284" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="284" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="285" t="s">
         <v>119</v>
       </c>
@@ -3429,7 +3515,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="284" t="s">
         <v>121</v>
       </c>
@@ -3450,7 +3536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="208" t="s">
         <v>117</v>
       </c>
@@ -3474,7 +3560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="208"/>
       <c r="B15" s="281"/>
       <c r="C15" s="281"/>
@@ -3484,7 +3570,7 @@
       <c r="G15" s="281"/>
       <c r="H15" s="281"/>
     </row>
-    <row r="16" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="208" t="s">
         <v>118</v>
       </c>
@@ -3508,7 +3594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="208"/>
       <c r="B17" s="281"/>
       <c r="C17" s="281"/>
@@ -3518,7 +3604,7 @@
       <c r="G17" s="281"/>
       <c r="H17" s="281"/>
     </row>
-    <row r="18" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="208" t="s">
         <v>132</v>
       </c>
@@ -3542,7 +3628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="208"/>
       <c r="B19" s="281"/>
       <c r="C19" s="281"/>
@@ -3552,7 +3638,7 @@
       <c r="G19" s="281"/>
       <c r="H19" s="281"/>
     </row>
-    <row r="20" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="208" t="s">
         <v>133</v>
       </c>
@@ -3576,7 +3662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="333" t="s">
         <v>169</v>
       </c>
@@ -3591,14 +3677,14 @@
       </c>
       <c r="E21" s="286"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="333"/>
       <c r="B22" s="280"/>
       <c r="C22" s="280"/>
       <c r="D22" s="280"/>
       <c r="E22" s="286"/>
     </row>
-    <row r="23" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="208" t="s">
         <v>133</v>
       </c>
@@ -3622,7 +3708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="333" t="s">
         <v>170</v>
       </c>
@@ -3637,12 +3723,12 @@
       </c>
       <c r="E24" s="286"/>
     </row>
-    <row r="26" spans="1:9" s="284" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="284" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="284" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="285" t="s">
         <v>119</v>
       </c>
@@ -3651,7 +3737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="284" t="s">
         <v>121</v>
       </c>
@@ -3677,7 +3763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="208" t="s">
         <v>117</v>
       </c>
@@ -3706,7 +3792,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="208"/>
       <c r="B30" s="281"/>
       <c r="C30" s="281"/>
@@ -3717,7 +3803,7 @@
       <c r="H30" s="281"/>
       <c r="I30" s="281"/>
     </row>
-    <row r="31" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="208" t="s">
         <v>118</v>
       </c>
@@ -3746,7 +3832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="208"/>
       <c r="B32" s="281"/>
       <c r="C32" s="281"/>
@@ -3757,7 +3843,7 @@
       <c r="H32" s="281"/>
       <c r="I32" s="281"/>
     </row>
-    <row r="33" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="208" t="s">
         <v>132</v>
       </c>
@@ -3786,7 +3872,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="208"/>
       <c r="B34" s="281"/>
       <c r="C34" s="281"/>
@@ -3797,7 +3883,7 @@
       <c r="H34" s="281"/>
       <c r="I34" s="281"/>
     </row>
-    <row r="35" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="208" t="s">
         <v>133</v>
       </c>
@@ -3826,7 +3912,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="333" t="s">
         <v>172</v>
       </c>
@@ -3843,13 +3929,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" s="286"/>
       <c r="C37" s="286"/>
       <c r="D37" s="286"/>
       <c r="E37" s="286"/>
     </row>
-    <row r="38" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="208" t="s">
         <v>133</v>
       </c>
@@ -3878,7 +3964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="333" t="s">
         <v>173</v>
       </c>
@@ -3895,24 +3981,24 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" s="286"/>
       <c r="C40" s="286"/>
       <c r="D40" s="286"/>
       <c r="E40" s="286"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" s="286"/>
       <c r="C41" s="286"/>
       <c r="D41" s="286"/>
       <c r="E41" s="286"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="284" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="285" t="s">
         <v>119</v>
       </c>
@@ -3928,7 +4014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="284" t="s">
         <v>121</v>
       </c>
@@ -3968,7 +4054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="208" t="s">
         <v>117</v>
       </c>
@@ -4011,7 +4097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="208"/>
       <c r="B47" s="281"/>
       <c r="C47" s="281"/>
@@ -4028,7 +4114,7 @@
       <c r="O47" s="281"/>
       <c r="P47" s="281"/>
     </row>
-    <row r="48" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="208" t="s">
         <v>118</v>
       </c>
@@ -4071,7 +4157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="208"/>
       <c r="B49" s="281"/>
       <c r="C49" s="281"/>
@@ -4088,7 +4174,7 @@
       <c r="O49" s="281"/>
       <c r="P49" s="281"/>
     </row>
-    <row r="50" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="208" t="s">
         <v>132</v>
       </c>
@@ -4131,7 +4217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="208"/>
       <c r="B51" s="281"/>
       <c r="C51" s="281"/>
@@ -4148,7 +4234,7 @@
       <c r="O51" s="281"/>
       <c r="P51" s="281"/>
     </row>
-    <row r="52" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="208" t="s">
         <v>133</v>
       </c>
@@ -4191,19 +4277,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E53" s="286"/>
       <c r="J53" s="288"/>
       <c r="K53" s="288"/>
       <c r="L53" s="288"/>
       <c r="M53" s="286"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="284" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="285" t="s">
         <v>119</v>
       </c>
@@ -4219,7 +4305,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="284" t="s">
         <v>121</v>
       </c>
@@ -4269,7 +4355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="208" t="s">
         <v>117</v>
       </c>
@@ -4322,7 +4408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="208"/>
       <c r="B60" s="281"/>
       <c r="C60" s="281"/>
@@ -4341,7 +4427,7 @@
       <c r="P60" s="281"/>
       <c r="Q60" s="281"/>
     </row>
-    <row r="61" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="208" t="s">
         <v>118</v>
       </c>
@@ -4394,7 +4480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="208"/>
       <c r="B62" s="281"/>
       <c r="C62" s="281"/>
@@ -4413,7 +4499,7 @@
       <c r="P62" s="281"/>
       <c r="Q62" s="281"/>
     </row>
-    <row r="63" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="208" t="s">
         <v>132</v>
       </c>
@@ -4466,7 +4552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="208"/>
       <c r="B64" s="281"/>
       <c r="C64" s="281"/>
@@ -4485,7 +4571,7 @@
       <c r="P64" s="281"/>
       <c r="Q64" s="281"/>
     </row>
-    <row r="65" spans="1:17" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="208" t="s">
         <v>133</v>
       </c>
@@ -4538,12 +4624,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="323" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="323" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="322" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="284" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="284" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="327" t="s">
         <v>66</v>
       </c>
@@ -4563,7 +4649,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="321" t="s">
         <v>145</v>
       </c>
@@ -4583,7 +4669,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="321" t="s">
         <v>149</v>
       </c>
@@ -4603,7 +4689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="321" t="s">
         <v>153</v>
       </c>
@@ -4623,7 +4709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="321"/>
       <c r="B74" s="321"/>
       <c r="C74" s="321"/>
@@ -4633,7 +4719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="325"/>
       <c r="B75" s="325"/>
       <c r="C75" s="325"/>
@@ -4641,7 +4727,7 @@
       <c r="E75" s="325"/>
       <c r="F75" s="326"/>
     </row>
-    <row r="76" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="325"/>
       <c r="B76" s="325"/>
       <c r="C76" s="325"/>
@@ -4649,7 +4735,7 @@
       <c r="E76" s="325"/>
       <c r="F76" s="326"/>
     </row>
-    <row r="78" spans="1:17" s="284" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" s="284" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="328" t="s">
         <v>156</v>
       </c>
@@ -4669,7 +4755,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="321" t="s">
         <v>145</v>
       </c>
@@ -4689,7 +4775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="321" t="s">
         <v>149</v>
       </c>
@@ -4709,7 +4795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="321"/>
       <c r="B81" s="321"/>
       <c r="C81" s="321"/>
@@ -4719,7 +4805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="322" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:6" s="322" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4732,613 +4818,613 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="158"/>
-    <col min="3" max="3" width="12.5546875" style="158" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="158" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="158" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="158" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="158" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="158"/>
+    <col min="3" max="3" width="12.5703125" style="158" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="158" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="158" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="158" customWidth="1"/>
     <col min="7" max="7" width="9" style="158" customWidth="1"/>
     <col min="8" max="8" width="7" style="158" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="158" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="158" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="158" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="158" customWidth="1"/>
-    <col min="14" max="242" width="9.109375" style="158"/>
-    <col min="243" max="243" width="5.6640625" style="158" customWidth="1"/>
-    <col min="244" max="245" width="9.109375" style="158"/>
-    <col min="246" max="246" width="2.6640625" style="158" customWidth="1"/>
-    <col min="247" max="249" width="7.33203125" style="158" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="158" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="158" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="158" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="158" customWidth="1"/>
+    <col min="14" max="242" width="9.140625" style="158"/>
+    <col min="243" max="243" width="5.7109375" style="158" customWidth="1"/>
+    <col min="244" max="245" width="9.140625" style="158"/>
+    <col min="246" max="246" width="2.7109375" style="158" customWidth="1"/>
+    <col min="247" max="249" width="7.28515625" style="158" customWidth="1"/>
     <col min="250" max="250" width="7" style="158" customWidth="1"/>
-    <col min="251" max="253" width="7.33203125" style="158" customWidth="1"/>
-    <col min="254" max="254" width="10.5546875" style="158" customWidth="1"/>
-    <col min="255" max="255" width="7.33203125" style="158" customWidth="1"/>
-    <col min="256" max="498" width="9.109375" style="158"/>
-    <col min="499" max="499" width="5.6640625" style="158" customWidth="1"/>
-    <col min="500" max="501" width="9.109375" style="158"/>
-    <col min="502" max="502" width="2.6640625" style="158" customWidth="1"/>
-    <col min="503" max="505" width="7.33203125" style="158" customWidth="1"/>
+    <col min="251" max="253" width="7.28515625" style="158" customWidth="1"/>
+    <col min="254" max="254" width="10.5703125" style="158" customWidth="1"/>
+    <col min="255" max="255" width="7.28515625" style="158" customWidth="1"/>
+    <col min="256" max="498" width="9.140625" style="158"/>
+    <col min="499" max="499" width="5.7109375" style="158" customWidth="1"/>
+    <col min="500" max="501" width="9.140625" style="158"/>
+    <col min="502" max="502" width="2.7109375" style="158" customWidth="1"/>
+    <col min="503" max="505" width="7.28515625" style="158" customWidth="1"/>
     <col min="506" max="506" width="7" style="158" customWidth="1"/>
-    <col min="507" max="509" width="7.33203125" style="158" customWidth="1"/>
-    <col min="510" max="510" width="10.5546875" style="158" customWidth="1"/>
-    <col min="511" max="511" width="7.33203125" style="158" customWidth="1"/>
-    <col min="512" max="754" width="9.109375" style="158"/>
-    <col min="755" max="755" width="5.6640625" style="158" customWidth="1"/>
-    <col min="756" max="757" width="9.109375" style="158"/>
-    <col min="758" max="758" width="2.6640625" style="158" customWidth="1"/>
-    <col min="759" max="761" width="7.33203125" style="158" customWidth="1"/>
+    <col min="507" max="509" width="7.28515625" style="158" customWidth="1"/>
+    <col min="510" max="510" width="10.5703125" style="158" customWidth="1"/>
+    <col min="511" max="511" width="7.28515625" style="158" customWidth="1"/>
+    <col min="512" max="754" width="9.140625" style="158"/>
+    <col min="755" max="755" width="5.7109375" style="158" customWidth="1"/>
+    <col min="756" max="757" width="9.140625" style="158"/>
+    <col min="758" max="758" width="2.7109375" style="158" customWidth="1"/>
+    <col min="759" max="761" width="7.28515625" style="158" customWidth="1"/>
     <col min="762" max="762" width="7" style="158" customWidth="1"/>
-    <col min="763" max="765" width="7.33203125" style="158" customWidth="1"/>
-    <col min="766" max="766" width="10.5546875" style="158" customWidth="1"/>
-    <col min="767" max="767" width="7.33203125" style="158" customWidth="1"/>
-    <col min="768" max="1010" width="9.109375" style="158"/>
-    <col min="1011" max="1011" width="5.6640625" style="158" customWidth="1"/>
-    <col min="1012" max="1013" width="9.109375" style="158"/>
-    <col min="1014" max="1014" width="2.6640625" style="158" customWidth="1"/>
-    <col min="1015" max="1017" width="7.33203125" style="158" customWidth="1"/>
+    <col min="763" max="765" width="7.28515625" style="158" customWidth="1"/>
+    <col min="766" max="766" width="10.5703125" style="158" customWidth="1"/>
+    <col min="767" max="767" width="7.28515625" style="158" customWidth="1"/>
+    <col min="768" max="1010" width="9.140625" style="158"/>
+    <col min="1011" max="1011" width="5.7109375" style="158" customWidth="1"/>
+    <col min="1012" max="1013" width="9.140625" style="158"/>
+    <col min="1014" max="1014" width="2.7109375" style="158" customWidth="1"/>
+    <col min="1015" max="1017" width="7.28515625" style="158" customWidth="1"/>
     <col min="1018" max="1018" width="7" style="158" customWidth="1"/>
-    <col min="1019" max="1021" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1022" max="1022" width="10.5546875" style="158" customWidth="1"/>
-    <col min="1023" max="1023" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1024" max="1266" width="9.109375" style="158"/>
-    <col min="1267" max="1267" width="5.6640625" style="158" customWidth="1"/>
-    <col min="1268" max="1269" width="9.109375" style="158"/>
-    <col min="1270" max="1270" width="2.6640625" style="158" customWidth="1"/>
-    <col min="1271" max="1273" width="7.33203125" style="158" customWidth="1"/>
+    <col min="1019" max="1021" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1022" max="1022" width="10.5703125" style="158" customWidth="1"/>
+    <col min="1023" max="1023" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1024" max="1266" width="9.140625" style="158"/>
+    <col min="1267" max="1267" width="5.7109375" style="158" customWidth="1"/>
+    <col min="1268" max="1269" width="9.140625" style="158"/>
+    <col min="1270" max="1270" width="2.7109375" style="158" customWidth="1"/>
+    <col min="1271" max="1273" width="7.28515625" style="158" customWidth="1"/>
     <col min="1274" max="1274" width="7" style="158" customWidth="1"/>
-    <col min="1275" max="1277" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1278" max="1278" width="10.5546875" style="158" customWidth="1"/>
-    <col min="1279" max="1279" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1280" max="1522" width="9.109375" style="158"/>
-    <col min="1523" max="1523" width="5.6640625" style="158" customWidth="1"/>
-    <col min="1524" max="1525" width="9.109375" style="158"/>
-    <col min="1526" max="1526" width="2.6640625" style="158" customWidth="1"/>
-    <col min="1527" max="1529" width="7.33203125" style="158" customWidth="1"/>
+    <col min="1275" max="1277" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1278" max="1278" width="10.5703125" style="158" customWidth="1"/>
+    <col min="1279" max="1279" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1280" max="1522" width="9.140625" style="158"/>
+    <col min="1523" max="1523" width="5.7109375" style="158" customWidth="1"/>
+    <col min="1524" max="1525" width="9.140625" style="158"/>
+    <col min="1526" max="1526" width="2.7109375" style="158" customWidth="1"/>
+    <col min="1527" max="1529" width="7.28515625" style="158" customWidth="1"/>
     <col min="1530" max="1530" width="7" style="158" customWidth="1"/>
-    <col min="1531" max="1533" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1534" max="1534" width="10.5546875" style="158" customWidth="1"/>
-    <col min="1535" max="1535" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1536" max="1778" width="9.109375" style="158"/>
-    <col min="1779" max="1779" width="5.6640625" style="158" customWidth="1"/>
-    <col min="1780" max="1781" width="9.109375" style="158"/>
-    <col min="1782" max="1782" width="2.6640625" style="158" customWidth="1"/>
-    <col min="1783" max="1785" width="7.33203125" style="158" customWidth="1"/>
+    <col min="1531" max="1533" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1534" max="1534" width="10.5703125" style="158" customWidth="1"/>
+    <col min="1535" max="1535" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1536" max="1778" width="9.140625" style="158"/>
+    <col min="1779" max="1779" width="5.7109375" style="158" customWidth="1"/>
+    <col min="1780" max="1781" width="9.140625" style="158"/>
+    <col min="1782" max="1782" width="2.7109375" style="158" customWidth="1"/>
+    <col min="1783" max="1785" width="7.28515625" style="158" customWidth="1"/>
     <col min="1786" max="1786" width="7" style="158" customWidth="1"/>
-    <col min="1787" max="1789" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1790" max="1790" width="10.5546875" style="158" customWidth="1"/>
-    <col min="1791" max="1791" width="7.33203125" style="158" customWidth="1"/>
-    <col min="1792" max="2034" width="9.109375" style="158"/>
-    <col min="2035" max="2035" width="5.6640625" style="158" customWidth="1"/>
-    <col min="2036" max="2037" width="9.109375" style="158"/>
-    <col min="2038" max="2038" width="2.6640625" style="158" customWidth="1"/>
-    <col min="2039" max="2041" width="7.33203125" style="158" customWidth="1"/>
+    <col min="1787" max="1789" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1790" max="1790" width="10.5703125" style="158" customWidth="1"/>
+    <col min="1791" max="1791" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1792" max="2034" width="9.140625" style="158"/>
+    <col min="2035" max="2035" width="5.7109375" style="158" customWidth="1"/>
+    <col min="2036" max="2037" width="9.140625" style="158"/>
+    <col min="2038" max="2038" width="2.7109375" style="158" customWidth="1"/>
+    <col min="2039" max="2041" width="7.28515625" style="158" customWidth="1"/>
     <col min="2042" max="2042" width="7" style="158" customWidth="1"/>
-    <col min="2043" max="2045" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2046" max="2046" width="10.5546875" style="158" customWidth="1"/>
-    <col min="2047" max="2047" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2048" max="2290" width="9.109375" style="158"/>
-    <col min="2291" max="2291" width="5.6640625" style="158" customWidth="1"/>
-    <col min="2292" max="2293" width="9.109375" style="158"/>
-    <col min="2294" max="2294" width="2.6640625" style="158" customWidth="1"/>
-    <col min="2295" max="2297" width="7.33203125" style="158" customWidth="1"/>
+    <col min="2043" max="2045" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2046" max="2046" width="10.5703125" style="158" customWidth="1"/>
+    <col min="2047" max="2047" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2048" max="2290" width="9.140625" style="158"/>
+    <col min="2291" max="2291" width="5.7109375" style="158" customWidth="1"/>
+    <col min="2292" max="2293" width="9.140625" style="158"/>
+    <col min="2294" max="2294" width="2.7109375" style="158" customWidth="1"/>
+    <col min="2295" max="2297" width="7.28515625" style="158" customWidth="1"/>
     <col min="2298" max="2298" width="7" style="158" customWidth="1"/>
-    <col min="2299" max="2301" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2302" max="2302" width="10.5546875" style="158" customWidth="1"/>
-    <col min="2303" max="2303" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2304" max="2546" width="9.109375" style="158"/>
-    <col min="2547" max="2547" width="5.6640625" style="158" customWidth="1"/>
-    <col min="2548" max="2549" width="9.109375" style="158"/>
-    <col min="2550" max="2550" width="2.6640625" style="158" customWidth="1"/>
-    <col min="2551" max="2553" width="7.33203125" style="158" customWidth="1"/>
+    <col min="2299" max="2301" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2302" max="2302" width="10.5703125" style="158" customWidth="1"/>
+    <col min="2303" max="2303" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2304" max="2546" width="9.140625" style="158"/>
+    <col min="2547" max="2547" width="5.7109375" style="158" customWidth="1"/>
+    <col min="2548" max="2549" width="9.140625" style="158"/>
+    <col min="2550" max="2550" width="2.7109375" style="158" customWidth="1"/>
+    <col min="2551" max="2553" width="7.28515625" style="158" customWidth="1"/>
     <col min="2554" max="2554" width="7" style="158" customWidth="1"/>
-    <col min="2555" max="2557" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2558" max="2558" width="10.5546875" style="158" customWidth="1"/>
-    <col min="2559" max="2559" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2560" max="2802" width="9.109375" style="158"/>
-    <col min="2803" max="2803" width="5.6640625" style="158" customWidth="1"/>
-    <col min="2804" max="2805" width="9.109375" style="158"/>
-    <col min="2806" max="2806" width="2.6640625" style="158" customWidth="1"/>
-    <col min="2807" max="2809" width="7.33203125" style="158" customWidth="1"/>
+    <col min="2555" max="2557" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2558" max="2558" width="10.5703125" style="158" customWidth="1"/>
+    <col min="2559" max="2559" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2560" max="2802" width="9.140625" style="158"/>
+    <col min="2803" max="2803" width="5.7109375" style="158" customWidth="1"/>
+    <col min="2804" max="2805" width="9.140625" style="158"/>
+    <col min="2806" max="2806" width="2.7109375" style="158" customWidth="1"/>
+    <col min="2807" max="2809" width="7.28515625" style="158" customWidth="1"/>
     <col min="2810" max="2810" width="7" style="158" customWidth="1"/>
-    <col min="2811" max="2813" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2814" max="2814" width="10.5546875" style="158" customWidth="1"/>
-    <col min="2815" max="2815" width="7.33203125" style="158" customWidth="1"/>
-    <col min="2816" max="3058" width="9.109375" style="158"/>
-    <col min="3059" max="3059" width="5.6640625" style="158" customWidth="1"/>
-    <col min="3060" max="3061" width="9.109375" style="158"/>
-    <col min="3062" max="3062" width="2.6640625" style="158" customWidth="1"/>
-    <col min="3063" max="3065" width="7.33203125" style="158" customWidth="1"/>
+    <col min="2811" max="2813" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2814" max="2814" width="10.5703125" style="158" customWidth="1"/>
+    <col min="2815" max="2815" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2816" max="3058" width="9.140625" style="158"/>
+    <col min="3059" max="3059" width="5.7109375" style="158" customWidth="1"/>
+    <col min="3060" max="3061" width="9.140625" style="158"/>
+    <col min="3062" max="3062" width="2.7109375" style="158" customWidth="1"/>
+    <col min="3063" max="3065" width="7.28515625" style="158" customWidth="1"/>
     <col min="3066" max="3066" width="7" style="158" customWidth="1"/>
-    <col min="3067" max="3069" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3070" max="3070" width="10.5546875" style="158" customWidth="1"/>
-    <col min="3071" max="3071" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3072" max="3314" width="9.109375" style="158"/>
-    <col min="3315" max="3315" width="5.6640625" style="158" customWidth="1"/>
-    <col min="3316" max="3317" width="9.109375" style="158"/>
-    <col min="3318" max="3318" width="2.6640625" style="158" customWidth="1"/>
-    <col min="3319" max="3321" width="7.33203125" style="158" customWidth="1"/>
+    <col min="3067" max="3069" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3070" max="3070" width="10.5703125" style="158" customWidth="1"/>
+    <col min="3071" max="3071" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3072" max="3314" width="9.140625" style="158"/>
+    <col min="3315" max="3315" width="5.7109375" style="158" customWidth="1"/>
+    <col min="3316" max="3317" width="9.140625" style="158"/>
+    <col min="3318" max="3318" width="2.7109375" style="158" customWidth="1"/>
+    <col min="3319" max="3321" width="7.28515625" style="158" customWidth="1"/>
     <col min="3322" max="3322" width="7" style="158" customWidth="1"/>
-    <col min="3323" max="3325" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3326" max="3326" width="10.5546875" style="158" customWidth="1"/>
-    <col min="3327" max="3327" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3328" max="3570" width="9.109375" style="158"/>
-    <col min="3571" max="3571" width="5.6640625" style="158" customWidth="1"/>
-    <col min="3572" max="3573" width="9.109375" style="158"/>
-    <col min="3574" max="3574" width="2.6640625" style="158" customWidth="1"/>
-    <col min="3575" max="3577" width="7.33203125" style="158" customWidth="1"/>
+    <col min="3323" max="3325" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3326" max="3326" width="10.5703125" style="158" customWidth="1"/>
+    <col min="3327" max="3327" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3328" max="3570" width="9.140625" style="158"/>
+    <col min="3571" max="3571" width="5.7109375" style="158" customWidth="1"/>
+    <col min="3572" max="3573" width="9.140625" style="158"/>
+    <col min="3574" max="3574" width="2.7109375" style="158" customWidth="1"/>
+    <col min="3575" max="3577" width="7.28515625" style="158" customWidth="1"/>
     <col min="3578" max="3578" width="7" style="158" customWidth="1"/>
-    <col min="3579" max="3581" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3582" max="3582" width="10.5546875" style="158" customWidth="1"/>
-    <col min="3583" max="3583" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3584" max="3826" width="9.109375" style="158"/>
-    <col min="3827" max="3827" width="5.6640625" style="158" customWidth="1"/>
-    <col min="3828" max="3829" width="9.109375" style="158"/>
-    <col min="3830" max="3830" width="2.6640625" style="158" customWidth="1"/>
-    <col min="3831" max="3833" width="7.33203125" style="158" customWidth="1"/>
+    <col min="3579" max="3581" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3582" max="3582" width="10.5703125" style="158" customWidth="1"/>
+    <col min="3583" max="3583" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3584" max="3826" width="9.140625" style="158"/>
+    <col min="3827" max="3827" width="5.7109375" style="158" customWidth="1"/>
+    <col min="3828" max="3829" width="9.140625" style="158"/>
+    <col min="3830" max="3830" width="2.7109375" style="158" customWidth="1"/>
+    <col min="3831" max="3833" width="7.28515625" style="158" customWidth="1"/>
     <col min="3834" max="3834" width="7" style="158" customWidth="1"/>
-    <col min="3835" max="3837" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3838" max="3838" width="10.5546875" style="158" customWidth="1"/>
-    <col min="3839" max="3839" width="7.33203125" style="158" customWidth="1"/>
-    <col min="3840" max="4082" width="9.109375" style="158"/>
-    <col min="4083" max="4083" width="5.6640625" style="158" customWidth="1"/>
-    <col min="4084" max="4085" width="9.109375" style="158"/>
-    <col min="4086" max="4086" width="2.6640625" style="158" customWidth="1"/>
-    <col min="4087" max="4089" width="7.33203125" style="158" customWidth="1"/>
+    <col min="3835" max="3837" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3838" max="3838" width="10.5703125" style="158" customWidth="1"/>
+    <col min="3839" max="3839" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3840" max="4082" width="9.140625" style="158"/>
+    <col min="4083" max="4083" width="5.7109375" style="158" customWidth="1"/>
+    <col min="4084" max="4085" width="9.140625" style="158"/>
+    <col min="4086" max="4086" width="2.7109375" style="158" customWidth="1"/>
+    <col min="4087" max="4089" width="7.28515625" style="158" customWidth="1"/>
     <col min="4090" max="4090" width="7" style="158" customWidth="1"/>
-    <col min="4091" max="4093" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4094" max="4094" width="10.5546875" style="158" customWidth="1"/>
-    <col min="4095" max="4095" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4096" max="4338" width="9.109375" style="158"/>
-    <col min="4339" max="4339" width="5.6640625" style="158" customWidth="1"/>
-    <col min="4340" max="4341" width="9.109375" style="158"/>
-    <col min="4342" max="4342" width="2.6640625" style="158" customWidth="1"/>
-    <col min="4343" max="4345" width="7.33203125" style="158" customWidth="1"/>
+    <col min="4091" max="4093" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4094" max="4094" width="10.5703125" style="158" customWidth="1"/>
+    <col min="4095" max="4095" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4096" max="4338" width="9.140625" style="158"/>
+    <col min="4339" max="4339" width="5.7109375" style="158" customWidth="1"/>
+    <col min="4340" max="4341" width="9.140625" style="158"/>
+    <col min="4342" max="4342" width="2.7109375" style="158" customWidth="1"/>
+    <col min="4343" max="4345" width="7.28515625" style="158" customWidth="1"/>
     <col min="4346" max="4346" width="7" style="158" customWidth="1"/>
-    <col min="4347" max="4349" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4350" max="4350" width="10.5546875" style="158" customWidth="1"/>
-    <col min="4351" max="4351" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4352" max="4594" width="9.109375" style="158"/>
-    <col min="4595" max="4595" width="5.6640625" style="158" customWidth="1"/>
-    <col min="4596" max="4597" width="9.109375" style="158"/>
-    <col min="4598" max="4598" width="2.6640625" style="158" customWidth="1"/>
-    <col min="4599" max="4601" width="7.33203125" style="158" customWidth="1"/>
+    <col min="4347" max="4349" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4350" max="4350" width="10.5703125" style="158" customWidth="1"/>
+    <col min="4351" max="4351" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4352" max="4594" width="9.140625" style="158"/>
+    <col min="4595" max="4595" width="5.7109375" style="158" customWidth="1"/>
+    <col min="4596" max="4597" width="9.140625" style="158"/>
+    <col min="4598" max="4598" width="2.7109375" style="158" customWidth="1"/>
+    <col min="4599" max="4601" width="7.28515625" style="158" customWidth="1"/>
     <col min="4602" max="4602" width="7" style="158" customWidth="1"/>
-    <col min="4603" max="4605" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4606" max="4606" width="10.5546875" style="158" customWidth="1"/>
-    <col min="4607" max="4607" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4608" max="4850" width="9.109375" style="158"/>
-    <col min="4851" max="4851" width="5.6640625" style="158" customWidth="1"/>
-    <col min="4852" max="4853" width="9.109375" style="158"/>
-    <col min="4854" max="4854" width="2.6640625" style="158" customWidth="1"/>
-    <col min="4855" max="4857" width="7.33203125" style="158" customWidth="1"/>
+    <col min="4603" max="4605" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4606" max="4606" width="10.5703125" style="158" customWidth="1"/>
+    <col min="4607" max="4607" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4608" max="4850" width="9.140625" style="158"/>
+    <col min="4851" max="4851" width="5.7109375" style="158" customWidth="1"/>
+    <col min="4852" max="4853" width="9.140625" style="158"/>
+    <col min="4854" max="4854" width="2.7109375" style="158" customWidth="1"/>
+    <col min="4855" max="4857" width="7.28515625" style="158" customWidth="1"/>
     <col min="4858" max="4858" width="7" style="158" customWidth="1"/>
-    <col min="4859" max="4861" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4862" max="4862" width="10.5546875" style="158" customWidth="1"/>
-    <col min="4863" max="4863" width="7.33203125" style="158" customWidth="1"/>
-    <col min="4864" max="5106" width="9.109375" style="158"/>
-    <col min="5107" max="5107" width="5.6640625" style="158" customWidth="1"/>
-    <col min="5108" max="5109" width="9.109375" style="158"/>
-    <col min="5110" max="5110" width="2.6640625" style="158" customWidth="1"/>
-    <col min="5111" max="5113" width="7.33203125" style="158" customWidth="1"/>
+    <col min="4859" max="4861" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4862" max="4862" width="10.5703125" style="158" customWidth="1"/>
+    <col min="4863" max="4863" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4864" max="5106" width="9.140625" style="158"/>
+    <col min="5107" max="5107" width="5.7109375" style="158" customWidth="1"/>
+    <col min="5108" max="5109" width="9.140625" style="158"/>
+    <col min="5110" max="5110" width="2.7109375" style="158" customWidth="1"/>
+    <col min="5111" max="5113" width="7.28515625" style="158" customWidth="1"/>
     <col min="5114" max="5114" width="7" style="158" customWidth="1"/>
-    <col min="5115" max="5117" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5118" max="5118" width="10.5546875" style="158" customWidth="1"/>
-    <col min="5119" max="5119" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5120" max="5362" width="9.109375" style="158"/>
-    <col min="5363" max="5363" width="5.6640625" style="158" customWidth="1"/>
-    <col min="5364" max="5365" width="9.109375" style="158"/>
-    <col min="5366" max="5366" width="2.6640625" style="158" customWidth="1"/>
-    <col min="5367" max="5369" width="7.33203125" style="158" customWidth="1"/>
+    <col min="5115" max="5117" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5118" max="5118" width="10.5703125" style="158" customWidth="1"/>
+    <col min="5119" max="5119" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5120" max="5362" width="9.140625" style="158"/>
+    <col min="5363" max="5363" width="5.7109375" style="158" customWidth="1"/>
+    <col min="5364" max="5365" width="9.140625" style="158"/>
+    <col min="5366" max="5366" width="2.7109375" style="158" customWidth="1"/>
+    <col min="5367" max="5369" width="7.28515625" style="158" customWidth="1"/>
     <col min="5370" max="5370" width="7" style="158" customWidth="1"/>
-    <col min="5371" max="5373" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5374" max="5374" width="10.5546875" style="158" customWidth="1"/>
-    <col min="5375" max="5375" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5376" max="5618" width="9.109375" style="158"/>
-    <col min="5619" max="5619" width="5.6640625" style="158" customWidth="1"/>
-    <col min="5620" max="5621" width="9.109375" style="158"/>
-    <col min="5622" max="5622" width="2.6640625" style="158" customWidth="1"/>
-    <col min="5623" max="5625" width="7.33203125" style="158" customWidth="1"/>
+    <col min="5371" max="5373" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5374" max="5374" width="10.5703125" style="158" customWidth="1"/>
+    <col min="5375" max="5375" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5376" max="5618" width="9.140625" style="158"/>
+    <col min="5619" max="5619" width="5.7109375" style="158" customWidth="1"/>
+    <col min="5620" max="5621" width="9.140625" style="158"/>
+    <col min="5622" max="5622" width="2.7109375" style="158" customWidth="1"/>
+    <col min="5623" max="5625" width="7.28515625" style="158" customWidth="1"/>
     <col min="5626" max="5626" width="7" style="158" customWidth="1"/>
-    <col min="5627" max="5629" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5630" max="5630" width="10.5546875" style="158" customWidth="1"/>
-    <col min="5631" max="5631" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5632" max="5874" width="9.109375" style="158"/>
-    <col min="5875" max="5875" width="5.6640625" style="158" customWidth="1"/>
-    <col min="5876" max="5877" width="9.109375" style="158"/>
-    <col min="5878" max="5878" width="2.6640625" style="158" customWidth="1"/>
-    <col min="5879" max="5881" width="7.33203125" style="158" customWidth="1"/>
+    <col min="5627" max="5629" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5630" max="5630" width="10.5703125" style="158" customWidth="1"/>
+    <col min="5631" max="5631" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5632" max="5874" width="9.140625" style="158"/>
+    <col min="5875" max="5875" width="5.7109375" style="158" customWidth="1"/>
+    <col min="5876" max="5877" width="9.140625" style="158"/>
+    <col min="5878" max="5878" width="2.7109375" style="158" customWidth="1"/>
+    <col min="5879" max="5881" width="7.28515625" style="158" customWidth="1"/>
     <col min="5882" max="5882" width="7" style="158" customWidth="1"/>
-    <col min="5883" max="5885" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5886" max="5886" width="10.5546875" style="158" customWidth="1"/>
-    <col min="5887" max="5887" width="7.33203125" style="158" customWidth="1"/>
-    <col min="5888" max="6130" width="9.109375" style="158"/>
-    <col min="6131" max="6131" width="5.6640625" style="158" customWidth="1"/>
-    <col min="6132" max="6133" width="9.109375" style="158"/>
-    <col min="6134" max="6134" width="2.6640625" style="158" customWidth="1"/>
-    <col min="6135" max="6137" width="7.33203125" style="158" customWidth="1"/>
+    <col min="5883" max="5885" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5886" max="5886" width="10.5703125" style="158" customWidth="1"/>
+    <col min="5887" max="5887" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5888" max="6130" width="9.140625" style="158"/>
+    <col min="6131" max="6131" width="5.7109375" style="158" customWidth="1"/>
+    <col min="6132" max="6133" width="9.140625" style="158"/>
+    <col min="6134" max="6134" width="2.7109375" style="158" customWidth="1"/>
+    <col min="6135" max="6137" width="7.28515625" style="158" customWidth="1"/>
     <col min="6138" max="6138" width="7" style="158" customWidth="1"/>
-    <col min="6139" max="6141" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6142" max="6142" width="10.5546875" style="158" customWidth="1"/>
-    <col min="6143" max="6143" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6144" max="6386" width="9.109375" style="158"/>
-    <col min="6387" max="6387" width="5.6640625" style="158" customWidth="1"/>
-    <col min="6388" max="6389" width="9.109375" style="158"/>
-    <col min="6390" max="6390" width="2.6640625" style="158" customWidth="1"/>
-    <col min="6391" max="6393" width="7.33203125" style="158" customWidth="1"/>
+    <col min="6139" max="6141" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6142" max="6142" width="10.5703125" style="158" customWidth="1"/>
+    <col min="6143" max="6143" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6144" max="6386" width="9.140625" style="158"/>
+    <col min="6387" max="6387" width="5.7109375" style="158" customWidth="1"/>
+    <col min="6388" max="6389" width="9.140625" style="158"/>
+    <col min="6390" max="6390" width="2.7109375" style="158" customWidth="1"/>
+    <col min="6391" max="6393" width="7.28515625" style="158" customWidth="1"/>
     <col min="6394" max="6394" width="7" style="158" customWidth="1"/>
-    <col min="6395" max="6397" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6398" max="6398" width="10.5546875" style="158" customWidth="1"/>
-    <col min="6399" max="6399" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6400" max="6642" width="9.109375" style="158"/>
-    <col min="6643" max="6643" width="5.6640625" style="158" customWidth="1"/>
-    <col min="6644" max="6645" width="9.109375" style="158"/>
-    <col min="6646" max="6646" width="2.6640625" style="158" customWidth="1"/>
-    <col min="6647" max="6649" width="7.33203125" style="158" customWidth="1"/>
+    <col min="6395" max="6397" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6398" max="6398" width="10.5703125" style="158" customWidth="1"/>
+    <col min="6399" max="6399" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6400" max="6642" width="9.140625" style="158"/>
+    <col min="6643" max="6643" width="5.7109375" style="158" customWidth="1"/>
+    <col min="6644" max="6645" width="9.140625" style="158"/>
+    <col min="6646" max="6646" width="2.7109375" style="158" customWidth="1"/>
+    <col min="6647" max="6649" width="7.28515625" style="158" customWidth="1"/>
     <col min="6650" max="6650" width="7" style="158" customWidth="1"/>
-    <col min="6651" max="6653" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6654" max="6654" width="10.5546875" style="158" customWidth="1"/>
-    <col min="6655" max="6655" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6656" max="6898" width="9.109375" style="158"/>
-    <col min="6899" max="6899" width="5.6640625" style="158" customWidth="1"/>
-    <col min="6900" max="6901" width="9.109375" style="158"/>
-    <col min="6902" max="6902" width="2.6640625" style="158" customWidth="1"/>
-    <col min="6903" max="6905" width="7.33203125" style="158" customWidth="1"/>
+    <col min="6651" max="6653" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6654" max="6654" width="10.5703125" style="158" customWidth="1"/>
+    <col min="6655" max="6655" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6656" max="6898" width="9.140625" style="158"/>
+    <col min="6899" max="6899" width="5.7109375" style="158" customWidth="1"/>
+    <col min="6900" max="6901" width="9.140625" style="158"/>
+    <col min="6902" max="6902" width="2.7109375" style="158" customWidth="1"/>
+    <col min="6903" max="6905" width="7.28515625" style="158" customWidth="1"/>
     <col min="6906" max="6906" width="7" style="158" customWidth="1"/>
-    <col min="6907" max="6909" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6910" max="6910" width="10.5546875" style="158" customWidth="1"/>
-    <col min="6911" max="6911" width="7.33203125" style="158" customWidth="1"/>
-    <col min="6912" max="7154" width="9.109375" style="158"/>
-    <col min="7155" max="7155" width="5.6640625" style="158" customWidth="1"/>
-    <col min="7156" max="7157" width="9.109375" style="158"/>
-    <col min="7158" max="7158" width="2.6640625" style="158" customWidth="1"/>
-    <col min="7159" max="7161" width="7.33203125" style="158" customWidth="1"/>
+    <col min="6907" max="6909" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6910" max="6910" width="10.5703125" style="158" customWidth="1"/>
+    <col min="6911" max="6911" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6912" max="7154" width="9.140625" style="158"/>
+    <col min="7155" max="7155" width="5.7109375" style="158" customWidth="1"/>
+    <col min="7156" max="7157" width="9.140625" style="158"/>
+    <col min="7158" max="7158" width="2.7109375" style="158" customWidth="1"/>
+    <col min="7159" max="7161" width="7.28515625" style="158" customWidth="1"/>
     <col min="7162" max="7162" width="7" style="158" customWidth="1"/>
-    <col min="7163" max="7165" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7166" max="7166" width="10.5546875" style="158" customWidth="1"/>
-    <col min="7167" max="7167" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7168" max="7410" width="9.109375" style="158"/>
-    <col min="7411" max="7411" width="5.6640625" style="158" customWidth="1"/>
-    <col min="7412" max="7413" width="9.109375" style="158"/>
-    <col min="7414" max="7414" width="2.6640625" style="158" customWidth="1"/>
-    <col min="7415" max="7417" width="7.33203125" style="158" customWidth="1"/>
+    <col min="7163" max="7165" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7166" max="7166" width="10.5703125" style="158" customWidth="1"/>
+    <col min="7167" max="7167" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7168" max="7410" width="9.140625" style="158"/>
+    <col min="7411" max="7411" width="5.7109375" style="158" customWidth="1"/>
+    <col min="7412" max="7413" width="9.140625" style="158"/>
+    <col min="7414" max="7414" width="2.7109375" style="158" customWidth="1"/>
+    <col min="7415" max="7417" width="7.28515625" style="158" customWidth="1"/>
     <col min="7418" max="7418" width="7" style="158" customWidth="1"/>
-    <col min="7419" max="7421" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7422" max="7422" width="10.5546875" style="158" customWidth="1"/>
-    <col min="7423" max="7423" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7424" max="7666" width="9.109375" style="158"/>
-    <col min="7667" max="7667" width="5.6640625" style="158" customWidth="1"/>
-    <col min="7668" max="7669" width="9.109375" style="158"/>
-    <col min="7670" max="7670" width="2.6640625" style="158" customWidth="1"/>
-    <col min="7671" max="7673" width="7.33203125" style="158" customWidth="1"/>
+    <col min="7419" max="7421" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7422" max="7422" width="10.5703125" style="158" customWidth="1"/>
+    <col min="7423" max="7423" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7424" max="7666" width="9.140625" style="158"/>
+    <col min="7667" max="7667" width="5.7109375" style="158" customWidth="1"/>
+    <col min="7668" max="7669" width="9.140625" style="158"/>
+    <col min="7670" max="7670" width="2.7109375" style="158" customWidth="1"/>
+    <col min="7671" max="7673" width="7.28515625" style="158" customWidth="1"/>
     <col min="7674" max="7674" width="7" style="158" customWidth="1"/>
-    <col min="7675" max="7677" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7678" max="7678" width="10.5546875" style="158" customWidth="1"/>
-    <col min="7679" max="7679" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7680" max="7922" width="9.109375" style="158"/>
-    <col min="7923" max="7923" width="5.6640625" style="158" customWidth="1"/>
-    <col min="7924" max="7925" width="9.109375" style="158"/>
-    <col min="7926" max="7926" width="2.6640625" style="158" customWidth="1"/>
-    <col min="7927" max="7929" width="7.33203125" style="158" customWidth="1"/>
+    <col min="7675" max="7677" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7678" max="7678" width="10.5703125" style="158" customWidth="1"/>
+    <col min="7679" max="7679" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7680" max="7922" width="9.140625" style="158"/>
+    <col min="7923" max="7923" width="5.7109375" style="158" customWidth="1"/>
+    <col min="7924" max="7925" width="9.140625" style="158"/>
+    <col min="7926" max="7926" width="2.7109375" style="158" customWidth="1"/>
+    <col min="7927" max="7929" width="7.28515625" style="158" customWidth="1"/>
     <col min="7930" max="7930" width="7" style="158" customWidth="1"/>
-    <col min="7931" max="7933" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7934" max="7934" width="10.5546875" style="158" customWidth="1"/>
-    <col min="7935" max="7935" width="7.33203125" style="158" customWidth="1"/>
-    <col min="7936" max="8178" width="9.109375" style="158"/>
-    <col min="8179" max="8179" width="5.6640625" style="158" customWidth="1"/>
-    <col min="8180" max="8181" width="9.109375" style="158"/>
-    <col min="8182" max="8182" width="2.6640625" style="158" customWidth="1"/>
-    <col min="8183" max="8185" width="7.33203125" style="158" customWidth="1"/>
+    <col min="7931" max="7933" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7934" max="7934" width="10.5703125" style="158" customWidth="1"/>
+    <col min="7935" max="7935" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7936" max="8178" width="9.140625" style="158"/>
+    <col min="8179" max="8179" width="5.7109375" style="158" customWidth="1"/>
+    <col min="8180" max="8181" width="9.140625" style="158"/>
+    <col min="8182" max="8182" width="2.7109375" style="158" customWidth="1"/>
+    <col min="8183" max="8185" width="7.28515625" style="158" customWidth="1"/>
     <col min="8186" max="8186" width="7" style="158" customWidth="1"/>
-    <col min="8187" max="8189" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8190" max="8190" width="10.5546875" style="158" customWidth="1"/>
-    <col min="8191" max="8191" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8192" max="8434" width="9.109375" style="158"/>
-    <col min="8435" max="8435" width="5.6640625" style="158" customWidth="1"/>
-    <col min="8436" max="8437" width="9.109375" style="158"/>
-    <col min="8438" max="8438" width="2.6640625" style="158" customWidth="1"/>
-    <col min="8439" max="8441" width="7.33203125" style="158" customWidth="1"/>
+    <col min="8187" max="8189" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8190" max="8190" width="10.5703125" style="158" customWidth="1"/>
+    <col min="8191" max="8191" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8192" max="8434" width="9.140625" style="158"/>
+    <col min="8435" max="8435" width="5.7109375" style="158" customWidth="1"/>
+    <col min="8436" max="8437" width="9.140625" style="158"/>
+    <col min="8438" max="8438" width="2.7109375" style="158" customWidth="1"/>
+    <col min="8439" max="8441" width="7.28515625" style="158" customWidth="1"/>
     <col min="8442" max="8442" width="7" style="158" customWidth="1"/>
-    <col min="8443" max="8445" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8446" max="8446" width="10.5546875" style="158" customWidth="1"/>
-    <col min="8447" max="8447" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8448" max="8690" width="9.109375" style="158"/>
-    <col min="8691" max="8691" width="5.6640625" style="158" customWidth="1"/>
-    <col min="8692" max="8693" width="9.109375" style="158"/>
-    <col min="8694" max="8694" width="2.6640625" style="158" customWidth="1"/>
-    <col min="8695" max="8697" width="7.33203125" style="158" customWidth="1"/>
+    <col min="8443" max="8445" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8446" max="8446" width="10.5703125" style="158" customWidth="1"/>
+    <col min="8447" max="8447" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8448" max="8690" width="9.140625" style="158"/>
+    <col min="8691" max="8691" width="5.7109375" style="158" customWidth="1"/>
+    <col min="8692" max="8693" width="9.140625" style="158"/>
+    <col min="8694" max="8694" width="2.7109375" style="158" customWidth="1"/>
+    <col min="8695" max="8697" width="7.28515625" style="158" customWidth="1"/>
     <col min="8698" max="8698" width="7" style="158" customWidth="1"/>
-    <col min="8699" max="8701" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8702" max="8702" width="10.5546875" style="158" customWidth="1"/>
-    <col min="8703" max="8703" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8704" max="8946" width="9.109375" style="158"/>
-    <col min="8947" max="8947" width="5.6640625" style="158" customWidth="1"/>
-    <col min="8948" max="8949" width="9.109375" style="158"/>
-    <col min="8950" max="8950" width="2.6640625" style="158" customWidth="1"/>
-    <col min="8951" max="8953" width="7.33203125" style="158" customWidth="1"/>
+    <col min="8699" max="8701" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8702" max="8702" width="10.5703125" style="158" customWidth="1"/>
+    <col min="8703" max="8703" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8704" max="8946" width="9.140625" style="158"/>
+    <col min="8947" max="8947" width="5.7109375" style="158" customWidth="1"/>
+    <col min="8948" max="8949" width="9.140625" style="158"/>
+    <col min="8950" max="8950" width="2.7109375" style="158" customWidth="1"/>
+    <col min="8951" max="8953" width="7.28515625" style="158" customWidth="1"/>
     <col min="8954" max="8954" width="7" style="158" customWidth="1"/>
-    <col min="8955" max="8957" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8958" max="8958" width="10.5546875" style="158" customWidth="1"/>
-    <col min="8959" max="8959" width="7.33203125" style="158" customWidth="1"/>
-    <col min="8960" max="9202" width="9.109375" style="158"/>
-    <col min="9203" max="9203" width="5.6640625" style="158" customWidth="1"/>
-    <col min="9204" max="9205" width="9.109375" style="158"/>
-    <col min="9206" max="9206" width="2.6640625" style="158" customWidth="1"/>
-    <col min="9207" max="9209" width="7.33203125" style="158" customWidth="1"/>
+    <col min="8955" max="8957" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8958" max="8958" width="10.5703125" style="158" customWidth="1"/>
+    <col min="8959" max="8959" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8960" max="9202" width="9.140625" style="158"/>
+    <col min="9203" max="9203" width="5.7109375" style="158" customWidth="1"/>
+    <col min="9204" max="9205" width="9.140625" style="158"/>
+    <col min="9206" max="9206" width="2.7109375" style="158" customWidth="1"/>
+    <col min="9207" max="9209" width="7.28515625" style="158" customWidth="1"/>
     <col min="9210" max="9210" width="7" style="158" customWidth="1"/>
-    <col min="9211" max="9213" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9214" max="9214" width="10.5546875" style="158" customWidth="1"/>
-    <col min="9215" max="9215" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9216" max="9458" width="9.109375" style="158"/>
-    <col min="9459" max="9459" width="5.6640625" style="158" customWidth="1"/>
-    <col min="9460" max="9461" width="9.109375" style="158"/>
-    <col min="9462" max="9462" width="2.6640625" style="158" customWidth="1"/>
-    <col min="9463" max="9465" width="7.33203125" style="158" customWidth="1"/>
+    <col min="9211" max="9213" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9214" max="9214" width="10.5703125" style="158" customWidth="1"/>
+    <col min="9215" max="9215" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9216" max="9458" width="9.140625" style="158"/>
+    <col min="9459" max="9459" width="5.7109375" style="158" customWidth="1"/>
+    <col min="9460" max="9461" width="9.140625" style="158"/>
+    <col min="9462" max="9462" width="2.7109375" style="158" customWidth="1"/>
+    <col min="9463" max="9465" width="7.28515625" style="158" customWidth="1"/>
     <col min="9466" max="9466" width="7" style="158" customWidth="1"/>
-    <col min="9467" max="9469" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9470" max="9470" width="10.5546875" style="158" customWidth="1"/>
-    <col min="9471" max="9471" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9472" max="9714" width="9.109375" style="158"/>
-    <col min="9715" max="9715" width="5.6640625" style="158" customWidth="1"/>
-    <col min="9716" max="9717" width="9.109375" style="158"/>
-    <col min="9718" max="9718" width="2.6640625" style="158" customWidth="1"/>
-    <col min="9719" max="9721" width="7.33203125" style="158" customWidth="1"/>
+    <col min="9467" max="9469" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9470" max="9470" width="10.5703125" style="158" customWidth="1"/>
+    <col min="9471" max="9471" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9472" max="9714" width="9.140625" style="158"/>
+    <col min="9715" max="9715" width="5.7109375" style="158" customWidth="1"/>
+    <col min="9716" max="9717" width="9.140625" style="158"/>
+    <col min="9718" max="9718" width="2.7109375" style="158" customWidth="1"/>
+    <col min="9719" max="9721" width="7.28515625" style="158" customWidth="1"/>
     <col min="9722" max="9722" width="7" style="158" customWidth="1"/>
-    <col min="9723" max="9725" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9726" max="9726" width="10.5546875" style="158" customWidth="1"/>
-    <col min="9727" max="9727" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9728" max="9970" width="9.109375" style="158"/>
-    <col min="9971" max="9971" width="5.6640625" style="158" customWidth="1"/>
-    <col min="9972" max="9973" width="9.109375" style="158"/>
-    <col min="9974" max="9974" width="2.6640625" style="158" customWidth="1"/>
-    <col min="9975" max="9977" width="7.33203125" style="158" customWidth="1"/>
+    <col min="9723" max="9725" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9726" max="9726" width="10.5703125" style="158" customWidth="1"/>
+    <col min="9727" max="9727" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9728" max="9970" width="9.140625" style="158"/>
+    <col min="9971" max="9971" width="5.7109375" style="158" customWidth="1"/>
+    <col min="9972" max="9973" width="9.140625" style="158"/>
+    <col min="9974" max="9974" width="2.7109375" style="158" customWidth="1"/>
+    <col min="9975" max="9977" width="7.28515625" style="158" customWidth="1"/>
     <col min="9978" max="9978" width="7" style="158" customWidth="1"/>
-    <col min="9979" max="9981" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9982" max="9982" width="10.5546875" style="158" customWidth="1"/>
-    <col min="9983" max="9983" width="7.33203125" style="158" customWidth="1"/>
-    <col min="9984" max="10226" width="9.109375" style="158"/>
-    <col min="10227" max="10227" width="5.6640625" style="158" customWidth="1"/>
-    <col min="10228" max="10229" width="9.109375" style="158"/>
-    <col min="10230" max="10230" width="2.6640625" style="158" customWidth="1"/>
-    <col min="10231" max="10233" width="7.33203125" style="158" customWidth="1"/>
+    <col min="9979" max="9981" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9982" max="9982" width="10.5703125" style="158" customWidth="1"/>
+    <col min="9983" max="9983" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9984" max="10226" width="9.140625" style="158"/>
+    <col min="10227" max="10227" width="5.7109375" style="158" customWidth="1"/>
+    <col min="10228" max="10229" width="9.140625" style="158"/>
+    <col min="10230" max="10230" width="2.7109375" style="158" customWidth="1"/>
+    <col min="10231" max="10233" width="7.28515625" style="158" customWidth="1"/>
     <col min="10234" max="10234" width="7" style="158" customWidth="1"/>
-    <col min="10235" max="10237" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10238" max="10238" width="10.5546875" style="158" customWidth="1"/>
-    <col min="10239" max="10239" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10240" max="10482" width="9.109375" style="158"/>
-    <col min="10483" max="10483" width="5.6640625" style="158" customWidth="1"/>
-    <col min="10484" max="10485" width="9.109375" style="158"/>
-    <col min="10486" max="10486" width="2.6640625" style="158" customWidth="1"/>
-    <col min="10487" max="10489" width="7.33203125" style="158" customWidth="1"/>
+    <col min="10235" max="10237" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10238" max="10238" width="10.5703125" style="158" customWidth="1"/>
+    <col min="10239" max="10239" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10240" max="10482" width="9.140625" style="158"/>
+    <col min="10483" max="10483" width="5.7109375" style="158" customWidth="1"/>
+    <col min="10484" max="10485" width="9.140625" style="158"/>
+    <col min="10486" max="10486" width="2.7109375" style="158" customWidth="1"/>
+    <col min="10487" max="10489" width="7.28515625" style="158" customWidth="1"/>
     <col min="10490" max="10490" width="7" style="158" customWidth="1"/>
-    <col min="10491" max="10493" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10494" max="10494" width="10.5546875" style="158" customWidth="1"/>
-    <col min="10495" max="10495" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10496" max="10738" width="9.109375" style="158"/>
-    <col min="10739" max="10739" width="5.6640625" style="158" customWidth="1"/>
-    <col min="10740" max="10741" width="9.109375" style="158"/>
-    <col min="10742" max="10742" width="2.6640625" style="158" customWidth="1"/>
-    <col min="10743" max="10745" width="7.33203125" style="158" customWidth="1"/>
+    <col min="10491" max="10493" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10494" max="10494" width="10.5703125" style="158" customWidth="1"/>
+    <col min="10495" max="10495" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10496" max="10738" width="9.140625" style="158"/>
+    <col min="10739" max="10739" width="5.7109375" style="158" customWidth="1"/>
+    <col min="10740" max="10741" width="9.140625" style="158"/>
+    <col min="10742" max="10742" width="2.7109375" style="158" customWidth="1"/>
+    <col min="10743" max="10745" width="7.28515625" style="158" customWidth="1"/>
     <col min="10746" max="10746" width="7" style="158" customWidth="1"/>
-    <col min="10747" max="10749" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10750" max="10750" width="10.5546875" style="158" customWidth="1"/>
-    <col min="10751" max="10751" width="7.33203125" style="158" customWidth="1"/>
-    <col min="10752" max="10994" width="9.109375" style="158"/>
-    <col min="10995" max="10995" width="5.6640625" style="158" customWidth="1"/>
-    <col min="10996" max="10997" width="9.109375" style="158"/>
-    <col min="10998" max="10998" width="2.6640625" style="158" customWidth="1"/>
-    <col min="10999" max="11001" width="7.33203125" style="158" customWidth="1"/>
+    <col min="10747" max="10749" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10750" max="10750" width="10.5703125" style="158" customWidth="1"/>
+    <col min="10751" max="10751" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10752" max="10994" width="9.140625" style="158"/>
+    <col min="10995" max="10995" width="5.7109375" style="158" customWidth="1"/>
+    <col min="10996" max="10997" width="9.140625" style="158"/>
+    <col min="10998" max="10998" width="2.7109375" style="158" customWidth="1"/>
+    <col min="10999" max="11001" width="7.28515625" style="158" customWidth="1"/>
     <col min="11002" max="11002" width="7" style="158" customWidth="1"/>
-    <col min="11003" max="11005" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11006" max="11006" width="10.5546875" style="158" customWidth="1"/>
-    <col min="11007" max="11007" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11008" max="11250" width="9.109375" style="158"/>
-    <col min="11251" max="11251" width="5.6640625" style="158" customWidth="1"/>
-    <col min="11252" max="11253" width="9.109375" style="158"/>
-    <col min="11254" max="11254" width="2.6640625" style="158" customWidth="1"/>
-    <col min="11255" max="11257" width="7.33203125" style="158" customWidth="1"/>
+    <col min="11003" max="11005" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11006" max="11006" width="10.5703125" style="158" customWidth="1"/>
+    <col min="11007" max="11007" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11008" max="11250" width="9.140625" style="158"/>
+    <col min="11251" max="11251" width="5.7109375" style="158" customWidth="1"/>
+    <col min="11252" max="11253" width="9.140625" style="158"/>
+    <col min="11254" max="11254" width="2.7109375" style="158" customWidth="1"/>
+    <col min="11255" max="11257" width="7.28515625" style="158" customWidth="1"/>
     <col min="11258" max="11258" width="7" style="158" customWidth="1"/>
-    <col min="11259" max="11261" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11262" max="11262" width="10.5546875" style="158" customWidth="1"/>
-    <col min="11263" max="11263" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11264" max="11506" width="9.109375" style="158"/>
-    <col min="11507" max="11507" width="5.6640625" style="158" customWidth="1"/>
-    <col min="11508" max="11509" width="9.109375" style="158"/>
-    <col min="11510" max="11510" width="2.6640625" style="158" customWidth="1"/>
-    <col min="11511" max="11513" width="7.33203125" style="158" customWidth="1"/>
+    <col min="11259" max="11261" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11262" max="11262" width="10.5703125" style="158" customWidth="1"/>
+    <col min="11263" max="11263" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11264" max="11506" width="9.140625" style="158"/>
+    <col min="11507" max="11507" width="5.7109375" style="158" customWidth="1"/>
+    <col min="11508" max="11509" width="9.140625" style="158"/>
+    <col min="11510" max="11510" width="2.7109375" style="158" customWidth="1"/>
+    <col min="11511" max="11513" width="7.28515625" style="158" customWidth="1"/>
     <col min="11514" max="11514" width="7" style="158" customWidth="1"/>
-    <col min="11515" max="11517" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11518" max="11518" width="10.5546875" style="158" customWidth="1"/>
-    <col min="11519" max="11519" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11520" max="11762" width="9.109375" style="158"/>
-    <col min="11763" max="11763" width="5.6640625" style="158" customWidth="1"/>
-    <col min="11764" max="11765" width="9.109375" style="158"/>
-    <col min="11766" max="11766" width="2.6640625" style="158" customWidth="1"/>
-    <col min="11767" max="11769" width="7.33203125" style="158" customWidth="1"/>
+    <col min="11515" max="11517" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11518" max="11518" width="10.5703125" style="158" customWidth="1"/>
+    <col min="11519" max="11519" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11520" max="11762" width="9.140625" style="158"/>
+    <col min="11763" max="11763" width="5.7109375" style="158" customWidth="1"/>
+    <col min="11764" max="11765" width="9.140625" style="158"/>
+    <col min="11766" max="11766" width="2.7109375" style="158" customWidth="1"/>
+    <col min="11767" max="11769" width="7.28515625" style="158" customWidth="1"/>
     <col min="11770" max="11770" width="7" style="158" customWidth="1"/>
-    <col min="11771" max="11773" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11774" max="11774" width="10.5546875" style="158" customWidth="1"/>
-    <col min="11775" max="11775" width="7.33203125" style="158" customWidth="1"/>
-    <col min="11776" max="12018" width="9.109375" style="158"/>
-    <col min="12019" max="12019" width="5.6640625" style="158" customWidth="1"/>
-    <col min="12020" max="12021" width="9.109375" style="158"/>
-    <col min="12022" max="12022" width="2.6640625" style="158" customWidth="1"/>
-    <col min="12023" max="12025" width="7.33203125" style="158" customWidth="1"/>
+    <col min="11771" max="11773" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11774" max="11774" width="10.5703125" style="158" customWidth="1"/>
+    <col min="11775" max="11775" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11776" max="12018" width="9.140625" style="158"/>
+    <col min="12019" max="12019" width="5.7109375" style="158" customWidth="1"/>
+    <col min="12020" max="12021" width="9.140625" style="158"/>
+    <col min="12022" max="12022" width="2.7109375" style="158" customWidth="1"/>
+    <col min="12023" max="12025" width="7.28515625" style="158" customWidth="1"/>
     <col min="12026" max="12026" width="7" style="158" customWidth="1"/>
-    <col min="12027" max="12029" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12030" max="12030" width="10.5546875" style="158" customWidth="1"/>
-    <col min="12031" max="12031" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12032" max="12274" width="9.109375" style="158"/>
-    <col min="12275" max="12275" width="5.6640625" style="158" customWidth="1"/>
-    <col min="12276" max="12277" width="9.109375" style="158"/>
-    <col min="12278" max="12278" width="2.6640625" style="158" customWidth="1"/>
-    <col min="12279" max="12281" width="7.33203125" style="158" customWidth="1"/>
+    <col min="12027" max="12029" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12030" max="12030" width="10.5703125" style="158" customWidth="1"/>
+    <col min="12031" max="12031" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12032" max="12274" width="9.140625" style="158"/>
+    <col min="12275" max="12275" width="5.7109375" style="158" customWidth="1"/>
+    <col min="12276" max="12277" width="9.140625" style="158"/>
+    <col min="12278" max="12278" width="2.7109375" style="158" customWidth="1"/>
+    <col min="12279" max="12281" width="7.28515625" style="158" customWidth="1"/>
     <col min="12282" max="12282" width="7" style="158" customWidth="1"/>
-    <col min="12283" max="12285" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12286" max="12286" width="10.5546875" style="158" customWidth="1"/>
-    <col min="12287" max="12287" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12288" max="12530" width="9.109375" style="158"/>
-    <col min="12531" max="12531" width="5.6640625" style="158" customWidth="1"/>
-    <col min="12532" max="12533" width="9.109375" style="158"/>
-    <col min="12534" max="12534" width="2.6640625" style="158" customWidth="1"/>
-    <col min="12535" max="12537" width="7.33203125" style="158" customWidth="1"/>
+    <col min="12283" max="12285" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12286" max="12286" width="10.5703125" style="158" customWidth="1"/>
+    <col min="12287" max="12287" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12288" max="12530" width="9.140625" style="158"/>
+    <col min="12531" max="12531" width="5.7109375" style="158" customWidth="1"/>
+    <col min="12532" max="12533" width="9.140625" style="158"/>
+    <col min="12534" max="12534" width="2.7109375" style="158" customWidth="1"/>
+    <col min="12535" max="12537" width="7.28515625" style="158" customWidth="1"/>
     <col min="12538" max="12538" width="7" style="158" customWidth="1"/>
-    <col min="12539" max="12541" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12542" max="12542" width="10.5546875" style="158" customWidth="1"/>
-    <col min="12543" max="12543" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12544" max="12786" width="9.109375" style="158"/>
-    <col min="12787" max="12787" width="5.6640625" style="158" customWidth="1"/>
-    <col min="12788" max="12789" width="9.109375" style="158"/>
-    <col min="12790" max="12790" width="2.6640625" style="158" customWidth="1"/>
-    <col min="12791" max="12793" width="7.33203125" style="158" customWidth="1"/>
+    <col min="12539" max="12541" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12542" max="12542" width="10.5703125" style="158" customWidth="1"/>
+    <col min="12543" max="12543" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12544" max="12786" width="9.140625" style="158"/>
+    <col min="12787" max="12787" width="5.7109375" style="158" customWidth="1"/>
+    <col min="12788" max="12789" width="9.140625" style="158"/>
+    <col min="12790" max="12790" width="2.7109375" style="158" customWidth="1"/>
+    <col min="12791" max="12793" width="7.28515625" style="158" customWidth="1"/>
     <col min="12794" max="12794" width="7" style="158" customWidth="1"/>
-    <col min="12795" max="12797" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12798" max="12798" width="10.5546875" style="158" customWidth="1"/>
-    <col min="12799" max="12799" width="7.33203125" style="158" customWidth="1"/>
-    <col min="12800" max="13042" width="9.109375" style="158"/>
-    <col min="13043" max="13043" width="5.6640625" style="158" customWidth="1"/>
-    <col min="13044" max="13045" width="9.109375" style="158"/>
-    <col min="13046" max="13046" width="2.6640625" style="158" customWidth="1"/>
-    <col min="13047" max="13049" width="7.33203125" style="158" customWidth="1"/>
+    <col min="12795" max="12797" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12798" max="12798" width="10.5703125" style="158" customWidth="1"/>
+    <col min="12799" max="12799" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12800" max="13042" width="9.140625" style="158"/>
+    <col min="13043" max="13043" width="5.7109375" style="158" customWidth="1"/>
+    <col min="13044" max="13045" width="9.140625" style="158"/>
+    <col min="13046" max="13046" width="2.7109375" style="158" customWidth="1"/>
+    <col min="13047" max="13049" width="7.28515625" style="158" customWidth="1"/>
     <col min="13050" max="13050" width="7" style="158" customWidth="1"/>
-    <col min="13051" max="13053" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13054" max="13054" width="10.5546875" style="158" customWidth="1"/>
-    <col min="13055" max="13055" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13056" max="13298" width="9.109375" style="158"/>
-    <col min="13299" max="13299" width="5.6640625" style="158" customWidth="1"/>
-    <col min="13300" max="13301" width="9.109375" style="158"/>
-    <col min="13302" max="13302" width="2.6640625" style="158" customWidth="1"/>
-    <col min="13303" max="13305" width="7.33203125" style="158" customWidth="1"/>
+    <col min="13051" max="13053" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13054" max="13054" width="10.5703125" style="158" customWidth="1"/>
+    <col min="13055" max="13055" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13056" max="13298" width="9.140625" style="158"/>
+    <col min="13299" max="13299" width="5.7109375" style="158" customWidth="1"/>
+    <col min="13300" max="13301" width="9.140625" style="158"/>
+    <col min="13302" max="13302" width="2.7109375" style="158" customWidth="1"/>
+    <col min="13303" max="13305" width="7.28515625" style="158" customWidth="1"/>
     <col min="13306" max="13306" width="7" style="158" customWidth="1"/>
-    <col min="13307" max="13309" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13310" max="13310" width="10.5546875" style="158" customWidth="1"/>
-    <col min="13311" max="13311" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13312" max="13554" width="9.109375" style="158"/>
-    <col min="13555" max="13555" width="5.6640625" style="158" customWidth="1"/>
-    <col min="13556" max="13557" width="9.109375" style="158"/>
-    <col min="13558" max="13558" width="2.6640625" style="158" customWidth="1"/>
-    <col min="13559" max="13561" width="7.33203125" style="158" customWidth="1"/>
+    <col min="13307" max="13309" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13310" max="13310" width="10.5703125" style="158" customWidth="1"/>
+    <col min="13311" max="13311" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13312" max="13554" width="9.140625" style="158"/>
+    <col min="13555" max="13555" width="5.7109375" style="158" customWidth="1"/>
+    <col min="13556" max="13557" width="9.140625" style="158"/>
+    <col min="13558" max="13558" width="2.7109375" style="158" customWidth="1"/>
+    <col min="13559" max="13561" width="7.28515625" style="158" customWidth="1"/>
     <col min="13562" max="13562" width="7" style="158" customWidth="1"/>
-    <col min="13563" max="13565" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13566" max="13566" width="10.5546875" style="158" customWidth="1"/>
-    <col min="13567" max="13567" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13568" max="13810" width="9.109375" style="158"/>
-    <col min="13811" max="13811" width="5.6640625" style="158" customWidth="1"/>
-    <col min="13812" max="13813" width="9.109375" style="158"/>
-    <col min="13814" max="13814" width="2.6640625" style="158" customWidth="1"/>
-    <col min="13815" max="13817" width="7.33203125" style="158" customWidth="1"/>
+    <col min="13563" max="13565" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13566" max="13566" width="10.5703125" style="158" customWidth="1"/>
+    <col min="13567" max="13567" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13568" max="13810" width="9.140625" style="158"/>
+    <col min="13811" max="13811" width="5.7109375" style="158" customWidth="1"/>
+    <col min="13812" max="13813" width="9.140625" style="158"/>
+    <col min="13814" max="13814" width="2.7109375" style="158" customWidth="1"/>
+    <col min="13815" max="13817" width="7.28515625" style="158" customWidth="1"/>
     <col min="13818" max="13818" width="7" style="158" customWidth="1"/>
-    <col min="13819" max="13821" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13822" max="13822" width="10.5546875" style="158" customWidth="1"/>
-    <col min="13823" max="13823" width="7.33203125" style="158" customWidth="1"/>
-    <col min="13824" max="14066" width="9.109375" style="158"/>
-    <col min="14067" max="14067" width="5.6640625" style="158" customWidth="1"/>
-    <col min="14068" max="14069" width="9.109375" style="158"/>
-    <col min="14070" max="14070" width="2.6640625" style="158" customWidth="1"/>
-    <col min="14071" max="14073" width="7.33203125" style="158" customWidth="1"/>
+    <col min="13819" max="13821" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13822" max="13822" width="10.5703125" style="158" customWidth="1"/>
+    <col min="13823" max="13823" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13824" max="14066" width="9.140625" style="158"/>
+    <col min="14067" max="14067" width="5.7109375" style="158" customWidth="1"/>
+    <col min="14068" max="14069" width="9.140625" style="158"/>
+    <col min="14070" max="14070" width="2.7109375" style="158" customWidth="1"/>
+    <col min="14071" max="14073" width="7.28515625" style="158" customWidth="1"/>
     <col min="14074" max="14074" width="7" style="158" customWidth="1"/>
-    <col min="14075" max="14077" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14078" max="14078" width="10.5546875" style="158" customWidth="1"/>
-    <col min="14079" max="14079" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14080" max="14322" width="9.109375" style="158"/>
-    <col min="14323" max="14323" width="5.6640625" style="158" customWidth="1"/>
-    <col min="14324" max="14325" width="9.109375" style="158"/>
-    <col min="14326" max="14326" width="2.6640625" style="158" customWidth="1"/>
-    <col min="14327" max="14329" width="7.33203125" style="158" customWidth="1"/>
+    <col min="14075" max="14077" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14078" max="14078" width="10.5703125" style="158" customWidth="1"/>
+    <col min="14079" max="14079" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14080" max="14322" width="9.140625" style="158"/>
+    <col min="14323" max="14323" width="5.7109375" style="158" customWidth="1"/>
+    <col min="14324" max="14325" width="9.140625" style="158"/>
+    <col min="14326" max="14326" width="2.7109375" style="158" customWidth="1"/>
+    <col min="14327" max="14329" width="7.28515625" style="158" customWidth="1"/>
     <col min="14330" max="14330" width="7" style="158" customWidth="1"/>
-    <col min="14331" max="14333" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14334" max="14334" width="10.5546875" style="158" customWidth="1"/>
-    <col min="14335" max="14335" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14336" max="14578" width="9.109375" style="158"/>
-    <col min="14579" max="14579" width="5.6640625" style="158" customWidth="1"/>
-    <col min="14580" max="14581" width="9.109375" style="158"/>
-    <col min="14582" max="14582" width="2.6640625" style="158" customWidth="1"/>
-    <col min="14583" max="14585" width="7.33203125" style="158" customWidth="1"/>
+    <col min="14331" max="14333" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14334" max="14334" width="10.5703125" style="158" customWidth="1"/>
+    <col min="14335" max="14335" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14336" max="14578" width="9.140625" style="158"/>
+    <col min="14579" max="14579" width="5.7109375" style="158" customWidth="1"/>
+    <col min="14580" max="14581" width="9.140625" style="158"/>
+    <col min="14582" max="14582" width="2.7109375" style="158" customWidth="1"/>
+    <col min="14583" max="14585" width="7.28515625" style="158" customWidth="1"/>
     <col min="14586" max="14586" width="7" style="158" customWidth="1"/>
-    <col min="14587" max="14589" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14590" max="14590" width="10.5546875" style="158" customWidth="1"/>
-    <col min="14591" max="14591" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14592" max="14834" width="9.109375" style="158"/>
-    <col min="14835" max="14835" width="5.6640625" style="158" customWidth="1"/>
-    <col min="14836" max="14837" width="9.109375" style="158"/>
-    <col min="14838" max="14838" width="2.6640625" style="158" customWidth="1"/>
-    <col min="14839" max="14841" width="7.33203125" style="158" customWidth="1"/>
+    <col min="14587" max="14589" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14590" max="14590" width="10.5703125" style="158" customWidth="1"/>
+    <col min="14591" max="14591" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14592" max="14834" width="9.140625" style="158"/>
+    <col min="14835" max="14835" width="5.7109375" style="158" customWidth="1"/>
+    <col min="14836" max="14837" width="9.140625" style="158"/>
+    <col min="14838" max="14838" width="2.7109375" style="158" customWidth="1"/>
+    <col min="14839" max="14841" width="7.28515625" style="158" customWidth="1"/>
     <col min="14842" max="14842" width="7" style="158" customWidth="1"/>
-    <col min="14843" max="14845" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14846" max="14846" width="10.5546875" style="158" customWidth="1"/>
-    <col min="14847" max="14847" width="7.33203125" style="158" customWidth="1"/>
-    <col min="14848" max="15090" width="9.109375" style="158"/>
-    <col min="15091" max="15091" width="5.6640625" style="158" customWidth="1"/>
-    <col min="15092" max="15093" width="9.109375" style="158"/>
-    <col min="15094" max="15094" width="2.6640625" style="158" customWidth="1"/>
-    <col min="15095" max="15097" width="7.33203125" style="158" customWidth="1"/>
+    <col min="14843" max="14845" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14846" max="14846" width="10.5703125" style="158" customWidth="1"/>
+    <col min="14847" max="14847" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14848" max="15090" width="9.140625" style="158"/>
+    <col min="15091" max="15091" width="5.7109375" style="158" customWidth="1"/>
+    <col min="15092" max="15093" width="9.140625" style="158"/>
+    <col min="15094" max="15094" width="2.7109375" style="158" customWidth="1"/>
+    <col min="15095" max="15097" width="7.28515625" style="158" customWidth="1"/>
     <col min="15098" max="15098" width="7" style="158" customWidth="1"/>
-    <col min="15099" max="15101" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15102" max="15102" width="10.5546875" style="158" customWidth="1"/>
-    <col min="15103" max="15103" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15104" max="15346" width="9.109375" style="158"/>
-    <col min="15347" max="15347" width="5.6640625" style="158" customWidth="1"/>
-    <col min="15348" max="15349" width="9.109375" style="158"/>
-    <col min="15350" max="15350" width="2.6640625" style="158" customWidth="1"/>
-    <col min="15351" max="15353" width="7.33203125" style="158" customWidth="1"/>
+    <col min="15099" max="15101" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15102" max="15102" width="10.5703125" style="158" customWidth="1"/>
+    <col min="15103" max="15103" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15104" max="15346" width="9.140625" style="158"/>
+    <col min="15347" max="15347" width="5.7109375" style="158" customWidth="1"/>
+    <col min="15348" max="15349" width="9.140625" style="158"/>
+    <col min="15350" max="15350" width="2.7109375" style="158" customWidth="1"/>
+    <col min="15351" max="15353" width="7.28515625" style="158" customWidth="1"/>
     <col min="15354" max="15354" width="7" style="158" customWidth="1"/>
-    <col min="15355" max="15357" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15358" max="15358" width="10.5546875" style="158" customWidth="1"/>
-    <col min="15359" max="15359" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15360" max="15602" width="9.109375" style="158"/>
-    <col min="15603" max="15603" width="5.6640625" style="158" customWidth="1"/>
-    <col min="15604" max="15605" width="9.109375" style="158"/>
-    <col min="15606" max="15606" width="2.6640625" style="158" customWidth="1"/>
-    <col min="15607" max="15609" width="7.33203125" style="158" customWidth="1"/>
+    <col min="15355" max="15357" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15358" max="15358" width="10.5703125" style="158" customWidth="1"/>
+    <col min="15359" max="15359" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15360" max="15602" width="9.140625" style="158"/>
+    <col min="15603" max="15603" width="5.7109375" style="158" customWidth="1"/>
+    <col min="15604" max="15605" width="9.140625" style="158"/>
+    <col min="15606" max="15606" width="2.7109375" style="158" customWidth="1"/>
+    <col min="15607" max="15609" width="7.28515625" style="158" customWidth="1"/>
     <col min="15610" max="15610" width="7" style="158" customWidth="1"/>
-    <col min="15611" max="15613" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15614" max="15614" width="10.5546875" style="158" customWidth="1"/>
-    <col min="15615" max="15615" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15616" max="15858" width="9.109375" style="158"/>
-    <col min="15859" max="15859" width="5.6640625" style="158" customWidth="1"/>
-    <col min="15860" max="15861" width="9.109375" style="158"/>
-    <col min="15862" max="15862" width="2.6640625" style="158" customWidth="1"/>
-    <col min="15863" max="15865" width="7.33203125" style="158" customWidth="1"/>
+    <col min="15611" max="15613" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15614" max="15614" width="10.5703125" style="158" customWidth="1"/>
+    <col min="15615" max="15615" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15616" max="15858" width="9.140625" style="158"/>
+    <col min="15859" max="15859" width="5.7109375" style="158" customWidth="1"/>
+    <col min="15860" max="15861" width="9.140625" style="158"/>
+    <col min="15862" max="15862" width="2.7109375" style="158" customWidth="1"/>
+    <col min="15863" max="15865" width="7.28515625" style="158" customWidth="1"/>
     <col min="15866" max="15866" width="7" style="158" customWidth="1"/>
-    <col min="15867" max="15869" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15870" max="15870" width="10.5546875" style="158" customWidth="1"/>
-    <col min="15871" max="15871" width="7.33203125" style="158" customWidth="1"/>
-    <col min="15872" max="16114" width="9.109375" style="158"/>
-    <col min="16115" max="16115" width="5.6640625" style="158" customWidth="1"/>
-    <col min="16116" max="16117" width="9.109375" style="158"/>
-    <col min="16118" max="16118" width="2.6640625" style="158" customWidth="1"/>
-    <col min="16119" max="16121" width="7.33203125" style="158" customWidth="1"/>
+    <col min="15867" max="15869" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15870" max="15870" width="10.5703125" style="158" customWidth="1"/>
+    <col min="15871" max="15871" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15872" max="16114" width="9.140625" style="158"/>
+    <col min="16115" max="16115" width="5.7109375" style="158" customWidth="1"/>
+    <col min="16116" max="16117" width="9.140625" style="158"/>
+    <col min="16118" max="16118" width="2.7109375" style="158" customWidth="1"/>
+    <col min="16119" max="16121" width="7.28515625" style="158" customWidth="1"/>
     <col min="16122" max="16122" width="7" style="158" customWidth="1"/>
-    <col min="16123" max="16125" width="7.33203125" style="158" customWidth="1"/>
-    <col min="16126" max="16126" width="10.5546875" style="158" customWidth="1"/>
-    <col min="16127" max="16127" width="7.33203125" style="158" customWidth="1"/>
-    <col min="16128" max="16384" width="9.109375" style="158"/>
+    <col min="16123" max="16125" width="7.28515625" style="158" customWidth="1"/>
+    <col min="16126" max="16126" width="10.5703125" style="158" customWidth="1"/>
+    <col min="16127" max="16127" width="7.28515625" style="158" customWidth="1"/>
+    <col min="16128" max="16384" width="9.140625" style="158"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="422" t="s">
+      <c r="A2" s="452" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="422"/>
-      <c r="C2" s="422"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="422"/>
-      <c r="F2" s="422"/>
-      <c r="G2" s="422"/>
-      <c r="H2" s="422"/>
-      <c r="I2" s="422"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
       <c r="J2" s="186"/>
       <c r="K2" s="186"/>
       <c r="L2" s="186"/>
     </row>
-    <row r="3" spans="1:12" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
@@ -5378,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="G5" s="185"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
@@ -5396,10 +5482,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="G6" s="184"/>
       <c r="H6" s="141"/>
       <c r="I6" s="17" t="s">
@@ -5430,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="G8" s="206"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5448,10 +5534,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="G9" s="206"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -5464,15 +5550,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="G10" s="206"/>
       <c r="H10" s="183"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="418"/>
-      <c r="K10" s="418"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="448"/>
       <c r="L10" s="207"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5499,10 +5585,10 @@
       <c r="C13" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="423" t="s">
+      <c r="D13" s="453" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="424"/>
+      <c r="E13" s="454"/>
       <c r="F13" s="343" t="s">
         <v>183</v>
       </c>
@@ -5515,29 +5601,29 @@
       <c r="I13" s="345" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="425" t="s">
+      <c r="J13" s="457" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="426"/>
+      <c r="K13" s="458"/>
       <c r="L13" s="205"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="452"/>
-      <c r="C14" s="453"/>
-      <c r="D14" s="454"/>
-      <c r="E14" s="455"/>
-      <c r="F14" s="453"/>
-      <c r="G14" s="453"/>
-      <c r="H14" s="456"/>
-      <c r="I14" s="457">
+      <c r="B14" s="368"/>
+      <c r="C14" s="369"/>
+      <c r="D14" s="455"/>
+      <c r="E14" s="456"/>
+      <c r="F14" s="369"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="371">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="458">
+      <c r="J14" s="459">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="459"/>
+      <c r="K14" s="460"/>
       <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5639,7 @@
       <c r="K15" s="340"/>
       <c r="L15" s="205"/>
     </row>
-    <row r="16" spans="1:12" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5562,20 +5648,20 @@
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="419" t="s">
+      <c r="B17" s="449" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="420"/>
-      <c r="D17" s="420"/>
-      <c r="E17" s="420"/>
-      <c r="F17" s="420"/>
-      <c r="G17" s="420"/>
-      <c r="H17" s="420"/>
-      <c r="I17" s="421"/>
+      <c r="C17" s="450"/>
+      <c r="D17" s="450"/>
+      <c r="E17" s="450"/>
+      <c r="F17" s="450"/>
+      <c r="G17" s="450"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="451"/>
       <c r="J17" s="203" t="s">
         <v>187</v>
       </c>
@@ -5589,50 +5675,50 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="427" t="s">
+      <c r="A18" s="446" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="397" t="s">
+      <c r="B18" s="425" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="398"/>
-      <c r="D18" s="398"/>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="398"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="398"/>
+      <c r="C18" s="426"/>
+      <c r="D18" s="426"/>
+      <c r="E18" s="426"/>
+      <c r="F18" s="426"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="426"/>
+      <c r="I18" s="426"/>
       <c r="J18" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="447"/>
+      <c r="K18" s="363"/>
       <c r="L18" s="202">
         <f>K18*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="428"/>
-      <c r="B19" s="399" t="s">
+      <c r="A19" s="447"/>
+      <c r="B19" s="427" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="400"/>
-      <c r="D19" s="400"/>
-      <c r="E19" s="400"/>
-      <c r="F19" s="400"/>
-      <c r="G19" s="400"/>
-      <c r="H19" s="400"/>
-      <c r="I19" s="400"/>
+      <c r="C19" s="428"/>
+      <c r="D19" s="428"/>
+      <c r="E19" s="428"/>
+      <c r="F19" s="428"/>
+      <c r="G19" s="428"/>
+      <c r="H19" s="428"/>
+      <c r="I19" s="428"/>
       <c r="J19" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="K19" s="448"/>
+      <c r="K19" s="364"/>
       <c r="L19" s="200">
         <f>K19*0.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="171"/>
       <c r="B20" s="171"/>
       <c r="C20" s="171"/>
@@ -5649,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="171"/>
       <c r="B21" s="171"/>
       <c r="C21" s="171"/>
@@ -5663,7 +5749,7 @@
       <c r="K21" s="171"/>
       <c r="L21" s="171"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="171"/>
       <c r="B22" s="198" t="s">
         <v>87</v>
@@ -5677,7 +5763,7 @@
       <c r="I22" s="196"/>
       <c r="J22" s="196"/>
       <c r="K22" s="196"/>
-      <c r="L22" s="460"/>
+      <c r="L22" s="372"/>
     </row>
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5752,12 +5838,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -5767,6 +5847,12 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5782,29 +5868,29 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="7"/>
+    <col min="9" max="9" width="7.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="56" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
@@ -5851,10 +5937,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -5868,10 +5954,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5896,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
-      <c r="E7" s="377"/>
-      <c r="F7" s="377"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
+      <c r="F7" s="388"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -5911,10 +5997,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
-      <c r="E8" s="377"/>
-      <c r="F8" s="377"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="388"/>
+      <c r="E8" s="388"/>
+      <c r="F8" s="388"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5926,10 +6012,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5963,254 +6049,254 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="378" t="s">
+      <c r="H12" s="389" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="379"/>
-      <c r="J12" s="380" t="s">
+      <c r="I12" s="390"/>
+      <c r="J12" s="391" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="380"/>
-      <c r="L12" s="380"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="391"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="395" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="360" t="s">
+      <c r="C13" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="360"/>
-      <c r="E13" s="360"/>
-      <c r="F13" s="369" t="s">
+      <c r="D13" s="395"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="370"/>
+      <c r="G13" s="398"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="371" t="s">
+      <c r="J13" s="379" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="430"/>
-      <c r="L13" s="381">
+      <c r="K13" s="381"/>
+      <c r="L13" s="375">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="355"/>
-      <c r="B14" s="365"/>
-      <c r="C14" s="365" t="s">
+      <c r="A14" s="393"/>
+      <c r="B14" s="396"/>
+      <c r="C14" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="365"/>
-      <c r="E14" s="365"/>
-      <c r="F14" s="366" t="s">
+      <c r="D14" s="396"/>
+      <c r="E14" s="396"/>
+      <c r="F14" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="367"/>
+      <c r="G14" s="400"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="372"/>
-      <c r="K14" s="431"/>
-      <c r="L14" s="382"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="376"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="355"/>
-      <c r="B15" s="365"/>
-      <c r="C15" s="365" t="s">
+      <c r="A15" s="393"/>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="365"/>
-      <c r="E15" s="365"/>
-      <c r="F15" s="366" t="s">
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="399" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="367"/>
+      <c r="G15" s="400"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="372"/>
-      <c r="K15" s="432"/>
-      <c r="L15" s="382"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="383"/>
+      <c r="L15" s="376"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="355"/>
-      <c r="B16" s="373" t="s">
+      <c r="A16" s="393"/>
+      <c r="B16" s="401" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="365" t="s">
+      <c r="C16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="365"/>
-      <c r="E16" s="365"/>
-      <c r="F16" s="366" t="s">
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="367"/>
+      <c r="G16" s="400"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="372" t="s">
+      <c r="J16" s="380" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="433"/>
-      <c r="L16" s="382">
+      <c r="K16" s="374"/>
+      <c r="L16" s="376">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="355"/>
-      <c r="B17" s="374"/>
-      <c r="C17" s="365" t="s">
+      <c r="A17" s="393"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="396" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="365"/>
-      <c r="E17" s="365"/>
-      <c r="F17" s="366" t="s">
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="367"/>
+      <c r="G17" s="400"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="372"/>
-      <c r="K17" s="433"/>
-      <c r="L17" s="382"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="376"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="356"/>
-      <c r="B18" s="375"/>
-      <c r="C18" s="368" t="s">
+      <c r="A18" s="394"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
-      <c r="F18" s="363" t="s">
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="386" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="364"/>
+      <c r="G18" s="387"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="434"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="384"/>
       <c r="L18" s="385"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="357" t="s">
+      <c r="B19" s="409" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="360" t="s">
+      <c r="C19" s="395" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="360"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="361" t="s">
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
+      <c r="F19" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="362"/>
+      <c r="G19" s="413"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="371" t="s">
+      <c r="J19" s="379" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="435"/>
-      <c r="L19" s="381">
+      <c r="K19" s="373"/>
+      <c r="L19" s="375">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="355"/>
-      <c r="B20" s="358"/>
-      <c r="C20" s="365" t="s">
+      <c r="A20" s="393"/>
+      <c r="B20" s="410"/>
+      <c r="C20" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="365"/>
-      <c r="E20" s="365"/>
-      <c r="F20" s="366" t="s">
+      <c r="D20" s="396"/>
+      <c r="E20" s="396"/>
+      <c r="F20" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="367"/>
+      <c r="G20" s="400"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="372"/>
-      <c r="K20" s="433"/>
-      <c r="L20" s="382"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="374"/>
+      <c r="L20" s="376"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="355"/>
-      <c r="B21" s="359"/>
-      <c r="C21" s="365" t="s">
+      <c r="A21" s="393"/>
+      <c r="B21" s="411"/>
+      <c r="C21" s="396" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="365"/>
-      <c r="E21" s="365"/>
-      <c r="F21" s="366" t="s">
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="399" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="367"/>
+      <c r="G21" s="400"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="372"/>
-      <c r="K21" s="433"/>
-      <c r="L21" s="382"/>
-    </row>
-    <row r="22" spans="1:12" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="356"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="374"/>
+      <c r="L21" s="376"/>
+    </row>
+    <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="394"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="368"/>
-      <c r="D22" s="368"/>
-      <c r="E22" s="368"/>
-      <c r="F22" s="363" t="s">
+      <c r="C22" s="405"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="364"/>
+      <c r="G22" s="387"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="429"/>
+      <c r="K22" s="351"/>
       <c r="L22" s="330">
         <f>ROUND(K22*0.15,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="351" t="s">
+      <c r="C23" s="406" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="351"/>
-      <c r="E23" s="351"/>
-      <c r="F23" s="352" t="s">
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="407" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="353"/>
+      <c r="G23" s="408"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="436"/>
+      <c r="K23" s="352"/>
       <c r="L23" s="43">
         <f>ROUND(K23*0.05,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -6224,7 +6310,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
     </row>
-    <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -6237,11 +6323,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="383">
+      <c r="K25" s="377">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="384"/>
+      <c r="L25" s="378"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K26" s="331"/>
@@ -6268,22 +6354,18 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -6300,18 +6382,22 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6327,29 +6413,29 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="209" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="209"/>
-    <col min="3" max="3" width="12.5546875" style="209" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="209" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="209" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="209" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="209" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="209"/>
+    <col min="3" max="3" width="12.5703125" style="209" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="209" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="209" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="209" customWidth="1"/>
     <col min="8" max="8" width="7" style="209" customWidth="1"/>
     <col min="9" max="9" width="3" style="209" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="209" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="209" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="209" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="209" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="209"/>
+    <col min="10" max="10" width="6.42578125" style="209" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="209" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="209" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="209" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="209"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
         <v>46</v>
       </c>
@@ -6395,10 +6481,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="218"/>
-      <c r="C5" s="386"/>
-      <c r="D5" s="386"/>
-      <c r="E5" s="386"/>
-      <c r="F5" s="386"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
+      <c r="F5" s="414"/>
       <c r="H5" s="211"/>
       <c r="I5" s="212" t="s">
         <v>14</v>
@@ -6412,10 +6498,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="218"/>
-      <c r="C6" s="386"/>
-      <c r="D6" s="386"/>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="414"/>
+      <c r="E6" s="414"/>
+      <c r="F6" s="414"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6440,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="216"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
+      <c r="C8" s="414"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
+      <c r="F8" s="414"/>
       <c r="H8" s="220"/>
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
@@ -6455,10 +6541,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="218"/>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="386"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="414"/>
       <c r="H9" s="220"/>
       <c r="I9" s="220"/>
       <c r="J9" s="220"/>
@@ -6470,10 +6556,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="218"/>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
+      <c r="C10" s="414"/>
+      <c r="D10" s="414"/>
+      <c r="E10" s="414"/>
+      <c r="F10" s="414"/>
       <c r="H10" s="220"/>
       <c r="I10" s="220"/>
       <c r="J10" s="220"/>
@@ -6534,7 +6620,7 @@
       <c r="I15" s="218"/>
       <c r="J15" s="305"/>
       <c r="K15" s="233"/>
-      <c r="L15" s="437"/>
+      <c r="L15" s="353"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="292" t="s">
@@ -6550,7 +6636,7 @@
       <c r="I16" s="218"/>
       <c r="J16" s="306"/>
       <c r="K16" s="233"/>
-      <c r="L16" s="437"/>
+      <c r="L16" s="353"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="289" t="s">
@@ -6566,7 +6652,7 @@
       <c r="I17" s="218"/>
       <c r="J17" s="306"/>
       <c r="K17" s="233"/>
-      <c r="L17" s="437"/>
+      <c r="L17" s="353"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="292" t="s">
@@ -6582,7 +6668,7 @@
       <c r="I18" s="218"/>
       <c r="J18" s="306"/>
       <c r="K18" s="233"/>
-      <c r="L18" s="437"/>
+      <c r="L18" s="353"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="294" t="s">
@@ -6598,7 +6684,7 @@
       <c r="I19" s="218"/>
       <c r="J19" s="306"/>
       <c r="K19" s="233"/>
-      <c r="L19" s="437"/>
+      <c r="L19" s="353"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="294" t="s">
@@ -6614,7 +6700,7 @@
       <c r="I20" s="218"/>
       <c r="J20" s="306"/>
       <c r="K20" s="233"/>
-      <c r="L20" s="437"/>
+      <c r="L20" s="353"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="307" t="s">
@@ -6630,7 +6716,7 @@
       <c r="I21" s="218"/>
       <c r="J21" s="306"/>
       <c r="K21" s="233"/>
-      <c r="L21" s="437"/>
+      <c r="L21" s="353"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="264"/>
@@ -6667,7 +6753,7 @@
       <c r="I25" s="265"/>
       <c r="J25" s="268"/>
     </row>
-    <row r="26" spans="1:13" s="269" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="269" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H26" s="270"/>
       <c r="I26" s="271" t="s">
         <v>56</v>
@@ -6791,29 +6877,29 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2"/>
-    <col min="3" max="3" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>60</v>
       </c>
@@ -6859,10 +6945,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6876,10 +6962,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6904,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6919,10 +7005,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6934,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6998,7 +7084,7 @@
       <c r="I15" s="59"/>
       <c r="J15" s="14"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="438"/>
+      <c r="L15" s="354"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="300" t="s">
@@ -7014,7 +7100,7 @@
       <c r="I16" s="59"/>
       <c r="J16" s="14"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="438"/>
+      <c r="L16" s="354"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="297" t="s">
@@ -7030,7 +7116,7 @@
       <c r="I17" s="59"/>
       <c r="J17" s="14"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="438"/>
+      <c r="L17" s="354"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="300" t="s">
@@ -7046,7 +7132,7 @@
       <c r="I18" s="59"/>
       <c r="J18" s="14"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="438"/>
+      <c r="L18" s="354"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="300" t="s">
@@ -7062,7 +7148,7 @@
       <c r="I19" s="59"/>
       <c r="J19" s="14"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="438"/>
+      <c r="L19" s="354"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="300" t="s">
@@ -7078,7 +7164,7 @@
       <c r="I20" s="59"/>
       <c r="J20" s="14"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="438"/>
+      <c r="L20" s="354"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="300" t="s">
@@ -7094,7 +7180,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="14"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="438"/>
+      <c r="L21" s="354"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="300" t="s">
@@ -7110,7 +7196,7 @@
       <c r="I22" s="59"/>
       <c r="J22" s="14"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="438"/>
+      <c r="L22" s="354"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K23" s="63"/>
@@ -7259,29 +7345,29 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:L22"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2"/>
-    <col min="3" max="3" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="10" max="10" width="4.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>66</v>
       </c>
@@ -7327,10 +7413,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7344,10 +7430,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7372,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -7387,10 +7473,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7402,10 +7488,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7466,7 +7552,7 @@
       <c r="I15" s="59"/>
       <c r="J15" s="14"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="438"/>
+      <c r="L15" s="354"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="297" t="s">
@@ -7482,7 +7568,7 @@
       <c r="I16" s="59"/>
       <c r="J16" s="14"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="438"/>
+      <c r="L16" s="354"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="300" t="s">
@@ -7498,7 +7584,7 @@
       <c r="I17" s="59"/>
       <c r="J17" s="14"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="438"/>
+      <c r="L17" s="354"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="300" t="s">
@@ -7514,7 +7600,7 @@
       <c r="I18" s="59"/>
       <c r="J18" s="14"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="438"/>
+      <c r="L18" s="354"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="300" t="s">
@@ -7530,7 +7616,7 @@
       <c r="I19" s="59"/>
       <c r="J19" s="14"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="438"/>
+      <c r="L19" s="354"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="300" t="s">
@@ -7546,7 +7632,7 @@
       <c r="I20" s="59"/>
       <c r="J20" s="14"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="438"/>
+      <c r="L20" s="354"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="300" t="s">
@@ -7562,7 +7648,7 @@
       <c r="I21" s="59"/>
       <c r="J21" s="14"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="438"/>
+      <c r="L21" s="354"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="300" t="s">
@@ -7578,7 +7664,7 @@
       <c r="I22" s="59"/>
       <c r="J22" s="14"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="438"/>
+      <c r="L22" s="354"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K23" s="63"/>
@@ -7726,28 +7812,28 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="209" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="209"/>
-    <col min="3" max="3" width="12.5546875" style="209" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="209" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="209" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="209" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="209" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="209"/>
+    <col min="3" max="3" width="12.5703125" style="209" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="209" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="209" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="209" customWidth="1"/>
     <col min="8" max="8" width="7" style="209" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="209" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="209" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="209" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="209" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="209"/>
+    <col min="9" max="9" width="7.28515625" style="209" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="209" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="209" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="209" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="209"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
         <v>71</v>
       </c>
@@ -7793,10 +7879,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="218"/>
-      <c r="C5" s="386"/>
-      <c r="D5" s="386"/>
-      <c r="E5" s="386"/>
-      <c r="F5" s="386"/>
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414"/>
+      <c r="F5" s="414"/>
       <c r="H5" s="211"/>
       <c r="I5" s="212" t="s">
         <v>14</v>
@@ -7810,10 +7896,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="218"/>
-      <c r="C6" s="386"/>
-      <c r="D6" s="386"/>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="414"/>
+      <c r="E6" s="414"/>
+      <c r="F6" s="414"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7838,10 +7924,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="216"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="388"/>
-      <c r="E8" s="388"/>
-      <c r="F8" s="388"/>
+      <c r="C8" s="416"/>
+      <c r="D8" s="416"/>
+      <c r="E8" s="416"/>
+      <c r="F8" s="416"/>
       <c r="H8" s="220"/>
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
@@ -7853,10 +7939,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="218"/>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="386"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="414"/>
       <c r="H9" s="220"/>
       <c r="I9" s="220"/>
       <c r="J9" s="220"/>
@@ -7868,10 +7954,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="218"/>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
+      <c r="C10" s="414"/>
+      <c r="D10" s="414"/>
+      <c r="E10" s="414"/>
+      <c r="F10" s="414"/>
       <c r="H10" s="220"/>
       <c r="I10" s="220"/>
       <c r="J10" s="220"/>
@@ -7934,7 +8020,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="233"/>
-      <c r="C15" s="439"/>
+      <c r="C15" s="355"/>
       <c r="D15" s="218"/>
       <c r="E15" s="218"/>
       <c r="F15" s="218"/>
@@ -7945,7 +8031,7 @@
       <c r="K15" s="234"/>
       <c r="L15" s="235"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="236" t="s">
         <v>74</v>
       </c>
@@ -8046,7 +8132,7 @@
       <c r="K22" s="228"/>
       <c r="L22" s="228"/>
     </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="228"/>
       <c r="B23" s="228"/>
       <c r="C23" s="228"/>
@@ -8085,12 +8171,12 @@
       </c>
       <c r="C26" s="244"/>
       <c r="D26" s="245"/>
-      <c r="E26" s="440"/>
+      <c r="E26" s="356"/>
       <c r="F26" s="243" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="245"/>
-      <c r="H26" s="441"/>
+      <c r="H26" s="357"/>
       <c r="I26" s="124" t="str">
         <f>IFERROR(ROUND(E26/H26,3),"10,000")</f>
         <v>10,000</v>
@@ -8223,659 +8309,659 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="7"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="6" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="7" customWidth="1"/>
-    <col min="13" max="256" width="9.109375" style="7"/>
-    <col min="257" max="257" width="5.6640625" style="7" customWidth="1"/>
-    <col min="258" max="259" width="9.109375" style="7"/>
-    <col min="260" max="260" width="2.6640625" style="7" customWidth="1"/>
-    <col min="261" max="263" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="7" customWidth="1"/>
+    <col min="13" max="256" width="9.140625" style="7"/>
+    <col min="257" max="257" width="5.7109375" style="7" customWidth="1"/>
+    <col min="258" max="259" width="9.140625" style="7"/>
+    <col min="260" max="260" width="2.7109375" style="7" customWidth="1"/>
+    <col min="261" max="263" width="7.28515625" style="7" customWidth="1"/>
     <col min="264" max="264" width="7" style="7" customWidth="1"/>
-    <col min="265" max="265" width="7.33203125" style="7" customWidth="1"/>
-    <col min="266" max="266" width="4.6640625" style="7" customWidth="1"/>
-    <col min="267" max="267" width="10.33203125" style="7" customWidth="1"/>
-    <col min="268" max="268" width="10.6640625" style="7" customWidth="1"/>
-    <col min="269" max="512" width="9.109375" style="7"/>
-    <col min="513" max="513" width="5.6640625" style="7" customWidth="1"/>
-    <col min="514" max="515" width="9.109375" style="7"/>
-    <col min="516" max="516" width="2.6640625" style="7" customWidth="1"/>
-    <col min="517" max="519" width="7.33203125" style="7" customWidth="1"/>
+    <col min="265" max="265" width="7.28515625" style="7" customWidth="1"/>
+    <col min="266" max="266" width="4.7109375" style="7" customWidth="1"/>
+    <col min="267" max="267" width="10.28515625" style="7" customWidth="1"/>
+    <col min="268" max="268" width="10.7109375" style="7" customWidth="1"/>
+    <col min="269" max="512" width="9.140625" style="7"/>
+    <col min="513" max="513" width="5.7109375" style="7" customWidth="1"/>
+    <col min="514" max="515" width="9.140625" style="7"/>
+    <col min="516" max="516" width="2.7109375" style="7" customWidth="1"/>
+    <col min="517" max="519" width="7.28515625" style="7" customWidth="1"/>
     <col min="520" max="520" width="7" style="7" customWidth="1"/>
-    <col min="521" max="521" width="7.33203125" style="7" customWidth="1"/>
-    <col min="522" max="522" width="4.6640625" style="7" customWidth="1"/>
-    <col min="523" max="523" width="10.33203125" style="7" customWidth="1"/>
-    <col min="524" max="524" width="10.6640625" style="7" customWidth="1"/>
-    <col min="525" max="768" width="9.109375" style="7"/>
-    <col min="769" max="769" width="5.6640625" style="7" customWidth="1"/>
-    <col min="770" max="771" width="9.109375" style="7"/>
-    <col min="772" max="772" width="2.6640625" style="7" customWidth="1"/>
-    <col min="773" max="775" width="7.33203125" style="7" customWidth="1"/>
+    <col min="521" max="521" width="7.28515625" style="7" customWidth="1"/>
+    <col min="522" max="522" width="4.7109375" style="7" customWidth="1"/>
+    <col min="523" max="523" width="10.28515625" style="7" customWidth="1"/>
+    <col min="524" max="524" width="10.7109375" style="7" customWidth="1"/>
+    <col min="525" max="768" width="9.140625" style="7"/>
+    <col min="769" max="769" width="5.7109375" style="7" customWidth="1"/>
+    <col min="770" max="771" width="9.140625" style="7"/>
+    <col min="772" max="772" width="2.7109375" style="7" customWidth="1"/>
+    <col min="773" max="775" width="7.28515625" style="7" customWidth="1"/>
     <col min="776" max="776" width="7" style="7" customWidth="1"/>
-    <col min="777" max="777" width="7.33203125" style="7" customWidth="1"/>
-    <col min="778" max="778" width="4.6640625" style="7" customWidth="1"/>
-    <col min="779" max="779" width="10.33203125" style="7" customWidth="1"/>
-    <col min="780" max="780" width="10.6640625" style="7" customWidth="1"/>
-    <col min="781" max="1024" width="9.109375" style="7"/>
-    <col min="1025" max="1025" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="1027" width="9.109375" style="7"/>
-    <col min="1028" max="1028" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1029" max="1031" width="7.33203125" style="7" customWidth="1"/>
+    <col min="777" max="777" width="7.28515625" style="7" customWidth="1"/>
+    <col min="778" max="778" width="4.7109375" style="7" customWidth="1"/>
+    <col min="779" max="779" width="10.28515625" style="7" customWidth="1"/>
+    <col min="780" max="780" width="10.7109375" style="7" customWidth="1"/>
+    <col min="781" max="1024" width="9.140625" style="7"/>
+    <col min="1025" max="1025" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1026" max="1027" width="9.140625" style="7"/>
+    <col min="1028" max="1028" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1029" max="1031" width="7.28515625" style="7" customWidth="1"/>
     <col min="1032" max="1032" width="7" style="7" customWidth="1"/>
-    <col min="1033" max="1033" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1034" max="1034" width="4.6640625" style="7" customWidth="1"/>
-    <col min="1035" max="1035" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1036" max="1036" width="10.6640625" style="7" customWidth="1"/>
-    <col min="1037" max="1280" width="9.109375" style="7"/>
-    <col min="1281" max="1281" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1282" max="1283" width="9.109375" style="7"/>
-    <col min="1284" max="1284" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1285" max="1287" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1033" max="1033" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1034" max="1034" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1035" max="1035" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1036" max="1036" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1037" max="1280" width="9.140625" style="7"/>
+    <col min="1281" max="1281" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1282" max="1283" width="9.140625" style="7"/>
+    <col min="1284" max="1284" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1285" max="1287" width="7.28515625" style="7" customWidth="1"/>
     <col min="1288" max="1288" width="7" style="7" customWidth="1"/>
-    <col min="1289" max="1289" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1290" max="1290" width="4.6640625" style="7" customWidth="1"/>
-    <col min="1291" max="1291" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1292" max="1292" width="10.6640625" style="7" customWidth="1"/>
-    <col min="1293" max="1536" width="9.109375" style="7"/>
-    <col min="1537" max="1537" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1538" max="1539" width="9.109375" style="7"/>
-    <col min="1540" max="1540" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1541" max="1543" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1289" max="1289" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1290" max="1290" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1291" max="1291" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1292" max="1292" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1293" max="1536" width="9.140625" style="7"/>
+    <col min="1537" max="1537" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1538" max="1539" width="9.140625" style="7"/>
+    <col min="1540" max="1540" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1541" max="1543" width="7.28515625" style="7" customWidth="1"/>
     <col min="1544" max="1544" width="7" style="7" customWidth="1"/>
-    <col min="1545" max="1545" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1546" max="1546" width="4.6640625" style="7" customWidth="1"/>
-    <col min="1547" max="1547" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1548" max="1548" width="10.6640625" style="7" customWidth="1"/>
-    <col min="1549" max="1792" width="9.109375" style="7"/>
-    <col min="1793" max="1793" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1794" max="1795" width="9.109375" style="7"/>
-    <col min="1796" max="1796" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1797" max="1799" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1545" max="1545" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1546" max="1546" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1547" max="1547" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1548" max="1548" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1549" max="1792" width="9.140625" style="7"/>
+    <col min="1793" max="1793" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1794" max="1795" width="9.140625" style="7"/>
+    <col min="1796" max="1796" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1797" max="1799" width="7.28515625" style="7" customWidth="1"/>
     <col min="1800" max="1800" width="7" style="7" customWidth="1"/>
-    <col min="1801" max="1801" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1802" max="1802" width="4.6640625" style="7" customWidth="1"/>
-    <col min="1803" max="1803" width="10.33203125" style="7" customWidth="1"/>
-    <col min="1804" max="1804" width="10.6640625" style="7" customWidth="1"/>
-    <col min="1805" max="2048" width="9.109375" style="7"/>
-    <col min="2049" max="2049" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2050" max="2051" width="9.109375" style="7"/>
-    <col min="2052" max="2052" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2053" max="2055" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1801" max="1801" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1802" max="1802" width="4.7109375" style="7" customWidth="1"/>
+    <col min="1803" max="1803" width="10.28515625" style="7" customWidth="1"/>
+    <col min="1804" max="1804" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1805" max="2048" width="9.140625" style="7"/>
+    <col min="2049" max="2049" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2050" max="2051" width="9.140625" style="7"/>
+    <col min="2052" max="2052" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2053" max="2055" width="7.28515625" style="7" customWidth="1"/>
     <col min="2056" max="2056" width="7" style="7" customWidth="1"/>
-    <col min="2057" max="2057" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2058" max="2058" width="4.6640625" style="7" customWidth="1"/>
-    <col min="2059" max="2059" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2060" max="2060" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2061" max="2304" width="9.109375" style="7"/>
-    <col min="2305" max="2305" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2306" max="2307" width="9.109375" style="7"/>
-    <col min="2308" max="2308" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2309" max="2311" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2057" max="2057" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2058" max="2058" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2059" max="2059" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2060" max="2060" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2061" max="2304" width="9.140625" style="7"/>
+    <col min="2305" max="2305" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2306" max="2307" width="9.140625" style="7"/>
+    <col min="2308" max="2308" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2309" max="2311" width="7.28515625" style="7" customWidth="1"/>
     <col min="2312" max="2312" width="7" style="7" customWidth="1"/>
-    <col min="2313" max="2313" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2314" max="2314" width="4.6640625" style="7" customWidth="1"/>
-    <col min="2315" max="2315" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2316" max="2316" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2317" max="2560" width="9.109375" style="7"/>
-    <col min="2561" max="2561" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2562" max="2563" width="9.109375" style="7"/>
-    <col min="2564" max="2564" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2565" max="2567" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2313" max="2313" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2314" max="2314" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2315" max="2315" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2316" max="2316" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2317" max="2560" width="9.140625" style="7"/>
+    <col min="2561" max="2561" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2562" max="2563" width="9.140625" style="7"/>
+    <col min="2564" max="2564" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2565" max="2567" width="7.28515625" style="7" customWidth="1"/>
     <col min="2568" max="2568" width="7" style="7" customWidth="1"/>
-    <col min="2569" max="2569" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2570" max="2570" width="4.6640625" style="7" customWidth="1"/>
-    <col min="2571" max="2571" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2572" max="2572" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2573" max="2816" width="9.109375" style="7"/>
-    <col min="2817" max="2817" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2818" max="2819" width="9.109375" style="7"/>
-    <col min="2820" max="2820" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2821" max="2823" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2569" max="2569" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2570" max="2570" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2571" max="2571" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2572" max="2572" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2573" max="2816" width="9.140625" style="7"/>
+    <col min="2817" max="2817" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2818" max="2819" width="9.140625" style="7"/>
+    <col min="2820" max="2820" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2821" max="2823" width="7.28515625" style="7" customWidth="1"/>
     <col min="2824" max="2824" width="7" style="7" customWidth="1"/>
-    <col min="2825" max="2825" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2826" max="2826" width="4.6640625" style="7" customWidth="1"/>
-    <col min="2827" max="2827" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2828" max="2828" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2829" max="3072" width="9.109375" style="7"/>
-    <col min="3073" max="3073" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3074" max="3075" width="9.109375" style="7"/>
-    <col min="3076" max="3076" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3077" max="3079" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2825" max="2825" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2826" max="2826" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2827" max="2827" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2828" max="2828" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2829" max="3072" width="9.140625" style="7"/>
+    <col min="3073" max="3073" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3074" max="3075" width="9.140625" style="7"/>
+    <col min="3076" max="3076" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3077" max="3079" width="7.28515625" style="7" customWidth="1"/>
     <col min="3080" max="3080" width="7" style="7" customWidth="1"/>
-    <col min="3081" max="3081" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3082" max="3082" width="4.6640625" style="7" customWidth="1"/>
-    <col min="3083" max="3083" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3084" max="3084" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3085" max="3328" width="9.109375" style="7"/>
-    <col min="3329" max="3329" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3330" max="3331" width="9.109375" style="7"/>
-    <col min="3332" max="3332" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3333" max="3335" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3081" max="3081" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3082" max="3082" width="4.7109375" style="7" customWidth="1"/>
+    <col min="3083" max="3083" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3084" max="3084" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3085" max="3328" width="9.140625" style="7"/>
+    <col min="3329" max="3329" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3330" max="3331" width="9.140625" style="7"/>
+    <col min="3332" max="3332" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3333" max="3335" width="7.28515625" style="7" customWidth="1"/>
     <col min="3336" max="3336" width="7" style="7" customWidth="1"/>
-    <col min="3337" max="3337" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3338" max="3338" width="4.6640625" style="7" customWidth="1"/>
-    <col min="3339" max="3339" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3340" max="3340" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3341" max="3584" width="9.109375" style="7"/>
-    <col min="3585" max="3585" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3586" max="3587" width="9.109375" style="7"/>
-    <col min="3588" max="3588" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3589" max="3591" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3337" max="3337" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3338" max="3338" width="4.7109375" style="7" customWidth="1"/>
+    <col min="3339" max="3339" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3340" max="3340" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3341" max="3584" width="9.140625" style="7"/>
+    <col min="3585" max="3585" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3586" max="3587" width="9.140625" style="7"/>
+    <col min="3588" max="3588" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3589" max="3591" width="7.28515625" style="7" customWidth="1"/>
     <col min="3592" max="3592" width="7" style="7" customWidth="1"/>
-    <col min="3593" max="3593" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3594" max="3594" width="4.6640625" style="7" customWidth="1"/>
-    <col min="3595" max="3595" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3596" max="3596" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3597" max="3840" width="9.109375" style="7"/>
-    <col min="3841" max="3841" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3842" max="3843" width="9.109375" style="7"/>
-    <col min="3844" max="3844" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3845" max="3847" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3593" max="3593" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3594" max="3594" width="4.7109375" style="7" customWidth="1"/>
+    <col min="3595" max="3595" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3596" max="3596" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3597" max="3840" width="9.140625" style="7"/>
+    <col min="3841" max="3841" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3842" max="3843" width="9.140625" style="7"/>
+    <col min="3844" max="3844" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3845" max="3847" width="7.28515625" style="7" customWidth="1"/>
     <col min="3848" max="3848" width="7" style="7" customWidth="1"/>
-    <col min="3849" max="3849" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3850" max="3850" width="4.6640625" style="7" customWidth="1"/>
-    <col min="3851" max="3851" width="10.33203125" style="7" customWidth="1"/>
-    <col min="3852" max="3852" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3853" max="4096" width="9.109375" style="7"/>
-    <col min="4097" max="4097" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4098" max="4099" width="9.109375" style="7"/>
-    <col min="4100" max="4100" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4101" max="4103" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3849" max="3849" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3850" max="3850" width="4.7109375" style="7" customWidth="1"/>
+    <col min="3851" max="3851" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3852" max="3852" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3853" max="4096" width="9.140625" style="7"/>
+    <col min="4097" max="4097" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4098" max="4099" width="9.140625" style="7"/>
+    <col min="4100" max="4100" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4101" max="4103" width="7.28515625" style="7" customWidth="1"/>
     <col min="4104" max="4104" width="7" style="7" customWidth="1"/>
-    <col min="4105" max="4105" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4106" max="4106" width="4.6640625" style="7" customWidth="1"/>
-    <col min="4107" max="4107" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4108" max="4108" width="10.6640625" style="7" customWidth="1"/>
-    <col min="4109" max="4352" width="9.109375" style="7"/>
-    <col min="4353" max="4353" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4354" max="4355" width="9.109375" style="7"/>
-    <col min="4356" max="4356" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4357" max="4359" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4105" max="4105" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4106" max="4106" width="4.7109375" style="7" customWidth="1"/>
+    <col min="4107" max="4107" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4108" max="4108" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4109" max="4352" width="9.140625" style="7"/>
+    <col min="4353" max="4353" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4354" max="4355" width="9.140625" style="7"/>
+    <col min="4356" max="4356" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4357" max="4359" width="7.28515625" style="7" customWidth="1"/>
     <col min="4360" max="4360" width="7" style="7" customWidth="1"/>
-    <col min="4361" max="4361" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4362" max="4362" width="4.6640625" style="7" customWidth="1"/>
-    <col min="4363" max="4363" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4364" max="4364" width="10.6640625" style="7" customWidth="1"/>
-    <col min="4365" max="4608" width="9.109375" style="7"/>
-    <col min="4609" max="4609" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4610" max="4611" width="9.109375" style="7"/>
-    <col min="4612" max="4612" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4613" max="4615" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4361" max="4361" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4362" max="4362" width="4.7109375" style="7" customWidth="1"/>
+    <col min="4363" max="4363" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4364" max="4364" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4365" max="4608" width="9.140625" style="7"/>
+    <col min="4609" max="4609" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4610" max="4611" width="9.140625" style="7"/>
+    <col min="4612" max="4612" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4613" max="4615" width="7.28515625" style="7" customWidth="1"/>
     <col min="4616" max="4616" width="7" style="7" customWidth="1"/>
-    <col min="4617" max="4617" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4618" max="4618" width="4.6640625" style="7" customWidth="1"/>
-    <col min="4619" max="4619" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4620" max="4620" width="10.6640625" style="7" customWidth="1"/>
-    <col min="4621" max="4864" width="9.109375" style="7"/>
-    <col min="4865" max="4865" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4866" max="4867" width="9.109375" style="7"/>
-    <col min="4868" max="4868" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4869" max="4871" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4617" max="4617" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4618" max="4618" width="4.7109375" style="7" customWidth="1"/>
+    <col min="4619" max="4619" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4620" max="4620" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4621" max="4864" width="9.140625" style="7"/>
+    <col min="4865" max="4865" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4866" max="4867" width="9.140625" style="7"/>
+    <col min="4868" max="4868" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4869" max="4871" width="7.28515625" style="7" customWidth="1"/>
     <col min="4872" max="4872" width="7" style="7" customWidth="1"/>
-    <col min="4873" max="4873" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4874" max="4874" width="4.6640625" style="7" customWidth="1"/>
-    <col min="4875" max="4875" width="10.33203125" style="7" customWidth="1"/>
-    <col min="4876" max="4876" width="10.6640625" style="7" customWidth="1"/>
-    <col min="4877" max="5120" width="9.109375" style="7"/>
-    <col min="5121" max="5121" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5122" max="5123" width="9.109375" style="7"/>
-    <col min="5124" max="5124" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5125" max="5127" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4873" max="4873" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4874" max="4874" width="4.7109375" style="7" customWidth="1"/>
+    <col min="4875" max="4875" width="10.28515625" style="7" customWidth="1"/>
+    <col min="4876" max="4876" width="10.7109375" style="7" customWidth="1"/>
+    <col min="4877" max="5120" width="9.140625" style="7"/>
+    <col min="5121" max="5121" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5122" max="5123" width="9.140625" style="7"/>
+    <col min="5124" max="5124" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5125" max="5127" width="7.28515625" style="7" customWidth="1"/>
     <col min="5128" max="5128" width="7" style="7" customWidth="1"/>
-    <col min="5129" max="5129" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5130" max="5130" width="4.6640625" style="7" customWidth="1"/>
-    <col min="5131" max="5131" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5132" max="5132" width="10.6640625" style="7" customWidth="1"/>
-    <col min="5133" max="5376" width="9.109375" style="7"/>
-    <col min="5377" max="5377" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5378" max="5379" width="9.109375" style="7"/>
-    <col min="5380" max="5380" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5381" max="5383" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5129" max="5129" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5130" max="5130" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5131" max="5131" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5132" max="5132" width="10.7109375" style="7" customWidth="1"/>
+    <col min="5133" max="5376" width="9.140625" style="7"/>
+    <col min="5377" max="5377" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5378" max="5379" width="9.140625" style="7"/>
+    <col min="5380" max="5380" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5381" max="5383" width="7.28515625" style="7" customWidth="1"/>
     <col min="5384" max="5384" width="7" style="7" customWidth="1"/>
-    <col min="5385" max="5385" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5386" max="5386" width="4.6640625" style="7" customWidth="1"/>
-    <col min="5387" max="5387" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5388" max="5388" width="10.6640625" style="7" customWidth="1"/>
-    <col min="5389" max="5632" width="9.109375" style="7"/>
-    <col min="5633" max="5633" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5634" max="5635" width="9.109375" style="7"/>
-    <col min="5636" max="5636" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5637" max="5639" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5385" max="5385" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5386" max="5386" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5387" max="5387" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5388" max="5388" width="10.7109375" style="7" customWidth="1"/>
+    <col min="5389" max="5632" width="9.140625" style="7"/>
+    <col min="5633" max="5633" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5634" max="5635" width="9.140625" style="7"/>
+    <col min="5636" max="5636" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5637" max="5639" width="7.28515625" style="7" customWidth="1"/>
     <col min="5640" max="5640" width="7" style="7" customWidth="1"/>
-    <col min="5641" max="5641" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5642" max="5642" width="4.6640625" style="7" customWidth="1"/>
-    <col min="5643" max="5643" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5644" max="5644" width="10.6640625" style="7" customWidth="1"/>
-    <col min="5645" max="5888" width="9.109375" style="7"/>
-    <col min="5889" max="5889" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5890" max="5891" width="9.109375" style="7"/>
-    <col min="5892" max="5892" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5893" max="5895" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5641" max="5641" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5642" max="5642" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5643" max="5643" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5644" max="5644" width="10.7109375" style="7" customWidth="1"/>
+    <col min="5645" max="5888" width="9.140625" style="7"/>
+    <col min="5889" max="5889" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5890" max="5891" width="9.140625" style="7"/>
+    <col min="5892" max="5892" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5893" max="5895" width="7.28515625" style="7" customWidth="1"/>
     <col min="5896" max="5896" width="7" style="7" customWidth="1"/>
-    <col min="5897" max="5897" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5898" max="5898" width="4.6640625" style="7" customWidth="1"/>
-    <col min="5899" max="5899" width="10.33203125" style="7" customWidth="1"/>
-    <col min="5900" max="5900" width="10.6640625" style="7" customWidth="1"/>
-    <col min="5901" max="6144" width="9.109375" style="7"/>
-    <col min="6145" max="6145" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6146" max="6147" width="9.109375" style="7"/>
-    <col min="6148" max="6148" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6149" max="6151" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5897" max="5897" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5898" max="5898" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5899" max="5899" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5900" max="5900" width="10.7109375" style="7" customWidth="1"/>
+    <col min="5901" max="6144" width="9.140625" style="7"/>
+    <col min="6145" max="6145" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6146" max="6147" width="9.140625" style="7"/>
+    <col min="6148" max="6148" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6149" max="6151" width="7.28515625" style="7" customWidth="1"/>
     <col min="6152" max="6152" width="7" style="7" customWidth="1"/>
-    <col min="6153" max="6153" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6154" max="6154" width="4.6640625" style="7" customWidth="1"/>
-    <col min="6155" max="6155" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6156" max="6156" width="10.6640625" style="7" customWidth="1"/>
-    <col min="6157" max="6400" width="9.109375" style="7"/>
-    <col min="6401" max="6401" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6402" max="6403" width="9.109375" style="7"/>
-    <col min="6404" max="6404" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6405" max="6407" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6153" max="6153" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6154" max="6154" width="4.7109375" style="7" customWidth="1"/>
+    <col min="6155" max="6155" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6156" max="6156" width="10.7109375" style="7" customWidth="1"/>
+    <col min="6157" max="6400" width="9.140625" style="7"/>
+    <col min="6401" max="6401" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6402" max="6403" width="9.140625" style="7"/>
+    <col min="6404" max="6404" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6405" max="6407" width="7.28515625" style="7" customWidth="1"/>
     <col min="6408" max="6408" width="7" style="7" customWidth="1"/>
-    <col min="6409" max="6409" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6410" max="6410" width="4.6640625" style="7" customWidth="1"/>
-    <col min="6411" max="6411" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6412" max="6412" width="10.6640625" style="7" customWidth="1"/>
-    <col min="6413" max="6656" width="9.109375" style="7"/>
-    <col min="6657" max="6657" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6658" max="6659" width="9.109375" style="7"/>
-    <col min="6660" max="6660" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6661" max="6663" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6409" max="6409" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6410" max="6410" width="4.7109375" style="7" customWidth="1"/>
+    <col min="6411" max="6411" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6412" max="6412" width="10.7109375" style="7" customWidth="1"/>
+    <col min="6413" max="6656" width="9.140625" style="7"/>
+    <col min="6657" max="6657" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6658" max="6659" width="9.140625" style="7"/>
+    <col min="6660" max="6660" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6661" max="6663" width="7.28515625" style="7" customWidth="1"/>
     <col min="6664" max="6664" width="7" style="7" customWidth="1"/>
-    <col min="6665" max="6665" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6666" max="6666" width="4.6640625" style="7" customWidth="1"/>
-    <col min="6667" max="6667" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6668" max="6668" width="10.6640625" style="7" customWidth="1"/>
-    <col min="6669" max="6912" width="9.109375" style="7"/>
-    <col min="6913" max="6913" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6914" max="6915" width="9.109375" style="7"/>
-    <col min="6916" max="6916" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6917" max="6919" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6665" max="6665" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6666" max="6666" width="4.7109375" style="7" customWidth="1"/>
+    <col min="6667" max="6667" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6668" max="6668" width="10.7109375" style="7" customWidth="1"/>
+    <col min="6669" max="6912" width="9.140625" style="7"/>
+    <col min="6913" max="6913" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6914" max="6915" width="9.140625" style="7"/>
+    <col min="6916" max="6916" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6917" max="6919" width="7.28515625" style="7" customWidth="1"/>
     <col min="6920" max="6920" width="7" style="7" customWidth="1"/>
-    <col min="6921" max="6921" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6922" max="6922" width="4.6640625" style="7" customWidth="1"/>
-    <col min="6923" max="6923" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6924" max="6924" width="10.6640625" style="7" customWidth="1"/>
-    <col min="6925" max="7168" width="9.109375" style="7"/>
-    <col min="7169" max="7169" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7170" max="7171" width="9.109375" style="7"/>
-    <col min="7172" max="7172" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7173" max="7175" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6921" max="6921" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6922" max="6922" width="4.7109375" style="7" customWidth="1"/>
+    <col min="6923" max="6923" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6924" max="6924" width="10.7109375" style="7" customWidth="1"/>
+    <col min="6925" max="7168" width="9.140625" style="7"/>
+    <col min="7169" max="7169" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7170" max="7171" width="9.140625" style="7"/>
+    <col min="7172" max="7172" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7173" max="7175" width="7.28515625" style="7" customWidth="1"/>
     <col min="7176" max="7176" width="7" style="7" customWidth="1"/>
-    <col min="7177" max="7177" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7178" max="7178" width="4.6640625" style="7" customWidth="1"/>
-    <col min="7179" max="7179" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7180" max="7180" width="10.6640625" style="7" customWidth="1"/>
-    <col min="7181" max="7424" width="9.109375" style="7"/>
-    <col min="7425" max="7425" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7426" max="7427" width="9.109375" style="7"/>
-    <col min="7428" max="7428" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7429" max="7431" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7177" max="7177" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7178" max="7178" width="4.7109375" style="7" customWidth="1"/>
+    <col min="7179" max="7179" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7180" max="7180" width="10.7109375" style="7" customWidth="1"/>
+    <col min="7181" max="7424" width="9.140625" style="7"/>
+    <col min="7425" max="7425" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7426" max="7427" width="9.140625" style="7"/>
+    <col min="7428" max="7428" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7429" max="7431" width="7.28515625" style="7" customWidth="1"/>
     <col min="7432" max="7432" width="7" style="7" customWidth="1"/>
-    <col min="7433" max="7433" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7434" max="7434" width="4.6640625" style="7" customWidth="1"/>
-    <col min="7435" max="7435" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7436" max="7436" width="10.6640625" style="7" customWidth="1"/>
-    <col min="7437" max="7680" width="9.109375" style="7"/>
-    <col min="7681" max="7681" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7682" max="7683" width="9.109375" style="7"/>
-    <col min="7684" max="7684" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7685" max="7687" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7433" max="7433" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7434" max="7434" width="4.7109375" style="7" customWidth="1"/>
+    <col min="7435" max="7435" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7436" max="7436" width="10.7109375" style="7" customWidth="1"/>
+    <col min="7437" max="7680" width="9.140625" style="7"/>
+    <col min="7681" max="7681" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7682" max="7683" width="9.140625" style="7"/>
+    <col min="7684" max="7684" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7685" max="7687" width="7.28515625" style="7" customWidth="1"/>
     <col min="7688" max="7688" width="7" style="7" customWidth="1"/>
-    <col min="7689" max="7689" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7690" max="7690" width="4.6640625" style="7" customWidth="1"/>
-    <col min="7691" max="7691" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7692" max="7692" width="10.6640625" style="7" customWidth="1"/>
-    <col min="7693" max="7936" width="9.109375" style="7"/>
-    <col min="7937" max="7937" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7938" max="7939" width="9.109375" style="7"/>
-    <col min="7940" max="7940" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7941" max="7943" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7689" max="7689" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7690" max="7690" width="4.7109375" style="7" customWidth="1"/>
+    <col min="7691" max="7691" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7692" max="7692" width="10.7109375" style="7" customWidth="1"/>
+    <col min="7693" max="7936" width="9.140625" style="7"/>
+    <col min="7937" max="7937" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7938" max="7939" width="9.140625" style="7"/>
+    <col min="7940" max="7940" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7941" max="7943" width="7.28515625" style="7" customWidth="1"/>
     <col min="7944" max="7944" width="7" style="7" customWidth="1"/>
-    <col min="7945" max="7945" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7946" max="7946" width="4.6640625" style="7" customWidth="1"/>
-    <col min="7947" max="7947" width="10.33203125" style="7" customWidth="1"/>
-    <col min="7948" max="7948" width="10.6640625" style="7" customWidth="1"/>
-    <col min="7949" max="8192" width="9.109375" style="7"/>
-    <col min="8193" max="8193" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8194" max="8195" width="9.109375" style="7"/>
-    <col min="8196" max="8196" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8197" max="8199" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7945" max="7945" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7946" max="7946" width="4.7109375" style="7" customWidth="1"/>
+    <col min="7947" max="7947" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7948" max="7948" width="10.7109375" style="7" customWidth="1"/>
+    <col min="7949" max="8192" width="9.140625" style="7"/>
+    <col min="8193" max="8193" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8194" max="8195" width="9.140625" style="7"/>
+    <col min="8196" max="8196" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8197" max="8199" width="7.28515625" style="7" customWidth="1"/>
     <col min="8200" max="8200" width="7" style="7" customWidth="1"/>
-    <col min="8201" max="8201" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8202" max="8202" width="4.6640625" style="7" customWidth="1"/>
-    <col min="8203" max="8203" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8204" max="8204" width="10.6640625" style="7" customWidth="1"/>
-    <col min="8205" max="8448" width="9.109375" style="7"/>
-    <col min="8449" max="8449" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8450" max="8451" width="9.109375" style="7"/>
-    <col min="8452" max="8452" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8453" max="8455" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8201" max="8201" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8202" max="8202" width="4.7109375" style="7" customWidth="1"/>
+    <col min="8203" max="8203" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8204" max="8204" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8205" max="8448" width="9.140625" style="7"/>
+    <col min="8449" max="8449" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8450" max="8451" width="9.140625" style="7"/>
+    <col min="8452" max="8452" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8453" max="8455" width="7.28515625" style="7" customWidth="1"/>
     <col min="8456" max="8456" width="7" style="7" customWidth="1"/>
-    <col min="8457" max="8457" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8458" max="8458" width="4.6640625" style="7" customWidth="1"/>
-    <col min="8459" max="8459" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8460" max="8460" width="10.6640625" style="7" customWidth="1"/>
-    <col min="8461" max="8704" width="9.109375" style="7"/>
-    <col min="8705" max="8705" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8706" max="8707" width="9.109375" style="7"/>
-    <col min="8708" max="8708" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8709" max="8711" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8457" max="8457" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8458" max="8458" width="4.7109375" style="7" customWidth="1"/>
+    <col min="8459" max="8459" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8460" max="8460" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8461" max="8704" width="9.140625" style="7"/>
+    <col min="8705" max="8705" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8706" max="8707" width="9.140625" style="7"/>
+    <col min="8708" max="8708" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8709" max="8711" width="7.28515625" style="7" customWidth="1"/>
     <col min="8712" max="8712" width="7" style="7" customWidth="1"/>
-    <col min="8713" max="8713" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8714" max="8714" width="4.6640625" style="7" customWidth="1"/>
-    <col min="8715" max="8715" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8716" max="8716" width="10.6640625" style="7" customWidth="1"/>
-    <col min="8717" max="8960" width="9.109375" style="7"/>
-    <col min="8961" max="8961" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8962" max="8963" width="9.109375" style="7"/>
-    <col min="8964" max="8964" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8965" max="8967" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8713" max="8713" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8714" max="8714" width="4.7109375" style="7" customWidth="1"/>
+    <col min="8715" max="8715" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8716" max="8716" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8717" max="8960" width="9.140625" style="7"/>
+    <col min="8961" max="8961" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8962" max="8963" width="9.140625" style="7"/>
+    <col min="8964" max="8964" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8965" max="8967" width="7.28515625" style="7" customWidth="1"/>
     <col min="8968" max="8968" width="7" style="7" customWidth="1"/>
-    <col min="8969" max="8969" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8970" max="8970" width="4.6640625" style="7" customWidth="1"/>
-    <col min="8971" max="8971" width="10.33203125" style="7" customWidth="1"/>
-    <col min="8972" max="8972" width="10.6640625" style="7" customWidth="1"/>
-    <col min="8973" max="9216" width="9.109375" style="7"/>
-    <col min="9217" max="9217" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9218" max="9219" width="9.109375" style="7"/>
-    <col min="9220" max="9220" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9221" max="9223" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8969" max="8969" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8970" max="8970" width="4.7109375" style="7" customWidth="1"/>
+    <col min="8971" max="8971" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8972" max="8972" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8973" max="9216" width="9.140625" style="7"/>
+    <col min="9217" max="9217" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9218" max="9219" width="9.140625" style="7"/>
+    <col min="9220" max="9220" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9221" max="9223" width="7.28515625" style="7" customWidth="1"/>
     <col min="9224" max="9224" width="7" style="7" customWidth="1"/>
-    <col min="9225" max="9225" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9226" max="9226" width="4.6640625" style="7" customWidth="1"/>
-    <col min="9227" max="9227" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9228" max="9228" width="10.6640625" style="7" customWidth="1"/>
-    <col min="9229" max="9472" width="9.109375" style="7"/>
-    <col min="9473" max="9473" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9474" max="9475" width="9.109375" style="7"/>
-    <col min="9476" max="9476" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9477" max="9479" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9225" max="9225" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9226" max="9226" width="4.7109375" style="7" customWidth="1"/>
+    <col min="9227" max="9227" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9228" max="9228" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9229" max="9472" width="9.140625" style="7"/>
+    <col min="9473" max="9473" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9474" max="9475" width="9.140625" style="7"/>
+    <col min="9476" max="9476" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9477" max="9479" width="7.28515625" style="7" customWidth="1"/>
     <col min="9480" max="9480" width="7" style="7" customWidth="1"/>
-    <col min="9481" max="9481" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9482" max="9482" width="4.6640625" style="7" customWidth="1"/>
-    <col min="9483" max="9483" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9484" max="9484" width="10.6640625" style="7" customWidth="1"/>
-    <col min="9485" max="9728" width="9.109375" style="7"/>
-    <col min="9729" max="9729" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9730" max="9731" width="9.109375" style="7"/>
-    <col min="9732" max="9732" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9733" max="9735" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9481" max="9481" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9482" max="9482" width="4.7109375" style="7" customWidth="1"/>
+    <col min="9483" max="9483" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9484" max="9484" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9485" max="9728" width="9.140625" style="7"/>
+    <col min="9729" max="9729" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9730" max="9731" width="9.140625" style="7"/>
+    <col min="9732" max="9732" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9733" max="9735" width="7.28515625" style="7" customWidth="1"/>
     <col min="9736" max="9736" width="7" style="7" customWidth="1"/>
-    <col min="9737" max="9737" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9738" max="9738" width="4.6640625" style="7" customWidth="1"/>
-    <col min="9739" max="9739" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9740" max="9740" width="10.6640625" style="7" customWidth="1"/>
-    <col min="9741" max="9984" width="9.109375" style="7"/>
-    <col min="9985" max="9985" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9986" max="9987" width="9.109375" style="7"/>
-    <col min="9988" max="9988" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9989" max="9991" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9737" max="9737" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9738" max="9738" width="4.7109375" style="7" customWidth="1"/>
+    <col min="9739" max="9739" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9740" max="9740" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9741" max="9984" width="9.140625" style="7"/>
+    <col min="9985" max="9985" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9986" max="9987" width="9.140625" style="7"/>
+    <col min="9988" max="9988" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9989" max="9991" width="7.28515625" style="7" customWidth="1"/>
     <col min="9992" max="9992" width="7" style="7" customWidth="1"/>
-    <col min="9993" max="9993" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9994" max="9994" width="4.6640625" style="7" customWidth="1"/>
-    <col min="9995" max="9995" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9996" max="9996" width="10.6640625" style="7" customWidth="1"/>
-    <col min="9997" max="10240" width="9.109375" style="7"/>
-    <col min="10241" max="10241" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10242" max="10243" width="9.109375" style="7"/>
-    <col min="10244" max="10244" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10245" max="10247" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9993" max="9993" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9994" max="9994" width="4.7109375" style="7" customWidth="1"/>
+    <col min="9995" max="9995" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9996" max="9996" width="10.7109375" style="7" customWidth="1"/>
+    <col min="9997" max="10240" width="9.140625" style="7"/>
+    <col min="10241" max="10241" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10242" max="10243" width="9.140625" style="7"/>
+    <col min="10244" max="10244" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10245" max="10247" width="7.28515625" style="7" customWidth="1"/>
     <col min="10248" max="10248" width="7" style="7" customWidth="1"/>
-    <col min="10249" max="10249" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10250" max="10250" width="4.6640625" style="7" customWidth="1"/>
-    <col min="10251" max="10251" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10252" max="10252" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10253" max="10496" width="9.109375" style="7"/>
-    <col min="10497" max="10497" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10498" max="10499" width="9.109375" style="7"/>
-    <col min="10500" max="10500" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10501" max="10503" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10249" max="10249" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10250" max="10250" width="4.7109375" style="7" customWidth="1"/>
+    <col min="10251" max="10251" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10252" max="10252" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10253" max="10496" width="9.140625" style="7"/>
+    <col min="10497" max="10497" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10498" max="10499" width="9.140625" style="7"/>
+    <col min="10500" max="10500" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10501" max="10503" width="7.28515625" style="7" customWidth="1"/>
     <col min="10504" max="10504" width="7" style="7" customWidth="1"/>
-    <col min="10505" max="10505" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10506" max="10506" width="4.6640625" style="7" customWidth="1"/>
-    <col min="10507" max="10507" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10508" max="10508" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10509" max="10752" width="9.109375" style="7"/>
-    <col min="10753" max="10753" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10754" max="10755" width="9.109375" style="7"/>
-    <col min="10756" max="10756" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10757" max="10759" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10505" max="10505" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10506" max="10506" width="4.7109375" style="7" customWidth="1"/>
+    <col min="10507" max="10507" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10508" max="10508" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10509" max="10752" width="9.140625" style="7"/>
+    <col min="10753" max="10753" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10754" max="10755" width="9.140625" style="7"/>
+    <col min="10756" max="10756" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10757" max="10759" width="7.28515625" style="7" customWidth="1"/>
     <col min="10760" max="10760" width="7" style="7" customWidth="1"/>
-    <col min="10761" max="10761" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10762" max="10762" width="4.6640625" style="7" customWidth="1"/>
-    <col min="10763" max="10763" width="10.33203125" style="7" customWidth="1"/>
-    <col min="10764" max="10764" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10765" max="11008" width="9.109375" style="7"/>
-    <col min="11009" max="11009" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11010" max="11011" width="9.109375" style="7"/>
-    <col min="11012" max="11012" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11013" max="11015" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10761" max="10761" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10762" max="10762" width="4.7109375" style="7" customWidth="1"/>
+    <col min="10763" max="10763" width="10.28515625" style="7" customWidth="1"/>
+    <col min="10764" max="10764" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10765" max="11008" width="9.140625" style="7"/>
+    <col min="11009" max="11009" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11010" max="11011" width="9.140625" style="7"/>
+    <col min="11012" max="11012" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11013" max="11015" width="7.28515625" style="7" customWidth="1"/>
     <col min="11016" max="11016" width="7" style="7" customWidth="1"/>
-    <col min="11017" max="11017" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11018" max="11018" width="4.6640625" style="7" customWidth="1"/>
-    <col min="11019" max="11019" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11020" max="11020" width="10.6640625" style="7" customWidth="1"/>
-    <col min="11021" max="11264" width="9.109375" style="7"/>
-    <col min="11265" max="11265" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11266" max="11267" width="9.109375" style="7"/>
-    <col min="11268" max="11268" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11269" max="11271" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11017" max="11017" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11018" max="11018" width="4.7109375" style="7" customWidth="1"/>
+    <col min="11019" max="11019" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11020" max="11020" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11021" max="11264" width="9.140625" style="7"/>
+    <col min="11265" max="11265" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11266" max="11267" width="9.140625" style="7"/>
+    <col min="11268" max="11268" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11269" max="11271" width="7.28515625" style="7" customWidth="1"/>
     <col min="11272" max="11272" width="7" style="7" customWidth="1"/>
-    <col min="11273" max="11273" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11274" max="11274" width="4.6640625" style="7" customWidth="1"/>
-    <col min="11275" max="11275" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11276" max="11276" width="10.6640625" style="7" customWidth="1"/>
-    <col min="11277" max="11520" width="9.109375" style="7"/>
-    <col min="11521" max="11521" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11522" max="11523" width="9.109375" style="7"/>
-    <col min="11524" max="11524" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11525" max="11527" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11273" max="11273" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11274" max="11274" width="4.7109375" style="7" customWidth="1"/>
+    <col min="11275" max="11275" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11276" max="11276" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11277" max="11520" width="9.140625" style="7"/>
+    <col min="11521" max="11521" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11522" max="11523" width="9.140625" style="7"/>
+    <col min="11524" max="11524" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11525" max="11527" width="7.28515625" style="7" customWidth="1"/>
     <col min="11528" max="11528" width="7" style="7" customWidth="1"/>
-    <col min="11529" max="11529" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11530" max="11530" width="4.6640625" style="7" customWidth="1"/>
-    <col min="11531" max="11531" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11532" max="11532" width="10.6640625" style="7" customWidth="1"/>
-    <col min="11533" max="11776" width="9.109375" style="7"/>
-    <col min="11777" max="11777" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11778" max="11779" width="9.109375" style="7"/>
-    <col min="11780" max="11780" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11781" max="11783" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11529" max="11529" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11530" max="11530" width="4.7109375" style="7" customWidth="1"/>
+    <col min="11531" max="11531" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11532" max="11532" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11533" max="11776" width="9.140625" style="7"/>
+    <col min="11777" max="11777" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11778" max="11779" width="9.140625" style="7"/>
+    <col min="11780" max="11780" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11781" max="11783" width="7.28515625" style="7" customWidth="1"/>
     <col min="11784" max="11784" width="7" style="7" customWidth="1"/>
-    <col min="11785" max="11785" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11786" max="11786" width="4.6640625" style="7" customWidth="1"/>
-    <col min="11787" max="11787" width="10.33203125" style="7" customWidth="1"/>
-    <col min="11788" max="11788" width="10.6640625" style="7" customWidth="1"/>
-    <col min="11789" max="12032" width="9.109375" style="7"/>
-    <col min="12033" max="12033" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12034" max="12035" width="9.109375" style="7"/>
-    <col min="12036" max="12036" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12037" max="12039" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11785" max="11785" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11786" max="11786" width="4.7109375" style="7" customWidth="1"/>
+    <col min="11787" max="11787" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11788" max="11788" width="10.7109375" style="7" customWidth="1"/>
+    <col min="11789" max="12032" width="9.140625" style="7"/>
+    <col min="12033" max="12033" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12034" max="12035" width="9.140625" style="7"/>
+    <col min="12036" max="12036" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12037" max="12039" width="7.28515625" style="7" customWidth="1"/>
     <col min="12040" max="12040" width="7" style="7" customWidth="1"/>
-    <col min="12041" max="12041" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12042" max="12042" width="4.6640625" style="7" customWidth="1"/>
-    <col min="12043" max="12043" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12044" max="12044" width="10.6640625" style="7" customWidth="1"/>
-    <col min="12045" max="12288" width="9.109375" style="7"/>
-    <col min="12289" max="12289" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12290" max="12291" width="9.109375" style="7"/>
-    <col min="12292" max="12292" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12293" max="12295" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12041" max="12041" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12042" max="12042" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12043" max="12043" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12044" max="12044" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12045" max="12288" width="9.140625" style="7"/>
+    <col min="12289" max="12289" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12290" max="12291" width="9.140625" style="7"/>
+    <col min="12292" max="12292" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12293" max="12295" width="7.28515625" style="7" customWidth="1"/>
     <col min="12296" max="12296" width="7" style="7" customWidth="1"/>
-    <col min="12297" max="12297" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12298" max="12298" width="4.6640625" style="7" customWidth="1"/>
-    <col min="12299" max="12299" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12300" max="12300" width="10.6640625" style="7" customWidth="1"/>
-    <col min="12301" max="12544" width="9.109375" style="7"/>
-    <col min="12545" max="12545" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12546" max="12547" width="9.109375" style="7"/>
-    <col min="12548" max="12548" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12549" max="12551" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12297" max="12297" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12298" max="12298" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12299" max="12299" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12300" max="12300" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12301" max="12544" width="9.140625" style="7"/>
+    <col min="12545" max="12545" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12546" max="12547" width="9.140625" style="7"/>
+    <col min="12548" max="12548" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12549" max="12551" width="7.28515625" style="7" customWidth="1"/>
     <col min="12552" max="12552" width="7" style="7" customWidth="1"/>
-    <col min="12553" max="12553" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12554" max="12554" width="4.6640625" style="7" customWidth="1"/>
-    <col min="12555" max="12555" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12556" max="12556" width="10.6640625" style="7" customWidth="1"/>
-    <col min="12557" max="12800" width="9.109375" style="7"/>
-    <col min="12801" max="12801" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12802" max="12803" width="9.109375" style="7"/>
-    <col min="12804" max="12804" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12805" max="12807" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12553" max="12553" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12554" max="12554" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12555" max="12555" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12556" max="12556" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12557" max="12800" width="9.140625" style="7"/>
+    <col min="12801" max="12801" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12802" max="12803" width="9.140625" style="7"/>
+    <col min="12804" max="12804" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12805" max="12807" width="7.28515625" style="7" customWidth="1"/>
     <col min="12808" max="12808" width="7" style="7" customWidth="1"/>
-    <col min="12809" max="12809" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12810" max="12810" width="4.6640625" style="7" customWidth="1"/>
-    <col min="12811" max="12811" width="10.33203125" style="7" customWidth="1"/>
-    <col min="12812" max="12812" width="10.6640625" style="7" customWidth="1"/>
-    <col min="12813" max="13056" width="9.109375" style="7"/>
-    <col min="13057" max="13057" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13058" max="13059" width="9.109375" style="7"/>
-    <col min="13060" max="13060" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13061" max="13063" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12809" max="12809" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12810" max="12810" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12811" max="12811" width="10.28515625" style="7" customWidth="1"/>
+    <col min="12812" max="12812" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12813" max="13056" width="9.140625" style="7"/>
+    <col min="13057" max="13057" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13058" max="13059" width="9.140625" style="7"/>
+    <col min="13060" max="13060" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13061" max="13063" width="7.28515625" style="7" customWidth="1"/>
     <col min="13064" max="13064" width="7" style="7" customWidth="1"/>
-    <col min="13065" max="13065" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13066" max="13066" width="4.6640625" style="7" customWidth="1"/>
-    <col min="13067" max="13067" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13068" max="13068" width="10.6640625" style="7" customWidth="1"/>
-    <col min="13069" max="13312" width="9.109375" style="7"/>
-    <col min="13313" max="13313" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13314" max="13315" width="9.109375" style="7"/>
-    <col min="13316" max="13316" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13317" max="13319" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13065" max="13065" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13066" max="13066" width="4.7109375" style="7" customWidth="1"/>
+    <col min="13067" max="13067" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13068" max="13068" width="10.7109375" style="7" customWidth="1"/>
+    <col min="13069" max="13312" width="9.140625" style="7"/>
+    <col min="13313" max="13313" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13314" max="13315" width="9.140625" style="7"/>
+    <col min="13316" max="13316" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13317" max="13319" width="7.28515625" style="7" customWidth="1"/>
     <col min="13320" max="13320" width="7" style="7" customWidth="1"/>
-    <col min="13321" max="13321" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13322" max="13322" width="4.6640625" style="7" customWidth="1"/>
-    <col min="13323" max="13323" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13324" max="13324" width="10.6640625" style="7" customWidth="1"/>
-    <col min="13325" max="13568" width="9.109375" style="7"/>
-    <col min="13569" max="13569" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13570" max="13571" width="9.109375" style="7"/>
-    <col min="13572" max="13572" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13573" max="13575" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13321" max="13321" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13322" max="13322" width="4.7109375" style="7" customWidth="1"/>
+    <col min="13323" max="13323" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13324" max="13324" width="10.7109375" style="7" customWidth="1"/>
+    <col min="13325" max="13568" width="9.140625" style="7"/>
+    <col min="13569" max="13569" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13570" max="13571" width="9.140625" style="7"/>
+    <col min="13572" max="13572" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13573" max="13575" width="7.28515625" style="7" customWidth="1"/>
     <col min="13576" max="13576" width="7" style="7" customWidth="1"/>
-    <col min="13577" max="13577" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13578" max="13578" width="4.6640625" style="7" customWidth="1"/>
-    <col min="13579" max="13579" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13580" max="13580" width="10.6640625" style="7" customWidth="1"/>
-    <col min="13581" max="13824" width="9.109375" style="7"/>
-    <col min="13825" max="13825" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13826" max="13827" width="9.109375" style="7"/>
-    <col min="13828" max="13828" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13829" max="13831" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13577" max="13577" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13578" max="13578" width="4.7109375" style="7" customWidth="1"/>
+    <col min="13579" max="13579" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13580" max="13580" width="10.7109375" style="7" customWidth="1"/>
+    <col min="13581" max="13824" width="9.140625" style="7"/>
+    <col min="13825" max="13825" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13826" max="13827" width="9.140625" style="7"/>
+    <col min="13828" max="13828" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13829" max="13831" width="7.28515625" style="7" customWidth="1"/>
     <col min="13832" max="13832" width="7" style="7" customWidth="1"/>
-    <col min="13833" max="13833" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13834" max="13834" width="4.6640625" style="7" customWidth="1"/>
-    <col min="13835" max="13835" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13836" max="13836" width="10.6640625" style="7" customWidth="1"/>
-    <col min="13837" max="14080" width="9.109375" style="7"/>
-    <col min="14081" max="14081" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14082" max="14083" width="9.109375" style="7"/>
-    <col min="14084" max="14084" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14085" max="14087" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13833" max="13833" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13834" max="13834" width="4.7109375" style="7" customWidth="1"/>
+    <col min="13835" max="13835" width="10.28515625" style="7" customWidth="1"/>
+    <col min="13836" max="13836" width="10.7109375" style="7" customWidth="1"/>
+    <col min="13837" max="14080" width="9.140625" style="7"/>
+    <col min="14081" max="14081" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14082" max="14083" width="9.140625" style="7"/>
+    <col min="14084" max="14084" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14085" max="14087" width="7.28515625" style="7" customWidth="1"/>
     <col min="14088" max="14088" width="7" style="7" customWidth="1"/>
-    <col min="14089" max="14089" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14090" max="14090" width="4.6640625" style="7" customWidth="1"/>
-    <col min="14091" max="14091" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14092" max="14092" width="10.6640625" style="7" customWidth="1"/>
-    <col min="14093" max="14336" width="9.109375" style="7"/>
-    <col min="14337" max="14337" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14338" max="14339" width="9.109375" style="7"/>
-    <col min="14340" max="14340" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14341" max="14343" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14089" max="14089" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14090" max="14090" width="4.7109375" style="7" customWidth="1"/>
+    <col min="14091" max="14091" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14092" max="14092" width="10.7109375" style="7" customWidth="1"/>
+    <col min="14093" max="14336" width="9.140625" style="7"/>
+    <col min="14337" max="14337" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14338" max="14339" width="9.140625" style="7"/>
+    <col min="14340" max="14340" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14341" max="14343" width="7.28515625" style="7" customWidth="1"/>
     <col min="14344" max="14344" width="7" style="7" customWidth="1"/>
-    <col min="14345" max="14345" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14346" max="14346" width="4.6640625" style="7" customWidth="1"/>
-    <col min="14347" max="14347" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14348" max="14348" width="10.6640625" style="7" customWidth="1"/>
-    <col min="14349" max="14592" width="9.109375" style="7"/>
-    <col min="14593" max="14593" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14594" max="14595" width="9.109375" style="7"/>
-    <col min="14596" max="14596" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14597" max="14599" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14345" max="14345" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14346" max="14346" width="4.7109375" style="7" customWidth="1"/>
+    <col min="14347" max="14347" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14348" max="14348" width="10.7109375" style="7" customWidth="1"/>
+    <col min="14349" max="14592" width="9.140625" style="7"/>
+    <col min="14593" max="14593" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14594" max="14595" width="9.140625" style="7"/>
+    <col min="14596" max="14596" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14597" max="14599" width="7.28515625" style="7" customWidth="1"/>
     <col min="14600" max="14600" width="7" style="7" customWidth="1"/>
-    <col min="14601" max="14601" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14602" max="14602" width="4.6640625" style="7" customWidth="1"/>
-    <col min="14603" max="14603" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14604" max="14604" width="10.6640625" style="7" customWidth="1"/>
-    <col min="14605" max="14848" width="9.109375" style="7"/>
-    <col min="14849" max="14849" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14850" max="14851" width="9.109375" style="7"/>
-    <col min="14852" max="14852" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14853" max="14855" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14601" max="14601" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14602" max="14602" width="4.7109375" style="7" customWidth="1"/>
+    <col min="14603" max="14603" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14604" max="14604" width="10.7109375" style="7" customWidth="1"/>
+    <col min="14605" max="14848" width="9.140625" style="7"/>
+    <col min="14849" max="14849" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14850" max="14851" width="9.140625" style="7"/>
+    <col min="14852" max="14852" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14853" max="14855" width="7.28515625" style="7" customWidth="1"/>
     <col min="14856" max="14856" width="7" style="7" customWidth="1"/>
-    <col min="14857" max="14857" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14858" max="14858" width="4.6640625" style="7" customWidth="1"/>
-    <col min="14859" max="14859" width="10.33203125" style="7" customWidth="1"/>
-    <col min="14860" max="14860" width="10.6640625" style="7" customWidth="1"/>
-    <col min="14861" max="15104" width="9.109375" style="7"/>
-    <col min="15105" max="15105" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15106" max="15107" width="9.109375" style="7"/>
-    <col min="15108" max="15108" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15109" max="15111" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14857" max="14857" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14858" max="14858" width="4.7109375" style="7" customWidth="1"/>
+    <col min="14859" max="14859" width="10.28515625" style="7" customWidth="1"/>
+    <col min="14860" max="14860" width="10.7109375" style="7" customWidth="1"/>
+    <col min="14861" max="15104" width="9.140625" style="7"/>
+    <col min="15105" max="15105" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15106" max="15107" width="9.140625" style="7"/>
+    <col min="15108" max="15108" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15109" max="15111" width="7.28515625" style="7" customWidth="1"/>
     <col min="15112" max="15112" width="7" style="7" customWidth="1"/>
-    <col min="15113" max="15113" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15114" max="15114" width="4.6640625" style="7" customWidth="1"/>
-    <col min="15115" max="15115" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15116" max="15116" width="10.6640625" style="7" customWidth="1"/>
-    <col min="15117" max="15360" width="9.109375" style="7"/>
-    <col min="15361" max="15361" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15362" max="15363" width="9.109375" style="7"/>
-    <col min="15364" max="15364" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15365" max="15367" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15113" max="15113" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15114" max="15114" width="4.7109375" style="7" customWidth="1"/>
+    <col min="15115" max="15115" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15116" max="15116" width="10.7109375" style="7" customWidth="1"/>
+    <col min="15117" max="15360" width="9.140625" style="7"/>
+    <col min="15361" max="15361" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15362" max="15363" width="9.140625" style="7"/>
+    <col min="15364" max="15364" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15365" max="15367" width="7.28515625" style="7" customWidth="1"/>
     <col min="15368" max="15368" width="7" style="7" customWidth="1"/>
-    <col min="15369" max="15369" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15370" max="15370" width="4.6640625" style="7" customWidth="1"/>
-    <col min="15371" max="15371" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15372" max="15372" width="10.6640625" style="7" customWidth="1"/>
-    <col min="15373" max="15616" width="9.109375" style="7"/>
-    <col min="15617" max="15617" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15618" max="15619" width="9.109375" style="7"/>
-    <col min="15620" max="15620" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15621" max="15623" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15369" max="15369" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15370" max="15370" width="4.7109375" style="7" customWidth="1"/>
+    <col min="15371" max="15371" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15372" max="15372" width="10.7109375" style="7" customWidth="1"/>
+    <col min="15373" max="15616" width="9.140625" style="7"/>
+    <col min="15617" max="15617" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15618" max="15619" width="9.140625" style="7"/>
+    <col min="15620" max="15620" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15621" max="15623" width="7.28515625" style="7" customWidth="1"/>
     <col min="15624" max="15624" width="7" style="7" customWidth="1"/>
-    <col min="15625" max="15625" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15626" max="15626" width="4.6640625" style="7" customWidth="1"/>
-    <col min="15627" max="15627" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15628" max="15628" width="10.6640625" style="7" customWidth="1"/>
-    <col min="15629" max="15872" width="9.109375" style="7"/>
-    <col min="15873" max="15873" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15874" max="15875" width="9.109375" style="7"/>
-    <col min="15876" max="15876" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15877" max="15879" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15625" max="15625" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15626" max="15626" width="4.7109375" style="7" customWidth="1"/>
+    <col min="15627" max="15627" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15628" max="15628" width="10.7109375" style="7" customWidth="1"/>
+    <col min="15629" max="15872" width="9.140625" style="7"/>
+    <col min="15873" max="15873" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15874" max="15875" width="9.140625" style="7"/>
+    <col min="15876" max="15876" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15877" max="15879" width="7.28515625" style="7" customWidth="1"/>
     <col min="15880" max="15880" width="7" style="7" customWidth="1"/>
-    <col min="15881" max="15881" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15882" max="15882" width="4.6640625" style="7" customWidth="1"/>
-    <col min="15883" max="15883" width="10.33203125" style="7" customWidth="1"/>
-    <col min="15884" max="15884" width="10.6640625" style="7" customWidth="1"/>
-    <col min="15885" max="16128" width="9.109375" style="7"/>
-    <col min="16129" max="16129" width="5.6640625" style="7" customWidth="1"/>
-    <col min="16130" max="16131" width="9.109375" style="7"/>
-    <col min="16132" max="16132" width="2.6640625" style="7" customWidth="1"/>
-    <col min="16133" max="16135" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15881" max="15881" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15882" max="15882" width="4.7109375" style="7" customWidth="1"/>
+    <col min="15883" max="15883" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15884" max="15884" width="10.7109375" style="7" customWidth="1"/>
+    <col min="15885" max="16128" width="9.140625" style="7"/>
+    <col min="16129" max="16129" width="5.7109375" style="7" customWidth="1"/>
+    <col min="16130" max="16131" width="9.140625" style="7"/>
+    <col min="16132" max="16132" width="2.7109375" style="7" customWidth="1"/>
+    <col min="16133" max="16135" width="7.28515625" style="7" customWidth="1"/>
     <col min="16136" max="16136" width="7" style="7" customWidth="1"/>
-    <col min="16137" max="16137" width="7.33203125" style="7" customWidth="1"/>
-    <col min="16138" max="16138" width="4.6640625" style="7" customWidth="1"/>
-    <col min="16139" max="16139" width="10.33203125" style="7" customWidth="1"/>
-    <col min="16140" max="16140" width="10.6640625" style="7" customWidth="1"/>
-    <col min="16141" max="16384" width="9.109375" style="7"/>
+    <col min="16137" max="16137" width="7.28515625" style="7" customWidth="1"/>
+    <col min="16138" max="16138" width="4.7109375" style="7" customWidth="1"/>
+    <col min="16139" max="16139" width="10.28515625" style="7" customWidth="1"/>
+    <col min="16140" max="16140" width="10.7109375" style="7" customWidth="1"/>
+    <col min="16141" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>81</v>
       </c>
@@ -8921,10 +9007,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -8938,10 +9024,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8970,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -8985,10 +9071,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -9000,10 +9086,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -9066,7 +9152,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="442"/>
+      <c r="C15" s="358"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -9077,7 +9163,7 @@
       <c r="K15" s="145"/>
       <c r="L15" s="146"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="98" t="s">
         <v>74</v>
       </c>
@@ -9114,7 +9200,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="81"/>
-      <c r="E18" s="443"/>
+      <c r="E18" s="359"/>
       <c r="F18" s="103">
         <v>1.3</v>
       </c>
@@ -9135,7 +9221,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="81"/>
-      <c r="E19" s="443"/>
+      <c r="E19" s="359"/>
       <c r="F19" s="103">
         <v>0.9</v>
       </c>
@@ -9156,7 +9242,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="81"/>
-      <c r="E20" s="443"/>
+      <c r="E20" s="359"/>
       <c r="F20" s="103">
         <v>0.4</v>
       </c>
@@ -9177,7 +9263,7 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="443"/>
+      <c r="E21" s="359"/>
       <c r="F21" s="147" t="s">
         <v>108</v>
       </c>
@@ -9189,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="106" t="s">
         <v>85</v>
       </c>
@@ -9200,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G23" s="109" t="s">
         <v>86</v>
       </c>
@@ -9240,7 +9326,7 @@
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="139"/>
-      <c r="E26" s="440"/>
+      <c r="E26" s="356"/>
       <c r="F26" s="137" t="s">
         <v>78</v>
       </c>
@@ -9295,7 +9381,7 @@
       <c r="H29" s="49"/>
       <c r="I29" s="118"/>
       <c r="J29" s="119"/>
-      <c r="K29" s="444"/>
+      <c r="K29" s="360"/>
     </row>
     <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="47"/>
@@ -9374,596 +9460,596 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K18"/>
+    <sheetView showZeros="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="7"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14" max="256" width="9.109375" style="7"/>
-    <col min="257" max="257" width="5.6640625" style="7" customWidth="1"/>
-    <col min="258" max="259" width="9.109375" style="7"/>
-    <col min="260" max="260" width="2.6640625" style="7" customWidth="1"/>
-    <col min="261" max="263" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14" max="256" width="9.140625" style="7"/>
+    <col min="257" max="257" width="5.7109375" style="7" customWidth="1"/>
+    <col min="258" max="259" width="9.140625" style="7"/>
+    <col min="260" max="260" width="2.7109375" style="7" customWidth="1"/>
+    <col min="261" max="263" width="7.28515625" style="7" customWidth="1"/>
     <col min="264" max="264" width="7" style="7" customWidth="1"/>
-    <col min="265" max="267" width="7.33203125" style="7" customWidth="1"/>
-    <col min="268" max="268" width="10.5546875" style="7" customWidth="1"/>
-    <col min="269" max="269" width="7.33203125" style="7" customWidth="1"/>
-    <col min="270" max="512" width="9.109375" style="7"/>
-    <col min="513" max="513" width="5.6640625" style="7" customWidth="1"/>
-    <col min="514" max="515" width="9.109375" style="7"/>
-    <col min="516" max="516" width="2.6640625" style="7" customWidth="1"/>
-    <col min="517" max="519" width="7.33203125" style="7" customWidth="1"/>
+    <col min="265" max="267" width="7.28515625" style="7" customWidth="1"/>
+    <col min="268" max="268" width="10.5703125" style="7" customWidth="1"/>
+    <col min="269" max="269" width="7.28515625" style="7" customWidth="1"/>
+    <col min="270" max="512" width="9.140625" style="7"/>
+    <col min="513" max="513" width="5.7109375" style="7" customWidth="1"/>
+    <col min="514" max="515" width="9.140625" style="7"/>
+    <col min="516" max="516" width="2.7109375" style="7" customWidth="1"/>
+    <col min="517" max="519" width="7.28515625" style="7" customWidth="1"/>
     <col min="520" max="520" width="7" style="7" customWidth="1"/>
-    <col min="521" max="523" width="7.33203125" style="7" customWidth="1"/>
-    <col min="524" max="524" width="10.5546875" style="7" customWidth="1"/>
-    <col min="525" max="525" width="7.33203125" style="7" customWidth="1"/>
-    <col min="526" max="768" width="9.109375" style="7"/>
-    <col min="769" max="769" width="5.6640625" style="7" customWidth="1"/>
-    <col min="770" max="771" width="9.109375" style="7"/>
-    <col min="772" max="772" width="2.6640625" style="7" customWidth="1"/>
-    <col min="773" max="775" width="7.33203125" style="7" customWidth="1"/>
+    <col min="521" max="523" width="7.28515625" style="7" customWidth="1"/>
+    <col min="524" max="524" width="10.5703125" style="7" customWidth="1"/>
+    <col min="525" max="525" width="7.28515625" style="7" customWidth="1"/>
+    <col min="526" max="768" width="9.140625" style="7"/>
+    <col min="769" max="769" width="5.7109375" style="7" customWidth="1"/>
+    <col min="770" max="771" width="9.140625" style="7"/>
+    <col min="772" max="772" width="2.7109375" style="7" customWidth="1"/>
+    <col min="773" max="775" width="7.28515625" style="7" customWidth="1"/>
     <col min="776" max="776" width="7" style="7" customWidth="1"/>
-    <col min="777" max="779" width="7.33203125" style="7" customWidth="1"/>
-    <col min="780" max="780" width="10.5546875" style="7" customWidth="1"/>
-    <col min="781" max="781" width="7.33203125" style="7" customWidth="1"/>
-    <col min="782" max="1024" width="9.109375" style="7"/>
-    <col min="1025" max="1025" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1026" max="1027" width="9.109375" style="7"/>
-    <col min="1028" max="1028" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1029" max="1031" width="7.33203125" style="7" customWidth="1"/>
+    <col min="777" max="779" width="7.28515625" style="7" customWidth="1"/>
+    <col min="780" max="780" width="10.5703125" style="7" customWidth="1"/>
+    <col min="781" max="781" width="7.28515625" style="7" customWidth="1"/>
+    <col min="782" max="1024" width="9.140625" style="7"/>
+    <col min="1025" max="1025" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1026" max="1027" width="9.140625" style="7"/>
+    <col min="1028" max="1028" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1029" max="1031" width="7.28515625" style="7" customWidth="1"/>
     <col min="1032" max="1032" width="7" style="7" customWidth="1"/>
-    <col min="1033" max="1035" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1036" max="1036" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1037" max="1037" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1038" max="1280" width="9.109375" style="7"/>
-    <col min="1281" max="1281" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1282" max="1283" width="9.109375" style="7"/>
-    <col min="1284" max="1284" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1285" max="1287" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1033" max="1035" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1036" max="1036" width="10.5703125" style="7" customWidth="1"/>
+    <col min="1037" max="1037" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1038" max="1280" width="9.140625" style="7"/>
+    <col min="1281" max="1281" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1282" max="1283" width="9.140625" style="7"/>
+    <col min="1284" max="1284" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1285" max="1287" width="7.28515625" style="7" customWidth="1"/>
     <col min="1288" max="1288" width="7" style="7" customWidth="1"/>
-    <col min="1289" max="1291" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1292" max="1292" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1293" max="1293" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1294" max="1536" width="9.109375" style="7"/>
-    <col min="1537" max="1537" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1538" max="1539" width="9.109375" style="7"/>
-    <col min="1540" max="1540" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1541" max="1543" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1289" max="1291" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1292" max="1292" width="10.5703125" style="7" customWidth="1"/>
+    <col min="1293" max="1293" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1294" max="1536" width="9.140625" style="7"/>
+    <col min="1537" max="1537" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1538" max="1539" width="9.140625" style="7"/>
+    <col min="1540" max="1540" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1541" max="1543" width="7.28515625" style="7" customWidth="1"/>
     <col min="1544" max="1544" width="7" style="7" customWidth="1"/>
-    <col min="1545" max="1547" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1548" max="1548" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1549" max="1549" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1550" max="1792" width="9.109375" style="7"/>
-    <col min="1793" max="1793" width="5.6640625" style="7" customWidth="1"/>
-    <col min="1794" max="1795" width="9.109375" style="7"/>
-    <col min="1796" max="1796" width="2.6640625" style="7" customWidth="1"/>
-    <col min="1797" max="1799" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1545" max="1547" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1548" max="1548" width="10.5703125" style="7" customWidth="1"/>
+    <col min="1549" max="1549" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1550" max="1792" width="9.140625" style="7"/>
+    <col min="1793" max="1793" width="5.7109375" style="7" customWidth="1"/>
+    <col min="1794" max="1795" width="9.140625" style="7"/>
+    <col min="1796" max="1796" width="2.7109375" style="7" customWidth="1"/>
+    <col min="1797" max="1799" width="7.28515625" style="7" customWidth="1"/>
     <col min="1800" max="1800" width="7" style="7" customWidth="1"/>
-    <col min="1801" max="1803" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1804" max="1804" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1805" max="1805" width="7.33203125" style="7" customWidth="1"/>
-    <col min="1806" max="2048" width="9.109375" style="7"/>
-    <col min="2049" max="2049" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2050" max="2051" width="9.109375" style="7"/>
-    <col min="2052" max="2052" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2053" max="2055" width="7.33203125" style="7" customWidth="1"/>
+    <col min="1801" max="1803" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1804" max="1804" width="10.5703125" style="7" customWidth="1"/>
+    <col min="1805" max="1805" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1806" max="2048" width="9.140625" style="7"/>
+    <col min="2049" max="2049" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2050" max="2051" width="9.140625" style="7"/>
+    <col min="2052" max="2052" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2053" max="2055" width="7.28515625" style="7" customWidth="1"/>
     <col min="2056" max="2056" width="7" style="7" customWidth="1"/>
-    <col min="2057" max="2059" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2060" max="2060" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2061" max="2061" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2062" max="2304" width="9.109375" style="7"/>
-    <col min="2305" max="2305" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2306" max="2307" width="9.109375" style="7"/>
-    <col min="2308" max="2308" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2309" max="2311" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2057" max="2059" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2060" max="2060" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2061" max="2061" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2062" max="2304" width="9.140625" style="7"/>
+    <col min="2305" max="2305" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2306" max="2307" width="9.140625" style="7"/>
+    <col min="2308" max="2308" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2309" max="2311" width="7.28515625" style="7" customWidth="1"/>
     <col min="2312" max="2312" width="7" style="7" customWidth="1"/>
-    <col min="2313" max="2315" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2316" max="2316" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2317" max="2317" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2318" max="2560" width="9.109375" style="7"/>
-    <col min="2561" max="2561" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2562" max="2563" width="9.109375" style="7"/>
-    <col min="2564" max="2564" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2565" max="2567" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2313" max="2315" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2316" max="2316" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2317" max="2317" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2318" max="2560" width="9.140625" style="7"/>
+    <col min="2561" max="2561" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2562" max="2563" width="9.140625" style="7"/>
+    <col min="2564" max="2564" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2565" max="2567" width="7.28515625" style="7" customWidth="1"/>
     <col min="2568" max="2568" width="7" style="7" customWidth="1"/>
-    <col min="2569" max="2571" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2572" max="2572" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2573" max="2573" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2574" max="2816" width="9.109375" style="7"/>
-    <col min="2817" max="2817" width="5.6640625" style="7" customWidth="1"/>
-    <col min="2818" max="2819" width="9.109375" style="7"/>
-    <col min="2820" max="2820" width="2.6640625" style="7" customWidth="1"/>
-    <col min="2821" max="2823" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2569" max="2571" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2572" max="2572" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2573" max="2573" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2574" max="2816" width="9.140625" style="7"/>
+    <col min="2817" max="2817" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2818" max="2819" width="9.140625" style="7"/>
+    <col min="2820" max="2820" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2821" max="2823" width="7.28515625" style="7" customWidth="1"/>
     <col min="2824" max="2824" width="7" style="7" customWidth="1"/>
-    <col min="2825" max="2827" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2828" max="2828" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2829" max="2829" width="7.33203125" style="7" customWidth="1"/>
-    <col min="2830" max="3072" width="9.109375" style="7"/>
-    <col min="3073" max="3073" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3074" max="3075" width="9.109375" style="7"/>
-    <col min="3076" max="3076" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3077" max="3079" width="7.33203125" style="7" customWidth="1"/>
+    <col min="2825" max="2827" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2828" max="2828" width="10.5703125" style="7" customWidth="1"/>
+    <col min="2829" max="2829" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2830" max="3072" width="9.140625" style="7"/>
+    <col min="3073" max="3073" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3074" max="3075" width="9.140625" style="7"/>
+    <col min="3076" max="3076" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3077" max="3079" width="7.28515625" style="7" customWidth="1"/>
     <col min="3080" max="3080" width="7" style="7" customWidth="1"/>
-    <col min="3081" max="3083" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3084" max="3084" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3085" max="3085" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3086" max="3328" width="9.109375" style="7"/>
-    <col min="3329" max="3329" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3330" max="3331" width="9.109375" style="7"/>
-    <col min="3332" max="3332" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3333" max="3335" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3081" max="3083" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3084" max="3084" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3085" max="3085" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3086" max="3328" width="9.140625" style="7"/>
+    <col min="3329" max="3329" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3330" max="3331" width="9.140625" style="7"/>
+    <col min="3332" max="3332" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3333" max="3335" width="7.28515625" style="7" customWidth="1"/>
     <col min="3336" max="3336" width="7" style="7" customWidth="1"/>
-    <col min="3337" max="3339" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3340" max="3340" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3341" max="3341" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3342" max="3584" width="9.109375" style="7"/>
-    <col min="3585" max="3585" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3586" max="3587" width="9.109375" style="7"/>
-    <col min="3588" max="3588" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3589" max="3591" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3337" max="3339" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3340" max="3340" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3341" max="3341" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3342" max="3584" width="9.140625" style="7"/>
+    <col min="3585" max="3585" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3586" max="3587" width="9.140625" style="7"/>
+    <col min="3588" max="3588" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3589" max="3591" width="7.28515625" style="7" customWidth="1"/>
     <col min="3592" max="3592" width="7" style="7" customWidth="1"/>
-    <col min="3593" max="3595" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3596" max="3596" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3597" max="3597" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3598" max="3840" width="9.109375" style="7"/>
-    <col min="3841" max="3841" width="5.6640625" style="7" customWidth="1"/>
-    <col min="3842" max="3843" width="9.109375" style="7"/>
-    <col min="3844" max="3844" width="2.6640625" style="7" customWidth="1"/>
-    <col min="3845" max="3847" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3593" max="3595" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3596" max="3596" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3597" max="3597" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3598" max="3840" width="9.140625" style="7"/>
+    <col min="3841" max="3841" width="5.7109375" style="7" customWidth="1"/>
+    <col min="3842" max="3843" width="9.140625" style="7"/>
+    <col min="3844" max="3844" width="2.7109375" style="7" customWidth="1"/>
+    <col min="3845" max="3847" width="7.28515625" style="7" customWidth="1"/>
     <col min="3848" max="3848" width="7" style="7" customWidth="1"/>
-    <col min="3849" max="3851" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3852" max="3852" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3853" max="3853" width="7.33203125" style="7" customWidth="1"/>
-    <col min="3854" max="4096" width="9.109375" style="7"/>
-    <col min="4097" max="4097" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4098" max="4099" width="9.109375" style="7"/>
-    <col min="4100" max="4100" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4101" max="4103" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3849" max="3851" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3852" max="3852" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3853" max="3853" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3854" max="4096" width="9.140625" style="7"/>
+    <col min="4097" max="4097" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4098" max="4099" width="9.140625" style="7"/>
+    <col min="4100" max="4100" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4101" max="4103" width="7.28515625" style="7" customWidth="1"/>
     <col min="4104" max="4104" width="7" style="7" customWidth="1"/>
-    <col min="4105" max="4107" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4108" max="4108" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4109" max="4109" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4110" max="4352" width="9.109375" style="7"/>
-    <col min="4353" max="4353" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4354" max="4355" width="9.109375" style="7"/>
-    <col min="4356" max="4356" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4357" max="4359" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4105" max="4107" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4108" max="4108" width="10.5703125" style="7" customWidth="1"/>
+    <col min="4109" max="4109" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4110" max="4352" width="9.140625" style="7"/>
+    <col min="4353" max="4353" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4354" max="4355" width="9.140625" style="7"/>
+    <col min="4356" max="4356" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4357" max="4359" width="7.28515625" style="7" customWidth="1"/>
     <col min="4360" max="4360" width="7" style="7" customWidth="1"/>
-    <col min="4361" max="4363" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4364" max="4364" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4365" max="4365" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4366" max="4608" width="9.109375" style="7"/>
-    <col min="4609" max="4609" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4610" max="4611" width="9.109375" style="7"/>
-    <col min="4612" max="4612" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4613" max="4615" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4361" max="4363" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4364" max="4364" width="10.5703125" style="7" customWidth="1"/>
+    <col min="4365" max="4365" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4366" max="4608" width="9.140625" style="7"/>
+    <col min="4609" max="4609" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4610" max="4611" width="9.140625" style="7"/>
+    <col min="4612" max="4612" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4613" max="4615" width="7.28515625" style="7" customWidth="1"/>
     <col min="4616" max="4616" width="7" style="7" customWidth="1"/>
-    <col min="4617" max="4619" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4620" max="4620" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4621" max="4621" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4622" max="4864" width="9.109375" style="7"/>
-    <col min="4865" max="4865" width="5.6640625" style="7" customWidth="1"/>
-    <col min="4866" max="4867" width="9.109375" style="7"/>
-    <col min="4868" max="4868" width="2.6640625" style="7" customWidth="1"/>
-    <col min="4869" max="4871" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4617" max="4619" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4620" max="4620" width="10.5703125" style="7" customWidth="1"/>
+    <col min="4621" max="4621" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4622" max="4864" width="9.140625" style="7"/>
+    <col min="4865" max="4865" width="5.7109375" style="7" customWidth="1"/>
+    <col min="4866" max="4867" width="9.140625" style="7"/>
+    <col min="4868" max="4868" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4869" max="4871" width="7.28515625" style="7" customWidth="1"/>
     <col min="4872" max="4872" width="7" style="7" customWidth="1"/>
-    <col min="4873" max="4875" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4876" max="4876" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4877" max="4877" width="7.33203125" style="7" customWidth="1"/>
-    <col min="4878" max="5120" width="9.109375" style="7"/>
-    <col min="5121" max="5121" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5122" max="5123" width="9.109375" style="7"/>
-    <col min="5124" max="5124" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5125" max="5127" width="7.33203125" style="7" customWidth="1"/>
+    <col min="4873" max="4875" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4876" max="4876" width="10.5703125" style="7" customWidth="1"/>
+    <col min="4877" max="4877" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4878" max="5120" width="9.140625" style="7"/>
+    <col min="5121" max="5121" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5122" max="5123" width="9.140625" style="7"/>
+    <col min="5124" max="5124" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5125" max="5127" width="7.28515625" style="7" customWidth="1"/>
     <col min="5128" max="5128" width="7" style="7" customWidth="1"/>
-    <col min="5129" max="5131" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5132" max="5132" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5133" max="5133" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5134" max="5376" width="9.109375" style="7"/>
-    <col min="5377" max="5377" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5378" max="5379" width="9.109375" style="7"/>
-    <col min="5380" max="5380" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5381" max="5383" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5129" max="5131" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5132" max="5132" width="10.5703125" style="7" customWidth="1"/>
+    <col min="5133" max="5133" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5134" max="5376" width="9.140625" style="7"/>
+    <col min="5377" max="5377" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5378" max="5379" width="9.140625" style="7"/>
+    <col min="5380" max="5380" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5381" max="5383" width="7.28515625" style="7" customWidth="1"/>
     <col min="5384" max="5384" width="7" style="7" customWidth="1"/>
-    <col min="5385" max="5387" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5388" max="5388" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5389" max="5389" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5390" max="5632" width="9.109375" style="7"/>
-    <col min="5633" max="5633" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5634" max="5635" width="9.109375" style="7"/>
-    <col min="5636" max="5636" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5637" max="5639" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5385" max="5387" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5388" max="5388" width="10.5703125" style="7" customWidth="1"/>
+    <col min="5389" max="5389" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5390" max="5632" width="9.140625" style="7"/>
+    <col min="5633" max="5633" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5634" max="5635" width="9.140625" style="7"/>
+    <col min="5636" max="5636" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5637" max="5639" width="7.28515625" style="7" customWidth="1"/>
     <col min="5640" max="5640" width="7" style="7" customWidth="1"/>
-    <col min="5641" max="5643" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5644" max="5644" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5645" max="5645" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5646" max="5888" width="9.109375" style="7"/>
-    <col min="5889" max="5889" width="5.6640625" style="7" customWidth="1"/>
-    <col min="5890" max="5891" width="9.109375" style="7"/>
-    <col min="5892" max="5892" width="2.6640625" style="7" customWidth="1"/>
-    <col min="5893" max="5895" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5641" max="5643" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5644" max="5644" width="10.5703125" style="7" customWidth="1"/>
+    <col min="5645" max="5645" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5646" max="5888" width="9.140625" style="7"/>
+    <col min="5889" max="5889" width="5.7109375" style="7" customWidth="1"/>
+    <col min="5890" max="5891" width="9.140625" style="7"/>
+    <col min="5892" max="5892" width="2.7109375" style="7" customWidth="1"/>
+    <col min="5893" max="5895" width="7.28515625" style="7" customWidth="1"/>
     <col min="5896" max="5896" width="7" style="7" customWidth="1"/>
-    <col min="5897" max="5899" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5900" max="5900" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5901" max="5901" width="7.33203125" style="7" customWidth="1"/>
-    <col min="5902" max="6144" width="9.109375" style="7"/>
-    <col min="6145" max="6145" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6146" max="6147" width="9.109375" style="7"/>
-    <col min="6148" max="6148" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6149" max="6151" width="7.33203125" style="7" customWidth="1"/>
+    <col min="5897" max="5899" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5900" max="5900" width="10.5703125" style="7" customWidth="1"/>
+    <col min="5901" max="5901" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5902" max="6144" width="9.140625" style="7"/>
+    <col min="6145" max="6145" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6146" max="6147" width="9.140625" style="7"/>
+    <col min="6148" max="6148" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6149" max="6151" width="7.28515625" style="7" customWidth="1"/>
     <col min="6152" max="6152" width="7" style="7" customWidth="1"/>
-    <col min="6153" max="6155" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6156" max="6156" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6157" max="6157" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6158" max="6400" width="9.109375" style="7"/>
-    <col min="6401" max="6401" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6402" max="6403" width="9.109375" style="7"/>
-    <col min="6404" max="6404" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6405" max="6407" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6153" max="6155" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6156" max="6156" width="10.5703125" style="7" customWidth="1"/>
+    <col min="6157" max="6157" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6158" max="6400" width="9.140625" style="7"/>
+    <col min="6401" max="6401" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6402" max="6403" width="9.140625" style="7"/>
+    <col min="6404" max="6404" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6405" max="6407" width="7.28515625" style="7" customWidth="1"/>
     <col min="6408" max="6408" width="7" style="7" customWidth="1"/>
-    <col min="6409" max="6411" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6412" max="6412" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6413" max="6413" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6414" max="6656" width="9.109375" style="7"/>
-    <col min="6657" max="6657" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6658" max="6659" width="9.109375" style="7"/>
-    <col min="6660" max="6660" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6661" max="6663" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6409" max="6411" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6412" max="6412" width="10.5703125" style="7" customWidth="1"/>
+    <col min="6413" max="6413" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6414" max="6656" width="9.140625" style="7"/>
+    <col min="6657" max="6657" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6658" max="6659" width="9.140625" style="7"/>
+    <col min="6660" max="6660" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6661" max="6663" width="7.28515625" style="7" customWidth="1"/>
     <col min="6664" max="6664" width="7" style="7" customWidth="1"/>
-    <col min="6665" max="6667" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6668" max="6668" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6669" max="6669" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6670" max="6912" width="9.109375" style="7"/>
-    <col min="6913" max="6913" width="5.6640625" style="7" customWidth="1"/>
-    <col min="6914" max="6915" width="9.109375" style="7"/>
-    <col min="6916" max="6916" width="2.6640625" style="7" customWidth="1"/>
-    <col min="6917" max="6919" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6665" max="6667" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6668" max="6668" width="10.5703125" style="7" customWidth="1"/>
+    <col min="6669" max="6669" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6670" max="6912" width="9.140625" style="7"/>
+    <col min="6913" max="6913" width="5.7109375" style="7" customWidth="1"/>
+    <col min="6914" max="6915" width="9.140625" style="7"/>
+    <col min="6916" max="6916" width="2.7109375" style="7" customWidth="1"/>
+    <col min="6917" max="6919" width="7.28515625" style="7" customWidth="1"/>
     <col min="6920" max="6920" width="7" style="7" customWidth="1"/>
-    <col min="6921" max="6923" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6924" max="6924" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6925" max="6925" width="7.33203125" style="7" customWidth="1"/>
-    <col min="6926" max="7168" width="9.109375" style="7"/>
-    <col min="7169" max="7169" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7170" max="7171" width="9.109375" style="7"/>
-    <col min="7172" max="7172" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7173" max="7175" width="7.33203125" style="7" customWidth="1"/>
+    <col min="6921" max="6923" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6924" max="6924" width="10.5703125" style="7" customWidth="1"/>
+    <col min="6925" max="6925" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6926" max="7168" width="9.140625" style="7"/>
+    <col min="7169" max="7169" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7170" max="7171" width="9.140625" style="7"/>
+    <col min="7172" max="7172" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7173" max="7175" width="7.28515625" style="7" customWidth="1"/>
     <col min="7176" max="7176" width="7" style="7" customWidth="1"/>
-    <col min="7177" max="7179" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7180" max="7180" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7181" max="7181" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7182" max="7424" width="9.109375" style="7"/>
-    <col min="7425" max="7425" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7426" max="7427" width="9.109375" style="7"/>
-    <col min="7428" max="7428" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7429" max="7431" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7177" max="7179" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7180" max="7180" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7181" max="7181" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7182" max="7424" width="9.140625" style="7"/>
+    <col min="7425" max="7425" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7426" max="7427" width="9.140625" style="7"/>
+    <col min="7428" max="7428" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7429" max="7431" width="7.28515625" style="7" customWidth="1"/>
     <col min="7432" max="7432" width="7" style="7" customWidth="1"/>
-    <col min="7433" max="7435" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7436" max="7436" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7437" max="7437" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7438" max="7680" width="9.109375" style="7"/>
-    <col min="7681" max="7681" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7682" max="7683" width="9.109375" style="7"/>
-    <col min="7684" max="7684" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7685" max="7687" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7433" max="7435" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7436" max="7436" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7437" max="7437" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7438" max="7680" width="9.140625" style="7"/>
+    <col min="7681" max="7681" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7682" max="7683" width="9.140625" style="7"/>
+    <col min="7684" max="7684" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7685" max="7687" width="7.28515625" style="7" customWidth="1"/>
     <col min="7688" max="7688" width="7" style="7" customWidth="1"/>
-    <col min="7689" max="7691" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7692" max="7692" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7693" max="7693" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7694" max="7936" width="9.109375" style="7"/>
-    <col min="7937" max="7937" width="5.6640625" style="7" customWidth="1"/>
-    <col min="7938" max="7939" width="9.109375" style="7"/>
-    <col min="7940" max="7940" width="2.6640625" style="7" customWidth="1"/>
-    <col min="7941" max="7943" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7689" max="7691" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7692" max="7692" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7693" max="7693" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7694" max="7936" width="9.140625" style="7"/>
+    <col min="7937" max="7937" width="5.7109375" style="7" customWidth="1"/>
+    <col min="7938" max="7939" width="9.140625" style="7"/>
+    <col min="7940" max="7940" width="2.7109375" style="7" customWidth="1"/>
+    <col min="7941" max="7943" width="7.28515625" style="7" customWidth="1"/>
     <col min="7944" max="7944" width="7" style="7" customWidth="1"/>
-    <col min="7945" max="7947" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7948" max="7948" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7949" max="7949" width="7.33203125" style="7" customWidth="1"/>
-    <col min="7950" max="8192" width="9.109375" style="7"/>
-    <col min="8193" max="8193" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8194" max="8195" width="9.109375" style="7"/>
-    <col min="8196" max="8196" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8197" max="8199" width="7.33203125" style="7" customWidth="1"/>
+    <col min="7945" max="7947" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7948" max="7948" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7949" max="7949" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7950" max="8192" width="9.140625" style="7"/>
+    <col min="8193" max="8193" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8194" max="8195" width="9.140625" style="7"/>
+    <col min="8196" max="8196" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8197" max="8199" width="7.28515625" style="7" customWidth="1"/>
     <col min="8200" max="8200" width="7" style="7" customWidth="1"/>
-    <col min="8201" max="8203" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8204" max="8204" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8205" max="8205" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8206" max="8448" width="9.109375" style="7"/>
-    <col min="8449" max="8449" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8450" max="8451" width="9.109375" style="7"/>
-    <col min="8452" max="8452" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8453" max="8455" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8201" max="8203" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8204" max="8204" width="10.5703125" style="7" customWidth="1"/>
+    <col min="8205" max="8205" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8206" max="8448" width="9.140625" style="7"/>
+    <col min="8449" max="8449" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8450" max="8451" width="9.140625" style="7"/>
+    <col min="8452" max="8452" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8453" max="8455" width="7.28515625" style="7" customWidth="1"/>
     <col min="8456" max="8456" width="7" style="7" customWidth="1"/>
-    <col min="8457" max="8459" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8460" max="8460" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8461" max="8461" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8462" max="8704" width="9.109375" style="7"/>
-    <col min="8705" max="8705" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8706" max="8707" width="9.109375" style="7"/>
-    <col min="8708" max="8708" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8709" max="8711" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8457" max="8459" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8460" max="8460" width="10.5703125" style="7" customWidth="1"/>
+    <col min="8461" max="8461" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8462" max="8704" width="9.140625" style="7"/>
+    <col min="8705" max="8705" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8706" max="8707" width="9.140625" style="7"/>
+    <col min="8708" max="8708" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8709" max="8711" width="7.28515625" style="7" customWidth="1"/>
     <col min="8712" max="8712" width="7" style="7" customWidth="1"/>
-    <col min="8713" max="8715" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8716" max="8716" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8717" max="8717" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8718" max="8960" width="9.109375" style="7"/>
-    <col min="8961" max="8961" width="5.6640625" style="7" customWidth="1"/>
-    <col min="8962" max="8963" width="9.109375" style="7"/>
-    <col min="8964" max="8964" width="2.6640625" style="7" customWidth="1"/>
-    <col min="8965" max="8967" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8713" max="8715" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8716" max="8716" width="10.5703125" style="7" customWidth="1"/>
+    <col min="8717" max="8717" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8718" max="8960" width="9.140625" style="7"/>
+    <col min="8961" max="8961" width="5.7109375" style="7" customWidth="1"/>
+    <col min="8962" max="8963" width="9.140625" style="7"/>
+    <col min="8964" max="8964" width="2.7109375" style="7" customWidth="1"/>
+    <col min="8965" max="8967" width="7.28515625" style="7" customWidth="1"/>
     <col min="8968" max="8968" width="7" style="7" customWidth="1"/>
-    <col min="8969" max="8971" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8972" max="8972" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8973" max="8973" width="7.33203125" style="7" customWidth="1"/>
-    <col min="8974" max="9216" width="9.109375" style="7"/>
-    <col min="9217" max="9217" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9218" max="9219" width="9.109375" style="7"/>
-    <col min="9220" max="9220" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9221" max="9223" width="7.33203125" style="7" customWidth="1"/>
+    <col min="8969" max="8971" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8972" max="8972" width="10.5703125" style="7" customWidth="1"/>
+    <col min="8973" max="8973" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8974" max="9216" width="9.140625" style="7"/>
+    <col min="9217" max="9217" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9218" max="9219" width="9.140625" style="7"/>
+    <col min="9220" max="9220" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9221" max="9223" width="7.28515625" style="7" customWidth="1"/>
     <col min="9224" max="9224" width="7" style="7" customWidth="1"/>
-    <col min="9225" max="9227" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9228" max="9228" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9229" max="9229" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9230" max="9472" width="9.109375" style="7"/>
-    <col min="9473" max="9473" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9474" max="9475" width="9.109375" style="7"/>
-    <col min="9476" max="9476" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9477" max="9479" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9225" max="9227" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9228" max="9228" width="10.5703125" style="7" customWidth="1"/>
+    <col min="9229" max="9229" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9230" max="9472" width="9.140625" style="7"/>
+    <col min="9473" max="9473" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9474" max="9475" width="9.140625" style="7"/>
+    <col min="9476" max="9476" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9477" max="9479" width="7.28515625" style="7" customWidth="1"/>
     <col min="9480" max="9480" width="7" style="7" customWidth="1"/>
-    <col min="9481" max="9483" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9484" max="9484" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9485" max="9485" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9486" max="9728" width="9.109375" style="7"/>
-    <col min="9729" max="9729" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9730" max="9731" width="9.109375" style="7"/>
-    <col min="9732" max="9732" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9733" max="9735" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9481" max="9483" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9484" max="9484" width="10.5703125" style="7" customWidth="1"/>
+    <col min="9485" max="9485" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9486" max="9728" width="9.140625" style="7"/>
+    <col min="9729" max="9729" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9730" max="9731" width="9.140625" style="7"/>
+    <col min="9732" max="9732" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9733" max="9735" width="7.28515625" style="7" customWidth="1"/>
     <col min="9736" max="9736" width="7" style="7" customWidth="1"/>
-    <col min="9737" max="9739" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9740" max="9740" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9741" max="9741" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9742" max="9984" width="9.109375" style="7"/>
-    <col min="9985" max="9985" width="5.6640625" style="7" customWidth="1"/>
-    <col min="9986" max="9987" width="9.109375" style="7"/>
-    <col min="9988" max="9988" width="2.6640625" style="7" customWidth="1"/>
-    <col min="9989" max="9991" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9737" max="9739" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9740" max="9740" width="10.5703125" style="7" customWidth="1"/>
+    <col min="9741" max="9741" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9742" max="9984" width="9.140625" style="7"/>
+    <col min="9985" max="9985" width="5.7109375" style="7" customWidth="1"/>
+    <col min="9986" max="9987" width="9.140625" style="7"/>
+    <col min="9988" max="9988" width="2.7109375" style="7" customWidth="1"/>
+    <col min="9989" max="9991" width="7.28515625" style="7" customWidth="1"/>
     <col min="9992" max="9992" width="7" style="7" customWidth="1"/>
-    <col min="9993" max="9995" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9996" max="9996" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9997" max="9997" width="7.33203125" style="7" customWidth="1"/>
-    <col min="9998" max="10240" width="9.109375" style="7"/>
-    <col min="10241" max="10241" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10242" max="10243" width="9.109375" style="7"/>
-    <col min="10244" max="10244" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10245" max="10247" width="7.33203125" style="7" customWidth="1"/>
+    <col min="9993" max="9995" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9996" max="9996" width="10.5703125" style="7" customWidth="1"/>
+    <col min="9997" max="9997" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9998" max="10240" width="9.140625" style="7"/>
+    <col min="10241" max="10241" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10242" max="10243" width="9.140625" style="7"/>
+    <col min="10244" max="10244" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10245" max="10247" width="7.28515625" style="7" customWidth="1"/>
     <col min="10248" max="10248" width="7" style="7" customWidth="1"/>
-    <col min="10249" max="10251" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10252" max="10252" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10253" max="10253" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10254" max="10496" width="9.109375" style="7"/>
-    <col min="10497" max="10497" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10498" max="10499" width="9.109375" style="7"/>
-    <col min="10500" max="10500" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10501" max="10503" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10249" max="10251" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10252" max="10252" width="10.5703125" style="7" customWidth="1"/>
+    <col min="10253" max="10253" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10254" max="10496" width="9.140625" style="7"/>
+    <col min="10497" max="10497" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10498" max="10499" width="9.140625" style="7"/>
+    <col min="10500" max="10500" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10501" max="10503" width="7.28515625" style="7" customWidth="1"/>
     <col min="10504" max="10504" width="7" style="7" customWidth="1"/>
-    <col min="10505" max="10507" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10508" max="10508" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10509" max="10509" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10510" max="10752" width="9.109375" style="7"/>
-    <col min="10753" max="10753" width="5.6640625" style="7" customWidth="1"/>
-    <col min="10754" max="10755" width="9.109375" style="7"/>
-    <col min="10756" max="10756" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10757" max="10759" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10505" max="10507" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10508" max="10508" width="10.5703125" style="7" customWidth="1"/>
+    <col min="10509" max="10509" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10510" max="10752" width="9.140625" style="7"/>
+    <col min="10753" max="10753" width="5.7109375" style="7" customWidth="1"/>
+    <col min="10754" max="10755" width="9.140625" style="7"/>
+    <col min="10756" max="10756" width="2.7109375" style="7" customWidth="1"/>
+    <col min="10757" max="10759" width="7.28515625" style="7" customWidth="1"/>
     <col min="10760" max="10760" width="7" style="7" customWidth="1"/>
-    <col min="10761" max="10763" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10764" max="10764" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10765" max="10765" width="7.33203125" style="7" customWidth="1"/>
-    <col min="10766" max="11008" width="9.109375" style="7"/>
-    <col min="11009" max="11009" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11010" max="11011" width="9.109375" style="7"/>
-    <col min="11012" max="11012" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11013" max="11015" width="7.33203125" style="7" customWidth="1"/>
+    <col min="10761" max="10763" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10764" max="10764" width="10.5703125" style="7" customWidth="1"/>
+    <col min="10765" max="10765" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10766" max="11008" width="9.140625" style="7"/>
+    <col min="11009" max="11009" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11010" max="11011" width="9.140625" style="7"/>
+    <col min="11012" max="11012" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11013" max="11015" width="7.28515625" style="7" customWidth="1"/>
     <col min="11016" max="11016" width="7" style="7" customWidth="1"/>
-    <col min="11017" max="11019" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11020" max="11020" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11021" max="11021" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11022" max="11264" width="9.109375" style="7"/>
-    <col min="11265" max="11265" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11266" max="11267" width="9.109375" style="7"/>
-    <col min="11268" max="11268" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11269" max="11271" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11017" max="11019" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11020" max="11020" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11021" max="11021" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11022" max="11264" width="9.140625" style="7"/>
+    <col min="11265" max="11265" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11266" max="11267" width="9.140625" style="7"/>
+    <col min="11268" max="11268" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11269" max="11271" width="7.28515625" style="7" customWidth="1"/>
     <col min="11272" max="11272" width="7" style="7" customWidth="1"/>
-    <col min="11273" max="11275" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11276" max="11276" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11277" max="11277" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11278" max="11520" width="9.109375" style="7"/>
-    <col min="11521" max="11521" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11522" max="11523" width="9.109375" style="7"/>
-    <col min="11524" max="11524" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11525" max="11527" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11273" max="11275" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11276" max="11276" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11277" max="11277" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11278" max="11520" width="9.140625" style="7"/>
+    <col min="11521" max="11521" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11522" max="11523" width="9.140625" style="7"/>
+    <col min="11524" max="11524" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11525" max="11527" width="7.28515625" style="7" customWidth="1"/>
     <col min="11528" max="11528" width="7" style="7" customWidth="1"/>
-    <col min="11529" max="11531" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11532" max="11532" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11533" max="11533" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11534" max="11776" width="9.109375" style="7"/>
-    <col min="11777" max="11777" width="5.6640625" style="7" customWidth="1"/>
-    <col min="11778" max="11779" width="9.109375" style="7"/>
-    <col min="11780" max="11780" width="2.6640625" style="7" customWidth="1"/>
-    <col min="11781" max="11783" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11529" max="11531" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11532" max="11532" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11533" max="11533" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11534" max="11776" width="9.140625" style="7"/>
+    <col min="11777" max="11777" width="5.7109375" style="7" customWidth="1"/>
+    <col min="11778" max="11779" width="9.140625" style="7"/>
+    <col min="11780" max="11780" width="2.7109375" style="7" customWidth="1"/>
+    <col min="11781" max="11783" width="7.28515625" style="7" customWidth="1"/>
     <col min="11784" max="11784" width="7" style="7" customWidth="1"/>
-    <col min="11785" max="11787" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11788" max="11788" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11789" max="11789" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11790" max="12032" width="9.109375" style="7"/>
-    <col min="12033" max="12033" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12034" max="12035" width="9.109375" style="7"/>
-    <col min="12036" max="12036" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12037" max="12039" width="7.33203125" style="7" customWidth="1"/>
+    <col min="11785" max="11787" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11788" max="11788" width="10.5703125" style="7" customWidth="1"/>
+    <col min="11789" max="11789" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11790" max="12032" width="9.140625" style="7"/>
+    <col min="12033" max="12033" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12034" max="12035" width="9.140625" style="7"/>
+    <col min="12036" max="12036" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12037" max="12039" width="7.28515625" style="7" customWidth="1"/>
     <col min="12040" max="12040" width="7" style="7" customWidth="1"/>
-    <col min="12041" max="12043" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12044" max="12044" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12045" max="12045" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12046" max="12288" width="9.109375" style="7"/>
-    <col min="12289" max="12289" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12290" max="12291" width="9.109375" style="7"/>
-    <col min="12292" max="12292" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12293" max="12295" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12041" max="12043" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12044" max="12044" width="10.5703125" style="7" customWidth="1"/>
+    <col min="12045" max="12045" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12046" max="12288" width="9.140625" style="7"/>
+    <col min="12289" max="12289" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12290" max="12291" width="9.140625" style="7"/>
+    <col min="12292" max="12292" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12293" max="12295" width="7.28515625" style="7" customWidth="1"/>
     <col min="12296" max="12296" width="7" style="7" customWidth="1"/>
-    <col min="12297" max="12299" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12300" max="12300" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12301" max="12301" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12302" max="12544" width="9.109375" style="7"/>
-    <col min="12545" max="12545" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12546" max="12547" width="9.109375" style="7"/>
-    <col min="12548" max="12548" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12549" max="12551" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12297" max="12299" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12300" max="12300" width="10.5703125" style="7" customWidth="1"/>
+    <col min="12301" max="12301" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12302" max="12544" width="9.140625" style="7"/>
+    <col min="12545" max="12545" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12546" max="12547" width="9.140625" style="7"/>
+    <col min="12548" max="12548" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12549" max="12551" width="7.28515625" style="7" customWidth="1"/>
     <col min="12552" max="12552" width="7" style="7" customWidth="1"/>
-    <col min="12553" max="12555" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12556" max="12556" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12557" max="12557" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12558" max="12800" width="9.109375" style="7"/>
-    <col min="12801" max="12801" width="5.6640625" style="7" customWidth="1"/>
-    <col min="12802" max="12803" width="9.109375" style="7"/>
-    <col min="12804" max="12804" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12805" max="12807" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12553" max="12555" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12556" max="12556" width="10.5703125" style="7" customWidth="1"/>
+    <col min="12557" max="12557" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12558" max="12800" width="9.140625" style="7"/>
+    <col min="12801" max="12801" width="5.7109375" style="7" customWidth="1"/>
+    <col min="12802" max="12803" width="9.140625" style="7"/>
+    <col min="12804" max="12804" width="2.7109375" style="7" customWidth="1"/>
+    <col min="12805" max="12807" width="7.28515625" style="7" customWidth="1"/>
     <col min="12808" max="12808" width="7" style="7" customWidth="1"/>
-    <col min="12809" max="12811" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12812" max="12812" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12813" max="12813" width="7.33203125" style="7" customWidth="1"/>
-    <col min="12814" max="13056" width="9.109375" style="7"/>
-    <col min="13057" max="13057" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13058" max="13059" width="9.109375" style="7"/>
-    <col min="13060" max="13060" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13061" max="13063" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12809" max="12811" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12812" max="12812" width="10.5703125" style="7" customWidth="1"/>
+    <col min="12813" max="12813" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12814" max="13056" width="9.140625" style="7"/>
+    <col min="13057" max="13057" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13058" max="13059" width="9.140625" style="7"/>
+    <col min="13060" max="13060" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13061" max="13063" width="7.28515625" style="7" customWidth="1"/>
     <col min="13064" max="13064" width="7" style="7" customWidth="1"/>
-    <col min="13065" max="13067" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13068" max="13068" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13069" max="13069" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13070" max="13312" width="9.109375" style="7"/>
-    <col min="13313" max="13313" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13314" max="13315" width="9.109375" style="7"/>
-    <col min="13316" max="13316" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13317" max="13319" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13065" max="13067" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13068" max="13068" width="10.5703125" style="7" customWidth="1"/>
+    <col min="13069" max="13069" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13070" max="13312" width="9.140625" style="7"/>
+    <col min="13313" max="13313" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13314" max="13315" width="9.140625" style="7"/>
+    <col min="13316" max="13316" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13317" max="13319" width="7.28515625" style="7" customWidth="1"/>
     <col min="13320" max="13320" width="7" style="7" customWidth="1"/>
-    <col min="13321" max="13323" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13324" max="13324" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13325" max="13325" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13326" max="13568" width="9.109375" style="7"/>
-    <col min="13569" max="13569" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13570" max="13571" width="9.109375" style="7"/>
-    <col min="13572" max="13572" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13573" max="13575" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13321" max="13323" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13324" max="13324" width="10.5703125" style="7" customWidth="1"/>
+    <col min="13325" max="13325" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13326" max="13568" width="9.140625" style="7"/>
+    <col min="13569" max="13569" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13570" max="13571" width="9.140625" style="7"/>
+    <col min="13572" max="13572" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13573" max="13575" width="7.28515625" style="7" customWidth="1"/>
     <col min="13576" max="13576" width="7" style="7" customWidth="1"/>
-    <col min="13577" max="13579" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13580" max="13580" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13581" max="13581" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13582" max="13824" width="9.109375" style="7"/>
-    <col min="13825" max="13825" width="5.6640625" style="7" customWidth="1"/>
-    <col min="13826" max="13827" width="9.109375" style="7"/>
-    <col min="13828" max="13828" width="2.6640625" style="7" customWidth="1"/>
-    <col min="13829" max="13831" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13577" max="13579" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13580" max="13580" width="10.5703125" style="7" customWidth="1"/>
+    <col min="13581" max="13581" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13582" max="13824" width="9.140625" style="7"/>
+    <col min="13825" max="13825" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13826" max="13827" width="9.140625" style="7"/>
+    <col min="13828" max="13828" width="2.7109375" style="7" customWidth="1"/>
+    <col min="13829" max="13831" width="7.28515625" style="7" customWidth="1"/>
     <col min="13832" max="13832" width="7" style="7" customWidth="1"/>
-    <col min="13833" max="13835" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13836" max="13836" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13837" max="13837" width="7.33203125" style="7" customWidth="1"/>
-    <col min="13838" max="14080" width="9.109375" style="7"/>
-    <col min="14081" max="14081" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14082" max="14083" width="9.109375" style="7"/>
-    <col min="14084" max="14084" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14085" max="14087" width="7.33203125" style="7" customWidth="1"/>
+    <col min="13833" max="13835" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13836" max="13836" width="10.5703125" style="7" customWidth="1"/>
+    <col min="13837" max="13837" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13838" max="14080" width="9.140625" style="7"/>
+    <col min="14081" max="14081" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14082" max="14083" width="9.140625" style="7"/>
+    <col min="14084" max="14084" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14085" max="14087" width="7.28515625" style="7" customWidth="1"/>
     <col min="14088" max="14088" width="7" style="7" customWidth="1"/>
-    <col min="14089" max="14091" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14092" max="14092" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14093" max="14093" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14094" max="14336" width="9.109375" style="7"/>
-    <col min="14337" max="14337" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14338" max="14339" width="9.109375" style="7"/>
-    <col min="14340" max="14340" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14341" max="14343" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14089" max="14091" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14092" max="14092" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14093" max="14093" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14094" max="14336" width="9.140625" style="7"/>
+    <col min="14337" max="14337" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14338" max="14339" width="9.140625" style="7"/>
+    <col min="14340" max="14340" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14341" max="14343" width="7.28515625" style="7" customWidth="1"/>
     <col min="14344" max="14344" width="7" style="7" customWidth="1"/>
-    <col min="14345" max="14347" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14348" max="14348" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14349" max="14349" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14350" max="14592" width="9.109375" style="7"/>
-    <col min="14593" max="14593" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14594" max="14595" width="9.109375" style="7"/>
-    <col min="14596" max="14596" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14597" max="14599" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14345" max="14347" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14348" max="14348" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14349" max="14349" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14350" max="14592" width="9.140625" style="7"/>
+    <col min="14593" max="14593" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14594" max="14595" width="9.140625" style="7"/>
+    <col min="14596" max="14596" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14597" max="14599" width="7.28515625" style="7" customWidth="1"/>
     <col min="14600" max="14600" width="7" style="7" customWidth="1"/>
-    <col min="14601" max="14603" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14604" max="14604" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14605" max="14605" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14606" max="14848" width="9.109375" style="7"/>
-    <col min="14849" max="14849" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14850" max="14851" width="9.109375" style="7"/>
-    <col min="14852" max="14852" width="2.6640625" style="7" customWidth="1"/>
-    <col min="14853" max="14855" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14601" max="14603" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14604" max="14604" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14605" max="14605" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14606" max="14848" width="9.140625" style="7"/>
+    <col min="14849" max="14849" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14850" max="14851" width="9.140625" style="7"/>
+    <col min="14852" max="14852" width="2.7109375" style="7" customWidth="1"/>
+    <col min="14853" max="14855" width="7.28515625" style="7" customWidth="1"/>
     <col min="14856" max="14856" width="7" style="7" customWidth="1"/>
-    <col min="14857" max="14859" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14860" max="14860" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14861" max="14861" width="7.33203125" style="7" customWidth="1"/>
-    <col min="14862" max="15104" width="9.109375" style="7"/>
-    <col min="15105" max="15105" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15106" max="15107" width="9.109375" style="7"/>
-    <col min="15108" max="15108" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15109" max="15111" width="7.33203125" style="7" customWidth="1"/>
+    <col min="14857" max="14859" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14860" max="14860" width="10.5703125" style="7" customWidth="1"/>
+    <col min="14861" max="14861" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14862" max="15104" width="9.140625" style="7"/>
+    <col min="15105" max="15105" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15106" max="15107" width="9.140625" style="7"/>
+    <col min="15108" max="15108" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15109" max="15111" width="7.28515625" style="7" customWidth="1"/>
     <col min="15112" max="15112" width="7" style="7" customWidth="1"/>
-    <col min="15113" max="15115" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15116" max="15116" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15117" max="15117" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15118" max="15360" width="9.109375" style="7"/>
-    <col min="15361" max="15361" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15362" max="15363" width="9.109375" style="7"/>
-    <col min="15364" max="15364" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15365" max="15367" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15113" max="15115" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15116" max="15116" width="10.5703125" style="7" customWidth="1"/>
+    <col min="15117" max="15117" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15118" max="15360" width="9.140625" style="7"/>
+    <col min="15361" max="15361" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15362" max="15363" width="9.140625" style="7"/>
+    <col min="15364" max="15364" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15365" max="15367" width="7.28515625" style="7" customWidth="1"/>
     <col min="15368" max="15368" width="7" style="7" customWidth="1"/>
-    <col min="15369" max="15371" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15372" max="15372" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15373" max="15373" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15374" max="15616" width="9.109375" style="7"/>
-    <col min="15617" max="15617" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15618" max="15619" width="9.109375" style="7"/>
-    <col min="15620" max="15620" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15621" max="15623" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15369" max="15371" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15372" max="15372" width="10.5703125" style="7" customWidth="1"/>
+    <col min="15373" max="15373" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15374" max="15616" width="9.140625" style="7"/>
+    <col min="15617" max="15617" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15618" max="15619" width="9.140625" style="7"/>
+    <col min="15620" max="15620" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15621" max="15623" width="7.28515625" style="7" customWidth="1"/>
     <col min="15624" max="15624" width="7" style="7" customWidth="1"/>
-    <col min="15625" max="15627" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15628" max="15628" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15629" max="15629" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15630" max="15872" width="9.109375" style="7"/>
-    <col min="15873" max="15873" width="5.6640625" style="7" customWidth="1"/>
-    <col min="15874" max="15875" width="9.109375" style="7"/>
-    <col min="15876" max="15876" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15877" max="15879" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15625" max="15627" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15628" max="15628" width="10.5703125" style="7" customWidth="1"/>
+    <col min="15629" max="15629" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15630" max="15872" width="9.140625" style="7"/>
+    <col min="15873" max="15873" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15874" max="15875" width="9.140625" style="7"/>
+    <col min="15876" max="15876" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15877" max="15879" width="7.28515625" style="7" customWidth="1"/>
     <col min="15880" max="15880" width="7" style="7" customWidth="1"/>
-    <col min="15881" max="15883" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15884" max="15884" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15885" max="15885" width="7.33203125" style="7" customWidth="1"/>
-    <col min="15886" max="16128" width="9.109375" style="7"/>
-    <col min="16129" max="16129" width="5.6640625" style="7" customWidth="1"/>
-    <col min="16130" max="16131" width="9.109375" style="7"/>
-    <col min="16132" max="16132" width="2.6640625" style="7" customWidth="1"/>
-    <col min="16133" max="16135" width="7.33203125" style="7" customWidth="1"/>
+    <col min="15881" max="15883" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15884" max="15884" width="10.5703125" style="7" customWidth="1"/>
+    <col min="15885" max="15885" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15886" max="16128" width="9.140625" style="7"/>
+    <col min="16129" max="16129" width="5.7109375" style="7" customWidth="1"/>
+    <col min="16130" max="16131" width="9.140625" style="7"/>
+    <col min="16132" max="16132" width="2.7109375" style="7" customWidth="1"/>
+    <col min="16133" max="16135" width="7.28515625" style="7" customWidth="1"/>
     <col min="16136" max="16136" width="7" style="7" customWidth="1"/>
-    <col min="16137" max="16139" width="7.33203125" style="7" customWidth="1"/>
-    <col min="16140" max="16140" width="10.5546875" style="7" customWidth="1"/>
-    <col min="16141" max="16141" width="7.33203125" style="7" customWidth="1"/>
-    <col min="16142" max="16384" width="9.109375" style="7"/>
+    <col min="16137" max="16139" width="7.28515625" style="7" customWidth="1"/>
+    <col min="16140" max="16140" width="10.5703125" style="7" customWidth="1"/>
+    <col min="16141" max="16141" width="7.28515625" style="7" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>81</v>
       </c>
@@ -10009,10 +10095,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10026,10 +10112,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10058,10 +10144,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -10073,10 +10159,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -10088,10 +10174,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -10123,23 +10209,23 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="389" t="s">
+      <c r="A14" s="417" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="391" t="s">
+      <c r="B14" s="419" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="392"/>
-      <c r="D14" s="392"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="392"/>
-      <c r="H14" s="392"/>
-      <c r="I14" s="393"/>
+      <c r="C14" s="420"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="420"/>
+      <c r="F14" s="420"/>
+      <c r="G14" s="420"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="421"/>
       <c r="J14" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="445"/>
+      <c r="K14" s="361"/>
       <c r="L14" s="335">
         <f>K14*0.2</f>
         <v>0</v>
@@ -10147,92 +10233,92 @@
       <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="390"/>
-      <c r="B15" s="394" t="s">
+      <c r="A15" s="418"/>
+      <c r="B15" s="422" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="395"/>
-      <c r="D15" s="395"/>
-      <c r="E15" s="395"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="395"/>
-      <c r="I15" s="395"/>
+      <c r="C15" s="423"/>
+      <c r="D15" s="423"/>
+      <c r="E15" s="423"/>
+      <c r="F15" s="423"/>
+      <c r="G15" s="423"/>
+      <c r="H15" s="423"/>
+      <c r="I15" s="423"/>
       <c r="J15" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="446"/>
+      <c r="K15" s="362"/>
       <c r="L15" s="339">
         <f>K15*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="389" t="s">
+      <c r="A16" s="417" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="397" t="s">
+      <c r="B16" s="425" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="398"/>
-      <c r="D16" s="398"/>
-      <c r="E16" s="398"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="398"/>
-      <c r="H16" s="398"/>
-      <c r="I16" s="398"/>
+      <c r="C16" s="426"/>
+      <c r="D16" s="426"/>
+      <c r="E16" s="426"/>
+      <c r="F16" s="426"/>
+      <c r="G16" s="426"/>
+      <c r="H16" s="426"/>
+      <c r="I16" s="426"/>
       <c r="J16" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="447"/>
+      <c r="K16" s="363"/>
       <c r="L16" s="336">
         <f>K16*0.25</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="396"/>
-      <c r="B17" s="399" t="s">
+      <c r="A17" s="424"/>
+      <c r="B17" s="427" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="400"/>
-      <c r="D17" s="400"/>
-      <c r="E17" s="400"/>
-      <c r="F17" s="400"/>
-      <c r="G17" s="400"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="400"/>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="428"/>
+      <c r="G17" s="428"/>
+      <c r="H17" s="428"/>
+      <c r="I17" s="428"/>
       <c r="J17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="448"/>
+      <c r="K17" s="364"/>
       <c r="L17" s="337">
         <f>K17*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="390"/>
-      <c r="B18" s="401" t="s">
+      <c r="A18" s="418"/>
+      <c r="B18" s="429" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="395"/>
-      <c r="D18" s="395"/>
-      <c r="E18" s="395"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="395"/>
-      <c r="I18" s="395"/>
+      <c r="C18" s="423"/>
+      <c r="D18" s="423"/>
+      <c r="E18" s="423"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="423"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="423"/>
       <c r="J18" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="449"/>
+      <c r="K18" s="365"/>
       <c r="L18" s="338">
         <f>K18*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -10250,7 +10336,7 @@
       </c>
       <c r="M19" s="44"/>
     </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -10265,7 +10351,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="80" t="s">
         <v>87</v>
@@ -10345,6 +10431,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -10352,11 +10443,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10374,26 +10460,26 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="151"/>
-    <col min="3" max="3" width="12.5546875" style="151" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="151" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="151" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="151" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="151" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="151"/>
+    <col min="3" max="3" width="12.5703125" style="151" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="151" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="151" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="151" customWidth="1"/>
     <col min="8" max="8" width="7" style="151" customWidth="1"/>
-    <col min="9" max="11" width="7.33203125" style="151" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="151" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="151"/>
+    <col min="9" max="11" width="7.28515625" style="151" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="151" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>101</v>
       </c>
@@ -10439,10 +10525,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10456,10 +10542,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="377"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="377"/>
-      <c r="F6" s="377"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10484,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="387"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="387"/>
-      <c r="F8" s="387"/>
+      <c r="C8" s="415"/>
+      <c r="D8" s="415"/>
+      <c r="E8" s="415"/>
+      <c r="F8" s="415"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -10499,10 +10585,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10514,10 +10600,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -10567,36 +10653,36 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="402" t="s">
+      <c r="A15" s="430" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="403"/>
-      <c r="C15" s="403"/>
-      <c r="D15" s="403"/>
-      <c r="E15" s="403"/>
-      <c r="F15" s="404"/>
+      <c r="B15" s="431"/>
+      <c r="C15" s="431"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="432"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="438"/>
+      <c r="L15" s="354"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="402" t="s">
+      <c r="A16" s="430" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="403"/>
-      <c r="C16" s="403"/>
-      <c r="D16" s="403"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="404"/>
+      <c r="B16" s="431"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="432"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="438"/>
+      <c r="L16" s="354"/>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="300" t="s">
@@ -10612,7 +10698,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="438"/>
+      <c r="L17" s="354"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="300" t="s">
@@ -10628,7 +10714,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="438"/>
+      <c r="L18" s="354"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="300" t="s">
@@ -10644,34 +10730,34 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="438"/>
+      <c r="L19" s="354"/>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K20" s="182"/>
       <c r="L20" s="182"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="408" t="s">
+      <c r="A21" s="436" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="409"/>
-      <c r="C21" s="409"/>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
-      <c r="I21" s="409"/>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
       <c r="J21" s="181"/>
       <c r="K21" s="180"/>
       <c r="L21" s="10"/>
       <c r="R21" s="175"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="416" t="s">
+      <c r="A22" s="444" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="417"/>
+      <c r="B22" s="445"/>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
@@ -10686,16 +10772,16 @@
       <c r="R22" s="175"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="412" t="s">
+      <c r="A23" s="440" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="413"/>
-      <c r="C23" s="450"/>
-      <c r="D23" s="410" t="s">
+      <c r="B23" s="441"/>
+      <c r="C23" s="366"/>
+      <c r="D23" s="438" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="411"/>
-      <c r="F23" s="451"/>
+      <c r="E23" s="439"/>
+      <c r="F23" s="367"/>
       <c r="G23" s="308" t="s">
         <v>113</v>
       </c>
@@ -10717,11 +10803,11 @@
       <c r="R23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="414" t="s">
+      <c r="A24" s="442" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="415"/>
-      <c r="C24" s="415"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
       <c r="D24" s="312"/>
       <c r="E24" s="312"/>
       <c r="F24" s="312"/>
@@ -10733,19 +10819,19 @@
       <c r="R24" s="175"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="405" t="s">
+      <c r="A25" s="433" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="406"/>
-      <c r="C25" s="406"/>
-      <c r="D25" s="406"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="406"/>
-      <c r="G25" s="406"/>
-      <c r="H25" s="406"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="406"/>
-      <c r="K25" s="407"/>
+      <c r="B25" s="434"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="434"/>
+      <c r="F25" s="434"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="434"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="434"/>
+      <c r="K25" s="435"/>
       <c r="L25" s="11">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -10771,7 +10857,7 @@
       <c r="N26" s="10"/>
       <c r="R26" s="172"/>
     </row>
-    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="171"/>
       <c r="B27" s="171"/>
       <c r="C27" s="171"/>
@@ -10907,12 +10993,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10982,25 +11068,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11023,9 +11102,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
+++ b/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PdI6n2wWe1BCLpZSUVKb6Viv2S5eDDxdev/RLVBc6uGkqKIeSnzxpXt+L8Ip+7bcU/gK26fAQjqxcl2KM0Nr6Q==" workbookSaltValue="84UlA07g1xLdi6rLqV4A4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="941" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="941"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="moment" localSheetId="4">'Individuell senior grund 3'!$L$5</definedName>
     <definedName name="moment" localSheetId="8">'Individuell tekniska övningar'!$L$5</definedName>
     <definedName name="moment" localSheetId="9">'Individuellt tekniskt artistisk'!$L$6</definedName>
-    <definedName name="result" localSheetId="1">'Häst, individuell'!$K$25:$L$25</definedName>
+    <definedName name="result" localSheetId="1">'Häst, individuell'!$K$25</definedName>
     <definedName name="result" localSheetId="5">'Ind kür tekn 1'!$L$33</definedName>
     <definedName name="result" localSheetId="6">'Ind kür tekn 2 3'!$L$33</definedName>
     <definedName name="result" localSheetId="3">'Individuell junior grund 2'!$L$27</definedName>
@@ -2838,6 +2838,96 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2856,12 +2946,6 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2877,90 +2961,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3057,50 +3057,50 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3456,7 +3456,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A26" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5409,17 +5409,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="450" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
       <c r="J2" s="186"/>
       <c r="K2" s="186"/>
       <c r="L2" s="186"/>
@@ -5464,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="G5" s="185"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
@@ -5482,10 +5482,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="G6" s="184"/>
       <c r="H6" s="141"/>
       <c r="I6" s="17" t="s">
@@ -5534,10 +5534,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="G9" s="206"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -5550,15 +5550,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="G10" s="206"/>
       <c r="H10" s="183"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="448"/>
-      <c r="K10" s="448"/>
+      <c r="J10" s="446"/>
+      <c r="K10" s="446"/>
       <c r="L10" s="207"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5585,10 +5585,10 @@
       <c r="C13" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="453" t="s">
+      <c r="D13" s="451" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="454"/>
+      <c r="E13" s="452"/>
       <c r="F13" s="343" t="s">
         <v>183</v>
       </c>
@@ -5601,17 +5601,17 @@
       <c r="I13" s="345" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="457" t="s">
+      <c r="J13" s="455" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="458"/>
+      <c r="K13" s="456"/>
       <c r="L13" s="205"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="368"/>
       <c r="C14" s="369"/>
-      <c r="D14" s="455"/>
-      <c r="E14" s="456"/>
+      <c r="D14" s="453"/>
+      <c r="E14" s="454"/>
       <c r="F14" s="369"/>
       <c r="G14" s="369"/>
       <c r="H14" s="370"/>
@@ -5619,11 +5619,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="459">
+      <c r="J14" s="457">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="460"/>
+      <c r="K14" s="458"/>
       <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5652,16 +5652,16 @@
       <c r="A17" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="449" t="s">
+      <c r="B17" s="447" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="450"/>
-      <c r="D17" s="450"/>
-      <c r="E17" s="450"/>
-      <c r="F17" s="450"/>
-      <c r="G17" s="450"/>
-      <c r="H17" s="450"/>
-      <c r="I17" s="451"/>
+      <c r="C17" s="448"/>
+      <c r="D17" s="448"/>
+      <c r="E17" s="448"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="448"/>
+      <c r="H17" s="448"/>
+      <c r="I17" s="449"/>
       <c r="J17" s="203" t="s">
         <v>187</v>
       </c>
@@ -5675,7 +5675,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="446" t="s">
+      <c r="A18" s="459" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="425" t="s">
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="447"/>
+      <c r="A19" s="460"/>
       <c r="B19" s="427" t="s">
         <v>167</v>
       </c>
@@ -5838,6 +5838,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -5847,12 +5853,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5868,7 +5868,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19:K23"/>
     </sheetView>
   </sheetViews>
@@ -5937,10 +5937,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -5954,10 +5954,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5982,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
-      <c r="F7" s="388"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -5997,10 +5997,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="388"/>
-      <c r="E8" s="388"/>
-      <c r="F8" s="388"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="399"/>
+      <c r="E8" s="399"/>
+      <c r="F8" s="399"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6012,10 +6012,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6049,215 +6049,215 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="389" t="s">
+      <c r="H12" s="400" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="390"/>
-      <c r="J12" s="391" t="s">
+      <c r="I12" s="401"/>
+      <c r="J12" s="402" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="391"/>
-      <c r="L12" s="391"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="402"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="392" t="s">
+      <c r="A13" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="395" t="s">
+      <c r="C13" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="395"/>
-      <c r="E13" s="395"/>
-      <c r="F13" s="397" t="s">
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="391" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="398"/>
+      <c r="G13" s="392"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="379" t="s">
+      <c r="J13" s="393" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="381"/>
-      <c r="L13" s="375">
+      <c r="K13" s="409"/>
+      <c r="L13" s="405">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="393"/>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396" t="s">
+      <c r="A14" s="377"/>
+      <c r="B14" s="387"/>
+      <c r="C14" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="399" t="s">
+      <c r="D14" s="387"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="388" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="400"/>
+      <c r="G14" s="389"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="376"/>
+      <c r="J14" s="394"/>
+      <c r="K14" s="410"/>
+      <c r="L14" s="406"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="393"/>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396" t="s">
+      <c r="A15" s="377"/>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="399" t="s">
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="388" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="400"/>
+      <c r="G15" s="389"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="383"/>
-      <c r="L15" s="376"/>
+      <c r="J15" s="394"/>
+      <c r="K15" s="411"/>
+      <c r="L15" s="406"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="393"/>
-      <c r="B16" s="401" t="s">
+      <c r="A16" s="377"/>
+      <c r="B16" s="395" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="396" t="s">
+      <c r="C16" s="387" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="396"/>
-      <c r="E16" s="396"/>
-      <c r="F16" s="399" t="s">
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="388" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="400"/>
+      <c r="G16" s="389"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="380" t="s">
+      <c r="J16" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="374"/>
-      <c r="L16" s="376">
+      <c r="K16" s="404"/>
+      <c r="L16" s="406">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="393"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="396" t="s">
+      <c r="A17" s="377"/>
+      <c r="B17" s="396"/>
+      <c r="C17" s="387" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="396"/>
-      <c r="E17" s="396"/>
-      <c r="F17" s="399" t="s">
+      <c r="D17" s="387"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="400"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="374"/>
-      <c r="L17" s="376"/>
+      <c r="J17" s="394"/>
+      <c r="K17" s="404"/>
+      <c r="L17" s="406"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="394"/>
-      <c r="B18" s="403"/>
-      <c r="C18" s="405" t="s">
+      <c r="A18" s="378"/>
+      <c r="B18" s="397"/>
+      <c r="C18" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="405"/>
-      <c r="E18" s="405"/>
-      <c r="F18" s="386" t="s">
+      <c r="D18" s="390"/>
+      <c r="E18" s="390"/>
+      <c r="F18" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="387"/>
+      <c r="G18" s="386"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="404"/>
-      <c r="K18" s="384"/>
-      <c r="L18" s="385"/>
+      <c r="J18" s="398"/>
+      <c r="K18" s="412"/>
+      <c r="L18" s="413"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="392" t="s">
+      <c r="A19" s="376" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="409" t="s">
+      <c r="B19" s="379" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="395" t="s">
+      <c r="C19" s="382" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="412" t="s">
+      <c r="D19" s="382"/>
+      <c r="E19" s="382"/>
+      <c r="F19" s="383" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="413"/>
+      <c r="G19" s="384"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="379" t="s">
+      <c r="J19" s="393" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="373"/>
-      <c r="L19" s="375">
+      <c r="K19" s="403"/>
+      <c r="L19" s="405">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="393"/>
-      <c r="B20" s="410"/>
-      <c r="C20" s="396" t="s">
+      <c r="A20" s="377"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="396"/>
-      <c r="E20" s="396"/>
-      <c r="F20" s="399" t="s">
+      <c r="D20" s="387"/>
+      <c r="E20" s="387"/>
+      <c r="F20" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="400"/>
+      <c r="G20" s="389"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="376"/>
+      <c r="J20" s="394"/>
+      <c r="K20" s="404"/>
+      <c r="L20" s="406"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="393"/>
-      <c r="B21" s="411"/>
-      <c r="C21" s="396" t="s">
+      <c r="A21" s="377"/>
+      <c r="B21" s="381"/>
+      <c r="C21" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="396"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="399" t="s">
+      <c r="D21" s="387"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="400"/>
+      <c r="G21" s="389"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="380"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="376"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="404"/>
+      <c r="L21" s="406"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="394"/>
+      <c r="A22" s="378"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="386" t="s">
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="385" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="387"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
@@ -6276,15 +6276,15 @@
       <c r="B23" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="406" t="s">
+      <c r="C23" s="373" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="407" t="s">
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="374" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="408"/>
+      <c r="G23" s="375"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
@@ -6323,11 +6323,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="377">
+      <c r="K25" s="407">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="378"/>
+      <c r="L25" s="408"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K26" s="331"/>
@@ -6354,18 +6354,22 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -6382,22 +6386,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6945,10 +6945,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6962,10 +6962,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7005,10 +7005,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7020,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7413,10 +7413,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7430,10 +7430,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7473,10 +7473,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7488,10 +7488,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8309,7 +8309,7 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -9007,10 +9007,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -9024,10 +9024,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9071,10 +9071,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -9086,10 +9086,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -10095,10 +10095,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10112,10 +10112,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10159,10 +10159,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -10174,10 +10174,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -10431,11 +10431,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -10443,6 +10438,11 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10525,10 +10525,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10542,10 +10542,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10585,10 +10585,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10600,10 +10600,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -11002,6 +11002,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11067,15 +11076,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -11085,6 +11085,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11099,19 +11114,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
+++ b/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PdI6n2wWe1BCLpZSUVKb6Viv2S5eDDxdev/RLVBc6uGkqKIeSnzxpXt+L8Ip+7bcU/gK26fAQjqxcl2KM0Nr6Q==" workbookSaltValue="84UlA07g1xLdi6rLqV4A4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="941"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="966" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -25,6 +25,15 @@
     <sheet name="Individuellt tekniskt artistisk" sheetId="36" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="armnr" localSheetId="1">'Häst, individuell'!$L$6</definedName>
+    <definedName name="armnr" localSheetId="5">'Ind kür tekn 1'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="6">'Ind kür tekn 2 3'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="3">'Individuell junior grund 2'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="7">'Individuell kür artistisk'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="2">'Individuell minior grund 1'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="4">'Individuell senior grund 3'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="8">'Individuell tekniska övningar'!$L$7</definedName>
+    <definedName name="armnr" localSheetId="9">'Individuellt tekniskt artistisk'!$L$8</definedName>
     <definedName name="bord" localSheetId="1">'Häst, individuell'!$L$2</definedName>
     <definedName name="bord" localSheetId="5">'Ind kür tekn 1'!$L$3</definedName>
     <definedName name="bord" localSheetId="6">'Ind kür tekn 2 3'!$L$3</definedName>
@@ -34,6 +43,24 @@
     <definedName name="bord" localSheetId="4">'Individuell senior grund 3'!$L$3</definedName>
     <definedName name="bord" localSheetId="8">'Individuell tekniska övningar'!$L$3</definedName>
     <definedName name="bord" localSheetId="9">'Individuellt tekniskt artistisk'!$L$4</definedName>
+    <definedName name="datum" localSheetId="1">'Häst, individuell'!$C$3</definedName>
+    <definedName name="datum" localSheetId="5">'Ind kür tekn 1'!$C$4</definedName>
+    <definedName name="datum" localSheetId="6">'Ind kür tekn 2 3'!$C$4</definedName>
+    <definedName name="datum" localSheetId="3">'Individuell junior grund 2'!$C$4</definedName>
+    <definedName name="datum" localSheetId="7">'Individuell kür artistisk'!$C$4</definedName>
+    <definedName name="datum" localSheetId="2">'Individuell minior grund 1'!$C$4</definedName>
+    <definedName name="datum" localSheetId="4">'Individuell senior grund 3'!$C$4</definedName>
+    <definedName name="datum" localSheetId="8">'Individuell tekniska övningar'!$C$4</definedName>
+    <definedName name="datum" localSheetId="9">'Individuellt tekniskt artistisk'!$C$4</definedName>
+    <definedName name="domare" localSheetId="1">'Häst, individuell'!$C$29</definedName>
+    <definedName name="domare" localSheetId="5">'Ind kür tekn 1'!$C$37</definedName>
+    <definedName name="domare" localSheetId="6">'Ind kür tekn 2 3'!$C$37</definedName>
+    <definedName name="domare" localSheetId="3">'Individuell junior grund 2'!$C$32</definedName>
+    <definedName name="domare" localSheetId="7">'Individuell kür artistisk'!$C$27</definedName>
+    <definedName name="domare" localSheetId="2">'Individuell minior grund 1'!$C$32</definedName>
+    <definedName name="domare" localSheetId="4">'Individuell senior grund 3'!$C$32</definedName>
+    <definedName name="domare" localSheetId="8">'Individuell tekniska övningar'!$C$34</definedName>
+    <definedName name="domare" localSheetId="9">'Individuellt tekniskt artistisk'!$C$28</definedName>
     <definedName name="id" localSheetId="1">'Häst, individuell'!$U$1</definedName>
     <definedName name="id" localSheetId="5">'Ind kür tekn 1'!$U$1</definedName>
     <definedName name="id" localSheetId="6">'Ind kür tekn 2 3'!$U$1</definedName>
@@ -76,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
   <si>
     <t>Nation:</t>
   </si>
@@ -901,9 +928,6 @@
   <si>
     <t>T3
 30%</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
 </sst>
 </file>
@@ -2838,6 +2862,105 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2847,15 +2970,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2865,102 +2979,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3057,6 +3081,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3095,12 +3125,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3456,7 +3480,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4818,7 +4842,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -5409,17 +5433,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="450" t="s">
+      <c r="A2" s="452" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
       <c r="J2" s="186"/>
       <c r="K2" s="186"/>
       <c r="L2" s="186"/>
@@ -5464,10 +5488,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="G5" s="185"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
@@ -5482,10 +5506,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="G6" s="184"/>
       <c r="H6" s="141"/>
       <c r="I6" s="17" t="s">
@@ -5534,10 +5558,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="G9" s="206"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -5550,15 +5574,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="G10" s="206"/>
       <c r="H10" s="183"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="446"/>
-      <c r="K10" s="446"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="448"/>
       <c r="L10" s="207"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5585,10 +5609,10 @@
       <c r="C13" s="343" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="451" t="s">
+      <c r="D13" s="453" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="452"/>
+      <c r="E13" s="454"/>
       <c r="F13" s="343" t="s">
         <v>183</v>
       </c>
@@ -5601,17 +5625,17 @@
       <c r="I13" s="345" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="455" t="s">
+      <c r="J13" s="457" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="456"/>
+      <c r="K13" s="458"/>
       <c r="L13" s="205"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="368"/>
       <c r="C14" s="369"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="454"/>
+      <c r="D14" s="455"/>
+      <c r="E14" s="456"/>
       <c r="F14" s="369"/>
       <c r="G14" s="369"/>
       <c r="H14" s="370"/>
@@ -5619,11 +5643,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="457">
+      <c r="J14" s="459">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="458"/>
+      <c r="K14" s="460"/>
       <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5652,16 +5676,16 @@
       <c r="A17" s="334" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="447" t="s">
+      <c r="B17" s="449" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="448"/>
-      <c r="D17" s="448"/>
-      <c r="E17" s="448"/>
-      <c r="F17" s="448"/>
-      <c r="G17" s="448"/>
-      <c r="H17" s="448"/>
-      <c r="I17" s="449"/>
+      <c r="C17" s="450"/>
+      <c r="D17" s="450"/>
+      <c r="E17" s="450"/>
+      <c r="F17" s="450"/>
+      <c r="G17" s="450"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="451"/>
       <c r="J17" s="203" t="s">
         <v>187</v>
       </c>
@@ -5675,7 +5699,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="459" t="s">
+      <c r="A18" s="446" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="425" t="s">
@@ -5698,7 +5722,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="460"/>
+      <c r="A19" s="447"/>
       <c r="B19" s="427" t="s">
         <v>167</v>
       </c>
@@ -5838,12 +5862,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -5853,6 +5871,12 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5868,8 +5892,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K23"/>
+    <sheetView showZeros="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5937,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -5954,10 +5978,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5982,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
+      <c r="F7" s="388"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -5997,10 +6021,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="399"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="399"/>
-      <c r="F8" s="399"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="388"/>
+      <c r="E8" s="388"/>
+      <c r="F8" s="388"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6012,10 +6036,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6049,215 +6073,215 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="400" t="s">
+      <c r="H12" s="389" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="401"/>
-      <c r="J12" s="402" t="s">
+      <c r="I12" s="390"/>
+      <c r="J12" s="391" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="391"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="376" t="s">
+      <c r="A13" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="382" t="s">
+      <c r="B13" s="395" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="382" t="s">
+      <c r="C13" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="391" t="s">
+      <c r="D13" s="395"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="392"/>
+      <c r="G13" s="398"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="393" t="s">
+      <c r="J13" s="379" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="409"/>
-      <c r="L13" s="405">
+      <c r="K13" s="381"/>
+      <c r="L13" s="375">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="377"/>
-      <c r="B14" s="387"/>
-      <c r="C14" s="387" t="s">
+      <c r="A14" s="393"/>
+      <c r="B14" s="396"/>
+      <c r="C14" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="387"/>
-      <c r="E14" s="387"/>
-      <c r="F14" s="388" t="s">
+      <c r="D14" s="396"/>
+      <c r="E14" s="396"/>
+      <c r="F14" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="389"/>
+      <c r="G14" s="400"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="410"/>
-      <c r="L14" s="406"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="376"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="377"/>
-      <c r="B15" s="387"/>
-      <c r="C15" s="387" t="s">
+      <c r="A15" s="393"/>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="387"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="388" t="s">
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="399" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="389"/>
+      <c r="G15" s="400"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="411"/>
-      <c r="L15" s="406"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="383"/>
+      <c r="L15" s="376"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="377"/>
-      <c r="B16" s="395" t="s">
+      <c r="A16" s="393"/>
+      <c r="B16" s="401" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="387" t="s">
+      <c r="C16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="387"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="388" t="s">
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="389"/>
+      <c r="G16" s="400"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="394" t="s">
+      <c r="J16" s="380" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="404"/>
-      <c r="L16" s="406">
+      <c r="K16" s="374"/>
+      <c r="L16" s="376">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="377"/>
-      <c r="B17" s="396"/>
-      <c r="C17" s="387" t="s">
+      <c r="A17" s="393"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="396" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="387"/>
-      <c r="E17" s="387"/>
-      <c r="F17" s="388" t="s">
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="400"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="394"/>
-      <c r="K17" s="404"/>
-      <c r="L17" s="406"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="376"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="378"/>
-      <c r="B18" s="397"/>
-      <c r="C18" s="390" t="s">
+      <c r="A18" s="394"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="385" t="s">
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="386" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="386"/>
+      <c r="G18" s="387"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="413"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="384"/>
+      <c r="L18" s="385"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="376" t="s">
+      <c r="A19" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="379" t="s">
+      <c r="B19" s="409" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="382" t="s">
+      <c r="C19" s="395" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="382"/>
-      <c r="E19" s="382"/>
-      <c r="F19" s="383" t="s">
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
+      <c r="F19" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="384"/>
+      <c r="G19" s="413"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="393" t="s">
+      <c r="J19" s="379" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="403"/>
-      <c r="L19" s="405">
+      <c r="K19" s="373"/>
+      <c r="L19" s="375">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="377"/>
-      <c r="B20" s="380"/>
-      <c r="C20" s="387" t="s">
+      <c r="A20" s="393"/>
+      <c r="B20" s="410"/>
+      <c r="C20" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="387"/>
-      <c r="E20" s="387"/>
-      <c r="F20" s="388" t="s">
+      <c r="D20" s="396"/>
+      <c r="E20" s="396"/>
+      <c r="F20" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="389"/>
+      <c r="G20" s="400"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="404"/>
-      <c r="L20" s="406"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="374"/>
+      <c r="L20" s="376"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="377"/>
-      <c r="B21" s="381"/>
-      <c r="C21" s="387" t="s">
+      <c r="A21" s="393"/>
+      <c r="B21" s="411"/>
+      <c r="C21" s="396" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="388" t="s">
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="399" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="389"/>
+      <c r="G21" s="400"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="404"/>
-      <c r="L21" s="406"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="374"/>
+      <c r="L21" s="376"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="378"/>
+      <c r="A22" s="394"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="385" t="s">
+      <c r="C22" s="405"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="386"/>
+      <c r="G22" s="387"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
@@ -6276,15 +6300,15 @@
       <c r="B23" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="373" t="s">
+      <c r="C23" s="406" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="374" t="s">
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="407" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="375"/>
+      <c r="G23" s="408"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
@@ -6323,11 +6347,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="407">
+      <c r="K25" s="377">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="408"/>
+      <c r="L25" s="378"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K26" s="331"/>
@@ -6354,22 +6378,18 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -6386,18 +6406,22 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6413,7 +6437,7 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6877,7 +6901,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -6945,10 +6969,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6962,10 +6986,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7005,10 +7029,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7020,10 +7044,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7345,7 +7369,7 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -7413,10 +7437,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7430,10 +7454,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7473,10 +7497,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7488,10 +7512,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7812,7 +7836,7 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -8309,7 +8333,7 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -9007,10 +9031,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -9024,10 +9048,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9071,10 +9095,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -9086,10 +9110,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -9460,8 +9484,8 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showZeros="0" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10095,10 +10119,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10112,10 +10136,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10159,10 +10183,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -10174,10 +10198,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -10382,11 +10406,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>44</v>
@@ -10431,6 +10451,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -10438,11 +10463,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10460,7 +10480,7 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -10525,10 +10545,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10542,10 +10562,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10585,10 +10605,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10600,10 +10620,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -11002,15 +11022,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11076,6 +11087,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -11085,21 +11105,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11114,4 +11119,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
+++ b/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlu\Documents\Source\Repos\voltigeScore\mallar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6025D8-81CB-4B36-9DA7-0569EF69B11E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PdI6n2wWe1BCLpZSUVKb6Viv2S5eDDxdev/RLVBc6uGkqKIeSnzxpXt+L8Ip+7bcU/gK26fAQjqxcl2KM0Nr6Q==" workbookSaltValue="84UlA07g1xLdi6rLqV4A4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="966" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="966" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -98,7 +99,7 @@
     <definedName name="result" localSheetId="8">'Individuell tekniska övningar'!$L$30</definedName>
     <definedName name="result" localSheetId="9">'Individuellt tekniskt artistisk'!$L$24</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -758,32 +759,6 @@
       <t xml:space="preserve">
 • Förmåga att förmedla musikens karaktär.
 • Uttrycksfullhet.
-• Rörelser och gester med karaktär
-• Dräkt passar till temat
-• Rörelser i harmoni med musiken.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tolkning av musik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-• Förmåga att förmedla musikens karaktär.
-• Uttrycksfullhet.
 • Rörelser och gester som kan kopplas till musiken.
 • Dräkt passar till temat
 • Rörelser i harmoni med musiken.</t>
@@ -929,11 +904,36 @@
     <t>T3
 30%</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tolkning av musik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Starkt engagemang till ett genomtänkt och utvecklat musikaliskt koncept
+• Fängslande tolkning av musiken
+• Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
+• Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -946,7 +946,7 @@
     <numFmt numFmtId="172" formatCode="0.000_ ;\-0.000\ "/>
     <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1138,6 +1138,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Symbol"/>
+      <family val="2"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2862,6 +2869,96 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2880,12 +2977,6 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2901,90 +2992,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3009,9 +3016,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -3081,60 +3085,63 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Dezimal 2" xfId="2"/>
-    <cellStyle name="Dezimal 2 2" xfId="4"/>
-    <cellStyle name="Excel Built-in Normal" xfId="6"/>
+    <cellStyle name="Dezimal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Dezimal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Standard 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tusental" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3157,7 +3164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3476,61 +3483,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showZeros="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="2" max="18" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="320" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="320" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="319" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="320" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="320" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="320" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" s="283" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" s="283" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A7" s="283" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="208" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="208"/>
     </row>
-    <row r="11" spans="1:8" s="284" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="284" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="285" t="s">
         <v>119</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="284" t="s">
         <v>121</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="208" t="s">
         <v>117</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="208"/>
       <c r="B15" s="281"/>
       <c r="C15" s="281"/>
@@ -3594,7 +3601,7 @@
       <c r="G15" s="281"/>
       <c r="H15" s="281"/>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="208" t="s">
         <v>118</v>
       </c>
@@ -3618,7 +3625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="208"/>
       <c r="B17" s="281"/>
       <c r="C17" s="281"/>
@@ -3628,7 +3635,7 @@
       <c r="G17" s="281"/>
       <c r="H17" s="281"/>
     </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="208" t="s">
         <v>132</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="208"/>
       <c r="B19" s="281"/>
       <c r="C19" s="281"/>
@@ -3662,7 +3669,7 @@
       <c r="G19" s="281"/>
       <c r="H19" s="281"/>
     </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="208" t="s">
         <v>133</v>
       </c>
@@ -3686,9 +3693,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="333" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="280" t="s">
         <v>128</v>
@@ -3701,14 +3708,14 @@
       </c>
       <c r="E21" s="286"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="333"/>
       <c r="B22" s="280"/>
       <c r="C22" s="280"/>
       <c r="D22" s="280"/>
       <c r="E22" s="286"/>
     </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="208" t="s">
         <v>133</v>
       </c>
@@ -3732,9 +3739,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="333" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="280" t="s">
         <v>128</v>
@@ -3747,12 +3754,12 @@
       </c>
       <c r="E24" s="286"/>
     </row>
-    <row r="26" spans="1:9" s="284" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="284" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="285" t="s">
         <v>119</v>
       </c>
@@ -3761,7 +3768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="284" t="s">
         <v>121</v>
       </c>
@@ -3787,7 +3794,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="208" t="s">
         <v>117</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="208"/>
       <c r="B30" s="281"/>
       <c r="C30" s="281"/>
@@ -3827,7 +3834,7 @@
       <c r="H30" s="281"/>
       <c r="I30" s="281"/>
     </row>
-    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="208" t="s">
         <v>118</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="208"/>
       <c r="B32" s="281"/>
       <c r="C32" s="281"/>
@@ -3867,7 +3874,7 @@
       <c r="H32" s="281"/>
       <c r="I32" s="281"/>
     </row>
-    <row r="33" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="208" t="s">
         <v>132</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="208"/>
       <c r="B34" s="281"/>
       <c r="C34" s="281"/>
@@ -3907,7 +3914,7 @@
       <c r="H34" s="281"/>
       <c r="I34" s="281"/>
     </row>
-    <row r="35" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="208" t="s">
         <v>133</v>
       </c>
@@ -3936,9 +3943,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A36" s="333" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="280" t="s">
         <v>128</v>
@@ -3953,13 +3960,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" s="286"/>
       <c r="C37" s="286"/>
       <c r="D37" s="286"/>
       <c r="E37" s="286"/>
     </row>
-    <row r="38" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="208" t="s">
         <v>133</v>
       </c>
@@ -3988,9 +3995,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A39" s="333" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="280" t="s">
         <v>128</v>
@@ -4005,24 +4012,24 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B40" s="286"/>
       <c r="C40" s="286"/>
       <c r="D40" s="286"/>
       <c r="E40" s="286"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B41" s="286"/>
       <c r="C41" s="286"/>
       <c r="D41" s="286"/>
       <c r="E41" s="286"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A42" s="284" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="285" t="s">
         <v>119</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="284" t="s">
         <v>121</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="208" t="s">
         <v>117</v>
       </c>
@@ -4121,7 +4128,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="208"/>
       <c r="B47" s="281"/>
       <c r="C47" s="281"/>
@@ -4138,7 +4145,7 @@
       <c r="O47" s="281"/>
       <c r="P47" s="281"/>
     </row>
-    <row r="48" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="208" t="s">
         <v>118</v>
       </c>
@@ -4181,7 +4188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="208"/>
       <c r="B49" s="281"/>
       <c r="C49" s="281"/>
@@ -4198,7 +4205,7 @@
       <c r="O49" s="281"/>
       <c r="P49" s="281"/>
     </row>
-    <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="208" t="s">
         <v>132</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="208"/>
       <c r="B51" s="281"/>
       <c r="C51" s="281"/>
@@ -4258,7 +4265,7 @@
       <c r="O51" s="281"/>
       <c r="P51" s="281"/>
     </row>
-    <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="208" t="s">
         <v>133</v>
       </c>
@@ -4301,19 +4308,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E53" s="286"/>
       <c r="J53" s="288"/>
       <c r="K53" s="288"/>
       <c r="L53" s="288"/>
       <c r="M53" s="286"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A55" s="284" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="285" t="s">
         <v>119</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="284" t="s">
         <v>121</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="208" t="s">
         <v>117</v>
       </c>
@@ -4432,7 +4439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="208"/>
       <c r="B60" s="281"/>
       <c r="C60" s="281"/>
@@ -4451,7 +4458,7 @@
       <c r="P60" s="281"/>
       <c r="Q60" s="281"/>
     </row>
-    <row r="61" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="208" t="s">
         <v>118</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="208"/>
       <c r="B62" s="281"/>
       <c r="C62" s="281"/>
@@ -4523,7 +4530,7 @@
       <c r="P62" s="281"/>
       <c r="Q62" s="281"/>
     </row>
-    <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="208" t="s">
         <v>132</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="208"/>
       <c r="B64" s="281"/>
       <c r="C64" s="281"/>
@@ -4595,7 +4602,7 @@
       <c r="P64" s="281"/>
       <c r="Q64" s="281"/>
     </row>
-    <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="208" t="s">
         <v>133</v>
       </c>
@@ -4648,12 +4655,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="323" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="323" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A69" s="322" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="284" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A70" s="327" t="s">
         <v>66</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="321" t="s">
         <v>145</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="321" t="s">
         <v>149</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="321" t="s">
         <v>153</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="321"/>
       <c r="B74" s="321"/>
       <c r="C74" s="321"/>
@@ -4743,7 +4750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="325"/>
       <c r="B75" s="325"/>
       <c r="C75" s="325"/>
@@ -4751,7 +4758,7 @@
       <c r="E75" s="325"/>
       <c r="F75" s="326"/>
     </row>
-    <row r="76" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="325"/>
       <c r="B76" s="325"/>
       <c r="C76" s="325"/>
@@ -4759,7 +4766,7 @@
       <c r="E76" s="325"/>
       <c r="F76" s="326"/>
     </row>
-    <row r="78" spans="1:17" s="284" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" s="284" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A78" s="328" t="s">
         <v>156</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="321" t="s">
         <v>145</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="321" t="s">
         <v>149</v>
       </c>
@@ -4819,7 +4826,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="321"/>
       <c r="B81" s="321"/>
       <c r="C81" s="321"/>
@@ -4829,626 +4836,626 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="322" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:6" s="322" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Blad10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="158" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="158"/>
-    <col min="3" max="3" width="12.5703125" style="158" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="158" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="158" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="158" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="158"/>
+    <col min="3" max="3" width="12.59765625" style="158" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="158" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" style="158" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="158" customWidth="1"/>
     <col min="7" max="7" width="9" style="158" customWidth="1"/>
     <col min="8" max="8" width="7" style="158" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="158" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="158" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="158" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="158" customWidth="1"/>
-    <col min="14" max="242" width="9.140625" style="158"/>
-    <col min="243" max="243" width="5.7109375" style="158" customWidth="1"/>
-    <col min="244" max="245" width="9.140625" style="158"/>
-    <col min="246" max="246" width="2.7109375" style="158" customWidth="1"/>
-    <col min="247" max="249" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="158" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" style="158" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="158" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="158" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="158" customWidth="1"/>
+    <col min="14" max="242" width="9.1328125" style="158"/>
+    <col min="243" max="243" width="5.73046875" style="158" customWidth="1"/>
+    <col min="244" max="245" width="9.1328125" style="158"/>
+    <col min="246" max="246" width="2.73046875" style="158" customWidth="1"/>
+    <col min="247" max="249" width="7.265625" style="158" customWidth="1"/>
     <col min="250" max="250" width="7" style="158" customWidth="1"/>
-    <col min="251" max="253" width="7.28515625" style="158" customWidth="1"/>
-    <col min="254" max="254" width="10.5703125" style="158" customWidth="1"/>
-    <col min="255" max="255" width="7.28515625" style="158" customWidth="1"/>
-    <col min="256" max="498" width="9.140625" style="158"/>
-    <col min="499" max="499" width="5.7109375" style="158" customWidth="1"/>
-    <col min="500" max="501" width="9.140625" style="158"/>
-    <col min="502" max="502" width="2.7109375" style="158" customWidth="1"/>
-    <col min="503" max="505" width="7.28515625" style="158" customWidth="1"/>
+    <col min="251" max="253" width="7.265625" style="158" customWidth="1"/>
+    <col min="254" max="254" width="10.59765625" style="158" customWidth="1"/>
+    <col min="255" max="255" width="7.265625" style="158" customWidth="1"/>
+    <col min="256" max="498" width="9.1328125" style="158"/>
+    <col min="499" max="499" width="5.73046875" style="158" customWidth="1"/>
+    <col min="500" max="501" width="9.1328125" style="158"/>
+    <col min="502" max="502" width="2.73046875" style="158" customWidth="1"/>
+    <col min="503" max="505" width="7.265625" style="158" customWidth="1"/>
     <col min="506" max="506" width="7" style="158" customWidth="1"/>
-    <col min="507" max="509" width="7.28515625" style="158" customWidth="1"/>
-    <col min="510" max="510" width="10.5703125" style="158" customWidth="1"/>
-    <col min="511" max="511" width="7.28515625" style="158" customWidth="1"/>
-    <col min="512" max="754" width="9.140625" style="158"/>
-    <col min="755" max="755" width="5.7109375" style="158" customWidth="1"/>
-    <col min="756" max="757" width="9.140625" style="158"/>
-    <col min="758" max="758" width="2.7109375" style="158" customWidth="1"/>
-    <col min="759" max="761" width="7.28515625" style="158" customWidth="1"/>
+    <col min="507" max="509" width="7.265625" style="158" customWidth="1"/>
+    <col min="510" max="510" width="10.59765625" style="158" customWidth="1"/>
+    <col min="511" max="511" width="7.265625" style="158" customWidth="1"/>
+    <col min="512" max="754" width="9.1328125" style="158"/>
+    <col min="755" max="755" width="5.73046875" style="158" customWidth="1"/>
+    <col min="756" max="757" width="9.1328125" style="158"/>
+    <col min="758" max="758" width="2.73046875" style="158" customWidth="1"/>
+    <col min="759" max="761" width="7.265625" style="158" customWidth="1"/>
     <col min="762" max="762" width="7" style="158" customWidth="1"/>
-    <col min="763" max="765" width="7.28515625" style="158" customWidth="1"/>
-    <col min="766" max="766" width="10.5703125" style="158" customWidth="1"/>
-    <col min="767" max="767" width="7.28515625" style="158" customWidth="1"/>
-    <col min="768" max="1010" width="9.140625" style="158"/>
-    <col min="1011" max="1011" width="5.7109375" style="158" customWidth="1"/>
-    <col min="1012" max="1013" width="9.140625" style="158"/>
-    <col min="1014" max="1014" width="2.7109375" style="158" customWidth="1"/>
-    <col min="1015" max="1017" width="7.28515625" style="158" customWidth="1"/>
+    <col min="763" max="765" width="7.265625" style="158" customWidth="1"/>
+    <col min="766" max="766" width="10.59765625" style="158" customWidth="1"/>
+    <col min="767" max="767" width="7.265625" style="158" customWidth="1"/>
+    <col min="768" max="1010" width="9.1328125" style="158"/>
+    <col min="1011" max="1011" width="5.73046875" style="158" customWidth="1"/>
+    <col min="1012" max="1013" width="9.1328125" style="158"/>
+    <col min="1014" max="1014" width="2.73046875" style="158" customWidth="1"/>
+    <col min="1015" max="1017" width="7.265625" style="158" customWidth="1"/>
     <col min="1018" max="1018" width="7" style="158" customWidth="1"/>
-    <col min="1019" max="1021" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1022" max="1022" width="10.5703125" style="158" customWidth="1"/>
-    <col min="1023" max="1023" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1024" max="1266" width="9.140625" style="158"/>
-    <col min="1267" max="1267" width="5.7109375" style="158" customWidth="1"/>
-    <col min="1268" max="1269" width="9.140625" style="158"/>
-    <col min="1270" max="1270" width="2.7109375" style="158" customWidth="1"/>
-    <col min="1271" max="1273" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1019" max="1021" width="7.265625" style="158" customWidth="1"/>
+    <col min="1022" max="1022" width="10.59765625" style="158" customWidth="1"/>
+    <col min="1023" max="1023" width="7.265625" style="158" customWidth="1"/>
+    <col min="1024" max="1266" width="9.1328125" style="158"/>
+    <col min="1267" max="1267" width="5.73046875" style="158" customWidth="1"/>
+    <col min="1268" max="1269" width="9.1328125" style="158"/>
+    <col min="1270" max="1270" width="2.73046875" style="158" customWidth="1"/>
+    <col min="1271" max="1273" width="7.265625" style="158" customWidth="1"/>
     <col min="1274" max="1274" width="7" style="158" customWidth="1"/>
-    <col min="1275" max="1277" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1278" max="1278" width="10.5703125" style="158" customWidth="1"/>
-    <col min="1279" max="1279" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1280" max="1522" width="9.140625" style="158"/>
-    <col min="1523" max="1523" width="5.7109375" style="158" customWidth="1"/>
-    <col min="1524" max="1525" width="9.140625" style="158"/>
-    <col min="1526" max="1526" width="2.7109375" style="158" customWidth="1"/>
-    <col min="1527" max="1529" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1275" max="1277" width="7.265625" style="158" customWidth="1"/>
+    <col min="1278" max="1278" width="10.59765625" style="158" customWidth="1"/>
+    <col min="1279" max="1279" width="7.265625" style="158" customWidth="1"/>
+    <col min="1280" max="1522" width="9.1328125" style="158"/>
+    <col min="1523" max="1523" width="5.73046875" style="158" customWidth="1"/>
+    <col min="1524" max="1525" width="9.1328125" style="158"/>
+    <col min="1526" max="1526" width="2.73046875" style="158" customWidth="1"/>
+    <col min="1527" max="1529" width="7.265625" style="158" customWidth="1"/>
     <col min="1530" max="1530" width="7" style="158" customWidth="1"/>
-    <col min="1531" max="1533" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1534" max="1534" width="10.5703125" style="158" customWidth="1"/>
-    <col min="1535" max="1535" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1536" max="1778" width="9.140625" style="158"/>
-    <col min="1779" max="1779" width="5.7109375" style="158" customWidth="1"/>
-    <col min="1780" max="1781" width="9.140625" style="158"/>
-    <col min="1782" max="1782" width="2.7109375" style="158" customWidth="1"/>
-    <col min="1783" max="1785" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1531" max="1533" width="7.265625" style="158" customWidth="1"/>
+    <col min="1534" max="1534" width="10.59765625" style="158" customWidth="1"/>
+    <col min="1535" max="1535" width="7.265625" style="158" customWidth="1"/>
+    <col min="1536" max="1778" width="9.1328125" style="158"/>
+    <col min="1779" max="1779" width="5.73046875" style="158" customWidth="1"/>
+    <col min="1780" max="1781" width="9.1328125" style="158"/>
+    <col min="1782" max="1782" width="2.73046875" style="158" customWidth="1"/>
+    <col min="1783" max="1785" width="7.265625" style="158" customWidth="1"/>
     <col min="1786" max="1786" width="7" style="158" customWidth="1"/>
-    <col min="1787" max="1789" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1790" max="1790" width="10.5703125" style="158" customWidth="1"/>
-    <col min="1791" max="1791" width="7.28515625" style="158" customWidth="1"/>
-    <col min="1792" max="2034" width="9.140625" style="158"/>
-    <col min="2035" max="2035" width="5.7109375" style="158" customWidth="1"/>
-    <col min="2036" max="2037" width="9.140625" style="158"/>
-    <col min="2038" max="2038" width="2.7109375" style="158" customWidth="1"/>
-    <col min="2039" max="2041" width="7.28515625" style="158" customWidth="1"/>
+    <col min="1787" max="1789" width="7.265625" style="158" customWidth="1"/>
+    <col min="1790" max="1790" width="10.59765625" style="158" customWidth="1"/>
+    <col min="1791" max="1791" width="7.265625" style="158" customWidth="1"/>
+    <col min="1792" max="2034" width="9.1328125" style="158"/>
+    <col min="2035" max="2035" width="5.73046875" style="158" customWidth="1"/>
+    <col min="2036" max="2037" width="9.1328125" style="158"/>
+    <col min="2038" max="2038" width="2.73046875" style="158" customWidth="1"/>
+    <col min="2039" max="2041" width="7.265625" style="158" customWidth="1"/>
     <col min="2042" max="2042" width="7" style="158" customWidth="1"/>
-    <col min="2043" max="2045" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2046" max="2046" width="10.5703125" style="158" customWidth="1"/>
-    <col min="2047" max="2047" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2048" max="2290" width="9.140625" style="158"/>
-    <col min="2291" max="2291" width="5.7109375" style="158" customWidth="1"/>
-    <col min="2292" max="2293" width="9.140625" style="158"/>
-    <col min="2294" max="2294" width="2.7109375" style="158" customWidth="1"/>
-    <col min="2295" max="2297" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2043" max="2045" width="7.265625" style="158" customWidth="1"/>
+    <col min="2046" max="2046" width="10.59765625" style="158" customWidth="1"/>
+    <col min="2047" max="2047" width="7.265625" style="158" customWidth="1"/>
+    <col min="2048" max="2290" width="9.1328125" style="158"/>
+    <col min="2291" max="2291" width="5.73046875" style="158" customWidth="1"/>
+    <col min="2292" max="2293" width="9.1328125" style="158"/>
+    <col min="2294" max="2294" width="2.73046875" style="158" customWidth="1"/>
+    <col min="2295" max="2297" width="7.265625" style="158" customWidth="1"/>
     <col min="2298" max="2298" width="7" style="158" customWidth="1"/>
-    <col min="2299" max="2301" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2302" max="2302" width="10.5703125" style="158" customWidth="1"/>
-    <col min="2303" max="2303" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2304" max="2546" width="9.140625" style="158"/>
-    <col min="2547" max="2547" width="5.7109375" style="158" customWidth="1"/>
-    <col min="2548" max="2549" width="9.140625" style="158"/>
-    <col min="2550" max="2550" width="2.7109375" style="158" customWidth="1"/>
-    <col min="2551" max="2553" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2299" max="2301" width="7.265625" style="158" customWidth="1"/>
+    <col min="2302" max="2302" width="10.59765625" style="158" customWidth="1"/>
+    <col min="2303" max="2303" width="7.265625" style="158" customWidth="1"/>
+    <col min="2304" max="2546" width="9.1328125" style="158"/>
+    <col min="2547" max="2547" width="5.73046875" style="158" customWidth="1"/>
+    <col min="2548" max="2549" width="9.1328125" style="158"/>
+    <col min="2550" max="2550" width="2.73046875" style="158" customWidth="1"/>
+    <col min="2551" max="2553" width="7.265625" style="158" customWidth="1"/>
     <col min="2554" max="2554" width="7" style="158" customWidth="1"/>
-    <col min="2555" max="2557" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2558" max="2558" width="10.5703125" style="158" customWidth="1"/>
-    <col min="2559" max="2559" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2560" max="2802" width="9.140625" style="158"/>
-    <col min="2803" max="2803" width="5.7109375" style="158" customWidth="1"/>
-    <col min="2804" max="2805" width="9.140625" style="158"/>
-    <col min="2806" max="2806" width="2.7109375" style="158" customWidth="1"/>
-    <col min="2807" max="2809" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2555" max="2557" width="7.265625" style="158" customWidth="1"/>
+    <col min="2558" max="2558" width="10.59765625" style="158" customWidth="1"/>
+    <col min="2559" max="2559" width="7.265625" style="158" customWidth="1"/>
+    <col min="2560" max="2802" width="9.1328125" style="158"/>
+    <col min="2803" max="2803" width="5.73046875" style="158" customWidth="1"/>
+    <col min="2804" max="2805" width="9.1328125" style="158"/>
+    <col min="2806" max="2806" width="2.73046875" style="158" customWidth="1"/>
+    <col min="2807" max="2809" width="7.265625" style="158" customWidth="1"/>
     <col min="2810" max="2810" width="7" style="158" customWidth="1"/>
-    <col min="2811" max="2813" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2814" max="2814" width="10.5703125" style="158" customWidth="1"/>
-    <col min="2815" max="2815" width="7.28515625" style="158" customWidth="1"/>
-    <col min="2816" max="3058" width="9.140625" style="158"/>
-    <col min="3059" max="3059" width="5.7109375" style="158" customWidth="1"/>
-    <col min="3060" max="3061" width="9.140625" style="158"/>
-    <col min="3062" max="3062" width="2.7109375" style="158" customWidth="1"/>
-    <col min="3063" max="3065" width="7.28515625" style="158" customWidth="1"/>
+    <col min="2811" max="2813" width="7.265625" style="158" customWidth="1"/>
+    <col min="2814" max="2814" width="10.59765625" style="158" customWidth="1"/>
+    <col min="2815" max="2815" width="7.265625" style="158" customWidth="1"/>
+    <col min="2816" max="3058" width="9.1328125" style="158"/>
+    <col min="3059" max="3059" width="5.73046875" style="158" customWidth="1"/>
+    <col min="3060" max="3061" width="9.1328125" style="158"/>
+    <col min="3062" max="3062" width="2.73046875" style="158" customWidth="1"/>
+    <col min="3063" max="3065" width="7.265625" style="158" customWidth="1"/>
     <col min="3066" max="3066" width="7" style="158" customWidth="1"/>
-    <col min="3067" max="3069" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3070" max="3070" width="10.5703125" style="158" customWidth="1"/>
-    <col min="3071" max="3071" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3072" max="3314" width="9.140625" style="158"/>
-    <col min="3315" max="3315" width="5.7109375" style="158" customWidth="1"/>
-    <col min="3316" max="3317" width="9.140625" style="158"/>
-    <col min="3318" max="3318" width="2.7109375" style="158" customWidth="1"/>
-    <col min="3319" max="3321" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3067" max="3069" width="7.265625" style="158" customWidth="1"/>
+    <col min="3070" max="3070" width="10.59765625" style="158" customWidth="1"/>
+    <col min="3071" max="3071" width="7.265625" style="158" customWidth="1"/>
+    <col min="3072" max="3314" width="9.1328125" style="158"/>
+    <col min="3315" max="3315" width="5.73046875" style="158" customWidth="1"/>
+    <col min="3316" max="3317" width="9.1328125" style="158"/>
+    <col min="3318" max="3318" width="2.73046875" style="158" customWidth="1"/>
+    <col min="3319" max="3321" width="7.265625" style="158" customWidth="1"/>
     <col min="3322" max="3322" width="7" style="158" customWidth="1"/>
-    <col min="3323" max="3325" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3326" max="3326" width="10.5703125" style="158" customWidth="1"/>
-    <col min="3327" max="3327" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3328" max="3570" width="9.140625" style="158"/>
-    <col min="3571" max="3571" width="5.7109375" style="158" customWidth="1"/>
-    <col min="3572" max="3573" width="9.140625" style="158"/>
-    <col min="3574" max="3574" width="2.7109375" style="158" customWidth="1"/>
-    <col min="3575" max="3577" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3323" max="3325" width="7.265625" style="158" customWidth="1"/>
+    <col min="3326" max="3326" width="10.59765625" style="158" customWidth="1"/>
+    <col min="3327" max="3327" width="7.265625" style="158" customWidth="1"/>
+    <col min="3328" max="3570" width="9.1328125" style="158"/>
+    <col min="3571" max="3571" width="5.73046875" style="158" customWidth="1"/>
+    <col min="3572" max="3573" width="9.1328125" style="158"/>
+    <col min="3574" max="3574" width="2.73046875" style="158" customWidth="1"/>
+    <col min="3575" max="3577" width="7.265625" style="158" customWidth="1"/>
     <col min="3578" max="3578" width="7" style="158" customWidth="1"/>
-    <col min="3579" max="3581" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3582" max="3582" width="10.5703125" style="158" customWidth="1"/>
-    <col min="3583" max="3583" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3584" max="3826" width="9.140625" style="158"/>
-    <col min="3827" max="3827" width="5.7109375" style="158" customWidth="1"/>
-    <col min="3828" max="3829" width="9.140625" style="158"/>
-    <col min="3830" max="3830" width="2.7109375" style="158" customWidth="1"/>
-    <col min="3831" max="3833" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3579" max="3581" width="7.265625" style="158" customWidth="1"/>
+    <col min="3582" max="3582" width="10.59765625" style="158" customWidth="1"/>
+    <col min="3583" max="3583" width="7.265625" style="158" customWidth="1"/>
+    <col min="3584" max="3826" width="9.1328125" style="158"/>
+    <col min="3827" max="3827" width="5.73046875" style="158" customWidth="1"/>
+    <col min="3828" max="3829" width="9.1328125" style="158"/>
+    <col min="3830" max="3830" width="2.73046875" style="158" customWidth="1"/>
+    <col min="3831" max="3833" width="7.265625" style="158" customWidth="1"/>
     <col min="3834" max="3834" width="7" style="158" customWidth="1"/>
-    <col min="3835" max="3837" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3838" max="3838" width="10.5703125" style="158" customWidth="1"/>
-    <col min="3839" max="3839" width="7.28515625" style="158" customWidth="1"/>
-    <col min="3840" max="4082" width="9.140625" style="158"/>
-    <col min="4083" max="4083" width="5.7109375" style="158" customWidth="1"/>
-    <col min="4084" max="4085" width="9.140625" style="158"/>
-    <col min="4086" max="4086" width="2.7109375" style="158" customWidth="1"/>
-    <col min="4087" max="4089" width="7.28515625" style="158" customWidth="1"/>
+    <col min="3835" max="3837" width="7.265625" style="158" customWidth="1"/>
+    <col min="3838" max="3838" width="10.59765625" style="158" customWidth="1"/>
+    <col min="3839" max="3839" width="7.265625" style="158" customWidth="1"/>
+    <col min="3840" max="4082" width="9.1328125" style="158"/>
+    <col min="4083" max="4083" width="5.73046875" style="158" customWidth="1"/>
+    <col min="4084" max="4085" width="9.1328125" style="158"/>
+    <col min="4086" max="4086" width="2.73046875" style="158" customWidth="1"/>
+    <col min="4087" max="4089" width="7.265625" style="158" customWidth="1"/>
     <col min="4090" max="4090" width="7" style="158" customWidth="1"/>
-    <col min="4091" max="4093" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4094" max="4094" width="10.5703125" style="158" customWidth="1"/>
-    <col min="4095" max="4095" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4096" max="4338" width="9.140625" style="158"/>
-    <col min="4339" max="4339" width="5.7109375" style="158" customWidth="1"/>
-    <col min="4340" max="4341" width="9.140625" style="158"/>
-    <col min="4342" max="4342" width="2.7109375" style="158" customWidth="1"/>
-    <col min="4343" max="4345" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4091" max="4093" width="7.265625" style="158" customWidth="1"/>
+    <col min="4094" max="4094" width="10.59765625" style="158" customWidth="1"/>
+    <col min="4095" max="4095" width="7.265625" style="158" customWidth="1"/>
+    <col min="4096" max="4338" width="9.1328125" style="158"/>
+    <col min="4339" max="4339" width="5.73046875" style="158" customWidth="1"/>
+    <col min="4340" max="4341" width="9.1328125" style="158"/>
+    <col min="4342" max="4342" width="2.73046875" style="158" customWidth="1"/>
+    <col min="4343" max="4345" width="7.265625" style="158" customWidth="1"/>
     <col min="4346" max="4346" width="7" style="158" customWidth="1"/>
-    <col min="4347" max="4349" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4350" max="4350" width="10.5703125" style="158" customWidth="1"/>
-    <col min="4351" max="4351" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4352" max="4594" width="9.140625" style="158"/>
-    <col min="4595" max="4595" width="5.7109375" style="158" customWidth="1"/>
-    <col min="4596" max="4597" width="9.140625" style="158"/>
-    <col min="4598" max="4598" width="2.7109375" style="158" customWidth="1"/>
-    <col min="4599" max="4601" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4347" max="4349" width="7.265625" style="158" customWidth="1"/>
+    <col min="4350" max="4350" width="10.59765625" style="158" customWidth="1"/>
+    <col min="4351" max="4351" width="7.265625" style="158" customWidth="1"/>
+    <col min="4352" max="4594" width="9.1328125" style="158"/>
+    <col min="4595" max="4595" width="5.73046875" style="158" customWidth="1"/>
+    <col min="4596" max="4597" width="9.1328125" style="158"/>
+    <col min="4598" max="4598" width="2.73046875" style="158" customWidth="1"/>
+    <col min="4599" max="4601" width="7.265625" style="158" customWidth="1"/>
     <col min="4602" max="4602" width="7" style="158" customWidth="1"/>
-    <col min="4603" max="4605" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4606" max="4606" width="10.5703125" style="158" customWidth="1"/>
-    <col min="4607" max="4607" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4608" max="4850" width="9.140625" style="158"/>
-    <col min="4851" max="4851" width="5.7109375" style="158" customWidth="1"/>
-    <col min="4852" max="4853" width="9.140625" style="158"/>
-    <col min="4854" max="4854" width="2.7109375" style="158" customWidth="1"/>
-    <col min="4855" max="4857" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4603" max="4605" width="7.265625" style="158" customWidth="1"/>
+    <col min="4606" max="4606" width="10.59765625" style="158" customWidth="1"/>
+    <col min="4607" max="4607" width="7.265625" style="158" customWidth="1"/>
+    <col min="4608" max="4850" width="9.1328125" style="158"/>
+    <col min="4851" max="4851" width="5.73046875" style="158" customWidth="1"/>
+    <col min="4852" max="4853" width="9.1328125" style="158"/>
+    <col min="4854" max="4854" width="2.73046875" style="158" customWidth="1"/>
+    <col min="4855" max="4857" width="7.265625" style="158" customWidth="1"/>
     <col min="4858" max="4858" width="7" style="158" customWidth="1"/>
-    <col min="4859" max="4861" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4862" max="4862" width="10.5703125" style="158" customWidth="1"/>
-    <col min="4863" max="4863" width="7.28515625" style="158" customWidth="1"/>
-    <col min="4864" max="5106" width="9.140625" style="158"/>
-    <col min="5107" max="5107" width="5.7109375" style="158" customWidth="1"/>
-    <col min="5108" max="5109" width="9.140625" style="158"/>
-    <col min="5110" max="5110" width="2.7109375" style="158" customWidth="1"/>
-    <col min="5111" max="5113" width="7.28515625" style="158" customWidth="1"/>
+    <col min="4859" max="4861" width="7.265625" style="158" customWidth="1"/>
+    <col min="4862" max="4862" width="10.59765625" style="158" customWidth="1"/>
+    <col min="4863" max="4863" width="7.265625" style="158" customWidth="1"/>
+    <col min="4864" max="5106" width="9.1328125" style="158"/>
+    <col min="5107" max="5107" width="5.73046875" style="158" customWidth="1"/>
+    <col min="5108" max="5109" width="9.1328125" style="158"/>
+    <col min="5110" max="5110" width="2.73046875" style="158" customWidth="1"/>
+    <col min="5111" max="5113" width="7.265625" style="158" customWidth="1"/>
     <col min="5114" max="5114" width="7" style="158" customWidth="1"/>
-    <col min="5115" max="5117" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5118" max="5118" width="10.5703125" style="158" customWidth="1"/>
-    <col min="5119" max="5119" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5120" max="5362" width="9.140625" style="158"/>
-    <col min="5363" max="5363" width="5.7109375" style="158" customWidth="1"/>
-    <col min="5364" max="5365" width="9.140625" style="158"/>
-    <col min="5366" max="5366" width="2.7109375" style="158" customWidth="1"/>
-    <col min="5367" max="5369" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5115" max="5117" width="7.265625" style="158" customWidth="1"/>
+    <col min="5118" max="5118" width="10.59765625" style="158" customWidth="1"/>
+    <col min="5119" max="5119" width="7.265625" style="158" customWidth="1"/>
+    <col min="5120" max="5362" width="9.1328125" style="158"/>
+    <col min="5363" max="5363" width="5.73046875" style="158" customWidth="1"/>
+    <col min="5364" max="5365" width="9.1328125" style="158"/>
+    <col min="5366" max="5366" width="2.73046875" style="158" customWidth="1"/>
+    <col min="5367" max="5369" width="7.265625" style="158" customWidth="1"/>
     <col min="5370" max="5370" width="7" style="158" customWidth="1"/>
-    <col min="5371" max="5373" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5374" max="5374" width="10.5703125" style="158" customWidth="1"/>
-    <col min="5375" max="5375" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5376" max="5618" width="9.140625" style="158"/>
-    <col min="5619" max="5619" width="5.7109375" style="158" customWidth="1"/>
-    <col min="5620" max="5621" width="9.140625" style="158"/>
-    <col min="5622" max="5622" width="2.7109375" style="158" customWidth="1"/>
-    <col min="5623" max="5625" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5371" max="5373" width="7.265625" style="158" customWidth="1"/>
+    <col min="5374" max="5374" width="10.59765625" style="158" customWidth="1"/>
+    <col min="5375" max="5375" width="7.265625" style="158" customWidth="1"/>
+    <col min="5376" max="5618" width="9.1328125" style="158"/>
+    <col min="5619" max="5619" width="5.73046875" style="158" customWidth="1"/>
+    <col min="5620" max="5621" width="9.1328125" style="158"/>
+    <col min="5622" max="5622" width="2.73046875" style="158" customWidth="1"/>
+    <col min="5623" max="5625" width="7.265625" style="158" customWidth="1"/>
     <col min="5626" max="5626" width="7" style="158" customWidth="1"/>
-    <col min="5627" max="5629" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5630" max="5630" width="10.5703125" style="158" customWidth="1"/>
-    <col min="5631" max="5631" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5632" max="5874" width="9.140625" style="158"/>
-    <col min="5875" max="5875" width="5.7109375" style="158" customWidth="1"/>
-    <col min="5876" max="5877" width="9.140625" style="158"/>
-    <col min="5878" max="5878" width="2.7109375" style="158" customWidth="1"/>
-    <col min="5879" max="5881" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5627" max="5629" width="7.265625" style="158" customWidth="1"/>
+    <col min="5630" max="5630" width="10.59765625" style="158" customWidth="1"/>
+    <col min="5631" max="5631" width="7.265625" style="158" customWidth="1"/>
+    <col min="5632" max="5874" width="9.1328125" style="158"/>
+    <col min="5875" max="5875" width="5.73046875" style="158" customWidth="1"/>
+    <col min="5876" max="5877" width="9.1328125" style="158"/>
+    <col min="5878" max="5878" width="2.73046875" style="158" customWidth="1"/>
+    <col min="5879" max="5881" width="7.265625" style="158" customWidth="1"/>
     <col min="5882" max="5882" width="7" style="158" customWidth="1"/>
-    <col min="5883" max="5885" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5886" max="5886" width="10.5703125" style="158" customWidth="1"/>
-    <col min="5887" max="5887" width="7.28515625" style="158" customWidth="1"/>
-    <col min="5888" max="6130" width="9.140625" style="158"/>
-    <col min="6131" max="6131" width="5.7109375" style="158" customWidth="1"/>
-    <col min="6132" max="6133" width="9.140625" style="158"/>
-    <col min="6134" max="6134" width="2.7109375" style="158" customWidth="1"/>
-    <col min="6135" max="6137" width="7.28515625" style="158" customWidth="1"/>
+    <col min="5883" max="5885" width="7.265625" style="158" customWidth="1"/>
+    <col min="5886" max="5886" width="10.59765625" style="158" customWidth="1"/>
+    <col min="5887" max="5887" width="7.265625" style="158" customWidth="1"/>
+    <col min="5888" max="6130" width="9.1328125" style="158"/>
+    <col min="6131" max="6131" width="5.73046875" style="158" customWidth="1"/>
+    <col min="6132" max="6133" width="9.1328125" style="158"/>
+    <col min="6134" max="6134" width="2.73046875" style="158" customWidth="1"/>
+    <col min="6135" max="6137" width="7.265625" style="158" customWidth="1"/>
     <col min="6138" max="6138" width="7" style="158" customWidth="1"/>
-    <col min="6139" max="6141" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6142" max="6142" width="10.5703125" style="158" customWidth="1"/>
-    <col min="6143" max="6143" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6144" max="6386" width="9.140625" style="158"/>
-    <col min="6387" max="6387" width="5.7109375" style="158" customWidth="1"/>
-    <col min="6388" max="6389" width="9.140625" style="158"/>
-    <col min="6390" max="6390" width="2.7109375" style="158" customWidth="1"/>
-    <col min="6391" max="6393" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6139" max="6141" width="7.265625" style="158" customWidth="1"/>
+    <col min="6142" max="6142" width="10.59765625" style="158" customWidth="1"/>
+    <col min="6143" max="6143" width="7.265625" style="158" customWidth="1"/>
+    <col min="6144" max="6386" width="9.1328125" style="158"/>
+    <col min="6387" max="6387" width="5.73046875" style="158" customWidth="1"/>
+    <col min="6388" max="6389" width="9.1328125" style="158"/>
+    <col min="6390" max="6390" width="2.73046875" style="158" customWidth="1"/>
+    <col min="6391" max="6393" width="7.265625" style="158" customWidth="1"/>
     <col min="6394" max="6394" width="7" style="158" customWidth="1"/>
-    <col min="6395" max="6397" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6398" max="6398" width="10.5703125" style="158" customWidth="1"/>
-    <col min="6399" max="6399" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6400" max="6642" width="9.140625" style="158"/>
-    <col min="6643" max="6643" width="5.7109375" style="158" customWidth="1"/>
-    <col min="6644" max="6645" width="9.140625" style="158"/>
-    <col min="6646" max="6646" width="2.7109375" style="158" customWidth="1"/>
-    <col min="6647" max="6649" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6395" max="6397" width="7.265625" style="158" customWidth="1"/>
+    <col min="6398" max="6398" width="10.59765625" style="158" customWidth="1"/>
+    <col min="6399" max="6399" width="7.265625" style="158" customWidth="1"/>
+    <col min="6400" max="6642" width="9.1328125" style="158"/>
+    <col min="6643" max="6643" width="5.73046875" style="158" customWidth="1"/>
+    <col min="6644" max="6645" width="9.1328125" style="158"/>
+    <col min="6646" max="6646" width="2.73046875" style="158" customWidth="1"/>
+    <col min="6647" max="6649" width="7.265625" style="158" customWidth="1"/>
     <col min="6650" max="6650" width="7" style="158" customWidth="1"/>
-    <col min="6651" max="6653" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6654" max="6654" width="10.5703125" style="158" customWidth="1"/>
-    <col min="6655" max="6655" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6656" max="6898" width="9.140625" style="158"/>
-    <col min="6899" max="6899" width="5.7109375" style="158" customWidth="1"/>
-    <col min="6900" max="6901" width="9.140625" style="158"/>
-    <col min="6902" max="6902" width="2.7109375" style="158" customWidth="1"/>
-    <col min="6903" max="6905" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6651" max="6653" width="7.265625" style="158" customWidth="1"/>
+    <col min="6654" max="6654" width="10.59765625" style="158" customWidth="1"/>
+    <col min="6655" max="6655" width="7.265625" style="158" customWidth="1"/>
+    <col min="6656" max="6898" width="9.1328125" style="158"/>
+    <col min="6899" max="6899" width="5.73046875" style="158" customWidth="1"/>
+    <col min="6900" max="6901" width="9.1328125" style="158"/>
+    <col min="6902" max="6902" width="2.73046875" style="158" customWidth="1"/>
+    <col min="6903" max="6905" width="7.265625" style="158" customWidth="1"/>
     <col min="6906" max="6906" width="7" style="158" customWidth="1"/>
-    <col min="6907" max="6909" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6910" max="6910" width="10.5703125" style="158" customWidth="1"/>
-    <col min="6911" max="6911" width="7.28515625" style="158" customWidth="1"/>
-    <col min="6912" max="7154" width="9.140625" style="158"/>
-    <col min="7155" max="7155" width="5.7109375" style="158" customWidth="1"/>
-    <col min="7156" max="7157" width="9.140625" style="158"/>
-    <col min="7158" max="7158" width="2.7109375" style="158" customWidth="1"/>
-    <col min="7159" max="7161" width="7.28515625" style="158" customWidth="1"/>
+    <col min="6907" max="6909" width="7.265625" style="158" customWidth="1"/>
+    <col min="6910" max="6910" width="10.59765625" style="158" customWidth="1"/>
+    <col min="6911" max="6911" width="7.265625" style="158" customWidth="1"/>
+    <col min="6912" max="7154" width="9.1328125" style="158"/>
+    <col min="7155" max="7155" width="5.73046875" style="158" customWidth="1"/>
+    <col min="7156" max="7157" width="9.1328125" style="158"/>
+    <col min="7158" max="7158" width="2.73046875" style="158" customWidth="1"/>
+    <col min="7159" max="7161" width="7.265625" style="158" customWidth="1"/>
     <col min="7162" max="7162" width="7" style="158" customWidth="1"/>
-    <col min="7163" max="7165" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7166" max="7166" width="10.5703125" style="158" customWidth="1"/>
-    <col min="7167" max="7167" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7168" max="7410" width="9.140625" style="158"/>
-    <col min="7411" max="7411" width="5.7109375" style="158" customWidth="1"/>
-    <col min="7412" max="7413" width="9.140625" style="158"/>
-    <col min="7414" max="7414" width="2.7109375" style="158" customWidth="1"/>
-    <col min="7415" max="7417" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7163" max="7165" width="7.265625" style="158" customWidth="1"/>
+    <col min="7166" max="7166" width="10.59765625" style="158" customWidth="1"/>
+    <col min="7167" max="7167" width="7.265625" style="158" customWidth="1"/>
+    <col min="7168" max="7410" width="9.1328125" style="158"/>
+    <col min="7411" max="7411" width="5.73046875" style="158" customWidth="1"/>
+    <col min="7412" max="7413" width="9.1328125" style="158"/>
+    <col min="7414" max="7414" width="2.73046875" style="158" customWidth="1"/>
+    <col min="7415" max="7417" width="7.265625" style="158" customWidth="1"/>
     <col min="7418" max="7418" width="7" style="158" customWidth="1"/>
-    <col min="7419" max="7421" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7422" max="7422" width="10.5703125" style="158" customWidth="1"/>
-    <col min="7423" max="7423" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7424" max="7666" width="9.140625" style="158"/>
-    <col min="7667" max="7667" width="5.7109375" style="158" customWidth="1"/>
-    <col min="7668" max="7669" width="9.140625" style="158"/>
-    <col min="7670" max="7670" width="2.7109375" style="158" customWidth="1"/>
-    <col min="7671" max="7673" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7419" max="7421" width="7.265625" style="158" customWidth="1"/>
+    <col min="7422" max="7422" width="10.59765625" style="158" customWidth="1"/>
+    <col min="7423" max="7423" width="7.265625" style="158" customWidth="1"/>
+    <col min="7424" max="7666" width="9.1328125" style="158"/>
+    <col min="7667" max="7667" width="5.73046875" style="158" customWidth="1"/>
+    <col min="7668" max="7669" width="9.1328125" style="158"/>
+    <col min="7670" max="7670" width="2.73046875" style="158" customWidth="1"/>
+    <col min="7671" max="7673" width="7.265625" style="158" customWidth="1"/>
     <col min="7674" max="7674" width="7" style="158" customWidth="1"/>
-    <col min="7675" max="7677" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7678" max="7678" width="10.5703125" style="158" customWidth="1"/>
-    <col min="7679" max="7679" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7680" max="7922" width="9.140625" style="158"/>
-    <col min="7923" max="7923" width="5.7109375" style="158" customWidth="1"/>
-    <col min="7924" max="7925" width="9.140625" style="158"/>
-    <col min="7926" max="7926" width="2.7109375" style="158" customWidth="1"/>
-    <col min="7927" max="7929" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7675" max="7677" width="7.265625" style="158" customWidth="1"/>
+    <col min="7678" max="7678" width="10.59765625" style="158" customWidth="1"/>
+    <col min="7679" max="7679" width="7.265625" style="158" customWidth="1"/>
+    <col min="7680" max="7922" width="9.1328125" style="158"/>
+    <col min="7923" max="7923" width="5.73046875" style="158" customWidth="1"/>
+    <col min="7924" max="7925" width="9.1328125" style="158"/>
+    <col min="7926" max="7926" width="2.73046875" style="158" customWidth="1"/>
+    <col min="7927" max="7929" width="7.265625" style="158" customWidth="1"/>
     <col min="7930" max="7930" width="7" style="158" customWidth="1"/>
-    <col min="7931" max="7933" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7934" max="7934" width="10.5703125" style="158" customWidth="1"/>
-    <col min="7935" max="7935" width="7.28515625" style="158" customWidth="1"/>
-    <col min="7936" max="8178" width="9.140625" style="158"/>
-    <col min="8179" max="8179" width="5.7109375" style="158" customWidth="1"/>
-    <col min="8180" max="8181" width="9.140625" style="158"/>
-    <col min="8182" max="8182" width="2.7109375" style="158" customWidth="1"/>
-    <col min="8183" max="8185" width="7.28515625" style="158" customWidth="1"/>
+    <col min="7931" max="7933" width="7.265625" style="158" customWidth="1"/>
+    <col min="7934" max="7934" width="10.59765625" style="158" customWidth="1"/>
+    <col min="7935" max="7935" width="7.265625" style="158" customWidth="1"/>
+    <col min="7936" max="8178" width="9.1328125" style="158"/>
+    <col min="8179" max="8179" width="5.73046875" style="158" customWidth="1"/>
+    <col min="8180" max="8181" width="9.1328125" style="158"/>
+    <col min="8182" max="8182" width="2.73046875" style="158" customWidth="1"/>
+    <col min="8183" max="8185" width="7.265625" style="158" customWidth="1"/>
     <col min="8186" max="8186" width="7" style="158" customWidth="1"/>
-    <col min="8187" max="8189" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8190" max="8190" width="10.5703125" style="158" customWidth="1"/>
-    <col min="8191" max="8191" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8192" max="8434" width="9.140625" style="158"/>
-    <col min="8435" max="8435" width="5.7109375" style="158" customWidth="1"/>
-    <col min="8436" max="8437" width="9.140625" style="158"/>
-    <col min="8438" max="8438" width="2.7109375" style="158" customWidth="1"/>
-    <col min="8439" max="8441" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8187" max="8189" width="7.265625" style="158" customWidth="1"/>
+    <col min="8190" max="8190" width="10.59765625" style="158" customWidth="1"/>
+    <col min="8191" max="8191" width="7.265625" style="158" customWidth="1"/>
+    <col min="8192" max="8434" width="9.1328125" style="158"/>
+    <col min="8435" max="8435" width="5.73046875" style="158" customWidth="1"/>
+    <col min="8436" max="8437" width="9.1328125" style="158"/>
+    <col min="8438" max="8438" width="2.73046875" style="158" customWidth="1"/>
+    <col min="8439" max="8441" width="7.265625" style="158" customWidth="1"/>
     <col min="8442" max="8442" width="7" style="158" customWidth="1"/>
-    <col min="8443" max="8445" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8446" max="8446" width="10.5703125" style="158" customWidth="1"/>
-    <col min="8447" max="8447" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8448" max="8690" width="9.140625" style="158"/>
-    <col min="8691" max="8691" width="5.7109375" style="158" customWidth="1"/>
-    <col min="8692" max="8693" width="9.140625" style="158"/>
-    <col min="8694" max="8694" width="2.7109375" style="158" customWidth="1"/>
-    <col min="8695" max="8697" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8443" max="8445" width="7.265625" style="158" customWidth="1"/>
+    <col min="8446" max="8446" width="10.59765625" style="158" customWidth="1"/>
+    <col min="8447" max="8447" width="7.265625" style="158" customWidth="1"/>
+    <col min="8448" max="8690" width="9.1328125" style="158"/>
+    <col min="8691" max="8691" width="5.73046875" style="158" customWidth="1"/>
+    <col min="8692" max="8693" width="9.1328125" style="158"/>
+    <col min="8694" max="8694" width="2.73046875" style="158" customWidth="1"/>
+    <col min="8695" max="8697" width="7.265625" style="158" customWidth="1"/>
     <col min="8698" max="8698" width="7" style="158" customWidth="1"/>
-    <col min="8699" max="8701" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8702" max="8702" width="10.5703125" style="158" customWidth="1"/>
-    <col min="8703" max="8703" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8704" max="8946" width="9.140625" style="158"/>
-    <col min="8947" max="8947" width="5.7109375" style="158" customWidth="1"/>
-    <col min="8948" max="8949" width="9.140625" style="158"/>
-    <col min="8950" max="8950" width="2.7109375" style="158" customWidth="1"/>
-    <col min="8951" max="8953" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8699" max="8701" width="7.265625" style="158" customWidth="1"/>
+    <col min="8702" max="8702" width="10.59765625" style="158" customWidth="1"/>
+    <col min="8703" max="8703" width="7.265625" style="158" customWidth="1"/>
+    <col min="8704" max="8946" width="9.1328125" style="158"/>
+    <col min="8947" max="8947" width="5.73046875" style="158" customWidth="1"/>
+    <col min="8948" max="8949" width="9.1328125" style="158"/>
+    <col min="8950" max="8950" width="2.73046875" style="158" customWidth="1"/>
+    <col min="8951" max="8953" width="7.265625" style="158" customWidth="1"/>
     <col min="8954" max="8954" width="7" style="158" customWidth="1"/>
-    <col min="8955" max="8957" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8958" max="8958" width="10.5703125" style="158" customWidth="1"/>
-    <col min="8959" max="8959" width="7.28515625" style="158" customWidth="1"/>
-    <col min="8960" max="9202" width="9.140625" style="158"/>
-    <col min="9203" max="9203" width="5.7109375" style="158" customWidth="1"/>
-    <col min="9204" max="9205" width="9.140625" style="158"/>
-    <col min="9206" max="9206" width="2.7109375" style="158" customWidth="1"/>
-    <col min="9207" max="9209" width="7.28515625" style="158" customWidth="1"/>
+    <col min="8955" max="8957" width="7.265625" style="158" customWidth="1"/>
+    <col min="8958" max="8958" width="10.59765625" style="158" customWidth="1"/>
+    <col min="8959" max="8959" width="7.265625" style="158" customWidth="1"/>
+    <col min="8960" max="9202" width="9.1328125" style="158"/>
+    <col min="9203" max="9203" width="5.73046875" style="158" customWidth="1"/>
+    <col min="9204" max="9205" width="9.1328125" style="158"/>
+    <col min="9206" max="9206" width="2.73046875" style="158" customWidth="1"/>
+    <col min="9207" max="9209" width="7.265625" style="158" customWidth="1"/>
     <col min="9210" max="9210" width="7" style="158" customWidth="1"/>
-    <col min="9211" max="9213" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9214" max="9214" width="10.5703125" style="158" customWidth="1"/>
-    <col min="9215" max="9215" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9216" max="9458" width="9.140625" style="158"/>
-    <col min="9459" max="9459" width="5.7109375" style="158" customWidth="1"/>
-    <col min="9460" max="9461" width="9.140625" style="158"/>
-    <col min="9462" max="9462" width="2.7109375" style="158" customWidth="1"/>
-    <col min="9463" max="9465" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9211" max="9213" width="7.265625" style="158" customWidth="1"/>
+    <col min="9214" max="9214" width="10.59765625" style="158" customWidth="1"/>
+    <col min="9215" max="9215" width="7.265625" style="158" customWidth="1"/>
+    <col min="9216" max="9458" width="9.1328125" style="158"/>
+    <col min="9459" max="9459" width="5.73046875" style="158" customWidth="1"/>
+    <col min="9460" max="9461" width="9.1328125" style="158"/>
+    <col min="9462" max="9462" width="2.73046875" style="158" customWidth="1"/>
+    <col min="9463" max="9465" width="7.265625" style="158" customWidth="1"/>
     <col min="9466" max="9466" width="7" style="158" customWidth="1"/>
-    <col min="9467" max="9469" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9470" max="9470" width="10.5703125" style="158" customWidth="1"/>
-    <col min="9471" max="9471" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9472" max="9714" width="9.140625" style="158"/>
-    <col min="9715" max="9715" width="5.7109375" style="158" customWidth="1"/>
-    <col min="9716" max="9717" width="9.140625" style="158"/>
-    <col min="9718" max="9718" width="2.7109375" style="158" customWidth="1"/>
-    <col min="9719" max="9721" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9467" max="9469" width="7.265625" style="158" customWidth="1"/>
+    <col min="9470" max="9470" width="10.59765625" style="158" customWidth="1"/>
+    <col min="9471" max="9471" width="7.265625" style="158" customWidth="1"/>
+    <col min="9472" max="9714" width="9.1328125" style="158"/>
+    <col min="9715" max="9715" width="5.73046875" style="158" customWidth="1"/>
+    <col min="9716" max="9717" width="9.1328125" style="158"/>
+    <col min="9718" max="9718" width="2.73046875" style="158" customWidth="1"/>
+    <col min="9719" max="9721" width="7.265625" style="158" customWidth="1"/>
     <col min="9722" max="9722" width="7" style="158" customWidth="1"/>
-    <col min="9723" max="9725" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9726" max="9726" width="10.5703125" style="158" customWidth="1"/>
-    <col min="9727" max="9727" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9728" max="9970" width="9.140625" style="158"/>
-    <col min="9971" max="9971" width="5.7109375" style="158" customWidth="1"/>
-    <col min="9972" max="9973" width="9.140625" style="158"/>
-    <col min="9974" max="9974" width="2.7109375" style="158" customWidth="1"/>
-    <col min="9975" max="9977" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9723" max="9725" width="7.265625" style="158" customWidth="1"/>
+    <col min="9726" max="9726" width="10.59765625" style="158" customWidth="1"/>
+    <col min="9727" max="9727" width="7.265625" style="158" customWidth="1"/>
+    <col min="9728" max="9970" width="9.1328125" style="158"/>
+    <col min="9971" max="9971" width="5.73046875" style="158" customWidth="1"/>
+    <col min="9972" max="9973" width="9.1328125" style="158"/>
+    <col min="9974" max="9974" width="2.73046875" style="158" customWidth="1"/>
+    <col min="9975" max="9977" width="7.265625" style="158" customWidth="1"/>
     <col min="9978" max="9978" width="7" style="158" customWidth="1"/>
-    <col min="9979" max="9981" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9982" max="9982" width="10.5703125" style="158" customWidth="1"/>
-    <col min="9983" max="9983" width="7.28515625" style="158" customWidth="1"/>
-    <col min="9984" max="10226" width="9.140625" style="158"/>
-    <col min="10227" max="10227" width="5.7109375" style="158" customWidth="1"/>
-    <col min="10228" max="10229" width="9.140625" style="158"/>
-    <col min="10230" max="10230" width="2.7109375" style="158" customWidth="1"/>
-    <col min="10231" max="10233" width="7.28515625" style="158" customWidth="1"/>
+    <col min="9979" max="9981" width="7.265625" style="158" customWidth="1"/>
+    <col min="9982" max="9982" width="10.59765625" style="158" customWidth="1"/>
+    <col min="9983" max="9983" width="7.265625" style="158" customWidth="1"/>
+    <col min="9984" max="10226" width="9.1328125" style="158"/>
+    <col min="10227" max="10227" width="5.73046875" style="158" customWidth="1"/>
+    <col min="10228" max="10229" width="9.1328125" style="158"/>
+    <col min="10230" max="10230" width="2.73046875" style="158" customWidth="1"/>
+    <col min="10231" max="10233" width="7.265625" style="158" customWidth="1"/>
     <col min="10234" max="10234" width="7" style="158" customWidth="1"/>
-    <col min="10235" max="10237" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10238" max="10238" width="10.5703125" style="158" customWidth="1"/>
-    <col min="10239" max="10239" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10240" max="10482" width="9.140625" style="158"/>
-    <col min="10483" max="10483" width="5.7109375" style="158" customWidth="1"/>
-    <col min="10484" max="10485" width="9.140625" style="158"/>
-    <col min="10486" max="10486" width="2.7109375" style="158" customWidth="1"/>
-    <col min="10487" max="10489" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10235" max="10237" width="7.265625" style="158" customWidth="1"/>
+    <col min="10238" max="10238" width="10.59765625" style="158" customWidth="1"/>
+    <col min="10239" max="10239" width="7.265625" style="158" customWidth="1"/>
+    <col min="10240" max="10482" width="9.1328125" style="158"/>
+    <col min="10483" max="10483" width="5.73046875" style="158" customWidth="1"/>
+    <col min="10484" max="10485" width="9.1328125" style="158"/>
+    <col min="10486" max="10486" width="2.73046875" style="158" customWidth="1"/>
+    <col min="10487" max="10489" width="7.265625" style="158" customWidth="1"/>
     <col min="10490" max="10490" width="7" style="158" customWidth="1"/>
-    <col min="10491" max="10493" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10494" max="10494" width="10.5703125" style="158" customWidth="1"/>
-    <col min="10495" max="10495" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10496" max="10738" width="9.140625" style="158"/>
-    <col min="10739" max="10739" width="5.7109375" style="158" customWidth="1"/>
-    <col min="10740" max="10741" width="9.140625" style="158"/>
-    <col min="10742" max="10742" width="2.7109375" style="158" customWidth="1"/>
-    <col min="10743" max="10745" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10491" max="10493" width="7.265625" style="158" customWidth="1"/>
+    <col min="10494" max="10494" width="10.59765625" style="158" customWidth="1"/>
+    <col min="10495" max="10495" width="7.265625" style="158" customWidth="1"/>
+    <col min="10496" max="10738" width="9.1328125" style="158"/>
+    <col min="10739" max="10739" width="5.73046875" style="158" customWidth="1"/>
+    <col min="10740" max="10741" width="9.1328125" style="158"/>
+    <col min="10742" max="10742" width="2.73046875" style="158" customWidth="1"/>
+    <col min="10743" max="10745" width="7.265625" style="158" customWidth="1"/>
     <col min="10746" max="10746" width="7" style="158" customWidth="1"/>
-    <col min="10747" max="10749" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10750" max="10750" width="10.5703125" style="158" customWidth="1"/>
-    <col min="10751" max="10751" width="7.28515625" style="158" customWidth="1"/>
-    <col min="10752" max="10994" width="9.140625" style="158"/>
-    <col min="10995" max="10995" width="5.7109375" style="158" customWidth="1"/>
-    <col min="10996" max="10997" width="9.140625" style="158"/>
-    <col min="10998" max="10998" width="2.7109375" style="158" customWidth="1"/>
-    <col min="10999" max="11001" width="7.28515625" style="158" customWidth="1"/>
+    <col min="10747" max="10749" width="7.265625" style="158" customWidth="1"/>
+    <col min="10750" max="10750" width="10.59765625" style="158" customWidth="1"/>
+    <col min="10751" max="10751" width="7.265625" style="158" customWidth="1"/>
+    <col min="10752" max="10994" width="9.1328125" style="158"/>
+    <col min="10995" max="10995" width="5.73046875" style="158" customWidth="1"/>
+    <col min="10996" max="10997" width="9.1328125" style="158"/>
+    <col min="10998" max="10998" width="2.73046875" style="158" customWidth="1"/>
+    <col min="10999" max="11001" width="7.265625" style="158" customWidth="1"/>
     <col min="11002" max="11002" width="7" style="158" customWidth="1"/>
-    <col min="11003" max="11005" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11006" max="11006" width="10.5703125" style="158" customWidth="1"/>
-    <col min="11007" max="11007" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11008" max="11250" width="9.140625" style="158"/>
-    <col min="11251" max="11251" width="5.7109375" style="158" customWidth="1"/>
-    <col min="11252" max="11253" width="9.140625" style="158"/>
-    <col min="11254" max="11254" width="2.7109375" style="158" customWidth="1"/>
-    <col min="11255" max="11257" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11003" max="11005" width="7.265625" style="158" customWidth="1"/>
+    <col min="11006" max="11006" width="10.59765625" style="158" customWidth="1"/>
+    <col min="11007" max="11007" width="7.265625" style="158" customWidth="1"/>
+    <col min="11008" max="11250" width="9.1328125" style="158"/>
+    <col min="11251" max="11251" width="5.73046875" style="158" customWidth="1"/>
+    <col min="11252" max="11253" width="9.1328125" style="158"/>
+    <col min="11254" max="11254" width="2.73046875" style="158" customWidth="1"/>
+    <col min="11255" max="11257" width="7.265625" style="158" customWidth="1"/>
     <col min="11258" max="11258" width="7" style="158" customWidth="1"/>
-    <col min="11259" max="11261" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11262" max="11262" width="10.5703125" style="158" customWidth="1"/>
-    <col min="11263" max="11263" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11264" max="11506" width="9.140625" style="158"/>
-    <col min="11507" max="11507" width="5.7109375" style="158" customWidth="1"/>
-    <col min="11508" max="11509" width="9.140625" style="158"/>
-    <col min="11510" max="11510" width="2.7109375" style="158" customWidth="1"/>
-    <col min="11511" max="11513" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11259" max="11261" width="7.265625" style="158" customWidth="1"/>
+    <col min="11262" max="11262" width="10.59765625" style="158" customWidth="1"/>
+    <col min="11263" max="11263" width="7.265625" style="158" customWidth="1"/>
+    <col min="11264" max="11506" width="9.1328125" style="158"/>
+    <col min="11507" max="11507" width="5.73046875" style="158" customWidth="1"/>
+    <col min="11508" max="11509" width="9.1328125" style="158"/>
+    <col min="11510" max="11510" width="2.73046875" style="158" customWidth="1"/>
+    <col min="11511" max="11513" width="7.265625" style="158" customWidth="1"/>
     <col min="11514" max="11514" width="7" style="158" customWidth="1"/>
-    <col min="11515" max="11517" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11518" max="11518" width="10.5703125" style="158" customWidth="1"/>
-    <col min="11519" max="11519" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11520" max="11762" width="9.140625" style="158"/>
-    <col min="11763" max="11763" width="5.7109375" style="158" customWidth="1"/>
-    <col min="11764" max="11765" width="9.140625" style="158"/>
-    <col min="11766" max="11766" width="2.7109375" style="158" customWidth="1"/>
-    <col min="11767" max="11769" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11515" max="11517" width="7.265625" style="158" customWidth="1"/>
+    <col min="11518" max="11518" width="10.59765625" style="158" customWidth="1"/>
+    <col min="11519" max="11519" width="7.265625" style="158" customWidth="1"/>
+    <col min="11520" max="11762" width="9.1328125" style="158"/>
+    <col min="11763" max="11763" width="5.73046875" style="158" customWidth="1"/>
+    <col min="11764" max="11765" width="9.1328125" style="158"/>
+    <col min="11766" max="11766" width="2.73046875" style="158" customWidth="1"/>
+    <col min="11767" max="11769" width="7.265625" style="158" customWidth="1"/>
     <col min="11770" max="11770" width="7" style="158" customWidth="1"/>
-    <col min="11771" max="11773" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11774" max="11774" width="10.5703125" style="158" customWidth="1"/>
-    <col min="11775" max="11775" width="7.28515625" style="158" customWidth="1"/>
-    <col min="11776" max="12018" width="9.140625" style="158"/>
-    <col min="12019" max="12019" width="5.7109375" style="158" customWidth="1"/>
-    <col min="12020" max="12021" width="9.140625" style="158"/>
-    <col min="12022" max="12022" width="2.7109375" style="158" customWidth="1"/>
-    <col min="12023" max="12025" width="7.28515625" style="158" customWidth="1"/>
+    <col min="11771" max="11773" width="7.265625" style="158" customWidth="1"/>
+    <col min="11774" max="11774" width="10.59765625" style="158" customWidth="1"/>
+    <col min="11775" max="11775" width="7.265625" style="158" customWidth="1"/>
+    <col min="11776" max="12018" width="9.1328125" style="158"/>
+    <col min="12019" max="12019" width="5.73046875" style="158" customWidth="1"/>
+    <col min="12020" max="12021" width="9.1328125" style="158"/>
+    <col min="12022" max="12022" width="2.73046875" style="158" customWidth="1"/>
+    <col min="12023" max="12025" width="7.265625" style="158" customWidth="1"/>
     <col min="12026" max="12026" width="7" style="158" customWidth="1"/>
-    <col min="12027" max="12029" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12030" max="12030" width="10.5703125" style="158" customWidth="1"/>
-    <col min="12031" max="12031" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12032" max="12274" width="9.140625" style="158"/>
-    <col min="12275" max="12275" width="5.7109375" style="158" customWidth="1"/>
-    <col min="12276" max="12277" width="9.140625" style="158"/>
-    <col min="12278" max="12278" width="2.7109375" style="158" customWidth="1"/>
-    <col min="12279" max="12281" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12027" max="12029" width="7.265625" style="158" customWidth="1"/>
+    <col min="12030" max="12030" width="10.59765625" style="158" customWidth="1"/>
+    <col min="12031" max="12031" width="7.265625" style="158" customWidth="1"/>
+    <col min="12032" max="12274" width="9.1328125" style="158"/>
+    <col min="12275" max="12275" width="5.73046875" style="158" customWidth="1"/>
+    <col min="12276" max="12277" width="9.1328125" style="158"/>
+    <col min="12278" max="12278" width="2.73046875" style="158" customWidth="1"/>
+    <col min="12279" max="12281" width="7.265625" style="158" customWidth="1"/>
     <col min="12282" max="12282" width="7" style="158" customWidth="1"/>
-    <col min="12283" max="12285" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12286" max="12286" width="10.5703125" style="158" customWidth="1"/>
-    <col min="12287" max="12287" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12288" max="12530" width="9.140625" style="158"/>
-    <col min="12531" max="12531" width="5.7109375" style="158" customWidth="1"/>
-    <col min="12532" max="12533" width="9.140625" style="158"/>
-    <col min="12534" max="12534" width="2.7109375" style="158" customWidth="1"/>
-    <col min="12535" max="12537" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12283" max="12285" width="7.265625" style="158" customWidth="1"/>
+    <col min="12286" max="12286" width="10.59765625" style="158" customWidth="1"/>
+    <col min="12287" max="12287" width="7.265625" style="158" customWidth="1"/>
+    <col min="12288" max="12530" width="9.1328125" style="158"/>
+    <col min="12531" max="12531" width="5.73046875" style="158" customWidth="1"/>
+    <col min="12532" max="12533" width="9.1328125" style="158"/>
+    <col min="12534" max="12534" width="2.73046875" style="158" customWidth="1"/>
+    <col min="12535" max="12537" width="7.265625" style="158" customWidth="1"/>
     <col min="12538" max="12538" width="7" style="158" customWidth="1"/>
-    <col min="12539" max="12541" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12542" max="12542" width="10.5703125" style="158" customWidth="1"/>
-    <col min="12543" max="12543" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12544" max="12786" width="9.140625" style="158"/>
-    <col min="12787" max="12787" width="5.7109375" style="158" customWidth="1"/>
-    <col min="12788" max="12789" width="9.140625" style="158"/>
-    <col min="12790" max="12790" width="2.7109375" style="158" customWidth="1"/>
-    <col min="12791" max="12793" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12539" max="12541" width="7.265625" style="158" customWidth="1"/>
+    <col min="12542" max="12542" width="10.59765625" style="158" customWidth="1"/>
+    <col min="12543" max="12543" width="7.265625" style="158" customWidth="1"/>
+    <col min="12544" max="12786" width="9.1328125" style="158"/>
+    <col min="12787" max="12787" width="5.73046875" style="158" customWidth="1"/>
+    <col min="12788" max="12789" width="9.1328125" style="158"/>
+    <col min="12790" max="12790" width="2.73046875" style="158" customWidth="1"/>
+    <col min="12791" max="12793" width="7.265625" style="158" customWidth="1"/>
     <col min="12794" max="12794" width="7" style="158" customWidth="1"/>
-    <col min="12795" max="12797" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12798" max="12798" width="10.5703125" style="158" customWidth="1"/>
-    <col min="12799" max="12799" width="7.28515625" style="158" customWidth="1"/>
-    <col min="12800" max="13042" width="9.140625" style="158"/>
-    <col min="13043" max="13043" width="5.7109375" style="158" customWidth="1"/>
-    <col min="13044" max="13045" width="9.140625" style="158"/>
-    <col min="13046" max="13046" width="2.7109375" style="158" customWidth="1"/>
-    <col min="13047" max="13049" width="7.28515625" style="158" customWidth="1"/>
+    <col min="12795" max="12797" width="7.265625" style="158" customWidth="1"/>
+    <col min="12798" max="12798" width="10.59765625" style="158" customWidth="1"/>
+    <col min="12799" max="12799" width="7.265625" style="158" customWidth="1"/>
+    <col min="12800" max="13042" width="9.1328125" style="158"/>
+    <col min="13043" max="13043" width="5.73046875" style="158" customWidth="1"/>
+    <col min="13044" max="13045" width="9.1328125" style="158"/>
+    <col min="13046" max="13046" width="2.73046875" style="158" customWidth="1"/>
+    <col min="13047" max="13049" width="7.265625" style="158" customWidth="1"/>
     <col min="13050" max="13050" width="7" style="158" customWidth="1"/>
-    <col min="13051" max="13053" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13054" max="13054" width="10.5703125" style="158" customWidth="1"/>
-    <col min="13055" max="13055" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13056" max="13298" width="9.140625" style="158"/>
-    <col min="13299" max="13299" width="5.7109375" style="158" customWidth="1"/>
-    <col min="13300" max="13301" width="9.140625" style="158"/>
-    <col min="13302" max="13302" width="2.7109375" style="158" customWidth="1"/>
-    <col min="13303" max="13305" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13051" max="13053" width="7.265625" style="158" customWidth="1"/>
+    <col min="13054" max="13054" width="10.59765625" style="158" customWidth="1"/>
+    <col min="13055" max="13055" width="7.265625" style="158" customWidth="1"/>
+    <col min="13056" max="13298" width="9.1328125" style="158"/>
+    <col min="13299" max="13299" width="5.73046875" style="158" customWidth="1"/>
+    <col min="13300" max="13301" width="9.1328125" style="158"/>
+    <col min="13302" max="13302" width="2.73046875" style="158" customWidth="1"/>
+    <col min="13303" max="13305" width="7.265625" style="158" customWidth="1"/>
     <col min="13306" max="13306" width="7" style="158" customWidth="1"/>
-    <col min="13307" max="13309" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13310" max="13310" width="10.5703125" style="158" customWidth="1"/>
-    <col min="13311" max="13311" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13312" max="13554" width="9.140625" style="158"/>
-    <col min="13555" max="13555" width="5.7109375" style="158" customWidth="1"/>
-    <col min="13556" max="13557" width="9.140625" style="158"/>
-    <col min="13558" max="13558" width="2.7109375" style="158" customWidth="1"/>
-    <col min="13559" max="13561" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13307" max="13309" width="7.265625" style="158" customWidth="1"/>
+    <col min="13310" max="13310" width="10.59765625" style="158" customWidth="1"/>
+    <col min="13311" max="13311" width="7.265625" style="158" customWidth="1"/>
+    <col min="13312" max="13554" width="9.1328125" style="158"/>
+    <col min="13555" max="13555" width="5.73046875" style="158" customWidth="1"/>
+    <col min="13556" max="13557" width="9.1328125" style="158"/>
+    <col min="13558" max="13558" width="2.73046875" style="158" customWidth="1"/>
+    <col min="13559" max="13561" width="7.265625" style="158" customWidth="1"/>
     <col min="13562" max="13562" width="7" style="158" customWidth="1"/>
-    <col min="13563" max="13565" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13566" max="13566" width="10.5703125" style="158" customWidth="1"/>
-    <col min="13567" max="13567" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13568" max="13810" width="9.140625" style="158"/>
-    <col min="13811" max="13811" width="5.7109375" style="158" customWidth="1"/>
-    <col min="13812" max="13813" width="9.140625" style="158"/>
-    <col min="13814" max="13814" width="2.7109375" style="158" customWidth="1"/>
-    <col min="13815" max="13817" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13563" max="13565" width="7.265625" style="158" customWidth="1"/>
+    <col min="13566" max="13566" width="10.59765625" style="158" customWidth="1"/>
+    <col min="13567" max="13567" width="7.265625" style="158" customWidth="1"/>
+    <col min="13568" max="13810" width="9.1328125" style="158"/>
+    <col min="13811" max="13811" width="5.73046875" style="158" customWidth="1"/>
+    <col min="13812" max="13813" width="9.1328125" style="158"/>
+    <col min="13814" max="13814" width="2.73046875" style="158" customWidth="1"/>
+    <col min="13815" max="13817" width="7.265625" style="158" customWidth="1"/>
     <col min="13818" max="13818" width="7" style="158" customWidth="1"/>
-    <col min="13819" max="13821" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13822" max="13822" width="10.5703125" style="158" customWidth="1"/>
-    <col min="13823" max="13823" width="7.28515625" style="158" customWidth="1"/>
-    <col min="13824" max="14066" width="9.140625" style="158"/>
-    <col min="14067" max="14067" width="5.7109375" style="158" customWidth="1"/>
-    <col min="14068" max="14069" width="9.140625" style="158"/>
-    <col min="14070" max="14070" width="2.7109375" style="158" customWidth="1"/>
-    <col min="14071" max="14073" width="7.28515625" style="158" customWidth="1"/>
+    <col min="13819" max="13821" width="7.265625" style="158" customWidth="1"/>
+    <col min="13822" max="13822" width="10.59765625" style="158" customWidth="1"/>
+    <col min="13823" max="13823" width="7.265625" style="158" customWidth="1"/>
+    <col min="13824" max="14066" width="9.1328125" style="158"/>
+    <col min="14067" max="14067" width="5.73046875" style="158" customWidth="1"/>
+    <col min="14068" max="14069" width="9.1328125" style="158"/>
+    <col min="14070" max="14070" width="2.73046875" style="158" customWidth="1"/>
+    <col min="14071" max="14073" width="7.265625" style="158" customWidth="1"/>
     <col min="14074" max="14074" width="7" style="158" customWidth="1"/>
-    <col min="14075" max="14077" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14078" max="14078" width="10.5703125" style="158" customWidth="1"/>
-    <col min="14079" max="14079" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14080" max="14322" width="9.140625" style="158"/>
-    <col min="14323" max="14323" width="5.7109375" style="158" customWidth="1"/>
-    <col min="14324" max="14325" width="9.140625" style="158"/>
-    <col min="14326" max="14326" width="2.7109375" style="158" customWidth="1"/>
-    <col min="14327" max="14329" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14075" max="14077" width="7.265625" style="158" customWidth="1"/>
+    <col min="14078" max="14078" width="10.59765625" style="158" customWidth="1"/>
+    <col min="14079" max="14079" width="7.265625" style="158" customWidth="1"/>
+    <col min="14080" max="14322" width="9.1328125" style="158"/>
+    <col min="14323" max="14323" width="5.73046875" style="158" customWidth="1"/>
+    <col min="14324" max="14325" width="9.1328125" style="158"/>
+    <col min="14326" max="14326" width="2.73046875" style="158" customWidth="1"/>
+    <col min="14327" max="14329" width="7.265625" style="158" customWidth="1"/>
     <col min="14330" max="14330" width="7" style="158" customWidth="1"/>
-    <col min="14331" max="14333" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14334" max="14334" width="10.5703125" style="158" customWidth="1"/>
-    <col min="14335" max="14335" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14336" max="14578" width="9.140625" style="158"/>
-    <col min="14579" max="14579" width="5.7109375" style="158" customWidth="1"/>
-    <col min="14580" max="14581" width="9.140625" style="158"/>
-    <col min="14582" max="14582" width="2.7109375" style="158" customWidth="1"/>
-    <col min="14583" max="14585" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14331" max="14333" width="7.265625" style="158" customWidth="1"/>
+    <col min="14334" max="14334" width="10.59765625" style="158" customWidth="1"/>
+    <col min="14335" max="14335" width="7.265625" style="158" customWidth="1"/>
+    <col min="14336" max="14578" width="9.1328125" style="158"/>
+    <col min="14579" max="14579" width="5.73046875" style="158" customWidth="1"/>
+    <col min="14580" max="14581" width="9.1328125" style="158"/>
+    <col min="14582" max="14582" width="2.73046875" style="158" customWidth="1"/>
+    <col min="14583" max="14585" width="7.265625" style="158" customWidth="1"/>
     <col min="14586" max="14586" width="7" style="158" customWidth="1"/>
-    <col min="14587" max="14589" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14590" max="14590" width="10.5703125" style="158" customWidth="1"/>
-    <col min="14591" max="14591" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14592" max="14834" width="9.140625" style="158"/>
-    <col min="14835" max="14835" width="5.7109375" style="158" customWidth="1"/>
-    <col min="14836" max="14837" width="9.140625" style="158"/>
-    <col min="14838" max="14838" width="2.7109375" style="158" customWidth="1"/>
-    <col min="14839" max="14841" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14587" max="14589" width="7.265625" style="158" customWidth="1"/>
+    <col min="14590" max="14590" width="10.59765625" style="158" customWidth="1"/>
+    <col min="14591" max="14591" width="7.265625" style="158" customWidth="1"/>
+    <col min="14592" max="14834" width="9.1328125" style="158"/>
+    <col min="14835" max="14835" width="5.73046875" style="158" customWidth="1"/>
+    <col min="14836" max="14837" width="9.1328125" style="158"/>
+    <col min="14838" max="14838" width="2.73046875" style="158" customWidth="1"/>
+    <col min="14839" max="14841" width="7.265625" style="158" customWidth="1"/>
     <col min="14842" max="14842" width="7" style="158" customWidth="1"/>
-    <col min="14843" max="14845" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14846" max="14846" width="10.5703125" style="158" customWidth="1"/>
-    <col min="14847" max="14847" width="7.28515625" style="158" customWidth="1"/>
-    <col min="14848" max="15090" width="9.140625" style="158"/>
-    <col min="15091" max="15091" width="5.7109375" style="158" customWidth="1"/>
-    <col min="15092" max="15093" width="9.140625" style="158"/>
-    <col min="15094" max="15094" width="2.7109375" style="158" customWidth="1"/>
-    <col min="15095" max="15097" width="7.28515625" style="158" customWidth="1"/>
+    <col min="14843" max="14845" width="7.265625" style="158" customWidth="1"/>
+    <col min="14846" max="14846" width="10.59765625" style="158" customWidth="1"/>
+    <col min="14847" max="14847" width="7.265625" style="158" customWidth="1"/>
+    <col min="14848" max="15090" width="9.1328125" style="158"/>
+    <col min="15091" max="15091" width="5.73046875" style="158" customWidth="1"/>
+    <col min="15092" max="15093" width="9.1328125" style="158"/>
+    <col min="15094" max="15094" width="2.73046875" style="158" customWidth="1"/>
+    <col min="15095" max="15097" width="7.265625" style="158" customWidth="1"/>
     <col min="15098" max="15098" width="7" style="158" customWidth="1"/>
-    <col min="15099" max="15101" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15102" max="15102" width="10.5703125" style="158" customWidth="1"/>
-    <col min="15103" max="15103" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15104" max="15346" width="9.140625" style="158"/>
-    <col min="15347" max="15347" width="5.7109375" style="158" customWidth="1"/>
-    <col min="15348" max="15349" width="9.140625" style="158"/>
-    <col min="15350" max="15350" width="2.7109375" style="158" customWidth="1"/>
-    <col min="15351" max="15353" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15099" max="15101" width="7.265625" style="158" customWidth="1"/>
+    <col min="15102" max="15102" width="10.59765625" style="158" customWidth="1"/>
+    <col min="15103" max="15103" width="7.265625" style="158" customWidth="1"/>
+    <col min="15104" max="15346" width="9.1328125" style="158"/>
+    <col min="15347" max="15347" width="5.73046875" style="158" customWidth="1"/>
+    <col min="15348" max="15349" width="9.1328125" style="158"/>
+    <col min="15350" max="15350" width="2.73046875" style="158" customWidth="1"/>
+    <col min="15351" max="15353" width="7.265625" style="158" customWidth="1"/>
     <col min="15354" max="15354" width="7" style="158" customWidth="1"/>
-    <col min="15355" max="15357" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15358" max="15358" width="10.5703125" style="158" customWidth="1"/>
-    <col min="15359" max="15359" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15360" max="15602" width="9.140625" style="158"/>
-    <col min="15603" max="15603" width="5.7109375" style="158" customWidth="1"/>
-    <col min="15604" max="15605" width="9.140625" style="158"/>
-    <col min="15606" max="15606" width="2.7109375" style="158" customWidth="1"/>
-    <col min="15607" max="15609" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15355" max="15357" width="7.265625" style="158" customWidth="1"/>
+    <col min="15358" max="15358" width="10.59765625" style="158" customWidth="1"/>
+    <col min="15359" max="15359" width="7.265625" style="158" customWidth="1"/>
+    <col min="15360" max="15602" width="9.1328125" style="158"/>
+    <col min="15603" max="15603" width="5.73046875" style="158" customWidth="1"/>
+    <col min="15604" max="15605" width="9.1328125" style="158"/>
+    <col min="15606" max="15606" width="2.73046875" style="158" customWidth="1"/>
+    <col min="15607" max="15609" width="7.265625" style="158" customWidth="1"/>
     <col min="15610" max="15610" width="7" style="158" customWidth="1"/>
-    <col min="15611" max="15613" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15614" max="15614" width="10.5703125" style="158" customWidth="1"/>
-    <col min="15615" max="15615" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15616" max="15858" width="9.140625" style="158"/>
-    <col min="15859" max="15859" width="5.7109375" style="158" customWidth="1"/>
-    <col min="15860" max="15861" width="9.140625" style="158"/>
-    <col min="15862" max="15862" width="2.7109375" style="158" customWidth="1"/>
-    <col min="15863" max="15865" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15611" max="15613" width="7.265625" style="158" customWidth="1"/>
+    <col min="15614" max="15614" width="10.59765625" style="158" customWidth="1"/>
+    <col min="15615" max="15615" width="7.265625" style="158" customWidth="1"/>
+    <col min="15616" max="15858" width="9.1328125" style="158"/>
+    <col min="15859" max="15859" width="5.73046875" style="158" customWidth="1"/>
+    <col min="15860" max="15861" width="9.1328125" style="158"/>
+    <col min="15862" max="15862" width="2.73046875" style="158" customWidth="1"/>
+    <col min="15863" max="15865" width="7.265625" style="158" customWidth="1"/>
     <col min="15866" max="15866" width="7" style="158" customWidth="1"/>
-    <col min="15867" max="15869" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15870" max="15870" width="10.5703125" style="158" customWidth="1"/>
-    <col min="15871" max="15871" width="7.28515625" style="158" customWidth="1"/>
-    <col min="15872" max="16114" width="9.140625" style="158"/>
-    <col min="16115" max="16115" width="5.7109375" style="158" customWidth="1"/>
-    <col min="16116" max="16117" width="9.140625" style="158"/>
-    <col min="16118" max="16118" width="2.7109375" style="158" customWidth="1"/>
-    <col min="16119" max="16121" width="7.28515625" style="158" customWidth="1"/>
+    <col min="15867" max="15869" width="7.265625" style="158" customWidth="1"/>
+    <col min="15870" max="15870" width="10.59765625" style="158" customWidth="1"/>
+    <col min="15871" max="15871" width="7.265625" style="158" customWidth="1"/>
+    <col min="15872" max="16114" width="9.1328125" style="158"/>
+    <col min="16115" max="16115" width="5.73046875" style="158" customWidth="1"/>
+    <col min="16116" max="16117" width="9.1328125" style="158"/>
+    <col min="16118" max="16118" width="2.73046875" style="158" customWidth="1"/>
+    <col min="16119" max="16121" width="7.265625" style="158" customWidth="1"/>
     <col min="16122" max="16122" width="7" style="158" customWidth="1"/>
-    <col min="16123" max="16125" width="7.28515625" style="158" customWidth="1"/>
-    <col min="16126" max="16126" width="10.5703125" style="158" customWidth="1"/>
-    <col min="16127" max="16127" width="7.28515625" style="158" customWidth="1"/>
-    <col min="16128" max="16384" width="9.140625" style="158"/>
+    <col min="16123" max="16125" width="7.265625" style="158" customWidth="1"/>
+    <col min="16126" max="16126" width="10.59765625" style="158" customWidth="1"/>
+    <col min="16127" max="16127" width="7.265625" style="158" customWidth="1"/>
+    <col min="16128" max="16384" width="9.1328125" style="158"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="452" t="s">
+    <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="449" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="449"/>
+      <c r="C2" s="449"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="449"/>
+      <c r="I2" s="449"/>
       <c r="J2" s="186"/>
       <c r="K2" s="186"/>
       <c r="L2" s="186"/>
     </row>
-    <row r="3" spans="1:12" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
@@ -5465,7 +5472,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:12" s="151" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="151" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5483,15 +5490,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:12" s="151" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="151" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="G5" s="185"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
@@ -5501,15 +5508,15 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:12" s="151" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="151" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="G6" s="184"/>
       <c r="H6" s="141"/>
       <c r="I6" s="17" t="s">
@@ -5519,7 +5526,7 @@
       <c r="K6" s="142"/>
       <c r="L6" s="142"/>
     </row>
-    <row r="7" spans="1:12" s="151" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="151" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -5535,7 +5542,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -5553,15 +5560,15 @@
       <c r="K8" s="57"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="G9" s="206"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -5569,32 +5576,32 @@
       <c r="K9" s="183"/>
       <c r="L9" s="151"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="G10" s="206"/>
       <c r="H10" s="183"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="448"/>
-      <c r="K10" s="448"/>
+      <c r="J10" s="445"/>
+      <c r="K10" s="445"/>
       <c r="L10" s="207"/>
     </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="205"/>
       <c r="I11" s="205"/>
       <c r="J11" s="205"/>
       <c r="K11" s="205"/>
       <c r="L11" s="205"/>
     </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="158" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="205"/>
       <c r="I12" s="205"/>
@@ -5602,40 +5609,40 @@
       <c r="K12" s="205"/>
       <c r="L12" s="205"/>
     </row>
-    <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="342" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="343" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="343" t="s">
+      <c r="D13" s="450" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="453" t="s">
+      <c r="E13" s="451"/>
+      <c r="F13" s="343" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="454"/>
-      <c r="F13" s="343" t="s">
+      <c r="G13" s="343" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="343" t="s">
+      <c r="H13" s="344" t="s">
         <v>184</v>
-      </c>
-      <c r="H13" s="344" t="s">
-        <v>185</v>
       </c>
       <c r="I13" s="345" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="457" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="458"/>
+      <c r="J13" s="454" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="455"/>
       <c r="L13" s="205"/>
     </row>
-    <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="368"/>
       <c r="C14" s="369"/>
-      <c r="D14" s="455"/>
-      <c r="E14" s="456"/>
+      <c r="D14" s="452"/>
+      <c r="E14" s="453"/>
       <c r="F14" s="369"/>
       <c r="G14" s="369"/>
       <c r="H14" s="370"/>
@@ -5643,14 +5650,14 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="459">
+      <c r="J14" s="456">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="460"/>
+      <c r="K14" s="457"/>
       <c r="L14" s="205"/>
     </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="192"/>
       <c r="C15" s="192"/>
       <c r="D15" s="192"/>
@@ -5663,7 +5670,7 @@
       <c r="K15" s="340"/>
       <c r="L15" s="205"/>
     </row>
-    <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -5672,22 +5679,22 @@
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="334" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="449" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="446" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="447"/>
+      <c r="D17" s="447"/>
+      <c r="E17" s="447"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="447"/>
+      <c r="H17" s="447"/>
+      <c r="I17" s="448"/>
+      <c r="J17" s="203" t="s">
         <v>186</v>
-      </c>
-      <c r="C17" s="450"/>
-      <c r="D17" s="450"/>
-      <c r="E17" s="450"/>
-      <c r="F17" s="450"/>
-      <c r="G17" s="450"/>
-      <c r="H17" s="450"/>
-      <c r="I17" s="451"/>
-      <c r="J17" s="203" t="s">
-        <v>187</v>
       </c>
       <c r="K17" s="315">
         <f>J14</f>
@@ -5698,22 +5705,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="446" t="s">
+    <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="458" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="425" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="426"/>
-      <c r="D18" s="426"/>
-      <c r="E18" s="426"/>
-      <c r="F18" s="426"/>
-      <c r="G18" s="426"/>
-      <c r="H18" s="426"/>
-      <c r="I18" s="426"/>
+      <c r="B18" s="424" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="425"/>
+      <c r="D18" s="425"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="425"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="425"/>
       <c r="J18" s="203" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K18" s="363"/>
       <c r="L18" s="202">
@@ -5721,20 +5728,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="447"/>
-      <c r="B19" s="427" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="428"/>
-      <c r="D19" s="428"/>
-      <c r="E19" s="428"/>
-      <c r="F19" s="428"/>
-      <c r="G19" s="428"/>
-      <c r="H19" s="428"/>
-      <c r="I19" s="428"/>
+    <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="459"/>
+      <c r="B19" s="426" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="427"/>
+      <c r="D19" s="427"/>
+      <c r="E19" s="427"/>
+      <c r="F19" s="427"/>
+      <c r="G19" s="427"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="427"/>
       <c r="J19" s="201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K19" s="364"/>
       <c r="L19" s="200">
@@ -5742,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="171"/>
       <c r="B20" s="171"/>
       <c r="C20" s="171"/>
@@ -5759,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="171"/>
       <c r="B21" s="171"/>
       <c r="C21" s="171"/>
@@ -5773,7 +5780,7 @@
       <c r="K21" s="171"/>
       <c r="L21" s="171"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="171"/>
       <c r="B22" s="198" t="s">
         <v>87</v>
@@ -5789,8 +5796,8 @@
       <c r="K22" s="196"/>
       <c r="L22" s="372"/>
     </row>
-    <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="195" t="s">
         <v>90</v>
       </c>
@@ -5801,9 +5808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="316"/>
       <c r="C27" s="316"/>
       <c r="D27" s="316"/>
@@ -5816,7 +5823,7 @@
       <c r="K27" s="316"/>
       <c r="L27" s="316"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -5834,9 +5841,9 @@
       <c r="K28" s="318"/>
       <c r="L28" s="317"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="192"/>
       <c r="C31" s="192"/>
       <c r="D31" s="192"/>
@@ -5848,7 +5855,7 @@
       <c r="K31" s="188"/>
       <c r="L31" s="187"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="192"/>
       <c r="C32" s="192"/>
       <c r="D32" s="192"/>
@@ -5862,6 +5869,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -5871,12 +5884,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5888,7 +5895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -5896,25 +5903,25 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="56" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="7.3984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.86328125" style="56" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5934,7 @@
       <c r="K1" s="142"/>
       <c r="L1" s="142"/>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -5939,7 +5946,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5956,15 +5963,15 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -5973,18 +5980,18 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>47</v>
       </c>
@@ -6001,52 +6008,52 @@
       <c r="K6" s="57"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="388"/>
-      <c r="D7" s="388"/>
-      <c r="E7" s="388"/>
-      <c r="F7" s="388"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="133"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="388"/>
-      <c r="D8" s="388"/>
-      <c r="E8" s="388"/>
-      <c r="F8" s="388"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="399"/>
+      <c r="E8" s="399"/>
+      <c r="F8" s="399"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="133"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="133"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
       <c r="C10" s="134"/>
@@ -6059,7 +6066,7 @@
       <c r="K10" s="133"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="134"/>
@@ -6072,216 +6079,216 @@
       <c r="K11" s="133"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="389" t="s">
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="400" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="390"/>
-      <c r="J12" s="391" t="s">
+      <c r="I12" s="401"/>
+      <c r="J12" s="402" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="391"/>
-      <c r="L12" s="391"/>
-    </row>
-    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="392" t="s">
+      <c r="K12" s="402"/>
+      <c r="L12" s="402"/>
+    </row>
+    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="395" t="s">
+      <c r="C13" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="395"/>
-      <c r="E13" s="395"/>
-      <c r="F13" s="397" t="s">
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="391" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="398"/>
+      <c r="G13" s="392"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="379" t="s">
+      <c r="J13" s="393" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="381"/>
-      <c r="L13" s="375">
+      <c r="K13" s="409"/>
+      <c r="L13" s="405">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="393"/>
-      <c r="B14" s="396"/>
-      <c r="C14" s="396" t="s">
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="377"/>
+      <c r="B14" s="387"/>
+      <c r="C14" s="387" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="396"/>
-      <c r="E14" s="396"/>
-      <c r="F14" s="399" t="s">
+      <c r="D14" s="387"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="388" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="400"/>
+      <c r="G14" s="389"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="382"/>
-      <c r="L14" s="376"/>
-    </row>
-    <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="393"/>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396" t="s">
+      <c r="J14" s="394"/>
+      <c r="K14" s="410"/>
+      <c r="L14" s="406"/>
+    </row>
+    <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="377"/>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="399" t="s">
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="388" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="400"/>
+      <c r="G15" s="389"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="383"/>
-      <c r="L15" s="376"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="393"/>
-      <c r="B16" s="401" t="s">
+      <c r="J15" s="394"/>
+      <c r="K15" s="411"/>
+      <c r="L15" s="406"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="377"/>
+      <c r="B16" s="395" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="396" t="s">
+      <c r="C16" s="387" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="396"/>
-      <c r="E16" s="396"/>
-      <c r="F16" s="399" t="s">
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="388" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="400"/>
+      <c r="G16" s="389"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="380" t="s">
+      <c r="J16" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="374"/>
-      <c r="L16" s="376">
+      <c r="K16" s="404"/>
+      <c r="L16" s="406">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="393"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="396" t="s">
+    <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="377"/>
+      <c r="B17" s="396"/>
+      <c r="C17" s="387" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="396"/>
-      <c r="E17" s="396"/>
-      <c r="F17" s="399" t="s">
+      <c r="D17" s="387"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="400"/>
+      <c r="G17" s="389"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="374"/>
-      <c r="L17" s="376"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="394"/>
-      <c r="B18" s="403"/>
-      <c r="C18" s="405" t="s">
+      <c r="J17" s="394"/>
+      <c r="K17" s="404"/>
+      <c r="L17" s="406"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="378"/>
+      <c r="B18" s="397"/>
+      <c r="C18" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="405"/>
-      <c r="E18" s="405"/>
-      <c r="F18" s="386" t="s">
+      <c r="D18" s="390"/>
+      <c r="E18" s="390"/>
+      <c r="F18" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="387"/>
+      <c r="G18" s="386"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="404"/>
-      <c r="K18" s="384"/>
-      <c r="L18" s="385"/>
-    </row>
-    <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="392" t="s">
+      <c r="J18" s="398"/>
+      <c r="K18" s="412"/>
+      <c r="L18" s="413"/>
+    </row>
+    <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="376" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="409" t="s">
+      <c r="B19" s="379" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="395" t="s">
+      <c r="C19" s="382" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="395"/>
-      <c r="E19" s="395"/>
-      <c r="F19" s="412" t="s">
+      <c r="D19" s="382"/>
+      <c r="E19" s="382"/>
+      <c r="F19" s="383" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="413"/>
+      <c r="G19" s="384"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="379" t="s">
+      <c r="J19" s="393" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="373"/>
-      <c r="L19" s="375">
+      <c r="K19" s="403"/>
+      <c r="L19" s="405">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="393"/>
-      <c r="B20" s="410"/>
-      <c r="C20" s="396" t="s">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="377"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="396"/>
-      <c r="E20" s="396"/>
-      <c r="F20" s="399" t="s">
+      <c r="D20" s="387"/>
+      <c r="E20" s="387"/>
+      <c r="F20" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="400"/>
+      <c r="G20" s="389"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="374"/>
-      <c r="L20" s="376"/>
-    </row>
-    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="393"/>
-      <c r="B21" s="411"/>
-      <c r="C21" s="396" t="s">
+      <c r="J20" s="394"/>
+      <c r="K20" s="404"/>
+      <c r="L20" s="406"/>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="377"/>
+      <c r="B21" s="381"/>
+      <c r="C21" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="396"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="399" t="s">
+      <c r="D21" s="387"/>
+      <c r="E21" s="387"/>
+      <c r="F21" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="400"/>
+      <c r="G21" s="389"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="380"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="376"/>
-    </row>
-    <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="394"/>
+      <c r="J21" s="394"/>
+      <c r="K21" s="404"/>
+      <c r="L21" s="406"/>
+    </row>
+    <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="378"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="386" t="s">
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="385" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="387"/>
+      <c r="G22" s="386"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
@@ -6293,22 +6300,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="406" t="s">
+      <c r="C23" s="373" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="407" t="s">
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="374" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="408"/>
+      <c r="G23" s="375"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
@@ -6320,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -6334,7 +6341,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
     </row>
-    <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -6347,19 +6354,19 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="377">
+      <c r="K25" s="407">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="378"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="408"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="331"/>
       <c r="L26" s="332"/>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
@@ -6375,21 +6382,25 @@
       <c r="K29" s="135"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -6406,22 +6417,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6433,7 +6440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -6441,25 +6448,25 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="209" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="209"/>
-    <col min="3" max="3" width="12.5703125" style="209" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="209" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="209" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="209" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="209" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="209"/>
+    <col min="3" max="3" width="12.59765625" style="209" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="209" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="209" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="209" customWidth="1"/>
     <col min="8" max="8" width="7" style="209" customWidth="1"/>
     <col min="9" max="9" width="3" style="209" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="209" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="209" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="209" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="209" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="209"/>
+    <col min="10" max="10" width="6.3984375" style="209" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="209" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="209" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="209" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="209"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="210" t="s">
         <v>46</v>
       </c>
@@ -6471,7 +6478,7 @@
       <c r="K2" s="214"/>
       <c r="L2" s="214"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="215" t="s">
         <v>70</v>
       </c>
@@ -6483,7 +6490,7 @@
       <c r="K3" s="214"/>
       <c r="L3" s="214"/>
     </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="216" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6507,7 @@
       <c r="K4" s="214"/>
       <c r="L4" s="214"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>8</v>
       </c>
@@ -6517,7 +6524,7 @@
       <c r="K5" s="214"/>
       <c r="L5" s="214"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>11</v>
       </c>
@@ -6528,7 +6535,7 @@
       <c r="F6" s="414"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>47</v>
       </c>
@@ -6545,7 +6552,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="222"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="216" t="s">
         <v>0</v>
       </c>
@@ -6560,7 +6567,7 @@
       <c r="K8" s="220"/>
       <c r="L8" s="220"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="218" t="s">
         <v>9</v>
       </c>
@@ -6575,7 +6582,7 @@
       <c r="K9" s="220"/>
       <c r="L9" s="220"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="218" t="s">
         <v>10</v>
       </c>
@@ -6590,28 +6597,28 @@
       <c r="K10" s="220"/>
       <c r="L10" s="220"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="220"/>
       <c r="I11" s="220"/>
       <c r="J11" s="220"/>
       <c r="K11" s="220"/>
       <c r="L11" s="220"/>
     </row>
-    <row r="12" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="220"/>
       <c r="I12" s="220"/>
       <c r="J12" s="220"/>
       <c r="K12" s="220"/>
       <c r="L12" s="220"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="220"/>
       <c r="I13" s="220"/>
       <c r="J13" s="220"/>
       <c r="K13" s="220"/>
       <c r="L13" s="220"/>
     </row>
-    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="257"/>
       <c r="B14" s="218"/>
       <c r="C14" s="258"/>
@@ -6630,7 +6637,7 @@
       </c>
       <c r="M14" s="228"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="292" t="s">
         <v>49</v>
       </c>
@@ -6646,7 +6653,7 @@
       <c r="K15" s="233"/>
       <c r="L15" s="353"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="292" t="s">
         <v>50</v>
       </c>
@@ -6662,7 +6669,7 @@
       <c r="K16" s="233"/>
       <c r="L16" s="353"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="289" t="s">
         <v>51</v>
       </c>
@@ -6678,7 +6685,7 @@
       <c r="K17" s="233"/>
       <c r="L17" s="353"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="292" t="s">
         <v>52</v>
       </c>
@@ -6694,7 +6701,7 @@
       <c r="K18" s="233"/>
       <c r="L18" s="353"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="294" t="s">
         <v>57</v>
       </c>
@@ -6710,7 +6717,7 @@
       <c r="K19" s="233"/>
       <c r="L19" s="353"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="294" t="s">
         <v>53</v>
       </c>
@@ -6726,7 +6733,7 @@
       <c r="K20" s="233"/>
       <c r="L20" s="353"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="307" t="s">
         <v>58</v>
       </c>
@@ -6742,11 +6749,11 @@
       <c r="K21" s="233"/>
       <c r="L21" s="353"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K22" s="264"/>
       <c r="L22" s="264"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="228"/>
       <c r="C23" s="228"/>
       <c r="D23" s="228"/>
@@ -6762,13 +6769,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K24" s="265" t="s">
         <v>55</v>
       </c>
       <c r="L24" s="266"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="228"/>
       <c r="C25" s="228"/>
       <c r="D25" s="228"/>
@@ -6777,7 +6784,7 @@
       <c r="I25" s="265"/>
       <c r="J25" s="268"/>
     </row>
-    <row r="26" spans="1:13" s="269" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="269" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H26" s="270"/>
       <c r="I26" s="271" t="s">
         <v>56</v>
@@ -6790,7 +6797,7 @@
       </c>
       <c r="M26" s="275"/>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="228"/>
       <c r="C27" s="228"/>
       <c r="D27" s="228"/>
@@ -6802,7 +6809,7 @@
       <c r="K27" s="265"/>
       <c r="L27" s="279"/>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="228"/>
       <c r="C28" s="228"/>
       <c r="D28" s="228"/>
@@ -6814,7 +6821,7 @@
       <c r="K28" s="265"/>
       <c r="L28" s="279"/>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="228"/>
       <c r="C29" s="228"/>
       <c r="D29" s="228"/>
@@ -6826,7 +6833,7 @@
       <c r="K29" s="265"/>
       <c r="L29" s="279"/>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="228"/>
       <c r="C30" s="228"/>
       <c r="D30" s="228"/>
@@ -6838,7 +6845,7 @@
       <c r="K30" s="265"/>
       <c r="L30" s="279"/>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="228"/>
       <c r="C31" s="228"/>
       <c r="D31" s="228"/>
@@ -6850,7 +6857,7 @@
       <c r="K31" s="265"/>
       <c r="L31" s="279"/>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="216" t="s">
         <v>44</v>
       </c>
@@ -6867,7 +6874,7 @@
       <c r="K32" s="216"/>
       <c r="L32" s="216"/>
     </row>
-    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="228"/>
       <c r="C33" s="228"/>
       <c r="D33" s="228"/>
@@ -6897,7 +6904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -6905,25 +6912,25 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.1328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>60</v>
       </c>
@@ -6935,7 +6942,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
@@ -6947,7 +6954,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -6964,15 +6971,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6981,18 +6988,18 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -7009,7 +7016,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -7024,58 +7031,58 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
       <c r="B14" s="14"/>
       <c r="C14" s="130"/>
@@ -7094,7 +7101,7 @@
       </c>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="300" t="s">
         <v>49</v>
       </c>
@@ -7110,7 +7117,7 @@
       <c r="K15" s="62"/>
       <c r="L15" s="354"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="300" t="s">
         <v>50</v>
       </c>
@@ -7126,7 +7133,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="354"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="297" t="s">
         <v>51</v>
       </c>
@@ -7142,7 +7149,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="354"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="300" t="s">
         <v>61</v>
       </c>
@@ -7158,7 +7165,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="354"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="300" t="s">
         <v>62</v>
       </c>
@@ -7174,7 +7181,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="354"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="300" t="s">
         <v>63</v>
       </c>
@@ -7190,7 +7197,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="354"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="300" t="s">
         <v>52</v>
       </c>
@@ -7206,7 +7213,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="354"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="300" t="s">
         <v>64</v>
       </c>
@@ -7222,11 +7229,11 @@
       <c r="K22" s="50"/>
       <c r="L22" s="354"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -7242,13 +7249,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="64" t="s">
         <v>65</v>
       </c>
       <c r="L25" s="65"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -7257,7 +7264,7 @@
       <c r="I26" s="64"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="68"/>
       <c r="I27" s="69" t="s">
         <v>56</v>
@@ -7270,7 +7277,7 @@
       </c>
       <c r="M27" s="52"/>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -7282,7 +7289,7 @@
       <c r="K28" s="64"/>
       <c r="L28" s="75"/>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -7294,7 +7301,7 @@
       <c r="K29" s="64"/>
       <c r="L29" s="75"/>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -7306,7 +7313,7 @@
       <c r="K30" s="64"/>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -7318,7 +7325,7 @@
       <c r="K31" s="64"/>
       <c r="L31" s="75"/>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -7335,7 +7342,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -7365,7 +7372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -7373,25 +7380,25 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="4.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>66</v>
       </c>
@@ -7403,7 +7410,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
@@ -7415,7 +7422,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -7432,15 +7439,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7449,18 +7456,18 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -7477,7 +7484,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -7492,58 +7499,58 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
       <c r="B14" s="14"/>
       <c r="C14" s="130"/>
@@ -7562,7 +7569,7 @@
       </c>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="300" t="s">
         <v>49</v>
       </c>
@@ -7578,7 +7585,7 @@
       <c r="K15" s="62"/>
       <c r="L15" s="354"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="297" t="s">
         <v>51</v>
       </c>
@@ -7594,7 +7601,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="354"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="300" t="s">
         <v>61</v>
       </c>
@@ -7610,7 +7617,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="354"/>
     </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="300" t="s">
         <v>62</v>
       </c>
@@ -7626,7 +7633,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="354"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="300" t="s">
         <v>63</v>
       </c>
@@ -7642,7 +7649,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="354"/>
     </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="300" t="s">
         <v>52</v>
       </c>
@@ -7658,7 +7665,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="354"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="300" t="s">
         <v>67</v>
       </c>
@@ -7674,7 +7681,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="354"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="300" t="s">
         <v>107</v>
       </c>
@@ -7690,11 +7697,11 @@
       <c r="K22" s="50"/>
       <c r="L22" s="354"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -7710,13 +7717,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="64" t="s">
         <v>65</v>
       </c>
       <c r="L25" s="65"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -7725,7 +7732,7 @@
       <c r="I26" s="64"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="68"/>
       <c r="I27" s="69" t="s">
         <v>56</v>
@@ -7737,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -7749,7 +7756,7 @@
       <c r="K28" s="64"/>
       <c r="L28" s="75"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -7761,7 +7768,7 @@
       <c r="K29" s="64"/>
       <c r="L29" s="75"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -7773,7 +7780,7 @@
       <c r="K30" s="64"/>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -7785,7 +7792,7 @@
       <c r="K31" s="64"/>
       <c r="L31" s="75"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -7802,7 +7809,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
       <c r="D33" s="52"/>
@@ -7832,7 +7839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -7840,24 +7847,24 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="209" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="209"/>
-    <col min="3" max="3" width="12.5703125" style="209" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="209" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="209" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="209" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="209" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="209"/>
+    <col min="3" max="3" width="12.59765625" style="209" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="209" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="209" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" style="209" customWidth="1"/>
     <col min="8" max="8" width="7" style="209" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="209" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="209" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="209" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="209" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="209"/>
+    <col min="9" max="9" width="7.265625" style="209" customWidth="1"/>
+    <col min="10" max="10" width="4.73046875" style="209" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="209" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="209" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="209"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="210" t="s">
         <v>71</v>
       </c>
@@ -7869,7 +7876,7 @@
       <c r="K2" s="214"/>
       <c r="L2" s="214"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="215" t="s">
         <v>72</v>
       </c>
@@ -7881,7 +7888,7 @@
       <c r="K3" s="214"/>
       <c r="L3" s="214"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="216" t="s">
         <v>7</v>
       </c>
@@ -7898,7 +7905,7 @@
       <c r="K4" s="214"/>
       <c r="L4" s="214"/>
     </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>8</v>
       </c>
@@ -7915,7 +7922,7 @@
       <c r="K5" s="214"/>
       <c r="L5" s="214"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +7933,7 @@
       <c r="F6" s="414"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>47</v>
       </c>
@@ -7943,7 +7950,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="222"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="216" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7965,7 @@
       <c r="K8" s="220"/>
       <c r="L8" s="220"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="218" t="s">
         <v>9</v>
       </c>
@@ -7973,7 +7980,7 @@
       <c r="K9" s="220"/>
       <c r="L9" s="220"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="218" t="s">
         <v>10</v>
       </c>
@@ -7988,14 +7995,14 @@
       <c r="K10" s="220"/>
       <c r="L10" s="220"/>
     </row>
-    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="220"/>
       <c r="I11" s="220"/>
       <c r="J11" s="220"/>
       <c r="K11" s="220"/>
       <c r="L11" s="220"/>
     </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="223" t="s">
         <v>73</v>
       </c>
@@ -8011,7 +8018,7 @@
       <c r="K12" s="225"/>
       <c r="L12" s="226"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="227"/>
       <c r="B13" s="228"/>
       <c r="C13" s="228"/>
@@ -8025,7 +8032,7 @@
       <c r="K13" s="229"/>
       <c r="L13" s="230"/>
     </row>
-    <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="227"/>
       <c r="B14" s="228"/>
       <c r="C14" s="228"/>
@@ -8039,7 +8046,7 @@
       <c r="K14" s="228"/>
       <c r="L14" s="231"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="232" t="s">
         <v>40</v>
       </c>
@@ -8055,7 +8062,7 @@
       <c r="K15" s="234"/>
       <c r="L15" s="235"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="236" t="s">
         <v>74</v>
       </c>
@@ -8070,7 +8077,7 @@
       <c r="K16" s="228"/>
       <c r="L16" s="228"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="228"/>
       <c r="B17" s="228"/>
       <c r="C17" s="228"/>
@@ -8086,7 +8093,7 @@
       </c>
       <c r="L17" s="228"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="228"/>
       <c r="B18" s="228"/>
       <c r="C18" s="228"/>
@@ -8100,7 +8107,7 @@
       <c r="K18" s="114"/>
       <c r="L18" s="228"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="228"/>
       <c r="B19" s="228"/>
       <c r="C19" s="228"/>
@@ -8114,7 +8121,7 @@
       <c r="K19" s="114"/>
       <c r="L19" s="228"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="228"/>
       <c r="B20" s="228"/>
       <c r="C20" s="228"/>
@@ -8128,7 +8135,7 @@
       <c r="K20" s="114"/>
       <c r="L20" s="228"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="228"/>
       <c r="B21" s="228"/>
       <c r="C21" s="228"/>
@@ -8142,7 +8149,7 @@
       <c r="K21" s="114"/>
       <c r="L21" s="228"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="228"/>
       <c r="B22" s="228"/>
       <c r="C22" s="228"/>
@@ -8156,7 +8163,7 @@
       <c r="K22" s="228"/>
       <c r="L22" s="228"/>
     </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="228"/>
       <c r="B23" s="228"/>
       <c r="C23" s="228"/>
@@ -8170,12 +8177,12 @@
       <c r="K23" s="122"/>
       <c r="L23" s="242"/>
     </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="215" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="113" t="s">
         <v>87</v>
       </c>
@@ -8189,7 +8196,7 @@
       <c r="J25" s="115"/>
       <c r="K25" s="116"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="243" t="s">
         <v>77</v>
       </c>
@@ -8211,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="228"/>
       <c r="C27" s="228"/>
       <c r="D27" s="228"/>
@@ -8223,7 +8230,7 @@
       <c r="J27" s="115"/>
       <c r="K27" s="116"/>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="228"/>
       <c r="C28" s="228"/>
       <c r="D28" s="228"/>
@@ -8235,7 +8242,7 @@
       <c r="J28" s="115"/>
       <c r="K28" s="228"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="228"/>
       <c r="C29" s="228"/>
       <c r="D29" s="247" t="s">
@@ -8252,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="228"/>
       <c r="C30" s="228"/>
       <c r="D30" s="228"/>
@@ -8263,7 +8270,7 @@
       <c r="I30" s="228"/>
       <c r="L30" s="114"/>
     </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="250" t="s">
         <v>79</v>
       </c>
@@ -8278,8 +8285,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="221" t="s">
         <v>80</v>
       </c>
@@ -8290,12 +8297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="255"/>
       <c r="F35" s="255"/>
       <c r="G35" s="255"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="216" t="s">
         <v>44</v>
       </c>
@@ -8329,7 +8336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -8337,655 +8344,655 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.73046875" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7.265625" style="7" customWidth="1"/>
     <col min="10" max="10" width="6" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="7" customWidth="1"/>
-    <col min="13" max="256" width="9.140625" style="7"/>
-    <col min="257" max="257" width="5.7109375" style="7" customWidth="1"/>
-    <col min="258" max="259" width="9.140625" style="7"/>
-    <col min="260" max="260" width="2.7109375" style="7" customWidth="1"/>
-    <col min="261" max="263" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
+    <col min="13" max="256" width="9.1328125" style="7"/>
+    <col min="257" max="257" width="5.73046875" style="7" customWidth="1"/>
+    <col min="258" max="259" width="9.1328125" style="7"/>
+    <col min="260" max="260" width="2.73046875" style="7" customWidth="1"/>
+    <col min="261" max="263" width="7.265625" style="7" customWidth="1"/>
     <col min="264" max="264" width="7" style="7" customWidth="1"/>
-    <col min="265" max="265" width="7.28515625" style="7" customWidth="1"/>
-    <col min="266" max="266" width="4.7109375" style="7" customWidth="1"/>
-    <col min="267" max="267" width="10.28515625" style="7" customWidth="1"/>
-    <col min="268" max="268" width="10.7109375" style="7" customWidth="1"/>
-    <col min="269" max="512" width="9.140625" style="7"/>
-    <col min="513" max="513" width="5.7109375" style="7" customWidth="1"/>
-    <col min="514" max="515" width="9.140625" style="7"/>
-    <col min="516" max="516" width="2.7109375" style="7" customWidth="1"/>
-    <col min="517" max="519" width="7.28515625" style="7" customWidth="1"/>
+    <col min="265" max="265" width="7.265625" style="7" customWidth="1"/>
+    <col min="266" max="266" width="4.73046875" style="7" customWidth="1"/>
+    <col min="267" max="267" width="10.265625" style="7" customWidth="1"/>
+    <col min="268" max="268" width="10.73046875" style="7" customWidth="1"/>
+    <col min="269" max="512" width="9.1328125" style="7"/>
+    <col min="513" max="513" width="5.73046875" style="7" customWidth="1"/>
+    <col min="514" max="515" width="9.1328125" style="7"/>
+    <col min="516" max="516" width="2.73046875" style="7" customWidth="1"/>
+    <col min="517" max="519" width="7.265625" style="7" customWidth="1"/>
     <col min="520" max="520" width="7" style="7" customWidth="1"/>
-    <col min="521" max="521" width="7.28515625" style="7" customWidth="1"/>
-    <col min="522" max="522" width="4.7109375" style="7" customWidth="1"/>
-    <col min="523" max="523" width="10.28515625" style="7" customWidth="1"/>
-    <col min="524" max="524" width="10.7109375" style="7" customWidth="1"/>
-    <col min="525" max="768" width="9.140625" style="7"/>
-    <col min="769" max="769" width="5.7109375" style="7" customWidth="1"/>
-    <col min="770" max="771" width="9.140625" style="7"/>
-    <col min="772" max="772" width="2.7109375" style="7" customWidth="1"/>
-    <col min="773" max="775" width="7.28515625" style="7" customWidth="1"/>
+    <col min="521" max="521" width="7.265625" style="7" customWidth="1"/>
+    <col min="522" max="522" width="4.73046875" style="7" customWidth="1"/>
+    <col min="523" max="523" width="10.265625" style="7" customWidth="1"/>
+    <col min="524" max="524" width="10.73046875" style="7" customWidth="1"/>
+    <col min="525" max="768" width="9.1328125" style="7"/>
+    <col min="769" max="769" width="5.73046875" style="7" customWidth="1"/>
+    <col min="770" max="771" width="9.1328125" style="7"/>
+    <col min="772" max="772" width="2.73046875" style="7" customWidth="1"/>
+    <col min="773" max="775" width="7.265625" style="7" customWidth="1"/>
     <col min="776" max="776" width="7" style="7" customWidth="1"/>
-    <col min="777" max="777" width="7.28515625" style="7" customWidth="1"/>
-    <col min="778" max="778" width="4.7109375" style="7" customWidth="1"/>
-    <col min="779" max="779" width="10.28515625" style="7" customWidth="1"/>
-    <col min="780" max="780" width="10.7109375" style="7" customWidth="1"/>
-    <col min="781" max="1024" width="9.140625" style="7"/>
-    <col min="1025" max="1025" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1026" max="1027" width="9.140625" style="7"/>
-    <col min="1028" max="1028" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1029" max="1031" width="7.28515625" style="7" customWidth="1"/>
+    <col min="777" max="777" width="7.265625" style="7" customWidth="1"/>
+    <col min="778" max="778" width="4.73046875" style="7" customWidth="1"/>
+    <col min="779" max="779" width="10.265625" style="7" customWidth="1"/>
+    <col min="780" max="780" width="10.73046875" style="7" customWidth="1"/>
+    <col min="781" max="1024" width="9.1328125" style="7"/>
+    <col min="1025" max="1025" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1026" max="1027" width="9.1328125" style="7"/>
+    <col min="1028" max="1028" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1029" max="1031" width="7.265625" style="7" customWidth="1"/>
     <col min="1032" max="1032" width="7" style="7" customWidth="1"/>
-    <col min="1033" max="1033" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1034" max="1034" width="4.7109375" style="7" customWidth="1"/>
-    <col min="1035" max="1035" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1036" max="1036" width="10.7109375" style="7" customWidth="1"/>
-    <col min="1037" max="1280" width="9.140625" style="7"/>
-    <col min="1281" max="1281" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1282" max="1283" width="9.140625" style="7"/>
-    <col min="1284" max="1284" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1285" max="1287" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1033" max="1033" width="7.265625" style="7" customWidth="1"/>
+    <col min="1034" max="1034" width="4.73046875" style="7" customWidth="1"/>
+    <col min="1035" max="1035" width="10.265625" style="7" customWidth="1"/>
+    <col min="1036" max="1036" width="10.73046875" style="7" customWidth="1"/>
+    <col min="1037" max="1280" width="9.1328125" style="7"/>
+    <col min="1281" max="1281" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1282" max="1283" width="9.1328125" style="7"/>
+    <col min="1284" max="1284" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1285" max="1287" width="7.265625" style="7" customWidth="1"/>
     <col min="1288" max="1288" width="7" style="7" customWidth="1"/>
-    <col min="1289" max="1289" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1290" max="1290" width="4.7109375" style="7" customWidth="1"/>
-    <col min="1291" max="1291" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1292" max="1292" width="10.7109375" style="7" customWidth="1"/>
-    <col min="1293" max="1536" width="9.140625" style="7"/>
-    <col min="1537" max="1537" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1538" max="1539" width="9.140625" style="7"/>
-    <col min="1540" max="1540" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1541" max="1543" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1289" max="1289" width="7.265625" style="7" customWidth="1"/>
+    <col min="1290" max="1290" width="4.73046875" style="7" customWidth="1"/>
+    <col min="1291" max="1291" width="10.265625" style="7" customWidth="1"/>
+    <col min="1292" max="1292" width="10.73046875" style="7" customWidth="1"/>
+    <col min="1293" max="1536" width="9.1328125" style="7"/>
+    <col min="1537" max="1537" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1538" max="1539" width="9.1328125" style="7"/>
+    <col min="1540" max="1540" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1541" max="1543" width="7.265625" style="7" customWidth="1"/>
     <col min="1544" max="1544" width="7" style="7" customWidth="1"/>
-    <col min="1545" max="1545" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1546" max="1546" width="4.7109375" style="7" customWidth="1"/>
-    <col min="1547" max="1547" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1548" max="1548" width="10.7109375" style="7" customWidth="1"/>
-    <col min="1549" max="1792" width="9.140625" style="7"/>
-    <col min="1793" max="1793" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1794" max="1795" width="9.140625" style="7"/>
-    <col min="1796" max="1796" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1797" max="1799" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1545" max="1545" width="7.265625" style="7" customWidth="1"/>
+    <col min="1546" max="1546" width="4.73046875" style="7" customWidth="1"/>
+    <col min="1547" max="1547" width="10.265625" style="7" customWidth="1"/>
+    <col min="1548" max="1548" width="10.73046875" style="7" customWidth="1"/>
+    <col min="1549" max="1792" width="9.1328125" style="7"/>
+    <col min="1793" max="1793" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1794" max="1795" width="9.1328125" style="7"/>
+    <col min="1796" max="1796" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1797" max="1799" width="7.265625" style="7" customWidth="1"/>
     <col min="1800" max="1800" width="7" style="7" customWidth="1"/>
-    <col min="1801" max="1801" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1802" max="1802" width="4.7109375" style="7" customWidth="1"/>
-    <col min="1803" max="1803" width="10.28515625" style="7" customWidth="1"/>
-    <col min="1804" max="1804" width="10.7109375" style="7" customWidth="1"/>
-    <col min="1805" max="2048" width="9.140625" style="7"/>
-    <col min="2049" max="2049" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2050" max="2051" width="9.140625" style="7"/>
-    <col min="2052" max="2052" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2053" max="2055" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1801" max="1801" width="7.265625" style="7" customWidth="1"/>
+    <col min="1802" max="1802" width="4.73046875" style="7" customWidth="1"/>
+    <col min="1803" max="1803" width="10.265625" style="7" customWidth="1"/>
+    <col min="1804" max="1804" width="10.73046875" style="7" customWidth="1"/>
+    <col min="1805" max="2048" width="9.1328125" style="7"/>
+    <col min="2049" max="2049" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2050" max="2051" width="9.1328125" style="7"/>
+    <col min="2052" max="2052" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2053" max="2055" width="7.265625" style="7" customWidth="1"/>
     <col min="2056" max="2056" width="7" style="7" customWidth="1"/>
-    <col min="2057" max="2057" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2058" max="2058" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2059" max="2059" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2060" max="2060" width="10.7109375" style="7" customWidth="1"/>
-    <col min="2061" max="2304" width="9.140625" style="7"/>
-    <col min="2305" max="2305" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2306" max="2307" width="9.140625" style="7"/>
-    <col min="2308" max="2308" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2309" max="2311" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2057" max="2057" width="7.265625" style="7" customWidth="1"/>
+    <col min="2058" max="2058" width="4.73046875" style="7" customWidth="1"/>
+    <col min="2059" max="2059" width="10.265625" style="7" customWidth="1"/>
+    <col min="2060" max="2060" width="10.73046875" style="7" customWidth="1"/>
+    <col min="2061" max="2304" width="9.1328125" style="7"/>
+    <col min="2305" max="2305" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2306" max="2307" width="9.1328125" style="7"/>
+    <col min="2308" max="2308" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2309" max="2311" width="7.265625" style="7" customWidth="1"/>
     <col min="2312" max="2312" width="7" style="7" customWidth="1"/>
-    <col min="2313" max="2313" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2314" max="2314" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2315" max="2315" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2316" max="2316" width="10.7109375" style="7" customWidth="1"/>
-    <col min="2317" max="2560" width="9.140625" style="7"/>
-    <col min="2561" max="2561" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2562" max="2563" width="9.140625" style="7"/>
-    <col min="2564" max="2564" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2565" max="2567" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2313" max="2313" width="7.265625" style="7" customWidth="1"/>
+    <col min="2314" max="2314" width="4.73046875" style="7" customWidth="1"/>
+    <col min="2315" max="2315" width="10.265625" style="7" customWidth="1"/>
+    <col min="2316" max="2316" width="10.73046875" style="7" customWidth="1"/>
+    <col min="2317" max="2560" width="9.1328125" style="7"/>
+    <col min="2561" max="2561" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2562" max="2563" width="9.1328125" style="7"/>
+    <col min="2564" max="2564" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2565" max="2567" width="7.265625" style="7" customWidth="1"/>
     <col min="2568" max="2568" width="7" style="7" customWidth="1"/>
-    <col min="2569" max="2569" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2570" max="2570" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2571" max="2571" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2572" max="2572" width="10.7109375" style="7" customWidth="1"/>
-    <col min="2573" max="2816" width="9.140625" style="7"/>
-    <col min="2817" max="2817" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2818" max="2819" width="9.140625" style="7"/>
-    <col min="2820" max="2820" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2821" max="2823" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2569" max="2569" width="7.265625" style="7" customWidth="1"/>
+    <col min="2570" max="2570" width="4.73046875" style="7" customWidth="1"/>
+    <col min="2571" max="2571" width="10.265625" style="7" customWidth="1"/>
+    <col min="2572" max="2572" width="10.73046875" style="7" customWidth="1"/>
+    <col min="2573" max="2816" width="9.1328125" style="7"/>
+    <col min="2817" max="2817" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2818" max="2819" width="9.1328125" style="7"/>
+    <col min="2820" max="2820" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2821" max="2823" width="7.265625" style="7" customWidth="1"/>
     <col min="2824" max="2824" width="7" style="7" customWidth="1"/>
-    <col min="2825" max="2825" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2826" max="2826" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2827" max="2827" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2828" max="2828" width="10.7109375" style="7" customWidth="1"/>
-    <col min="2829" max="3072" width="9.140625" style="7"/>
-    <col min="3073" max="3073" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3074" max="3075" width="9.140625" style="7"/>
-    <col min="3076" max="3076" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3077" max="3079" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2825" max="2825" width="7.265625" style="7" customWidth="1"/>
+    <col min="2826" max="2826" width="4.73046875" style="7" customWidth="1"/>
+    <col min="2827" max="2827" width="10.265625" style="7" customWidth="1"/>
+    <col min="2828" max="2828" width="10.73046875" style="7" customWidth="1"/>
+    <col min="2829" max="3072" width="9.1328125" style="7"/>
+    <col min="3073" max="3073" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3074" max="3075" width="9.1328125" style="7"/>
+    <col min="3076" max="3076" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3077" max="3079" width="7.265625" style="7" customWidth="1"/>
     <col min="3080" max="3080" width="7" style="7" customWidth="1"/>
-    <col min="3081" max="3081" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3082" max="3082" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3083" max="3083" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3084" max="3084" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3085" max="3328" width="9.140625" style="7"/>
-    <col min="3329" max="3329" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3330" max="3331" width="9.140625" style="7"/>
-    <col min="3332" max="3332" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3333" max="3335" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3081" max="3081" width="7.265625" style="7" customWidth="1"/>
+    <col min="3082" max="3082" width="4.73046875" style="7" customWidth="1"/>
+    <col min="3083" max="3083" width="10.265625" style="7" customWidth="1"/>
+    <col min="3084" max="3084" width="10.73046875" style="7" customWidth="1"/>
+    <col min="3085" max="3328" width="9.1328125" style="7"/>
+    <col min="3329" max="3329" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3330" max="3331" width="9.1328125" style="7"/>
+    <col min="3332" max="3332" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3333" max="3335" width="7.265625" style="7" customWidth="1"/>
     <col min="3336" max="3336" width="7" style="7" customWidth="1"/>
-    <col min="3337" max="3337" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3338" max="3338" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3339" max="3339" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3340" max="3340" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3341" max="3584" width="9.140625" style="7"/>
-    <col min="3585" max="3585" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3586" max="3587" width="9.140625" style="7"/>
-    <col min="3588" max="3588" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3589" max="3591" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3337" max="3337" width="7.265625" style="7" customWidth="1"/>
+    <col min="3338" max="3338" width="4.73046875" style="7" customWidth="1"/>
+    <col min="3339" max="3339" width="10.265625" style="7" customWidth="1"/>
+    <col min="3340" max="3340" width="10.73046875" style="7" customWidth="1"/>
+    <col min="3341" max="3584" width="9.1328125" style="7"/>
+    <col min="3585" max="3585" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3586" max="3587" width="9.1328125" style="7"/>
+    <col min="3588" max="3588" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3589" max="3591" width="7.265625" style="7" customWidth="1"/>
     <col min="3592" max="3592" width="7" style="7" customWidth="1"/>
-    <col min="3593" max="3593" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3594" max="3594" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3595" max="3595" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3596" max="3596" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3597" max="3840" width="9.140625" style="7"/>
-    <col min="3841" max="3841" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3842" max="3843" width="9.140625" style="7"/>
-    <col min="3844" max="3844" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3845" max="3847" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3593" max="3593" width="7.265625" style="7" customWidth="1"/>
+    <col min="3594" max="3594" width="4.73046875" style="7" customWidth="1"/>
+    <col min="3595" max="3595" width="10.265625" style="7" customWidth="1"/>
+    <col min="3596" max="3596" width="10.73046875" style="7" customWidth="1"/>
+    <col min="3597" max="3840" width="9.1328125" style="7"/>
+    <col min="3841" max="3841" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3842" max="3843" width="9.1328125" style="7"/>
+    <col min="3844" max="3844" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3845" max="3847" width="7.265625" style="7" customWidth="1"/>
     <col min="3848" max="3848" width="7" style="7" customWidth="1"/>
-    <col min="3849" max="3849" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3850" max="3850" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3851" max="3851" width="10.28515625" style="7" customWidth="1"/>
-    <col min="3852" max="3852" width="10.7109375" style="7" customWidth="1"/>
-    <col min="3853" max="4096" width="9.140625" style="7"/>
-    <col min="4097" max="4097" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4098" max="4099" width="9.140625" style="7"/>
-    <col min="4100" max="4100" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4101" max="4103" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3849" max="3849" width="7.265625" style="7" customWidth="1"/>
+    <col min="3850" max="3850" width="4.73046875" style="7" customWidth="1"/>
+    <col min="3851" max="3851" width="10.265625" style="7" customWidth="1"/>
+    <col min="3852" max="3852" width="10.73046875" style="7" customWidth="1"/>
+    <col min="3853" max="4096" width="9.1328125" style="7"/>
+    <col min="4097" max="4097" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4098" max="4099" width="9.1328125" style="7"/>
+    <col min="4100" max="4100" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4101" max="4103" width="7.265625" style="7" customWidth="1"/>
     <col min="4104" max="4104" width="7" style="7" customWidth="1"/>
-    <col min="4105" max="4105" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4106" max="4106" width="4.7109375" style="7" customWidth="1"/>
-    <col min="4107" max="4107" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4108" max="4108" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4109" max="4352" width="9.140625" style="7"/>
-    <col min="4353" max="4353" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4354" max="4355" width="9.140625" style="7"/>
-    <col min="4356" max="4356" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4357" max="4359" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4105" max="4105" width="7.265625" style="7" customWidth="1"/>
+    <col min="4106" max="4106" width="4.73046875" style="7" customWidth="1"/>
+    <col min="4107" max="4107" width="10.265625" style="7" customWidth="1"/>
+    <col min="4108" max="4108" width="10.73046875" style="7" customWidth="1"/>
+    <col min="4109" max="4352" width="9.1328125" style="7"/>
+    <col min="4353" max="4353" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4354" max="4355" width="9.1328125" style="7"/>
+    <col min="4356" max="4356" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4357" max="4359" width="7.265625" style="7" customWidth="1"/>
     <col min="4360" max="4360" width="7" style="7" customWidth="1"/>
-    <col min="4361" max="4361" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4362" max="4362" width="4.7109375" style="7" customWidth="1"/>
-    <col min="4363" max="4363" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4364" max="4364" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4365" max="4608" width="9.140625" style="7"/>
-    <col min="4609" max="4609" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4610" max="4611" width="9.140625" style="7"/>
-    <col min="4612" max="4612" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4613" max="4615" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4361" max="4361" width="7.265625" style="7" customWidth="1"/>
+    <col min="4362" max="4362" width="4.73046875" style="7" customWidth="1"/>
+    <col min="4363" max="4363" width="10.265625" style="7" customWidth="1"/>
+    <col min="4364" max="4364" width="10.73046875" style="7" customWidth="1"/>
+    <col min="4365" max="4608" width="9.1328125" style="7"/>
+    <col min="4609" max="4609" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4610" max="4611" width="9.1328125" style="7"/>
+    <col min="4612" max="4612" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4613" max="4615" width="7.265625" style="7" customWidth="1"/>
     <col min="4616" max="4616" width="7" style="7" customWidth="1"/>
-    <col min="4617" max="4617" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4618" max="4618" width="4.7109375" style="7" customWidth="1"/>
-    <col min="4619" max="4619" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4620" max="4620" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4621" max="4864" width="9.140625" style="7"/>
-    <col min="4865" max="4865" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4866" max="4867" width="9.140625" style="7"/>
-    <col min="4868" max="4868" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4869" max="4871" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4617" max="4617" width="7.265625" style="7" customWidth="1"/>
+    <col min="4618" max="4618" width="4.73046875" style="7" customWidth="1"/>
+    <col min="4619" max="4619" width="10.265625" style="7" customWidth="1"/>
+    <col min="4620" max="4620" width="10.73046875" style="7" customWidth="1"/>
+    <col min="4621" max="4864" width="9.1328125" style="7"/>
+    <col min="4865" max="4865" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4866" max="4867" width="9.1328125" style="7"/>
+    <col min="4868" max="4868" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4869" max="4871" width="7.265625" style="7" customWidth="1"/>
     <col min="4872" max="4872" width="7" style="7" customWidth="1"/>
-    <col min="4873" max="4873" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4874" max="4874" width="4.7109375" style="7" customWidth="1"/>
-    <col min="4875" max="4875" width="10.28515625" style="7" customWidth="1"/>
-    <col min="4876" max="4876" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4877" max="5120" width="9.140625" style="7"/>
-    <col min="5121" max="5121" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5122" max="5123" width="9.140625" style="7"/>
-    <col min="5124" max="5124" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5125" max="5127" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4873" max="4873" width="7.265625" style="7" customWidth="1"/>
+    <col min="4874" max="4874" width="4.73046875" style="7" customWidth="1"/>
+    <col min="4875" max="4875" width="10.265625" style="7" customWidth="1"/>
+    <col min="4876" max="4876" width="10.73046875" style="7" customWidth="1"/>
+    <col min="4877" max="5120" width="9.1328125" style="7"/>
+    <col min="5121" max="5121" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5122" max="5123" width="9.1328125" style="7"/>
+    <col min="5124" max="5124" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5125" max="5127" width="7.265625" style="7" customWidth="1"/>
     <col min="5128" max="5128" width="7" style="7" customWidth="1"/>
-    <col min="5129" max="5129" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5130" max="5130" width="4.7109375" style="7" customWidth="1"/>
-    <col min="5131" max="5131" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5132" max="5132" width="10.7109375" style="7" customWidth="1"/>
-    <col min="5133" max="5376" width="9.140625" style="7"/>
-    <col min="5377" max="5377" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5378" max="5379" width="9.140625" style="7"/>
-    <col min="5380" max="5380" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5381" max="5383" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5129" max="5129" width="7.265625" style="7" customWidth="1"/>
+    <col min="5130" max="5130" width="4.73046875" style="7" customWidth="1"/>
+    <col min="5131" max="5131" width="10.265625" style="7" customWidth="1"/>
+    <col min="5132" max="5132" width="10.73046875" style="7" customWidth="1"/>
+    <col min="5133" max="5376" width="9.1328125" style="7"/>
+    <col min="5377" max="5377" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5378" max="5379" width="9.1328125" style="7"/>
+    <col min="5380" max="5380" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5381" max="5383" width="7.265625" style="7" customWidth="1"/>
     <col min="5384" max="5384" width="7" style="7" customWidth="1"/>
-    <col min="5385" max="5385" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5386" max="5386" width="4.7109375" style="7" customWidth="1"/>
-    <col min="5387" max="5387" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5388" max="5388" width="10.7109375" style="7" customWidth="1"/>
-    <col min="5389" max="5632" width="9.140625" style="7"/>
-    <col min="5633" max="5633" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5634" max="5635" width="9.140625" style="7"/>
-    <col min="5636" max="5636" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5637" max="5639" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5385" max="5385" width="7.265625" style="7" customWidth="1"/>
+    <col min="5386" max="5386" width="4.73046875" style="7" customWidth="1"/>
+    <col min="5387" max="5387" width="10.265625" style="7" customWidth="1"/>
+    <col min="5388" max="5388" width="10.73046875" style="7" customWidth="1"/>
+    <col min="5389" max="5632" width="9.1328125" style="7"/>
+    <col min="5633" max="5633" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5634" max="5635" width="9.1328125" style="7"/>
+    <col min="5636" max="5636" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5637" max="5639" width="7.265625" style="7" customWidth="1"/>
     <col min="5640" max="5640" width="7" style="7" customWidth="1"/>
-    <col min="5641" max="5641" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5642" max="5642" width="4.7109375" style="7" customWidth="1"/>
-    <col min="5643" max="5643" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5644" max="5644" width="10.7109375" style="7" customWidth="1"/>
-    <col min="5645" max="5888" width="9.140625" style="7"/>
-    <col min="5889" max="5889" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5890" max="5891" width="9.140625" style="7"/>
-    <col min="5892" max="5892" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5893" max="5895" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5641" max="5641" width="7.265625" style="7" customWidth="1"/>
+    <col min="5642" max="5642" width="4.73046875" style="7" customWidth="1"/>
+    <col min="5643" max="5643" width="10.265625" style="7" customWidth="1"/>
+    <col min="5644" max="5644" width="10.73046875" style="7" customWidth="1"/>
+    <col min="5645" max="5888" width="9.1328125" style="7"/>
+    <col min="5889" max="5889" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5890" max="5891" width="9.1328125" style="7"/>
+    <col min="5892" max="5892" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5893" max="5895" width="7.265625" style="7" customWidth="1"/>
     <col min="5896" max="5896" width="7" style="7" customWidth="1"/>
-    <col min="5897" max="5897" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5898" max="5898" width="4.7109375" style="7" customWidth="1"/>
-    <col min="5899" max="5899" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5900" max="5900" width="10.7109375" style="7" customWidth="1"/>
-    <col min="5901" max="6144" width="9.140625" style="7"/>
-    <col min="6145" max="6145" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6146" max="6147" width="9.140625" style="7"/>
-    <col min="6148" max="6148" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6149" max="6151" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5897" max="5897" width="7.265625" style="7" customWidth="1"/>
+    <col min="5898" max="5898" width="4.73046875" style="7" customWidth="1"/>
+    <col min="5899" max="5899" width="10.265625" style="7" customWidth="1"/>
+    <col min="5900" max="5900" width="10.73046875" style="7" customWidth="1"/>
+    <col min="5901" max="6144" width="9.1328125" style="7"/>
+    <col min="6145" max="6145" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6146" max="6147" width="9.1328125" style="7"/>
+    <col min="6148" max="6148" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6149" max="6151" width="7.265625" style="7" customWidth="1"/>
     <col min="6152" max="6152" width="7" style="7" customWidth="1"/>
-    <col min="6153" max="6153" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6154" max="6154" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6155" max="6155" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6156" max="6156" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6157" max="6400" width="9.140625" style="7"/>
-    <col min="6401" max="6401" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6402" max="6403" width="9.140625" style="7"/>
-    <col min="6404" max="6404" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6405" max="6407" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6153" max="6153" width="7.265625" style="7" customWidth="1"/>
+    <col min="6154" max="6154" width="4.73046875" style="7" customWidth="1"/>
+    <col min="6155" max="6155" width="10.265625" style="7" customWidth="1"/>
+    <col min="6156" max="6156" width="10.73046875" style="7" customWidth="1"/>
+    <col min="6157" max="6400" width="9.1328125" style="7"/>
+    <col min="6401" max="6401" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6402" max="6403" width="9.1328125" style="7"/>
+    <col min="6404" max="6404" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6405" max="6407" width="7.265625" style="7" customWidth="1"/>
     <col min="6408" max="6408" width="7" style="7" customWidth="1"/>
-    <col min="6409" max="6409" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6410" max="6410" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6411" max="6411" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6412" max="6412" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6413" max="6656" width="9.140625" style="7"/>
-    <col min="6657" max="6657" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6658" max="6659" width="9.140625" style="7"/>
-    <col min="6660" max="6660" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6661" max="6663" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6409" max="6409" width="7.265625" style="7" customWidth="1"/>
+    <col min="6410" max="6410" width="4.73046875" style="7" customWidth="1"/>
+    <col min="6411" max="6411" width="10.265625" style="7" customWidth="1"/>
+    <col min="6412" max="6412" width="10.73046875" style="7" customWidth="1"/>
+    <col min="6413" max="6656" width="9.1328125" style="7"/>
+    <col min="6657" max="6657" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6658" max="6659" width="9.1328125" style="7"/>
+    <col min="6660" max="6660" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6661" max="6663" width="7.265625" style="7" customWidth="1"/>
     <col min="6664" max="6664" width="7" style="7" customWidth="1"/>
-    <col min="6665" max="6665" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6666" max="6666" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6667" max="6667" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6668" max="6668" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6669" max="6912" width="9.140625" style="7"/>
-    <col min="6913" max="6913" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6914" max="6915" width="9.140625" style="7"/>
-    <col min="6916" max="6916" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6917" max="6919" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6665" max="6665" width="7.265625" style="7" customWidth="1"/>
+    <col min="6666" max="6666" width="4.73046875" style="7" customWidth="1"/>
+    <col min="6667" max="6667" width="10.265625" style="7" customWidth="1"/>
+    <col min="6668" max="6668" width="10.73046875" style="7" customWidth="1"/>
+    <col min="6669" max="6912" width="9.1328125" style="7"/>
+    <col min="6913" max="6913" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6914" max="6915" width="9.1328125" style="7"/>
+    <col min="6916" max="6916" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6917" max="6919" width="7.265625" style="7" customWidth="1"/>
     <col min="6920" max="6920" width="7" style="7" customWidth="1"/>
-    <col min="6921" max="6921" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6922" max="6922" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6923" max="6923" width="10.28515625" style="7" customWidth="1"/>
-    <col min="6924" max="6924" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6925" max="7168" width="9.140625" style="7"/>
-    <col min="7169" max="7169" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7170" max="7171" width="9.140625" style="7"/>
-    <col min="7172" max="7172" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7173" max="7175" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6921" max="6921" width="7.265625" style="7" customWidth="1"/>
+    <col min="6922" max="6922" width="4.73046875" style="7" customWidth="1"/>
+    <col min="6923" max="6923" width="10.265625" style="7" customWidth="1"/>
+    <col min="6924" max="6924" width="10.73046875" style="7" customWidth="1"/>
+    <col min="6925" max="7168" width="9.1328125" style="7"/>
+    <col min="7169" max="7169" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7170" max="7171" width="9.1328125" style="7"/>
+    <col min="7172" max="7172" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7173" max="7175" width="7.265625" style="7" customWidth="1"/>
     <col min="7176" max="7176" width="7" style="7" customWidth="1"/>
-    <col min="7177" max="7177" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7178" max="7178" width="4.7109375" style="7" customWidth="1"/>
-    <col min="7179" max="7179" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7180" max="7180" width="10.7109375" style="7" customWidth="1"/>
-    <col min="7181" max="7424" width="9.140625" style="7"/>
-    <col min="7425" max="7425" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7426" max="7427" width="9.140625" style="7"/>
-    <col min="7428" max="7428" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7429" max="7431" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7177" max="7177" width="7.265625" style="7" customWidth="1"/>
+    <col min="7178" max="7178" width="4.73046875" style="7" customWidth="1"/>
+    <col min="7179" max="7179" width="10.265625" style="7" customWidth="1"/>
+    <col min="7180" max="7180" width="10.73046875" style="7" customWidth="1"/>
+    <col min="7181" max="7424" width="9.1328125" style="7"/>
+    <col min="7425" max="7425" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7426" max="7427" width="9.1328125" style="7"/>
+    <col min="7428" max="7428" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7429" max="7431" width="7.265625" style="7" customWidth="1"/>
     <col min="7432" max="7432" width="7" style="7" customWidth="1"/>
-    <col min="7433" max="7433" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7434" max="7434" width="4.7109375" style="7" customWidth="1"/>
-    <col min="7435" max="7435" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7436" max="7436" width="10.7109375" style="7" customWidth="1"/>
-    <col min="7437" max="7680" width="9.140625" style="7"/>
-    <col min="7681" max="7681" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7682" max="7683" width="9.140625" style="7"/>
-    <col min="7684" max="7684" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7685" max="7687" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7433" max="7433" width="7.265625" style="7" customWidth="1"/>
+    <col min="7434" max="7434" width="4.73046875" style="7" customWidth="1"/>
+    <col min="7435" max="7435" width="10.265625" style="7" customWidth="1"/>
+    <col min="7436" max="7436" width="10.73046875" style="7" customWidth="1"/>
+    <col min="7437" max="7680" width="9.1328125" style="7"/>
+    <col min="7681" max="7681" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7682" max="7683" width="9.1328125" style="7"/>
+    <col min="7684" max="7684" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7685" max="7687" width="7.265625" style="7" customWidth="1"/>
     <col min="7688" max="7688" width="7" style="7" customWidth="1"/>
-    <col min="7689" max="7689" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7690" max="7690" width="4.7109375" style="7" customWidth="1"/>
-    <col min="7691" max="7691" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7692" max="7692" width="10.7109375" style="7" customWidth="1"/>
-    <col min="7693" max="7936" width="9.140625" style="7"/>
-    <col min="7937" max="7937" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7938" max="7939" width="9.140625" style="7"/>
-    <col min="7940" max="7940" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7941" max="7943" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7689" max="7689" width="7.265625" style="7" customWidth="1"/>
+    <col min="7690" max="7690" width="4.73046875" style="7" customWidth="1"/>
+    <col min="7691" max="7691" width="10.265625" style="7" customWidth="1"/>
+    <col min="7692" max="7692" width="10.73046875" style="7" customWidth="1"/>
+    <col min="7693" max="7936" width="9.1328125" style="7"/>
+    <col min="7937" max="7937" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7938" max="7939" width="9.1328125" style="7"/>
+    <col min="7940" max="7940" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7941" max="7943" width="7.265625" style="7" customWidth="1"/>
     <col min="7944" max="7944" width="7" style="7" customWidth="1"/>
-    <col min="7945" max="7945" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7946" max="7946" width="4.7109375" style="7" customWidth="1"/>
-    <col min="7947" max="7947" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7948" max="7948" width="10.7109375" style="7" customWidth="1"/>
-    <col min="7949" max="8192" width="9.140625" style="7"/>
-    <col min="8193" max="8193" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8194" max="8195" width="9.140625" style="7"/>
-    <col min="8196" max="8196" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8197" max="8199" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7945" max="7945" width="7.265625" style="7" customWidth="1"/>
+    <col min="7946" max="7946" width="4.73046875" style="7" customWidth="1"/>
+    <col min="7947" max="7947" width="10.265625" style="7" customWidth="1"/>
+    <col min="7948" max="7948" width="10.73046875" style="7" customWidth="1"/>
+    <col min="7949" max="8192" width="9.1328125" style="7"/>
+    <col min="8193" max="8193" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8194" max="8195" width="9.1328125" style="7"/>
+    <col min="8196" max="8196" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8197" max="8199" width="7.265625" style="7" customWidth="1"/>
     <col min="8200" max="8200" width="7" style="7" customWidth="1"/>
-    <col min="8201" max="8201" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8202" max="8202" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8203" max="8203" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8204" max="8204" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8205" max="8448" width="9.140625" style="7"/>
-    <col min="8449" max="8449" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8450" max="8451" width="9.140625" style="7"/>
-    <col min="8452" max="8452" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8453" max="8455" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8201" max="8201" width="7.265625" style="7" customWidth="1"/>
+    <col min="8202" max="8202" width="4.73046875" style="7" customWidth="1"/>
+    <col min="8203" max="8203" width="10.265625" style="7" customWidth="1"/>
+    <col min="8204" max="8204" width="10.73046875" style="7" customWidth="1"/>
+    <col min="8205" max="8448" width="9.1328125" style="7"/>
+    <col min="8449" max="8449" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8450" max="8451" width="9.1328125" style="7"/>
+    <col min="8452" max="8452" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8453" max="8455" width="7.265625" style="7" customWidth="1"/>
     <col min="8456" max="8456" width="7" style="7" customWidth="1"/>
-    <col min="8457" max="8457" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8458" max="8458" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8459" max="8459" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8460" max="8460" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8461" max="8704" width="9.140625" style="7"/>
-    <col min="8705" max="8705" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8706" max="8707" width="9.140625" style="7"/>
-    <col min="8708" max="8708" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8709" max="8711" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8457" max="8457" width="7.265625" style="7" customWidth="1"/>
+    <col min="8458" max="8458" width="4.73046875" style="7" customWidth="1"/>
+    <col min="8459" max="8459" width="10.265625" style="7" customWidth="1"/>
+    <col min="8460" max="8460" width="10.73046875" style="7" customWidth="1"/>
+    <col min="8461" max="8704" width="9.1328125" style="7"/>
+    <col min="8705" max="8705" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8706" max="8707" width="9.1328125" style="7"/>
+    <col min="8708" max="8708" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8709" max="8711" width="7.265625" style="7" customWidth="1"/>
     <col min="8712" max="8712" width="7" style="7" customWidth="1"/>
-    <col min="8713" max="8713" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8714" max="8714" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8715" max="8715" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8716" max="8716" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8717" max="8960" width="9.140625" style="7"/>
-    <col min="8961" max="8961" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8962" max="8963" width="9.140625" style="7"/>
-    <col min="8964" max="8964" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8965" max="8967" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8713" max="8713" width="7.265625" style="7" customWidth="1"/>
+    <col min="8714" max="8714" width="4.73046875" style="7" customWidth="1"/>
+    <col min="8715" max="8715" width="10.265625" style="7" customWidth="1"/>
+    <col min="8716" max="8716" width="10.73046875" style="7" customWidth="1"/>
+    <col min="8717" max="8960" width="9.1328125" style="7"/>
+    <col min="8961" max="8961" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8962" max="8963" width="9.1328125" style="7"/>
+    <col min="8964" max="8964" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8965" max="8967" width="7.265625" style="7" customWidth="1"/>
     <col min="8968" max="8968" width="7" style="7" customWidth="1"/>
-    <col min="8969" max="8969" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8970" max="8970" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8971" max="8971" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8972" max="8972" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8973" max="9216" width="9.140625" style="7"/>
-    <col min="9217" max="9217" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9218" max="9219" width="9.140625" style="7"/>
-    <col min="9220" max="9220" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9221" max="9223" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8969" max="8969" width="7.265625" style="7" customWidth="1"/>
+    <col min="8970" max="8970" width="4.73046875" style="7" customWidth="1"/>
+    <col min="8971" max="8971" width="10.265625" style="7" customWidth="1"/>
+    <col min="8972" max="8972" width="10.73046875" style="7" customWidth="1"/>
+    <col min="8973" max="9216" width="9.1328125" style="7"/>
+    <col min="9217" max="9217" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9218" max="9219" width="9.1328125" style="7"/>
+    <col min="9220" max="9220" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9221" max="9223" width="7.265625" style="7" customWidth="1"/>
     <col min="9224" max="9224" width="7" style="7" customWidth="1"/>
-    <col min="9225" max="9225" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9226" max="9226" width="4.7109375" style="7" customWidth="1"/>
-    <col min="9227" max="9227" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9228" max="9228" width="10.7109375" style="7" customWidth="1"/>
-    <col min="9229" max="9472" width="9.140625" style="7"/>
-    <col min="9473" max="9473" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9474" max="9475" width="9.140625" style="7"/>
-    <col min="9476" max="9476" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9477" max="9479" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9225" max="9225" width="7.265625" style="7" customWidth="1"/>
+    <col min="9226" max="9226" width="4.73046875" style="7" customWidth="1"/>
+    <col min="9227" max="9227" width="10.265625" style="7" customWidth="1"/>
+    <col min="9228" max="9228" width="10.73046875" style="7" customWidth="1"/>
+    <col min="9229" max="9472" width="9.1328125" style="7"/>
+    <col min="9473" max="9473" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9474" max="9475" width="9.1328125" style="7"/>
+    <col min="9476" max="9476" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9477" max="9479" width="7.265625" style="7" customWidth="1"/>
     <col min="9480" max="9480" width="7" style="7" customWidth="1"/>
-    <col min="9481" max="9481" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9482" max="9482" width="4.7109375" style="7" customWidth="1"/>
-    <col min="9483" max="9483" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9484" max="9484" width="10.7109375" style="7" customWidth="1"/>
-    <col min="9485" max="9728" width="9.140625" style="7"/>
-    <col min="9729" max="9729" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9730" max="9731" width="9.140625" style="7"/>
-    <col min="9732" max="9732" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9733" max="9735" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9481" max="9481" width="7.265625" style="7" customWidth="1"/>
+    <col min="9482" max="9482" width="4.73046875" style="7" customWidth="1"/>
+    <col min="9483" max="9483" width="10.265625" style="7" customWidth="1"/>
+    <col min="9484" max="9484" width="10.73046875" style="7" customWidth="1"/>
+    <col min="9485" max="9728" width="9.1328125" style="7"/>
+    <col min="9729" max="9729" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9730" max="9731" width="9.1328125" style="7"/>
+    <col min="9732" max="9732" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9733" max="9735" width="7.265625" style="7" customWidth="1"/>
     <col min="9736" max="9736" width="7" style="7" customWidth="1"/>
-    <col min="9737" max="9737" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9738" max="9738" width="4.7109375" style="7" customWidth="1"/>
-    <col min="9739" max="9739" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9740" max="9740" width="10.7109375" style="7" customWidth="1"/>
-    <col min="9741" max="9984" width="9.140625" style="7"/>
-    <col min="9985" max="9985" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9986" max="9987" width="9.140625" style="7"/>
-    <col min="9988" max="9988" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9989" max="9991" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9737" max="9737" width="7.265625" style="7" customWidth="1"/>
+    <col min="9738" max="9738" width="4.73046875" style="7" customWidth="1"/>
+    <col min="9739" max="9739" width="10.265625" style="7" customWidth="1"/>
+    <col min="9740" max="9740" width="10.73046875" style="7" customWidth="1"/>
+    <col min="9741" max="9984" width="9.1328125" style="7"/>
+    <col min="9985" max="9985" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9986" max="9987" width="9.1328125" style="7"/>
+    <col min="9988" max="9988" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9989" max="9991" width="7.265625" style="7" customWidth="1"/>
     <col min="9992" max="9992" width="7" style="7" customWidth="1"/>
-    <col min="9993" max="9993" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9994" max="9994" width="4.7109375" style="7" customWidth="1"/>
-    <col min="9995" max="9995" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9996" max="9996" width="10.7109375" style="7" customWidth="1"/>
-    <col min="9997" max="10240" width="9.140625" style="7"/>
-    <col min="10241" max="10241" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10242" max="10243" width="9.140625" style="7"/>
-    <col min="10244" max="10244" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10245" max="10247" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9993" max="9993" width="7.265625" style="7" customWidth="1"/>
+    <col min="9994" max="9994" width="4.73046875" style="7" customWidth="1"/>
+    <col min="9995" max="9995" width="10.265625" style="7" customWidth="1"/>
+    <col min="9996" max="9996" width="10.73046875" style="7" customWidth="1"/>
+    <col min="9997" max="10240" width="9.1328125" style="7"/>
+    <col min="10241" max="10241" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10242" max="10243" width="9.1328125" style="7"/>
+    <col min="10244" max="10244" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10245" max="10247" width="7.265625" style="7" customWidth="1"/>
     <col min="10248" max="10248" width="7" style="7" customWidth="1"/>
-    <col min="10249" max="10249" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10250" max="10250" width="4.7109375" style="7" customWidth="1"/>
-    <col min="10251" max="10251" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10252" max="10252" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10253" max="10496" width="9.140625" style="7"/>
-    <col min="10497" max="10497" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10498" max="10499" width="9.140625" style="7"/>
-    <col min="10500" max="10500" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10501" max="10503" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10249" max="10249" width="7.265625" style="7" customWidth="1"/>
+    <col min="10250" max="10250" width="4.73046875" style="7" customWidth="1"/>
+    <col min="10251" max="10251" width="10.265625" style="7" customWidth="1"/>
+    <col min="10252" max="10252" width="10.73046875" style="7" customWidth="1"/>
+    <col min="10253" max="10496" width="9.1328125" style="7"/>
+    <col min="10497" max="10497" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10498" max="10499" width="9.1328125" style="7"/>
+    <col min="10500" max="10500" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10501" max="10503" width="7.265625" style="7" customWidth="1"/>
     <col min="10504" max="10504" width="7" style="7" customWidth="1"/>
-    <col min="10505" max="10505" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10506" max="10506" width="4.7109375" style="7" customWidth="1"/>
-    <col min="10507" max="10507" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10508" max="10508" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10509" max="10752" width="9.140625" style="7"/>
-    <col min="10753" max="10753" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10754" max="10755" width="9.140625" style="7"/>
-    <col min="10756" max="10756" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10757" max="10759" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10505" max="10505" width="7.265625" style="7" customWidth="1"/>
+    <col min="10506" max="10506" width="4.73046875" style="7" customWidth="1"/>
+    <col min="10507" max="10507" width="10.265625" style="7" customWidth="1"/>
+    <col min="10508" max="10508" width="10.73046875" style="7" customWidth="1"/>
+    <col min="10509" max="10752" width="9.1328125" style="7"/>
+    <col min="10753" max="10753" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10754" max="10755" width="9.1328125" style="7"/>
+    <col min="10756" max="10756" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10757" max="10759" width="7.265625" style="7" customWidth="1"/>
     <col min="10760" max="10760" width="7" style="7" customWidth="1"/>
-    <col min="10761" max="10761" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10762" max="10762" width="4.7109375" style="7" customWidth="1"/>
-    <col min="10763" max="10763" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10764" max="10764" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10765" max="11008" width="9.140625" style="7"/>
-    <col min="11009" max="11009" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11010" max="11011" width="9.140625" style="7"/>
-    <col min="11012" max="11012" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11013" max="11015" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10761" max="10761" width="7.265625" style="7" customWidth="1"/>
+    <col min="10762" max="10762" width="4.73046875" style="7" customWidth="1"/>
+    <col min="10763" max="10763" width="10.265625" style="7" customWidth="1"/>
+    <col min="10764" max="10764" width="10.73046875" style="7" customWidth="1"/>
+    <col min="10765" max="11008" width="9.1328125" style="7"/>
+    <col min="11009" max="11009" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11010" max="11011" width="9.1328125" style="7"/>
+    <col min="11012" max="11012" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11013" max="11015" width="7.265625" style="7" customWidth="1"/>
     <col min="11016" max="11016" width="7" style="7" customWidth="1"/>
-    <col min="11017" max="11017" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11018" max="11018" width="4.7109375" style="7" customWidth="1"/>
-    <col min="11019" max="11019" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11020" max="11020" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11021" max="11264" width="9.140625" style="7"/>
-    <col min="11265" max="11265" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11266" max="11267" width="9.140625" style="7"/>
-    <col min="11268" max="11268" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11269" max="11271" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11017" max="11017" width="7.265625" style="7" customWidth="1"/>
+    <col min="11018" max="11018" width="4.73046875" style="7" customWidth="1"/>
+    <col min="11019" max="11019" width="10.265625" style="7" customWidth="1"/>
+    <col min="11020" max="11020" width="10.73046875" style="7" customWidth="1"/>
+    <col min="11021" max="11264" width="9.1328125" style="7"/>
+    <col min="11265" max="11265" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11266" max="11267" width="9.1328125" style="7"/>
+    <col min="11268" max="11268" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11269" max="11271" width="7.265625" style="7" customWidth="1"/>
     <col min="11272" max="11272" width="7" style="7" customWidth="1"/>
-    <col min="11273" max="11273" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11274" max="11274" width="4.7109375" style="7" customWidth="1"/>
-    <col min="11275" max="11275" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11276" max="11276" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11277" max="11520" width="9.140625" style="7"/>
-    <col min="11521" max="11521" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11522" max="11523" width="9.140625" style="7"/>
-    <col min="11524" max="11524" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11525" max="11527" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11273" max="11273" width="7.265625" style="7" customWidth="1"/>
+    <col min="11274" max="11274" width="4.73046875" style="7" customWidth="1"/>
+    <col min="11275" max="11275" width="10.265625" style="7" customWidth="1"/>
+    <col min="11276" max="11276" width="10.73046875" style="7" customWidth="1"/>
+    <col min="11277" max="11520" width="9.1328125" style="7"/>
+    <col min="11521" max="11521" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11522" max="11523" width="9.1328125" style="7"/>
+    <col min="11524" max="11524" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11525" max="11527" width="7.265625" style="7" customWidth="1"/>
     <col min="11528" max="11528" width="7" style="7" customWidth="1"/>
-    <col min="11529" max="11529" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11530" max="11530" width="4.7109375" style="7" customWidth="1"/>
-    <col min="11531" max="11531" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11532" max="11532" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11533" max="11776" width="9.140625" style="7"/>
-    <col min="11777" max="11777" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11778" max="11779" width="9.140625" style="7"/>
-    <col min="11780" max="11780" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11781" max="11783" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11529" max="11529" width="7.265625" style="7" customWidth="1"/>
+    <col min="11530" max="11530" width="4.73046875" style="7" customWidth="1"/>
+    <col min="11531" max="11531" width="10.265625" style="7" customWidth="1"/>
+    <col min="11532" max="11532" width="10.73046875" style="7" customWidth="1"/>
+    <col min="11533" max="11776" width="9.1328125" style="7"/>
+    <col min="11777" max="11777" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11778" max="11779" width="9.1328125" style="7"/>
+    <col min="11780" max="11780" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11781" max="11783" width="7.265625" style="7" customWidth="1"/>
     <col min="11784" max="11784" width="7" style="7" customWidth="1"/>
-    <col min="11785" max="11785" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11786" max="11786" width="4.7109375" style="7" customWidth="1"/>
-    <col min="11787" max="11787" width="10.28515625" style="7" customWidth="1"/>
-    <col min="11788" max="11788" width="10.7109375" style="7" customWidth="1"/>
-    <col min="11789" max="12032" width="9.140625" style="7"/>
-    <col min="12033" max="12033" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12034" max="12035" width="9.140625" style="7"/>
-    <col min="12036" max="12036" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12037" max="12039" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11785" max="11785" width="7.265625" style="7" customWidth="1"/>
+    <col min="11786" max="11786" width="4.73046875" style="7" customWidth="1"/>
+    <col min="11787" max="11787" width="10.265625" style="7" customWidth="1"/>
+    <col min="11788" max="11788" width="10.73046875" style="7" customWidth="1"/>
+    <col min="11789" max="12032" width="9.1328125" style="7"/>
+    <col min="12033" max="12033" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12034" max="12035" width="9.1328125" style="7"/>
+    <col min="12036" max="12036" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12037" max="12039" width="7.265625" style="7" customWidth="1"/>
     <col min="12040" max="12040" width="7" style="7" customWidth="1"/>
-    <col min="12041" max="12041" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12042" max="12042" width="4.7109375" style="7" customWidth="1"/>
-    <col min="12043" max="12043" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12044" max="12044" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12045" max="12288" width="9.140625" style="7"/>
-    <col min="12289" max="12289" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12290" max="12291" width="9.140625" style="7"/>
-    <col min="12292" max="12292" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12293" max="12295" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12041" max="12041" width="7.265625" style="7" customWidth="1"/>
+    <col min="12042" max="12042" width="4.73046875" style="7" customWidth="1"/>
+    <col min="12043" max="12043" width="10.265625" style="7" customWidth="1"/>
+    <col min="12044" max="12044" width="10.73046875" style="7" customWidth="1"/>
+    <col min="12045" max="12288" width="9.1328125" style="7"/>
+    <col min="12289" max="12289" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12290" max="12291" width="9.1328125" style="7"/>
+    <col min="12292" max="12292" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12293" max="12295" width="7.265625" style="7" customWidth="1"/>
     <col min="12296" max="12296" width="7" style="7" customWidth="1"/>
-    <col min="12297" max="12297" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12298" max="12298" width="4.7109375" style="7" customWidth="1"/>
-    <col min="12299" max="12299" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12300" max="12300" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12301" max="12544" width="9.140625" style="7"/>
-    <col min="12545" max="12545" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12546" max="12547" width="9.140625" style="7"/>
-    <col min="12548" max="12548" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12549" max="12551" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12297" max="12297" width="7.265625" style="7" customWidth="1"/>
+    <col min="12298" max="12298" width="4.73046875" style="7" customWidth="1"/>
+    <col min="12299" max="12299" width="10.265625" style="7" customWidth="1"/>
+    <col min="12300" max="12300" width="10.73046875" style="7" customWidth="1"/>
+    <col min="12301" max="12544" width="9.1328125" style="7"/>
+    <col min="12545" max="12545" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12546" max="12547" width="9.1328125" style="7"/>
+    <col min="12548" max="12548" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12549" max="12551" width="7.265625" style="7" customWidth="1"/>
     <col min="12552" max="12552" width="7" style="7" customWidth="1"/>
-    <col min="12553" max="12553" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12554" max="12554" width="4.7109375" style="7" customWidth="1"/>
-    <col min="12555" max="12555" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12556" max="12556" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12557" max="12800" width="9.140625" style="7"/>
-    <col min="12801" max="12801" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12802" max="12803" width="9.140625" style="7"/>
-    <col min="12804" max="12804" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12805" max="12807" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12553" max="12553" width="7.265625" style="7" customWidth="1"/>
+    <col min="12554" max="12554" width="4.73046875" style="7" customWidth="1"/>
+    <col min="12555" max="12555" width="10.265625" style="7" customWidth="1"/>
+    <col min="12556" max="12556" width="10.73046875" style="7" customWidth="1"/>
+    <col min="12557" max="12800" width="9.1328125" style="7"/>
+    <col min="12801" max="12801" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12802" max="12803" width="9.1328125" style="7"/>
+    <col min="12804" max="12804" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12805" max="12807" width="7.265625" style="7" customWidth="1"/>
     <col min="12808" max="12808" width="7" style="7" customWidth="1"/>
-    <col min="12809" max="12809" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12810" max="12810" width="4.7109375" style="7" customWidth="1"/>
-    <col min="12811" max="12811" width="10.28515625" style="7" customWidth="1"/>
-    <col min="12812" max="12812" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12813" max="13056" width="9.140625" style="7"/>
-    <col min="13057" max="13057" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13058" max="13059" width="9.140625" style="7"/>
-    <col min="13060" max="13060" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13061" max="13063" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12809" max="12809" width="7.265625" style="7" customWidth="1"/>
+    <col min="12810" max="12810" width="4.73046875" style="7" customWidth="1"/>
+    <col min="12811" max="12811" width="10.265625" style="7" customWidth="1"/>
+    <col min="12812" max="12812" width="10.73046875" style="7" customWidth="1"/>
+    <col min="12813" max="13056" width="9.1328125" style="7"/>
+    <col min="13057" max="13057" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13058" max="13059" width="9.1328125" style="7"/>
+    <col min="13060" max="13060" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13061" max="13063" width="7.265625" style="7" customWidth="1"/>
     <col min="13064" max="13064" width="7" style="7" customWidth="1"/>
-    <col min="13065" max="13065" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13066" max="13066" width="4.7109375" style="7" customWidth="1"/>
-    <col min="13067" max="13067" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13068" max="13068" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13069" max="13312" width="9.140625" style="7"/>
-    <col min="13313" max="13313" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13314" max="13315" width="9.140625" style="7"/>
-    <col min="13316" max="13316" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13317" max="13319" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13065" max="13065" width="7.265625" style="7" customWidth="1"/>
+    <col min="13066" max="13066" width="4.73046875" style="7" customWidth="1"/>
+    <col min="13067" max="13067" width="10.265625" style="7" customWidth="1"/>
+    <col min="13068" max="13068" width="10.73046875" style="7" customWidth="1"/>
+    <col min="13069" max="13312" width="9.1328125" style="7"/>
+    <col min="13313" max="13313" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13314" max="13315" width="9.1328125" style="7"/>
+    <col min="13316" max="13316" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13317" max="13319" width="7.265625" style="7" customWidth="1"/>
     <col min="13320" max="13320" width="7" style="7" customWidth="1"/>
-    <col min="13321" max="13321" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13322" max="13322" width="4.7109375" style="7" customWidth="1"/>
-    <col min="13323" max="13323" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13324" max="13324" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13325" max="13568" width="9.140625" style="7"/>
-    <col min="13569" max="13569" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13570" max="13571" width="9.140625" style="7"/>
-    <col min="13572" max="13572" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13573" max="13575" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13321" max="13321" width="7.265625" style="7" customWidth="1"/>
+    <col min="13322" max="13322" width="4.73046875" style="7" customWidth="1"/>
+    <col min="13323" max="13323" width="10.265625" style="7" customWidth="1"/>
+    <col min="13324" max="13324" width="10.73046875" style="7" customWidth="1"/>
+    <col min="13325" max="13568" width="9.1328125" style="7"/>
+    <col min="13569" max="13569" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13570" max="13571" width="9.1328125" style="7"/>
+    <col min="13572" max="13572" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13573" max="13575" width="7.265625" style="7" customWidth="1"/>
     <col min="13576" max="13576" width="7" style="7" customWidth="1"/>
-    <col min="13577" max="13577" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13578" max="13578" width="4.7109375" style="7" customWidth="1"/>
-    <col min="13579" max="13579" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13580" max="13580" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13581" max="13824" width="9.140625" style="7"/>
-    <col min="13825" max="13825" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13826" max="13827" width="9.140625" style="7"/>
-    <col min="13828" max="13828" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13829" max="13831" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13577" max="13577" width="7.265625" style="7" customWidth="1"/>
+    <col min="13578" max="13578" width="4.73046875" style="7" customWidth="1"/>
+    <col min="13579" max="13579" width="10.265625" style="7" customWidth="1"/>
+    <col min="13580" max="13580" width="10.73046875" style="7" customWidth="1"/>
+    <col min="13581" max="13824" width="9.1328125" style="7"/>
+    <col min="13825" max="13825" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13826" max="13827" width="9.1328125" style="7"/>
+    <col min="13828" max="13828" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13829" max="13831" width="7.265625" style="7" customWidth="1"/>
     <col min="13832" max="13832" width="7" style="7" customWidth="1"/>
-    <col min="13833" max="13833" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13834" max="13834" width="4.7109375" style="7" customWidth="1"/>
-    <col min="13835" max="13835" width="10.28515625" style="7" customWidth="1"/>
-    <col min="13836" max="13836" width="10.7109375" style="7" customWidth="1"/>
-    <col min="13837" max="14080" width="9.140625" style="7"/>
-    <col min="14081" max="14081" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14082" max="14083" width="9.140625" style="7"/>
-    <col min="14084" max="14084" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14085" max="14087" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13833" max="13833" width="7.265625" style="7" customWidth="1"/>
+    <col min="13834" max="13834" width="4.73046875" style="7" customWidth="1"/>
+    <col min="13835" max="13835" width="10.265625" style="7" customWidth="1"/>
+    <col min="13836" max="13836" width="10.73046875" style="7" customWidth="1"/>
+    <col min="13837" max="14080" width="9.1328125" style="7"/>
+    <col min="14081" max="14081" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14082" max="14083" width="9.1328125" style="7"/>
+    <col min="14084" max="14084" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14085" max="14087" width="7.265625" style="7" customWidth="1"/>
     <col min="14088" max="14088" width="7" style="7" customWidth="1"/>
-    <col min="14089" max="14089" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14090" max="14090" width="4.7109375" style="7" customWidth="1"/>
-    <col min="14091" max="14091" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14092" max="14092" width="10.7109375" style="7" customWidth="1"/>
-    <col min="14093" max="14336" width="9.140625" style="7"/>
-    <col min="14337" max="14337" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14338" max="14339" width="9.140625" style="7"/>
-    <col min="14340" max="14340" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14341" max="14343" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14089" max="14089" width="7.265625" style="7" customWidth="1"/>
+    <col min="14090" max="14090" width="4.73046875" style="7" customWidth="1"/>
+    <col min="14091" max="14091" width="10.265625" style="7" customWidth="1"/>
+    <col min="14092" max="14092" width="10.73046875" style="7" customWidth="1"/>
+    <col min="14093" max="14336" width="9.1328125" style="7"/>
+    <col min="14337" max="14337" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14338" max="14339" width="9.1328125" style="7"/>
+    <col min="14340" max="14340" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14341" max="14343" width="7.265625" style="7" customWidth="1"/>
     <col min="14344" max="14344" width="7" style="7" customWidth="1"/>
-    <col min="14345" max="14345" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14346" max="14346" width="4.7109375" style="7" customWidth="1"/>
-    <col min="14347" max="14347" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14348" max="14348" width="10.7109375" style="7" customWidth="1"/>
-    <col min="14349" max="14592" width="9.140625" style="7"/>
-    <col min="14593" max="14593" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14594" max="14595" width="9.140625" style="7"/>
-    <col min="14596" max="14596" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14597" max="14599" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14345" max="14345" width="7.265625" style="7" customWidth="1"/>
+    <col min="14346" max="14346" width="4.73046875" style="7" customWidth="1"/>
+    <col min="14347" max="14347" width="10.265625" style="7" customWidth="1"/>
+    <col min="14348" max="14348" width="10.73046875" style="7" customWidth="1"/>
+    <col min="14349" max="14592" width="9.1328125" style="7"/>
+    <col min="14593" max="14593" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14594" max="14595" width="9.1328125" style="7"/>
+    <col min="14596" max="14596" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14597" max="14599" width="7.265625" style="7" customWidth="1"/>
     <col min="14600" max="14600" width="7" style="7" customWidth="1"/>
-    <col min="14601" max="14601" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14602" max="14602" width="4.7109375" style="7" customWidth="1"/>
-    <col min="14603" max="14603" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14604" max="14604" width="10.7109375" style="7" customWidth="1"/>
-    <col min="14605" max="14848" width="9.140625" style="7"/>
-    <col min="14849" max="14849" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14850" max="14851" width="9.140625" style="7"/>
-    <col min="14852" max="14852" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14853" max="14855" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14601" max="14601" width="7.265625" style="7" customWidth="1"/>
+    <col min="14602" max="14602" width="4.73046875" style="7" customWidth="1"/>
+    <col min="14603" max="14603" width="10.265625" style="7" customWidth="1"/>
+    <col min="14604" max="14604" width="10.73046875" style="7" customWidth="1"/>
+    <col min="14605" max="14848" width="9.1328125" style="7"/>
+    <col min="14849" max="14849" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14850" max="14851" width="9.1328125" style="7"/>
+    <col min="14852" max="14852" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14853" max="14855" width="7.265625" style="7" customWidth="1"/>
     <col min="14856" max="14856" width="7" style="7" customWidth="1"/>
-    <col min="14857" max="14857" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14858" max="14858" width="4.7109375" style="7" customWidth="1"/>
-    <col min="14859" max="14859" width="10.28515625" style="7" customWidth="1"/>
-    <col min="14860" max="14860" width="10.7109375" style="7" customWidth="1"/>
-    <col min="14861" max="15104" width="9.140625" style="7"/>
-    <col min="15105" max="15105" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15106" max="15107" width="9.140625" style="7"/>
-    <col min="15108" max="15108" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15109" max="15111" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14857" max="14857" width="7.265625" style="7" customWidth="1"/>
+    <col min="14858" max="14858" width="4.73046875" style="7" customWidth="1"/>
+    <col min="14859" max="14859" width="10.265625" style="7" customWidth="1"/>
+    <col min="14860" max="14860" width="10.73046875" style="7" customWidth="1"/>
+    <col min="14861" max="15104" width="9.1328125" style="7"/>
+    <col min="15105" max="15105" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15106" max="15107" width="9.1328125" style="7"/>
+    <col min="15108" max="15108" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15109" max="15111" width="7.265625" style="7" customWidth="1"/>
     <col min="15112" max="15112" width="7" style="7" customWidth="1"/>
-    <col min="15113" max="15113" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15114" max="15114" width="4.7109375" style="7" customWidth="1"/>
-    <col min="15115" max="15115" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15116" max="15116" width="10.7109375" style="7" customWidth="1"/>
-    <col min="15117" max="15360" width="9.140625" style="7"/>
-    <col min="15361" max="15361" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15362" max="15363" width="9.140625" style="7"/>
-    <col min="15364" max="15364" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15365" max="15367" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15113" max="15113" width="7.265625" style="7" customWidth="1"/>
+    <col min="15114" max="15114" width="4.73046875" style="7" customWidth="1"/>
+    <col min="15115" max="15115" width="10.265625" style="7" customWidth="1"/>
+    <col min="15116" max="15116" width="10.73046875" style="7" customWidth="1"/>
+    <col min="15117" max="15360" width="9.1328125" style="7"/>
+    <col min="15361" max="15361" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15362" max="15363" width="9.1328125" style="7"/>
+    <col min="15364" max="15364" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15365" max="15367" width="7.265625" style="7" customWidth="1"/>
     <col min="15368" max="15368" width="7" style="7" customWidth="1"/>
-    <col min="15369" max="15369" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15370" max="15370" width="4.7109375" style="7" customWidth="1"/>
-    <col min="15371" max="15371" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15372" max="15372" width="10.7109375" style="7" customWidth="1"/>
-    <col min="15373" max="15616" width="9.140625" style="7"/>
-    <col min="15617" max="15617" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15618" max="15619" width="9.140625" style="7"/>
-    <col min="15620" max="15620" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15621" max="15623" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15369" max="15369" width="7.265625" style="7" customWidth="1"/>
+    <col min="15370" max="15370" width="4.73046875" style="7" customWidth="1"/>
+    <col min="15371" max="15371" width="10.265625" style="7" customWidth="1"/>
+    <col min="15372" max="15372" width="10.73046875" style="7" customWidth="1"/>
+    <col min="15373" max="15616" width="9.1328125" style="7"/>
+    <col min="15617" max="15617" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15618" max="15619" width="9.1328125" style="7"/>
+    <col min="15620" max="15620" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15621" max="15623" width="7.265625" style="7" customWidth="1"/>
     <col min="15624" max="15624" width="7" style="7" customWidth="1"/>
-    <col min="15625" max="15625" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15626" max="15626" width="4.7109375" style="7" customWidth="1"/>
-    <col min="15627" max="15627" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15628" max="15628" width="10.7109375" style="7" customWidth="1"/>
-    <col min="15629" max="15872" width="9.140625" style="7"/>
-    <col min="15873" max="15873" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15874" max="15875" width="9.140625" style="7"/>
-    <col min="15876" max="15876" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15877" max="15879" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15625" max="15625" width="7.265625" style="7" customWidth="1"/>
+    <col min="15626" max="15626" width="4.73046875" style="7" customWidth="1"/>
+    <col min="15627" max="15627" width="10.265625" style="7" customWidth="1"/>
+    <col min="15628" max="15628" width="10.73046875" style="7" customWidth="1"/>
+    <col min="15629" max="15872" width="9.1328125" style="7"/>
+    <col min="15873" max="15873" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15874" max="15875" width="9.1328125" style="7"/>
+    <col min="15876" max="15876" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15877" max="15879" width="7.265625" style="7" customWidth="1"/>
     <col min="15880" max="15880" width="7" style="7" customWidth="1"/>
-    <col min="15881" max="15881" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15882" max="15882" width="4.7109375" style="7" customWidth="1"/>
-    <col min="15883" max="15883" width="10.28515625" style="7" customWidth="1"/>
-    <col min="15884" max="15884" width="10.7109375" style="7" customWidth="1"/>
-    <col min="15885" max="16128" width="9.140625" style="7"/>
-    <col min="16129" max="16129" width="5.7109375" style="7" customWidth="1"/>
-    <col min="16130" max="16131" width="9.140625" style="7"/>
-    <col min="16132" max="16132" width="2.7109375" style="7" customWidth="1"/>
-    <col min="16133" max="16135" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15881" max="15881" width="7.265625" style="7" customWidth="1"/>
+    <col min="15882" max="15882" width="4.73046875" style="7" customWidth="1"/>
+    <col min="15883" max="15883" width="10.265625" style="7" customWidth="1"/>
+    <col min="15884" max="15884" width="10.73046875" style="7" customWidth="1"/>
+    <col min="15885" max="16128" width="9.1328125" style="7"/>
+    <col min="16129" max="16129" width="5.73046875" style="7" customWidth="1"/>
+    <col min="16130" max="16131" width="9.1328125" style="7"/>
+    <col min="16132" max="16132" width="2.73046875" style="7" customWidth="1"/>
+    <col min="16133" max="16135" width="7.265625" style="7" customWidth="1"/>
     <col min="16136" max="16136" width="7" style="7" customWidth="1"/>
-    <col min="16137" max="16137" width="7.28515625" style="7" customWidth="1"/>
-    <col min="16138" max="16138" width="4.7109375" style="7" customWidth="1"/>
-    <col min="16139" max="16139" width="10.28515625" style="7" customWidth="1"/>
-    <col min="16140" max="16140" width="10.7109375" style="7" customWidth="1"/>
-    <col min="16141" max="16384" width="9.140625" style="7"/>
+    <col min="16137" max="16137" width="7.265625" style="7" customWidth="1"/>
+    <col min="16138" max="16138" width="4.73046875" style="7" customWidth="1"/>
+    <col min="16139" max="16139" width="10.265625" style="7" customWidth="1"/>
+    <col min="16140" max="16140" width="10.73046875" style="7" customWidth="1"/>
+    <col min="16141" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>81</v>
       </c>
@@ -8997,7 +9004,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
@@ -9009,7 +9016,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -9026,15 +9033,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -9043,22 +9050,22 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="56"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -9075,7 +9082,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -9090,44 +9097,44 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90" t="s">
         <v>73</v>
       </c>
@@ -9143,7 +9150,7 @@
       <c r="K12" s="92"/>
       <c r="L12" s="93"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -9157,7 +9164,7 @@
       <c r="K13" s="95"/>
       <c r="L13" s="96"/>
     </row>
-    <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="94"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -9171,7 +9178,7 @@
       <c r="K14" s="47"/>
       <c r="L14" s="97"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>40</v>
       </c>
@@ -9187,7 +9194,7 @@
       <c r="K15" s="145"/>
       <c r="L15" s="146"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>74</v>
       </c>
@@ -9202,7 +9209,7 @@
       <c r="K16" s="47"/>
       <c r="L16" s="47"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -9218,7 +9225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="102" t="s">
         <v>83</v>
       </c>
@@ -9239,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="102" t="s">
         <v>161</v>
       </c>
@@ -9260,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="102" t="s">
         <v>84</v>
       </c>
@@ -9281,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="102" t="s">
         <v>162</v>
       </c>
@@ -9299,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="106" t="s">
         <v>85</v>
       </c>
@@ -9310,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="109" t="s">
         <v>86</v>
       </c>
@@ -9325,12 +9332,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="113" t="s">
         <v>87</v>
       </c>
@@ -9344,7 +9351,7 @@
       <c r="J25" s="115"/>
       <c r="K25" s="116"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="137" t="s">
         <v>77</v>
       </c>
@@ -9369,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -9381,7 +9388,7 @@
       <c r="J27" s="115"/>
       <c r="K27" s="116"/>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -9393,7 +9400,7 @@
       <c r="J28" s="115"/>
       <c r="K28" s="47"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -9407,7 +9414,7 @@
       <c r="J29" s="119"/>
       <c r="K29" s="360"/>
     </row>
-    <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -9418,7 +9425,7 @@
       <c r="I30" s="47"/>
       <c r="L30" s="114"/>
     </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="120" t="s">
         <v>79</v>
       </c>
@@ -9433,8 +9440,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="53" t="s">
         <v>80</v>
       </c>
@@ -9445,8 +9452,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -9480,600 +9487,600 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="7"/>
+    <col min="3" max="3" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
     <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14" max="256" width="9.140625" style="7"/>
-    <col min="257" max="257" width="5.7109375" style="7" customWidth="1"/>
-    <col min="258" max="259" width="9.140625" style="7"/>
-    <col min="260" max="260" width="2.7109375" style="7" customWidth="1"/>
-    <col min="261" max="263" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" style="7" customWidth="1"/>
+    <col min="14" max="256" width="9.1328125" style="7"/>
+    <col min="257" max="257" width="5.73046875" style="7" customWidth="1"/>
+    <col min="258" max="259" width="9.1328125" style="7"/>
+    <col min="260" max="260" width="2.73046875" style="7" customWidth="1"/>
+    <col min="261" max="263" width="7.265625" style="7" customWidth="1"/>
     <col min="264" max="264" width="7" style="7" customWidth="1"/>
-    <col min="265" max="267" width="7.28515625" style="7" customWidth="1"/>
-    <col min="268" max="268" width="10.5703125" style="7" customWidth="1"/>
-    <col min="269" max="269" width="7.28515625" style="7" customWidth="1"/>
-    <col min="270" max="512" width="9.140625" style="7"/>
-    <col min="513" max="513" width="5.7109375" style="7" customWidth="1"/>
-    <col min="514" max="515" width="9.140625" style="7"/>
-    <col min="516" max="516" width="2.7109375" style="7" customWidth="1"/>
-    <col min="517" max="519" width="7.28515625" style="7" customWidth="1"/>
+    <col min="265" max="267" width="7.265625" style="7" customWidth="1"/>
+    <col min="268" max="268" width="10.59765625" style="7" customWidth="1"/>
+    <col min="269" max="269" width="7.265625" style="7" customWidth="1"/>
+    <col min="270" max="512" width="9.1328125" style="7"/>
+    <col min="513" max="513" width="5.73046875" style="7" customWidth="1"/>
+    <col min="514" max="515" width="9.1328125" style="7"/>
+    <col min="516" max="516" width="2.73046875" style="7" customWidth="1"/>
+    <col min="517" max="519" width="7.265625" style="7" customWidth="1"/>
     <col min="520" max="520" width="7" style="7" customWidth="1"/>
-    <col min="521" max="523" width="7.28515625" style="7" customWidth="1"/>
-    <col min="524" max="524" width="10.5703125" style="7" customWidth="1"/>
-    <col min="525" max="525" width="7.28515625" style="7" customWidth="1"/>
-    <col min="526" max="768" width="9.140625" style="7"/>
-    <col min="769" max="769" width="5.7109375" style="7" customWidth="1"/>
-    <col min="770" max="771" width="9.140625" style="7"/>
-    <col min="772" max="772" width="2.7109375" style="7" customWidth="1"/>
-    <col min="773" max="775" width="7.28515625" style="7" customWidth="1"/>
+    <col min="521" max="523" width="7.265625" style="7" customWidth="1"/>
+    <col min="524" max="524" width="10.59765625" style="7" customWidth="1"/>
+    <col min="525" max="525" width="7.265625" style="7" customWidth="1"/>
+    <col min="526" max="768" width="9.1328125" style="7"/>
+    <col min="769" max="769" width="5.73046875" style="7" customWidth="1"/>
+    <col min="770" max="771" width="9.1328125" style="7"/>
+    <col min="772" max="772" width="2.73046875" style="7" customWidth="1"/>
+    <col min="773" max="775" width="7.265625" style="7" customWidth="1"/>
     <col min="776" max="776" width="7" style="7" customWidth="1"/>
-    <col min="777" max="779" width="7.28515625" style="7" customWidth="1"/>
-    <col min="780" max="780" width="10.5703125" style="7" customWidth="1"/>
-    <col min="781" max="781" width="7.28515625" style="7" customWidth="1"/>
-    <col min="782" max="1024" width="9.140625" style="7"/>
-    <col min="1025" max="1025" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1026" max="1027" width="9.140625" style="7"/>
-    <col min="1028" max="1028" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1029" max="1031" width="7.28515625" style="7" customWidth="1"/>
+    <col min="777" max="779" width="7.265625" style="7" customWidth="1"/>
+    <col min="780" max="780" width="10.59765625" style="7" customWidth="1"/>
+    <col min="781" max="781" width="7.265625" style="7" customWidth="1"/>
+    <col min="782" max="1024" width="9.1328125" style="7"/>
+    <col min="1025" max="1025" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1026" max="1027" width="9.1328125" style="7"/>
+    <col min="1028" max="1028" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1029" max="1031" width="7.265625" style="7" customWidth="1"/>
     <col min="1032" max="1032" width="7" style="7" customWidth="1"/>
-    <col min="1033" max="1035" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1036" max="1036" width="10.5703125" style="7" customWidth="1"/>
-    <col min="1037" max="1037" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1038" max="1280" width="9.140625" style="7"/>
-    <col min="1281" max="1281" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1282" max="1283" width="9.140625" style="7"/>
-    <col min="1284" max="1284" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1285" max="1287" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1033" max="1035" width="7.265625" style="7" customWidth="1"/>
+    <col min="1036" max="1036" width="10.59765625" style="7" customWidth="1"/>
+    <col min="1037" max="1037" width="7.265625" style="7" customWidth="1"/>
+    <col min="1038" max="1280" width="9.1328125" style="7"/>
+    <col min="1281" max="1281" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1282" max="1283" width="9.1328125" style="7"/>
+    <col min="1284" max="1284" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1285" max="1287" width="7.265625" style="7" customWidth="1"/>
     <col min="1288" max="1288" width="7" style="7" customWidth="1"/>
-    <col min="1289" max="1291" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1292" max="1292" width="10.5703125" style="7" customWidth="1"/>
-    <col min="1293" max="1293" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1294" max="1536" width="9.140625" style="7"/>
-    <col min="1537" max="1537" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1538" max="1539" width="9.140625" style="7"/>
-    <col min="1540" max="1540" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1541" max="1543" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1289" max="1291" width="7.265625" style="7" customWidth="1"/>
+    <col min="1292" max="1292" width="10.59765625" style="7" customWidth="1"/>
+    <col min="1293" max="1293" width="7.265625" style="7" customWidth="1"/>
+    <col min="1294" max="1536" width="9.1328125" style="7"/>
+    <col min="1537" max="1537" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1538" max="1539" width="9.1328125" style="7"/>
+    <col min="1540" max="1540" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1541" max="1543" width="7.265625" style="7" customWidth="1"/>
     <col min="1544" max="1544" width="7" style="7" customWidth="1"/>
-    <col min="1545" max="1547" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1548" max="1548" width="10.5703125" style="7" customWidth="1"/>
-    <col min="1549" max="1549" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1550" max="1792" width="9.140625" style="7"/>
-    <col min="1793" max="1793" width="5.7109375" style="7" customWidth="1"/>
-    <col min="1794" max="1795" width="9.140625" style="7"/>
-    <col min="1796" max="1796" width="2.7109375" style="7" customWidth="1"/>
-    <col min="1797" max="1799" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1545" max="1547" width="7.265625" style="7" customWidth="1"/>
+    <col min="1548" max="1548" width="10.59765625" style="7" customWidth="1"/>
+    <col min="1549" max="1549" width="7.265625" style="7" customWidth="1"/>
+    <col min="1550" max="1792" width="9.1328125" style="7"/>
+    <col min="1793" max="1793" width="5.73046875" style="7" customWidth="1"/>
+    <col min="1794" max="1795" width="9.1328125" style="7"/>
+    <col min="1796" max="1796" width="2.73046875" style="7" customWidth="1"/>
+    <col min="1797" max="1799" width="7.265625" style="7" customWidth="1"/>
     <col min="1800" max="1800" width="7" style="7" customWidth="1"/>
-    <col min="1801" max="1803" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1804" max="1804" width="10.5703125" style="7" customWidth="1"/>
-    <col min="1805" max="1805" width="7.28515625" style="7" customWidth="1"/>
-    <col min="1806" max="2048" width="9.140625" style="7"/>
-    <col min="2049" max="2049" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2050" max="2051" width="9.140625" style="7"/>
-    <col min="2052" max="2052" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2053" max="2055" width="7.28515625" style="7" customWidth="1"/>
+    <col min="1801" max="1803" width="7.265625" style="7" customWidth="1"/>
+    <col min="1804" max="1804" width="10.59765625" style="7" customWidth="1"/>
+    <col min="1805" max="1805" width="7.265625" style="7" customWidth="1"/>
+    <col min="1806" max="2048" width="9.1328125" style="7"/>
+    <col min="2049" max="2049" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2050" max="2051" width="9.1328125" style="7"/>
+    <col min="2052" max="2052" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2053" max="2055" width="7.265625" style="7" customWidth="1"/>
     <col min="2056" max="2056" width="7" style="7" customWidth="1"/>
-    <col min="2057" max="2059" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2060" max="2060" width="10.5703125" style="7" customWidth="1"/>
-    <col min="2061" max="2061" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2062" max="2304" width="9.140625" style="7"/>
-    <col min="2305" max="2305" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2306" max="2307" width="9.140625" style="7"/>
-    <col min="2308" max="2308" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2309" max="2311" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2057" max="2059" width="7.265625" style="7" customWidth="1"/>
+    <col min="2060" max="2060" width="10.59765625" style="7" customWidth="1"/>
+    <col min="2061" max="2061" width="7.265625" style="7" customWidth="1"/>
+    <col min="2062" max="2304" width="9.1328125" style="7"/>
+    <col min="2305" max="2305" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2306" max="2307" width="9.1328125" style="7"/>
+    <col min="2308" max="2308" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2309" max="2311" width="7.265625" style="7" customWidth="1"/>
     <col min="2312" max="2312" width="7" style="7" customWidth="1"/>
-    <col min="2313" max="2315" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2316" max="2316" width="10.5703125" style="7" customWidth="1"/>
-    <col min="2317" max="2317" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2318" max="2560" width="9.140625" style="7"/>
-    <col min="2561" max="2561" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2562" max="2563" width="9.140625" style="7"/>
-    <col min="2564" max="2564" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2565" max="2567" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2313" max="2315" width="7.265625" style="7" customWidth="1"/>
+    <col min="2316" max="2316" width="10.59765625" style="7" customWidth="1"/>
+    <col min="2317" max="2317" width="7.265625" style="7" customWidth="1"/>
+    <col min="2318" max="2560" width="9.1328125" style="7"/>
+    <col min="2561" max="2561" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2562" max="2563" width="9.1328125" style="7"/>
+    <col min="2564" max="2564" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2565" max="2567" width="7.265625" style="7" customWidth="1"/>
     <col min="2568" max="2568" width="7" style="7" customWidth="1"/>
-    <col min="2569" max="2571" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2572" max="2572" width="10.5703125" style="7" customWidth="1"/>
-    <col min="2573" max="2573" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2574" max="2816" width="9.140625" style="7"/>
-    <col min="2817" max="2817" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2818" max="2819" width="9.140625" style="7"/>
-    <col min="2820" max="2820" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2821" max="2823" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2569" max="2571" width="7.265625" style="7" customWidth="1"/>
+    <col min="2572" max="2572" width="10.59765625" style="7" customWidth="1"/>
+    <col min="2573" max="2573" width="7.265625" style="7" customWidth="1"/>
+    <col min="2574" max="2816" width="9.1328125" style="7"/>
+    <col min="2817" max="2817" width="5.73046875" style="7" customWidth="1"/>
+    <col min="2818" max="2819" width="9.1328125" style="7"/>
+    <col min="2820" max="2820" width="2.73046875" style="7" customWidth="1"/>
+    <col min="2821" max="2823" width="7.265625" style="7" customWidth="1"/>
     <col min="2824" max="2824" width="7" style="7" customWidth="1"/>
-    <col min="2825" max="2827" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2828" max="2828" width="10.5703125" style="7" customWidth="1"/>
-    <col min="2829" max="2829" width="7.28515625" style="7" customWidth="1"/>
-    <col min="2830" max="3072" width="9.140625" style="7"/>
-    <col min="3073" max="3073" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3074" max="3075" width="9.140625" style="7"/>
-    <col min="3076" max="3076" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3077" max="3079" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2825" max="2827" width="7.265625" style="7" customWidth="1"/>
+    <col min="2828" max="2828" width="10.59765625" style="7" customWidth="1"/>
+    <col min="2829" max="2829" width="7.265625" style="7" customWidth="1"/>
+    <col min="2830" max="3072" width="9.1328125" style="7"/>
+    <col min="3073" max="3073" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3074" max="3075" width="9.1328125" style="7"/>
+    <col min="3076" max="3076" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3077" max="3079" width="7.265625" style="7" customWidth="1"/>
     <col min="3080" max="3080" width="7" style="7" customWidth="1"/>
-    <col min="3081" max="3083" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3084" max="3084" width="10.5703125" style="7" customWidth="1"/>
-    <col min="3085" max="3085" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3086" max="3328" width="9.140625" style="7"/>
-    <col min="3329" max="3329" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3330" max="3331" width="9.140625" style="7"/>
-    <col min="3332" max="3332" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3333" max="3335" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3081" max="3083" width="7.265625" style="7" customWidth="1"/>
+    <col min="3084" max="3084" width="10.59765625" style="7" customWidth="1"/>
+    <col min="3085" max="3085" width="7.265625" style="7" customWidth="1"/>
+    <col min="3086" max="3328" width="9.1328125" style="7"/>
+    <col min="3329" max="3329" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3330" max="3331" width="9.1328125" style="7"/>
+    <col min="3332" max="3332" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3333" max="3335" width="7.265625" style="7" customWidth="1"/>
     <col min="3336" max="3336" width="7" style="7" customWidth="1"/>
-    <col min="3337" max="3339" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3340" max="3340" width="10.5703125" style="7" customWidth="1"/>
-    <col min="3341" max="3341" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3342" max="3584" width="9.140625" style="7"/>
-    <col min="3585" max="3585" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3586" max="3587" width="9.140625" style="7"/>
-    <col min="3588" max="3588" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3589" max="3591" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3337" max="3339" width="7.265625" style="7" customWidth="1"/>
+    <col min="3340" max="3340" width="10.59765625" style="7" customWidth="1"/>
+    <col min="3341" max="3341" width="7.265625" style="7" customWidth="1"/>
+    <col min="3342" max="3584" width="9.1328125" style="7"/>
+    <col min="3585" max="3585" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3586" max="3587" width="9.1328125" style="7"/>
+    <col min="3588" max="3588" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3589" max="3591" width="7.265625" style="7" customWidth="1"/>
     <col min="3592" max="3592" width="7" style="7" customWidth="1"/>
-    <col min="3593" max="3595" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3596" max="3596" width="10.5703125" style="7" customWidth="1"/>
-    <col min="3597" max="3597" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3598" max="3840" width="9.140625" style="7"/>
-    <col min="3841" max="3841" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3842" max="3843" width="9.140625" style="7"/>
-    <col min="3844" max="3844" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3845" max="3847" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3593" max="3595" width="7.265625" style="7" customWidth="1"/>
+    <col min="3596" max="3596" width="10.59765625" style="7" customWidth="1"/>
+    <col min="3597" max="3597" width="7.265625" style="7" customWidth="1"/>
+    <col min="3598" max="3840" width="9.1328125" style="7"/>
+    <col min="3841" max="3841" width="5.73046875" style="7" customWidth="1"/>
+    <col min="3842" max="3843" width="9.1328125" style="7"/>
+    <col min="3844" max="3844" width="2.73046875" style="7" customWidth="1"/>
+    <col min="3845" max="3847" width="7.265625" style="7" customWidth="1"/>
     <col min="3848" max="3848" width="7" style="7" customWidth="1"/>
-    <col min="3849" max="3851" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3852" max="3852" width="10.5703125" style="7" customWidth="1"/>
-    <col min="3853" max="3853" width="7.28515625" style="7" customWidth="1"/>
-    <col min="3854" max="4096" width="9.140625" style="7"/>
-    <col min="4097" max="4097" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4098" max="4099" width="9.140625" style="7"/>
-    <col min="4100" max="4100" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4101" max="4103" width="7.28515625" style="7" customWidth="1"/>
+    <col min="3849" max="3851" width="7.265625" style="7" customWidth="1"/>
+    <col min="3852" max="3852" width="10.59765625" style="7" customWidth="1"/>
+    <col min="3853" max="3853" width="7.265625" style="7" customWidth="1"/>
+    <col min="3854" max="4096" width="9.1328125" style="7"/>
+    <col min="4097" max="4097" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4098" max="4099" width="9.1328125" style="7"/>
+    <col min="4100" max="4100" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4101" max="4103" width="7.265625" style="7" customWidth="1"/>
     <col min="4104" max="4104" width="7" style="7" customWidth="1"/>
-    <col min="4105" max="4107" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4108" max="4108" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4109" max="4109" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4110" max="4352" width="9.140625" style="7"/>
-    <col min="4353" max="4353" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4354" max="4355" width="9.140625" style="7"/>
-    <col min="4356" max="4356" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4357" max="4359" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4105" max="4107" width="7.265625" style="7" customWidth="1"/>
+    <col min="4108" max="4108" width="10.59765625" style="7" customWidth="1"/>
+    <col min="4109" max="4109" width="7.265625" style="7" customWidth="1"/>
+    <col min="4110" max="4352" width="9.1328125" style="7"/>
+    <col min="4353" max="4353" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4354" max="4355" width="9.1328125" style="7"/>
+    <col min="4356" max="4356" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4357" max="4359" width="7.265625" style="7" customWidth="1"/>
     <col min="4360" max="4360" width="7" style="7" customWidth="1"/>
-    <col min="4361" max="4363" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4364" max="4364" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4365" max="4365" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4366" max="4608" width="9.140625" style="7"/>
-    <col min="4609" max="4609" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4610" max="4611" width="9.140625" style="7"/>
-    <col min="4612" max="4612" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4613" max="4615" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4361" max="4363" width="7.265625" style="7" customWidth="1"/>
+    <col min="4364" max="4364" width="10.59765625" style="7" customWidth="1"/>
+    <col min="4365" max="4365" width="7.265625" style="7" customWidth="1"/>
+    <col min="4366" max="4608" width="9.1328125" style="7"/>
+    <col min="4609" max="4609" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4610" max="4611" width="9.1328125" style="7"/>
+    <col min="4612" max="4612" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4613" max="4615" width="7.265625" style="7" customWidth="1"/>
     <col min="4616" max="4616" width="7" style="7" customWidth="1"/>
-    <col min="4617" max="4619" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4620" max="4620" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4621" max="4621" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4622" max="4864" width="9.140625" style="7"/>
-    <col min="4865" max="4865" width="5.7109375" style="7" customWidth="1"/>
-    <col min="4866" max="4867" width="9.140625" style="7"/>
-    <col min="4868" max="4868" width="2.7109375" style="7" customWidth="1"/>
-    <col min="4869" max="4871" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4617" max="4619" width="7.265625" style="7" customWidth="1"/>
+    <col min="4620" max="4620" width="10.59765625" style="7" customWidth="1"/>
+    <col min="4621" max="4621" width="7.265625" style="7" customWidth="1"/>
+    <col min="4622" max="4864" width="9.1328125" style="7"/>
+    <col min="4865" max="4865" width="5.73046875" style="7" customWidth="1"/>
+    <col min="4866" max="4867" width="9.1328125" style="7"/>
+    <col min="4868" max="4868" width="2.73046875" style="7" customWidth="1"/>
+    <col min="4869" max="4871" width="7.265625" style="7" customWidth="1"/>
     <col min="4872" max="4872" width="7" style="7" customWidth="1"/>
-    <col min="4873" max="4875" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4876" max="4876" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4877" max="4877" width="7.28515625" style="7" customWidth="1"/>
-    <col min="4878" max="5120" width="9.140625" style="7"/>
-    <col min="5121" max="5121" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5122" max="5123" width="9.140625" style="7"/>
-    <col min="5124" max="5124" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5125" max="5127" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4873" max="4875" width="7.265625" style="7" customWidth="1"/>
+    <col min="4876" max="4876" width="10.59765625" style="7" customWidth="1"/>
+    <col min="4877" max="4877" width="7.265625" style="7" customWidth="1"/>
+    <col min="4878" max="5120" width="9.1328125" style="7"/>
+    <col min="5121" max="5121" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5122" max="5123" width="9.1328125" style="7"/>
+    <col min="5124" max="5124" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5125" max="5127" width="7.265625" style="7" customWidth="1"/>
     <col min="5128" max="5128" width="7" style="7" customWidth="1"/>
-    <col min="5129" max="5131" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5132" max="5132" width="10.5703125" style="7" customWidth="1"/>
-    <col min="5133" max="5133" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5134" max="5376" width="9.140625" style="7"/>
-    <col min="5377" max="5377" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5378" max="5379" width="9.140625" style="7"/>
-    <col min="5380" max="5380" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5381" max="5383" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5129" max="5131" width="7.265625" style="7" customWidth="1"/>
+    <col min="5132" max="5132" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5133" max="5133" width="7.265625" style="7" customWidth="1"/>
+    <col min="5134" max="5376" width="9.1328125" style="7"/>
+    <col min="5377" max="5377" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5378" max="5379" width="9.1328125" style="7"/>
+    <col min="5380" max="5380" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5381" max="5383" width="7.265625" style="7" customWidth="1"/>
     <col min="5384" max="5384" width="7" style="7" customWidth="1"/>
-    <col min="5385" max="5387" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5388" max="5388" width="10.5703125" style="7" customWidth="1"/>
-    <col min="5389" max="5389" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5390" max="5632" width="9.140625" style="7"/>
-    <col min="5633" max="5633" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5634" max="5635" width="9.140625" style="7"/>
-    <col min="5636" max="5636" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5637" max="5639" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5385" max="5387" width="7.265625" style="7" customWidth="1"/>
+    <col min="5388" max="5388" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5389" max="5389" width="7.265625" style="7" customWidth="1"/>
+    <col min="5390" max="5632" width="9.1328125" style="7"/>
+    <col min="5633" max="5633" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5634" max="5635" width="9.1328125" style="7"/>
+    <col min="5636" max="5636" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5637" max="5639" width="7.265625" style="7" customWidth="1"/>
     <col min="5640" max="5640" width="7" style="7" customWidth="1"/>
-    <col min="5641" max="5643" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5644" max="5644" width="10.5703125" style="7" customWidth="1"/>
-    <col min="5645" max="5645" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5646" max="5888" width="9.140625" style="7"/>
-    <col min="5889" max="5889" width="5.7109375" style="7" customWidth="1"/>
-    <col min="5890" max="5891" width="9.140625" style="7"/>
-    <col min="5892" max="5892" width="2.7109375" style="7" customWidth="1"/>
-    <col min="5893" max="5895" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5641" max="5643" width="7.265625" style="7" customWidth="1"/>
+    <col min="5644" max="5644" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5645" max="5645" width="7.265625" style="7" customWidth="1"/>
+    <col min="5646" max="5888" width="9.1328125" style="7"/>
+    <col min="5889" max="5889" width="5.73046875" style="7" customWidth="1"/>
+    <col min="5890" max="5891" width="9.1328125" style="7"/>
+    <col min="5892" max="5892" width="2.73046875" style="7" customWidth="1"/>
+    <col min="5893" max="5895" width="7.265625" style="7" customWidth="1"/>
     <col min="5896" max="5896" width="7" style="7" customWidth="1"/>
-    <col min="5897" max="5899" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5900" max="5900" width="10.5703125" style="7" customWidth="1"/>
-    <col min="5901" max="5901" width="7.28515625" style="7" customWidth="1"/>
-    <col min="5902" max="6144" width="9.140625" style="7"/>
-    <col min="6145" max="6145" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6146" max="6147" width="9.140625" style="7"/>
-    <col min="6148" max="6148" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6149" max="6151" width="7.28515625" style="7" customWidth="1"/>
+    <col min="5897" max="5899" width="7.265625" style="7" customWidth="1"/>
+    <col min="5900" max="5900" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5901" max="5901" width="7.265625" style="7" customWidth="1"/>
+    <col min="5902" max="6144" width="9.1328125" style="7"/>
+    <col min="6145" max="6145" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6146" max="6147" width="9.1328125" style="7"/>
+    <col min="6148" max="6148" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6149" max="6151" width="7.265625" style="7" customWidth="1"/>
     <col min="6152" max="6152" width="7" style="7" customWidth="1"/>
-    <col min="6153" max="6155" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6156" max="6156" width="10.5703125" style="7" customWidth="1"/>
-    <col min="6157" max="6157" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6158" max="6400" width="9.140625" style="7"/>
-    <col min="6401" max="6401" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6402" max="6403" width="9.140625" style="7"/>
-    <col min="6404" max="6404" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6405" max="6407" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6153" max="6155" width="7.265625" style="7" customWidth="1"/>
+    <col min="6156" max="6156" width="10.59765625" style="7" customWidth="1"/>
+    <col min="6157" max="6157" width="7.265625" style="7" customWidth="1"/>
+    <col min="6158" max="6400" width="9.1328125" style="7"/>
+    <col min="6401" max="6401" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6402" max="6403" width="9.1328125" style="7"/>
+    <col min="6404" max="6404" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6405" max="6407" width="7.265625" style="7" customWidth="1"/>
     <col min="6408" max="6408" width="7" style="7" customWidth="1"/>
-    <col min="6409" max="6411" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6412" max="6412" width="10.5703125" style="7" customWidth="1"/>
-    <col min="6413" max="6413" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6414" max="6656" width="9.140625" style="7"/>
-    <col min="6657" max="6657" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6658" max="6659" width="9.140625" style="7"/>
-    <col min="6660" max="6660" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6661" max="6663" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6409" max="6411" width="7.265625" style="7" customWidth="1"/>
+    <col min="6412" max="6412" width="10.59765625" style="7" customWidth="1"/>
+    <col min="6413" max="6413" width="7.265625" style="7" customWidth="1"/>
+    <col min="6414" max="6656" width="9.1328125" style="7"/>
+    <col min="6657" max="6657" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6658" max="6659" width="9.1328125" style="7"/>
+    <col min="6660" max="6660" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6661" max="6663" width="7.265625" style="7" customWidth="1"/>
     <col min="6664" max="6664" width="7" style="7" customWidth="1"/>
-    <col min="6665" max="6667" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6668" max="6668" width="10.5703125" style="7" customWidth="1"/>
-    <col min="6669" max="6669" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6670" max="6912" width="9.140625" style="7"/>
-    <col min="6913" max="6913" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6914" max="6915" width="9.140625" style="7"/>
-    <col min="6916" max="6916" width="2.7109375" style="7" customWidth="1"/>
-    <col min="6917" max="6919" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6665" max="6667" width="7.265625" style="7" customWidth="1"/>
+    <col min="6668" max="6668" width="10.59765625" style="7" customWidth="1"/>
+    <col min="6669" max="6669" width="7.265625" style="7" customWidth="1"/>
+    <col min="6670" max="6912" width="9.1328125" style="7"/>
+    <col min="6913" max="6913" width="5.73046875" style="7" customWidth="1"/>
+    <col min="6914" max="6915" width="9.1328125" style="7"/>
+    <col min="6916" max="6916" width="2.73046875" style="7" customWidth="1"/>
+    <col min="6917" max="6919" width="7.265625" style="7" customWidth="1"/>
     <col min="6920" max="6920" width="7" style="7" customWidth="1"/>
-    <col min="6921" max="6923" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6924" max="6924" width="10.5703125" style="7" customWidth="1"/>
-    <col min="6925" max="6925" width="7.28515625" style="7" customWidth="1"/>
-    <col min="6926" max="7168" width="9.140625" style="7"/>
-    <col min="7169" max="7169" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7170" max="7171" width="9.140625" style="7"/>
-    <col min="7172" max="7172" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7173" max="7175" width="7.28515625" style="7" customWidth="1"/>
+    <col min="6921" max="6923" width="7.265625" style="7" customWidth="1"/>
+    <col min="6924" max="6924" width="10.59765625" style="7" customWidth="1"/>
+    <col min="6925" max="6925" width="7.265625" style="7" customWidth="1"/>
+    <col min="6926" max="7168" width="9.1328125" style="7"/>
+    <col min="7169" max="7169" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7170" max="7171" width="9.1328125" style="7"/>
+    <col min="7172" max="7172" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7173" max="7175" width="7.265625" style="7" customWidth="1"/>
     <col min="7176" max="7176" width="7" style="7" customWidth="1"/>
-    <col min="7177" max="7179" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7180" max="7180" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7181" max="7181" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7182" max="7424" width="9.140625" style="7"/>
-    <col min="7425" max="7425" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7426" max="7427" width="9.140625" style="7"/>
-    <col min="7428" max="7428" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7429" max="7431" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7177" max="7179" width="7.265625" style="7" customWidth="1"/>
+    <col min="7180" max="7180" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7181" max="7181" width="7.265625" style="7" customWidth="1"/>
+    <col min="7182" max="7424" width="9.1328125" style="7"/>
+    <col min="7425" max="7425" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7426" max="7427" width="9.1328125" style="7"/>
+    <col min="7428" max="7428" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7429" max="7431" width="7.265625" style="7" customWidth="1"/>
     <col min="7432" max="7432" width="7" style="7" customWidth="1"/>
-    <col min="7433" max="7435" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7436" max="7436" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7437" max="7437" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7438" max="7680" width="9.140625" style="7"/>
-    <col min="7681" max="7681" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7682" max="7683" width="9.140625" style="7"/>
-    <col min="7684" max="7684" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7685" max="7687" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7433" max="7435" width="7.265625" style="7" customWidth="1"/>
+    <col min="7436" max="7436" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7437" max="7437" width="7.265625" style="7" customWidth="1"/>
+    <col min="7438" max="7680" width="9.1328125" style="7"/>
+    <col min="7681" max="7681" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7682" max="7683" width="9.1328125" style="7"/>
+    <col min="7684" max="7684" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7685" max="7687" width="7.265625" style="7" customWidth="1"/>
     <col min="7688" max="7688" width="7" style="7" customWidth="1"/>
-    <col min="7689" max="7691" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7692" max="7692" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7693" max="7693" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7694" max="7936" width="9.140625" style="7"/>
-    <col min="7937" max="7937" width="5.7109375" style="7" customWidth="1"/>
-    <col min="7938" max="7939" width="9.140625" style="7"/>
-    <col min="7940" max="7940" width="2.7109375" style="7" customWidth="1"/>
-    <col min="7941" max="7943" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7689" max="7691" width="7.265625" style="7" customWidth="1"/>
+    <col min="7692" max="7692" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7693" max="7693" width="7.265625" style="7" customWidth="1"/>
+    <col min="7694" max="7936" width="9.1328125" style="7"/>
+    <col min="7937" max="7937" width="5.73046875" style="7" customWidth="1"/>
+    <col min="7938" max="7939" width="9.1328125" style="7"/>
+    <col min="7940" max="7940" width="2.73046875" style="7" customWidth="1"/>
+    <col min="7941" max="7943" width="7.265625" style="7" customWidth="1"/>
     <col min="7944" max="7944" width="7" style="7" customWidth="1"/>
-    <col min="7945" max="7947" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7948" max="7948" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7949" max="7949" width="7.28515625" style="7" customWidth="1"/>
-    <col min="7950" max="8192" width="9.140625" style="7"/>
-    <col min="8193" max="8193" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8194" max="8195" width="9.140625" style="7"/>
-    <col min="8196" max="8196" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8197" max="8199" width="7.28515625" style="7" customWidth="1"/>
+    <col min="7945" max="7947" width="7.265625" style="7" customWidth="1"/>
+    <col min="7948" max="7948" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7949" max="7949" width="7.265625" style="7" customWidth="1"/>
+    <col min="7950" max="8192" width="9.1328125" style="7"/>
+    <col min="8193" max="8193" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8194" max="8195" width="9.1328125" style="7"/>
+    <col min="8196" max="8196" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8197" max="8199" width="7.265625" style="7" customWidth="1"/>
     <col min="8200" max="8200" width="7" style="7" customWidth="1"/>
-    <col min="8201" max="8203" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8204" max="8204" width="10.5703125" style="7" customWidth="1"/>
-    <col min="8205" max="8205" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8206" max="8448" width="9.140625" style="7"/>
-    <col min="8449" max="8449" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8450" max="8451" width="9.140625" style="7"/>
-    <col min="8452" max="8452" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8453" max="8455" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8201" max="8203" width="7.265625" style="7" customWidth="1"/>
+    <col min="8204" max="8204" width="10.59765625" style="7" customWidth="1"/>
+    <col min="8205" max="8205" width="7.265625" style="7" customWidth="1"/>
+    <col min="8206" max="8448" width="9.1328125" style="7"/>
+    <col min="8449" max="8449" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8450" max="8451" width="9.1328125" style="7"/>
+    <col min="8452" max="8452" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8453" max="8455" width="7.265625" style="7" customWidth="1"/>
     <col min="8456" max="8456" width="7" style="7" customWidth="1"/>
-    <col min="8457" max="8459" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8460" max="8460" width="10.5703125" style="7" customWidth="1"/>
-    <col min="8461" max="8461" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8462" max="8704" width="9.140625" style="7"/>
-    <col min="8705" max="8705" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8706" max="8707" width="9.140625" style="7"/>
-    <col min="8708" max="8708" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8709" max="8711" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8457" max="8459" width="7.265625" style="7" customWidth="1"/>
+    <col min="8460" max="8460" width="10.59765625" style="7" customWidth="1"/>
+    <col min="8461" max="8461" width="7.265625" style="7" customWidth="1"/>
+    <col min="8462" max="8704" width="9.1328125" style="7"/>
+    <col min="8705" max="8705" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8706" max="8707" width="9.1328125" style="7"/>
+    <col min="8708" max="8708" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8709" max="8711" width="7.265625" style="7" customWidth="1"/>
     <col min="8712" max="8712" width="7" style="7" customWidth="1"/>
-    <col min="8713" max="8715" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8716" max="8716" width="10.5703125" style="7" customWidth="1"/>
-    <col min="8717" max="8717" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8718" max="8960" width="9.140625" style="7"/>
-    <col min="8961" max="8961" width="5.7109375" style="7" customWidth="1"/>
-    <col min="8962" max="8963" width="9.140625" style="7"/>
-    <col min="8964" max="8964" width="2.7109375" style="7" customWidth="1"/>
-    <col min="8965" max="8967" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8713" max="8715" width="7.265625" style="7" customWidth="1"/>
+    <col min="8716" max="8716" width="10.59765625" style="7" customWidth="1"/>
+    <col min="8717" max="8717" width="7.265625" style="7" customWidth="1"/>
+    <col min="8718" max="8960" width="9.1328125" style="7"/>
+    <col min="8961" max="8961" width="5.73046875" style="7" customWidth="1"/>
+    <col min="8962" max="8963" width="9.1328125" style="7"/>
+    <col min="8964" max="8964" width="2.73046875" style="7" customWidth="1"/>
+    <col min="8965" max="8967" width="7.265625" style="7" customWidth="1"/>
     <col min="8968" max="8968" width="7" style="7" customWidth="1"/>
-    <col min="8969" max="8971" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8972" max="8972" width="10.5703125" style="7" customWidth="1"/>
-    <col min="8973" max="8973" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8974" max="9216" width="9.140625" style="7"/>
-    <col min="9217" max="9217" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9218" max="9219" width="9.140625" style="7"/>
-    <col min="9220" max="9220" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9221" max="9223" width="7.28515625" style="7" customWidth="1"/>
+    <col min="8969" max="8971" width="7.265625" style="7" customWidth="1"/>
+    <col min="8972" max="8972" width="10.59765625" style="7" customWidth="1"/>
+    <col min="8973" max="8973" width="7.265625" style="7" customWidth="1"/>
+    <col min="8974" max="9216" width="9.1328125" style="7"/>
+    <col min="9217" max="9217" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9218" max="9219" width="9.1328125" style="7"/>
+    <col min="9220" max="9220" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9221" max="9223" width="7.265625" style="7" customWidth="1"/>
     <col min="9224" max="9224" width="7" style="7" customWidth="1"/>
-    <col min="9225" max="9227" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9228" max="9228" width="10.5703125" style="7" customWidth="1"/>
-    <col min="9229" max="9229" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9230" max="9472" width="9.140625" style="7"/>
-    <col min="9473" max="9473" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9474" max="9475" width="9.140625" style="7"/>
-    <col min="9476" max="9476" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9477" max="9479" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9225" max="9227" width="7.265625" style="7" customWidth="1"/>
+    <col min="9228" max="9228" width="10.59765625" style="7" customWidth="1"/>
+    <col min="9229" max="9229" width="7.265625" style="7" customWidth="1"/>
+    <col min="9230" max="9472" width="9.1328125" style="7"/>
+    <col min="9473" max="9473" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9474" max="9475" width="9.1328125" style="7"/>
+    <col min="9476" max="9476" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9477" max="9479" width="7.265625" style="7" customWidth="1"/>
     <col min="9480" max="9480" width="7" style="7" customWidth="1"/>
-    <col min="9481" max="9483" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9484" max="9484" width="10.5703125" style="7" customWidth="1"/>
-    <col min="9485" max="9485" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9486" max="9728" width="9.140625" style="7"/>
-    <col min="9729" max="9729" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9730" max="9731" width="9.140625" style="7"/>
-    <col min="9732" max="9732" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9733" max="9735" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9481" max="9483" width="7.265625" style="7" customWidth="1"/>
+    <col min="9484" max="9484" width="10.59765625" style="7" customWidth="1"/>
+    <col min="9485" max="9485" width="7.265625" style="7" customWidth="1"/>
+    <col min="9486" max="9728" width="9.1328125" style="7"/>
+    <col min="9729" max="9729" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9730" max="9731" width="9.1328125" style="7"/>
+    <col min="9732" max="9732" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9733" max="9735" width="7.265625" style="7" customWidth="1"/>
     <col min="9736" max="9736" width="7" style="7" customWidth="1"/>
-    <col min="9737" max="9739" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9740" max="9740" width="10.5703125" style="7" customWidth="1"/>
-    <col min="9741" max="9741" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9742" max="9984" width="9.140625" style="7"/>
-    <col min="9985" max="9985" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9986" max="9987" width="9.140625" style="7"/>
-    <col min="9988" max="9988" width="2.7109375" style="7" customWidth="1"/>
-    <col min="9989" max="9991" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9737" max="9739" width="7.265625" style="7" customWidth="1"/>
+    <col min="9740" max="9740" width="10.59765625" style="7" customWidth="1"/>
+    <col min="9741" max="9741" width="7.265625" style="7" customWidth="1"/>
+    <col min="9742" max="9984" width="9.1328125" style="7"/>
+    <col min="9985" max="9985" width="5.73046875" style="7" customWidth="1"/>
+    <col min="9986" max="9987" width="9.1328125" style="7"/>
+    <col min="9988" max="9988" width="2.73046875" style="7" customWidth="1"/>
+    <col min="9989" max="9991" width="7.265625" style="7" customWidth="1"/>
     <col min="9992" max="9992" width="7" style="7" customWidth="1"/>
-    <col min="9993" max="9995" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9996" max="9996" width="10.5703125" style="7" customWidth="1"/>
-    <col min="9997" max="9997" width="7.28515625" style="7" customWidth="1"/>
-    <col min="9998" max="10240" width="9.140625" style="7"/>
-    <col min="10241" max="10241" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10242" max="10243" width="9.140625" style="7"/>
-    <col min="10244" max="10244" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10245" max="10247" width="7.28515625" style="7" customWidth="1"/>
+    <col min="9993" max="9995" width="7.265625" style="7" customWidth="1"/>
+    <col min="9996" max="9996" width="10.59765625" style="7" customWidth="1"/>
+    <col min="9997" max="9997" width="7.265625" style="7" customWidth="1"/>
+    <col min="9998" max="10240" width="9.1328125" style="7"/>
+    <col min="10241" max="10241" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10242" max="10243" width="9.1328125" style="7"/>
+    <col min="10244" max="10244" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10245" max="10247" width="7.265625" style="7" customWidth="1"/>
     <col min="10248" max="10248" width="7" style="7" customWidth="1"/>
-    <col min="10249" max="10251" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10252" max="10252" width="10.5703125" style="7" customWidth="1"/>
-    <col min="10253" max="10253" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10254" max="10496" width="9.140625" style="7"/>
-    <col min="10497" max="10497" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10498" max="10499" width="9.140625" style="7"/>
-    <col min="10500" max="10500" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10501" max="10503" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10249" max="10251" width="7.265625" style="7" customWidth="1"/>
+    <col min="10252" max="10252" width="10.59765625" style="7" customWidth="1"/>
+    <col min="10253" max="10253" width="7.265625" style="7" customWidth="1"/>
+    <col min="10254" max="10496" width="9.1328125" style="7"/>
+    <col min="10497" max="10497" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10498" max="10499" width="9.1328125" style="7"/>
+    <col min="10500" max="10500" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10501" max="10503" width="7.265625" style="7" customWidth="1"/>
     <col min="10504" max="10504" width="7" style="7" customWidth="1"/>
-    <col min="10505" max="10507" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10508" max="10508" width="10.5703125" style="7" customWidth="1"/>
-    <col min="10509" max="10509" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10510" max="10752" width="9.140625" style="7"/>
-    <col min="10753" max="10753" width="5.7109375" style="7" customWidth="1"/>
-    <col min="10754" max="10755" width="9.140625" style="7"/>
-    <col min="10756" max="10756" width="2.7109375" style="7" customWidth="1"/>
-    <col min="10757" max="10759" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10505" max="10507" width="7.265625" style="7" customWidth="1"/>
+    <col min="10508" max="10508" width="10.59765625" style="7" customWidth="1"/>
+    <col min="10509" max="10509" width="7.265625" style="7" customWidth="1"/>
+    <col min="10510" max="10752" width="9.1328125" style="7"/>
+    <col min="10753" max="10753" width="5.73046875" style="7" customWidth="1"/>
+    <col min="10754" max="10755" width="9.1328125" style="7"/>
+    <col min="10756" max="10756" width="2.73046875" style="7" customWidth="1"/>
+    <col min="10757" max="10759" width="7.265625" style="7" customWidth="1"/>
     <col min="10760" max="10760" width="7" style="7" customWidth="1"/>
-    <col min="10761" max="10763" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10764" max="10764" width="10.5703125" style="7" customWidth="1"/>
-    <col min="10765" max="10765" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10766" max="11008" width="9.140625" style="7"/>
-    <col min="11009" max="11009" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11010" max="11011" width="9.140625" style="7"/>
-    <col min="11012" max="11012" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11013" max="11015" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10761" max="10763" width="7.265625" style="7" customWidth="1"/>
+    <col min="10764" max="10764" width="10.59765625" style="7" customWidth="1"/>
+    <col min="10765" max="10765" width="7.265625" style="7" customWidth="1"/>
+    <col min="10766" max="11008" width="9.1328125" style="7"/>
+    <col min="11009" max="11009" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11010" max="11011" width="9.1328125" style="7"/>
+    <col min="11012" max="11012" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11013" max="11015" width="7.265625" style="7" customWidth="1"/>
     <col min="11016" max="11016" width="7" style="7" customWidth="1"/>
-    <col min="11017" max="11019" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11020" max="11020" width="10.5703125" style="7" customWidth="1"/>
-    <col min="11021" max="11021" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11022" max="11264" width="9.140625" style="7"/>
-    <col min="11265" max="11265" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11266" max="11267" width="9.140625" style="7"/>
-    <col min="11268" max="11268" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11269" max="11271" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11017" max="11019" width="7.265625" style="7" customWidth="1"/>
+    <col min="11020" max="11020" width="10.59765625" style="7" customWidth="1"/>
+    <col min="11021" max="11021" width="7.265625" style="7" customWidth="1"/>
+    <col min="11022" max="11264" width="9.1328125" style="7"/>
+    <col min="11265" max="11265" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11266" max="11267" width="9.1328125" style="7"/>
+    <col min="11268" max="11268" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11269" max="11271" width="7.265625" style="7" customWidth="1"/>
     <col min="11272" max="11272" width="7" style="7" customWidth="1"/>
-    <col min="11273" max="11275" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11276" max="11276" width="10.5703125" style="7" customWidth="1"/>
-    <col min="11277" max="11277" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11278" max="11520" width="9.140625" style="7"/>
-    <col min="11521" max="11521" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11522" max="11523" width="9.140625" style="7"/>
-    <col min="11524" max="11524" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11525" max="11527" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11273" max="11275" width="7.265625" style="7" customWidth="1"/>
+    <col min="11276" max="11276" width="10.59765625" style="7" customWidth="1"/>
+    <col min="11277" max="11277" width="7.265625" style="7" customWidth="1"/>
+    <col min="11278" max="11520" width="9.1328125" style="7"/>
+    <col min="11521" max="11521" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11522" max="11523" width="9.1328125" style="7"/>
+    <col min="11524" max="11524" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11525" max="11527" width="7.265625" style="7" customWidth="1"/>
     <col min="11528" max="11528" width="7" style="7" customWidth="1"/>
-    <col min="11529" max="11531" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11532" max="11532" width="10.5703125" style="7" customWidth="1"/>
-    <col min="11533" max="11533" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11534" max="11776" width="9.140625" style="7"/>
-    <col min="11777" max="11777" width="5.7109375" style="7" customWidth="1"/>
-    <col min="11778" max="11779" width="9.140625" style="7"/>
-    <col min="11780" max="11780" width="2.7109375" style="7" customWidth="1"/>
-    <col min="11781" max="11783" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11529" max="11531" width="7.265625" style="7" customWidth="1"/>
+    <col min="11532" max="11532" width="10.59765625" style="7" customWidth="1"/>
+    <col min="11533" max="11533" width="7.265625" style="7" customWidth="1"/>
+    <col min="11534" max="11776" width="9.1328125" style="7"/>
+    <col min="11777" max="11777" width="5.73046875" style="7" customWidth="1"/>
+    <col min="11778" max="11779" width="9.1328125" style="7"/>
+    <col min="11780" max="11780" width="2.73046875" style="7" customWidth="1"/>
+    <col min="11781" max="11783" width="7.265625" style="7" customWidth="1"/>
     <col min="11784" max="11784" width="7" style="7" customWidth="1"/>
-    <col min="11785" max="11787" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11788" max="11788" width="10.5703125" style="7" customWidth="1"/>
-    <col min="11789" max="11789" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11790" max="12032" width="9.140625" style="7"/>
-    <col min="12033" max="12033" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12034" max="12035" width="9.140625" style="7"/>
-    <col min="12036" max="12036" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12037" max="12039" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11785" max="11787" width="7.265625" style="7" customWidth="1"/>
+    <col min="11788" max="11788" width="10.59765625" style="7" customWidth="1"/>
+    <col min="11789" max="11789" width="7.265625" style="7" customWidth="1"/>
+    <col min="11790" max="12032" width="9.1328125" style="7"/>
+    <col min="12033" max="12033" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12034" max="12035" width="9.1328125" style="7"/>
+    <col min="12036" max="12036" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12037" max="12039" width="7.265625" style="7" customWidth="1"/>
     <col min="12040" max="12040" width="7" style="7" customWidth="1"/>
-    <col min="12041" max="12043" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12044" max="12044" width="10.5703125" style="7" customWidth="1"/>
-    <col min="12045" max="12045" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12046" max="12288" width="9.140625" style="7"/>
-    <col min="12289" max="12289" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12290" max="12291" width="9.140625" style="7"/>
-    <col min="12292" max="12292" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12293" max="12295" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12041" max="12043" width="7.265625" style="7" customWidth="1"/>
+    <col min="12044" max="12044" width="10.59765625" style="7" customWidth="1"/>
+    <col min="12045" max="12045" width="7.265625" style="7" customWidth="1"/>
+    <col min="12046" max="12288" width="9.1328125" style="7"/>
+    <col min="12289" max="12289" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12290" max="12291" width="9.1328125" style="7"/>
+    <col min="12292" max="12292" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12293" max="12295" width="7.265625" style="7" customWidth="1"/>
     <col min="12296" max="12296" width="7" style="7" customWidth="1"/>
-    <col min="12297" max="12299" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12300" max="12300" width="10.5703125" style="7" customWidth="1"/>
-    <col min="12301" max="12301" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12302" max="12544" width="9.140625" style="7"/>
-    <col min="12545" max="12545" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12546" max="12547" width="9.140625" style="7"/>
-    <col min="12548" max="12548" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12549" max="12551" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12297" max="12299" width="7.265625" style="7" customWidth="1"/>
+    <col min="12300" max="12300" width="10.59765625" style="7" customWidth="1"/>
+    <col min="12301" max="12301" width="7.265625" style="7" customWidth="1"/>
+    <col min="12302" max="12544" width="9.1328125" style="7"/>
+    <col min="12545" max="12545" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12546" max="12547" width="9.1328125" style="7"/>
+    <col min="12548" max="12548" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12549" max="12551" width="7.265625" style="7" customWidth="1"/>
     <col min="12552" max="12552" width="7" style="7" customWidth="1"/>
-    <col min="12553" max="12555" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12556" max="12556" width="10.5703125" style="7" customWidth="1"/>
-    <col min="12557" max="12557" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12558" max="12800" width="9.140625" style="7"/>
-    <col min="12801" max="12801" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12802" max="12803" width="9.140625" style="7"/>
-    <col min="12804" max="12804" width="2.7109375" style="7" customWidth="1"/>
-    <col min="12805" max="12807" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12553" max="12555" width="7.265625" style="7" customWidth="1"/>
+    <col min="12556" max="12556" width="10.59765625" style="7" customWidth="1"/>
+    <col min="12557" max="12557" width="7.265625" style="7" customWidth="1"/>
+    <col min="12558" max="12800" width="9.1328125" style="7"/>
+    <col min="12801" max="12801" width="5.73046875" style="7" customWidth="1"/>
+    <col min="12802" max="12803" width="9.1328125" style="7"/>
+    <col min="12804" max="12804" width="2.73046875" style="7" customWidth="1"/>
+    <col min="12805" max="12807" width="7.265625" style="7" customWidth="1"/>
     <col min="12808" max="12808" width="7" style="7" customWidth="1"/>
-    <col min="12809" max="12811" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12812" max="12812" width="10.5703125" style="7" customWidth="1"/>
-    <col min="12813" max="12813" width="7.28515625" style="7" customWidth="1"/>
-    <col min="12814" max="13056" width="9.140625" style="7"/>
-    <col min="13057" max="13057" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13058" max="13059" width="9.140625" style="7"/>
-    <col min="13060" max="13060" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13061" max="13063" width="7.28515625" style="7" customWidth="1"/>
+    <col min="12809" max="12811" width="7.265625" style="7" customWidth="1"/>
+    <col min="12812" max="12812" width="10.59765625" style="7" customWidth="1"/>
+    <col min="12813" max="12813" width="7.265625" style="7" customWidth="1"/>
+    <col min="12814" max="13056" width="9.1328125" style="7"/>
+    <col min="13057" max="13057" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13058" max="13059" width="9.1328125" style="7"/>
+    <col min="13060" max="13060" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13061" max="13063" width="7.265625" style="7" customWidth="1"/>
     <col min="13064" max="13064" width="7" style="7" customWidth="1"/>
-    <col min="13065" max="13067" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13068" max="13068" width="10.5703125" style="7" customWidth="1"/>
-    <col min="13069" max="13069" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13070" max="13312" width="9.140625" style="7"/>
-    <col min="13313" max="13313" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13314" max="13315" width="9.140625" style="7"/>
-    <col min="13316" max="13316" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13317" max="13319" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13065" max="13067" width="7.265625" style="7" customWidth="1"/>
+    <col min="13068" max="13068" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13069" max="13069" width="7.265625" style="7" customWidth="1"/>
+    <col min="13070" max="13312" width="9.1328125" style="7"/>
+    <col min="13313" max="13313" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13314" max="13315" width="9.1328125" style="7"/>
+    <col min="13316" max="13316" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13317" max="13319" width="7.265625" style="7" customWidth="1"/>
     <col min="13320" max="13320" width="7" style="7" customWidth="1"/>
-    <col min="13321" max="13323" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13324" max="13324" width="10.5703125" style="7" customWidth="1"/>
-    <col min="13325" max="13325" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13326" max="13568" width="9.140625" style="7"/>
-    <col min="13569" max="13569" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13570" max="13571" width="9.140625" style="7"/>
-    <col min="13572" max="13572" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13573" max="13575" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13321" max="13323" width="7.265625" style="7" customWidth="1"/>
+    <col min="13324" max="13324" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13325" max="13325" width="7.265625" style="7" customWidth="1"/>
+    <col min="13326" max="13568" width="9.1328125" style="7"/>
+    <col min="13569" max="13569" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13570" max="13571" width="9.1328125" style="7"/>
+    <col min="13572" max="13572" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13573" max="13575" width="7.265625" style="7" customWidth="1"/>
     <col min="13576" max="13576" width="7" style="7" customWidth="1"/>
-    <col min="13577" max="13579" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13580" max="13580" width="10.5703125" style="7" customWidth="1"/>
-    <col min="13581" max="13581" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13582" max="13824" width="9.140625" style="7"/>
-    <col min="13825" max="13825" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13826" max="13827" width="9.140625" style="7"/>
-    <col min="13828" max="13828" width="2.7109375" style="7" customWidth="1"/>
-    <col min="13829" max="13831" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13577" max="13579" width="7.265625" style="7" customWidth="1"/>
+    <col min="13580" max="13580" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13581" max="13581" width="7.265625" style="7" customWidth="1"/>
+    <col min="13582" max="13824" width="9.1328125" style="7"/>
+    <col min="13825" max="13825" width="5.73046875" style="7" customWidth="1"/>
+    <col min="13826" max="13827" width="9.1328125" style="7"/>
+    <col min="13828" max="13828" width="2.73046875" style="7" customWidth="1"/>
+    <col min="13829" max="13831" width="7.265625" style="7" customWidth="1"/>
     <col min="13832" max="13832" width="7" style="7" customWidth="1"/>
-    <col min="13833" max="13835" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13836" max="13836" width="10.5703125" style="7" customWidth="1"/>
-    <col min="13837" max="13837" width="7.28515625" style="7" customWidth="1"/>
-    <col min="13838" max="14080" width="9.140625" style="7"/>
-    <col min="14081" max="14081" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14082" max="14083" width="9.140625" style="7"/>
-    <col min="14084" max="14084" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14085" max="14087" width="7.28515625" style="7" customWidth="1"/>
+    <col min="13833" max="13835" width="7.265625" style="7" customWidth="1"/>
+    <col min="13836" max="13836" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13837" max="13837" width="7.265625" style="7" customWidth="1"/>
+    <col min="13838" max="14080" width="9.1328125" style="7"/>
+    <col min="14081" max="14081" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14082" max="14083" width="9.1328125" style="7"/>
+    <col min="14084" max="14084" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14085" max="14087" width="7.265625" style="7" customWidth="1"/>
     <col min="14088" max="14088" width="7" style="7" customWidth="1"/>
-    <col min="14089" max="14091" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14092" max="14092" width="10.5703125" style="7" customWidth="1"/>
-    <col min="14093" max="14093" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14094" max="14336" width="9.140625" style="7"/>
-    <col min="14337" max="14337" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14338" max="14339" width="9.140625" style="7"/>
-    <col min="14340" max="14340" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14341" max="14343" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14089" max="14091" width="7.265625" style="7" customWidth="1"/>
+    <col min="14092" max="14092" width="10.59765625" style="7" customWidth="1"/>
+    <col min="14093" max="14093" width="7.265625" style="7" customWidth="1"/>
+    <col min="14094" max="14336" width="9.1328125" style="7"/>
+    <col min="14337" max="14337" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14338" max="14339" width="9.1328125" style="7"/>
+    <col min="14340" max="14340" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14341" max="14343" width="7.265625" style="7" customWidth="1"/>
     <col min="14344" max="14344" width="7" style="7" customWidth="1"/>
-    <col min="14345" max="14347" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14348" max="14348" width="10.5703125" style="7" customWidth="1"/>
-    <col min="14349" max="14349" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14350" max="14592" width="9.140625" style="7"/>
-    <col min="14593" max="14593" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14594" max="14595" width="9.140625" style="7"/>
-    <col min="14596" max="14596" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14597" max="14599" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14345" max="14347" width="7.265625" style="7" customWidth="1"/>
+    <col min="14348" max="14348" width="10.59765625" style="7" customWidth="1"/>
+    <col min="14349" max="14349" width="7.265625" style="7" customWidth="1"/>
+    <col min="14350" max="14592" width="9.1328125" style="7"/>
+    <col min="14593" max="14593" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14594" max="14595" width="9.1328125" style="7"/>
+    <col min="14596" max="14596" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14597" max="14599" width="7.265625" style="7" customWidth="1"/>
     <col min="14600" max="14600" width="7" style="7" customWidth="1"/>
-    <col min="14601" max="14603" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14604" max="14604" width="10.5703125" style="7" customWidth="1"/>
-    <col min="14605" max="14605" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14606" max="14848" width="9.140625" style="7"/>
-    <col min="14849" max="14849" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14850" max="14851" width="9.140625" style="7"/>
-    <col min="14852" max="14852" width="2.7109375" style="7" customWidth="1"/>
-    <col min="14853" max="14855" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14601" max="14603" width="7.265625" style="7" customWidth="1"/>
+    <col min="14604" max="14604" width="10.59765625" style="7" customWidth="1"/>
+    <col min="14605" max="14605" width="7.265625" style="7" customWidth="1"/>
+    <col min="14606" max="14848" width="9.1328125" style="7"/>
+    <col min="14849" max="14849" width="5.73046875" style="7" customWidth="1"/>
+    <col min="14850" max="14851" width="9.1328125" style="7"/>
+    <col min="14852" max="14852" width="2.73046875" style="7" customWidth="1"/>
+    <col min="14853" max="14855" width="7.265625" style="7" customWidth="1"/>
     <col min="14856" max="14856" width="7" style="7" customWidth="1"/>
-    <col min="14857" max="14859" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14860" max="14860" width="10.5703125" style="7" customWidth="1"/>
-    <col min="14861" max="14861" width="7.28515625" style="7" customWidth="1"/>
-    <col min="14862" max="15104" width="9.140625" style="7"/>
-    <col min="15105" max="15105" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15106" max="15107" width="9.140625" style="7"/>
-    <col min="15108" max="15108" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15109" max="15111" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14857" max="14859" width="7.265625" style="7" customWidth="1"/>
+    <col min="14860" max="14860" width="10.59765625" style="7" customWidth="1"/>
+    <col min="14861" max="14861" width="7.265625" style="7" customWidth="1"/>
+    <col min="14862" max="15104" width="9.1328125" style="7"/>
+    <col min="15105" max="15105" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15106" max="15107" width="9.1328125" style="7"/>
+    <col min="15108" max="15108" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15109" max="15111" width="7.265625" style="7" customWidth="1"/>
     <col min="15112" max="15112" width="7" style="7" customWidth="1"/>
-    <col min="15113" max="15115" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15116" max="15116" width="10.5703125" style="7" customWidth="1"/>
-    <col min="15117" max="15117" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15118" max="15360" width="9.140625" style="7"/>
-    <col min="15361" max="15361" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15362" max="15363" width="9.140625" style="7"/>
-    <col min="15364" max="15364" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15365" max="15367" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15113" max="15115" width="7.265625" style="7" customWidth="1"/>
+    <col min="15116" max="15116" width="10.59765625" style="7" customWidth="1"/>
+    <col min="15117" max="15117" width="7.265625" style="7" customWidth="1"/>
+    <col min="15118" max="15360" width="9.1328125" style="7"/>
+    <col min="15361" max="15361" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15362" max="15363" width="9.1328125" style="7"/>
+    <col min="15364" max="15364" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15365" max="15367" width="7.265625" style="7" customWidth="1"/>
     <col min="15368" max="15368" width="7" style="7" customWidth="1"/>
-    <col min="15369" max="15371" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15372" max="15372" width="10.5703125" style="7" customWidth="1"/>
-    <col min="15373" max="15373" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15374" max="15616" width="9.140625" style="7"/>
-    <col min="15617" max="15617" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15618" max="15619" width="9.140625" style="7"/>
-    <col min="15620" max="15620" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15621" max="15623" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15369" max="15371" width="7.265625" style="7" customWidth="1"/>
+    <col min="15372" max="15372" width="10.59765625" style="7" customWidth="1"/>
+    <col min="15373" max="15373" width="7.265625" style="7" customWidth="1"/>
+    <col min="15374" max="15616" width="9.1328125" style="7"/>
+    <col min="15617" max="15617" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15618" max="15619" width="9.1328125" style="7"/>
+    <col min="15620" max="15620" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15621" max="15623" width="7.265625" style="7" customWidth="1"/>
     <col min="15624" max="15624" width="7" style="7" customWidth="1"/>
-    <col min="15625" max="15627" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15628" max="15628" width="10.5703125" style="7" customWidth="1"/>
-    <col min="15629" max="15629" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15630" max="15872" width="9.140625" style="7"/>
-    <col min="15873" max="15873" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15874" max="15875" width="9.140625" style="7"/>
-    <col min="15876" max="15876" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15877" max="15879" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15625" max="15627" width="7.265625" style="7" customWidth="1"/>
+    <col min="15628" max="15628" width="10.59765625" style="7" customWidth="1"/>
+    <col min="15629" max="15629" width="7.265625" style="7" customWidth="1"/>
+    <col min="15630" max="15872" width="9.1328125" style="7"/>
+    <col min="15873" max="15873" width="5.73046875" style="7" customWidth="1"/>
+    <col min="15874" max="15875" width="9.1328125" style="7"/>
+    <col min="15876" max="15876" width="2.73046875" style="7" customWidth="1"/>
+    <col min="15877" max="15879" width="7.265625" style="7" customWidth="1"/>
     <col min="15880" max="15880" width="7" style="7" customWidth="1"/>
-    <col min="15881" max="15883" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15884" max="15884" width="10.5703125" style="7" customWidth="1"/>
-    <col min="15885" max="15885" width="7.28515625" style="7" customWidth="1"/>
-    <col min="15886" max="16128" width="9.140625" style="7"/>
-    <col min="16129" max="16129" width="5.7109375" style="7" customWidth="1"/>
-    <col min="16130" max="16131" width="9.140625" style="7"/>
-    <col min="16132" max="16132" width="2.7109375" style="7" customWidth="1"/>
-    <col min="16133" max="16135" width="7.28515625" style="7" customWidth="1"/>
+    <col min="15881" max="15883" width="7.265625" style="7" customWidth="1"/>
+    <col min="15884" max="15884" width="10.59765625" style="7" customWidth="1"/>
+    <col min="15885" max="15885" width="7.265625" style="7" customWidth="1"/>
+    <col min="15886" max="16128" width="9.1328125" style="7"/>
+    <col min="16129" max="16129" width="5.73046875" style="7" customWidth="1"/>
+    <col min="16130" max="16131" width="9.1328125" style="7"/>
+    <col min="16132" max="16132" width="2.73046875" style="7" customWidth="1"/>
+    <col min="16133" max="16135" width="7.265625" style="7" customWidth="1"/>
     <col min="16136" max="16136" width="7" style="7" customWidth="1"/>
-    <col min="16137" max="16139" width="7.28515625" style="7" customWidth="1"/>
-    <col min="16140" max="16140" width="10.5703125" style="7" customWidth="1"/>
-    <col min="16141" max="16141" width="7.28515625" style="7" customWidth="1"/>
-    <col min="16142" max="16384" width="9.140625" style="7"/>
+    <col min="16137" max="16139" width="7.265625" style="7" customWidth="1"/>
+    <col min="16140" max="16140" width="10.59765625" style="7" customWidth="1"/>
+    <col min="16141" max="16141" width="7.265625" style="7" customWidth="1"/>
+    <col min="16142" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>81</v>
       </c>
@@ -10085,7 +10092,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
@@ -10097,7 +10104,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -10114,15 +10121,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10131,22 +10138,22 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="56"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -10163,7 +10170,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -10178,44 +10185,44 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77"/>
       <c r="H12" s="12"/>
       <c r="I12" s="78"/>
@@ -10223,7 +10230,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -10232,9 +10239,9 @@
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="417" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="419" t="s">
         <v>163</v>
@@ -10247,7 +10254,7 @@
       <c r="H14" s="420"/>
       <c r="I14" s="421"/>
       <c r="J14" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K14" s="361"/>
       <c r="L14" s="335">
@@ -10256,20 +10263,20 @@
       </c>
       <c r="M14" s="47"/>
     </row>
-    <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="418"/>
-      <c r="B15" s="422" t="s">
+      <c r="B15" s="460" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="423"/>
-      <c r="D15" s="423"/>
-      <c r="E15" s="423"/>
-      <c r="F15" s="423"/>
-      <c r="G15" s="423"/>
-      <c r="H15" s="423"/>
-      <c r="I15" s="423"/>
+      <c r="C15" s="422"/>
+      <c r="D15" s="422"/>
+      <c r="E15" s="422"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="422"/>
+      <c r="H15" s="422"/>
+      <c r="I15" s="422"/>
       <c r="J15" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K15" s="362"/>
       <c r="L15" s="339">
@@ -10277,22 +10284,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="417" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="425" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="424" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="426"/>
-      <c r="D16" s="426"/>
-      <c r="E16" s="426"/>
-      <c r="F16" s="426"/>
-      <c r="G16" s="426"/>
-      <c r="H16" s="426"/>
-      <c r="I16" s="426"/>
+      <c r="C16" s="425"/>
+      <c r="D16" s="425"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="425"/>
+      <c r="G16" s="425"/>
+      <c r="H16" s="425"/>
+      <c r="I16" s="425"/>
       <c r="J16" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="363"/>
       <c r="L16" s="336">
@@ -10300,18 +10307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="424"/>
-      <c r="B17" s="427" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="428"/>
-      <c r="D17" s="428"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="428"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="428"/>
-      <c r="I17" s="428"/>
+    <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="423"/>
+      <c r="B17" s="426" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="427"/>
+      <c r="D17" s="427"/>
+      <c r="E17" s="427"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="427"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="427"/>
       <c r="J17" s="26" t="s">
         <v>4</v>
       </c>
@@ -10321,20 +10328,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="418"/>
-      <c r="B18" s="429" t="s">
+      <c r="B18" s="428" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="423"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="423"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="423"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="423"/>
+      <c r="C18" s="422"/>
+      <c r="D18" s="422"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="422"/>
+      <c r="G18" s="422"/>
+      <c r="H18" s="422"/>
+      <c r="I18" s="422"/>
       <c r="J18" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K18" s="365"/>
       <c r="L18" s="338">
@@ -10342,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -10360,7 +10367,7 @@
       </c>
       <c r="M19" s="44"/>
     </row>
-    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -10375,7 +10382,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="80" t="s">
         <v>87</v>
@@ -10392,8 +10399,8 @@
       <c r="L21" s="350"/>
       <c r="M21" s="44"/>
     </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="45" t="s">
         <v>90</v>
       </c>
@@ -10404,10 +10411,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
@@ -10423,9 +10430,9 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -10437,7 +10444,7 @@
       <c r="K30" s="88"/>
       <c r="L30" s="89"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -10451,11 +10458,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -10463,6 +10465,11 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10474,7 +10481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Blad9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10484,22 +10491,22 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="151"/>
-    <col min="3" max="3" width="12.5703125" style="151" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="151" customWidth="1"/>
-    <col min="5" max="6" width="7.28515625" style="151" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="151" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" style="151" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="151"/>
+    <col min="3" max="3" width="12.59765625" style="151" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.73046875" style="151" customWidth="1"/>
+    <col min="5" max="6" width="7.265625" style="151" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="151" customWidth="1"/>
     <col min="8" max="8" width="7" style="151" customWidth="1"/>
-    <col min="9" max="11" width="7.28515625" style="151" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="151" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="151"/>
+    <col min="9" max="11" width="7.265625" style="151" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="151" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>101</v>
       </c>
@@ -10511,7 +10518,7 @@
       <c r="K2" s="142"/>
       <c r="L2" s="142"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>100</v>
       </c>
@@ -10523,7 +10530,7 @@
       <c r="K3" s="142"/>
       <c r="L3" s="142"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -10540,15 +10547,15 @@
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10557,18 +10564,18 @@
       <c r="K5" s="142"/>
       <c r="L5" s="142"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="388"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399"/>
+      <c r="E6" s="399"/>
+      <c r="F6" s="399"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
@@ -10585,7 +10592,7 @@
       <c r="K7" s="57"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -10600,58 +10607,58 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="399"/>
+      <c r="E9" s="399"/>
+      <c r="F9" s="399"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="388"/>
-      <c r="F10" s="388"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="148" t="s">
         <v>100</v>
       </c>
@@ -10672,15 +10679,15 @@
       </c>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="430" t="s">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="429" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="431"/>
-      <c r="C15" s="431"/>
-      <c r="D15" s="431"/>
-      <c r="E15" s="431"/>
-      <c r="F15" s="432"/>
+      <c r="B15" s="430"/>
+      <c r="C15" s="430"/>
+      <c r="D15" s="430"/>
+      <c r="E15" s="430"/>
+      <c r="F15" s="431"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="14"/>
@@ -10688,15 +10695,15 @@
       <c r="K15" s="62"/>
       <c r="L15" s="354"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="430" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="429" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="431"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431"/>
-      <c r="E16" s="431"/>
-      <c r="F16" s="432"/>
+      <c r="B16" s="430"/>
+      <c r="C16" s="430"/>
+      <c r="D16" s="430"/>
+      <c r="E16" s="430"/>
+      <c r="F16" s="431"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="14"/>
@@ -10704,7 +10711,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="354"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="300" t="s">
         <v>93</v>
       </c>
@@ -10720,7 +10727,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="354"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="300" t="s">
         <v>94</v>
       </c>
@@ -10736,7 +10743,7 @@
       <c r="K18" s="50"/>
       <c r="L18" s="354"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="300" t="s">
         <v>111</v>
       </c>
@@ -10752,32 +10759,32 @@
       <c r="K19" s="50"/>
       <c r="L19" s="354"/>
     </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K20" s="182"/>
       <c r="L20" s="182"/>
     </row>
-    <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="436" t="s">
+    <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="435" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="437"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="437"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="437"/>
-      <c r="H21" s="437"/>
-      <c r="I21" s="437"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="436"/>
+      <c r="H21" s="436"/>
+      <c r="I21" s="436"/>
       <c r="J21" s="181"/>
       <c r="K21" s="180"/>
       <c r="L21" s="10"/>
       <c r="R21" s="175"/>
     </row>
-    <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="444" t="s">
+    <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="445"/>
+      <c r="B22" s="444"/>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
@@ -10791,16 +10798,16 @@
       <c r="M22" s="157"/>
       <c r="R22" s="175"/>
     </row>
-    <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="440" t="s">
+    <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="439" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="441"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="366"/>
-      <c r="D23" s="438" t="s">
+      <c r="D23" s="437" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="439"/>
+      <c r="E23" s="438"/>
       <c r="F23" s="367"/>
       <c r="G23" s="308" t="s">
         <v>113</v>
@@ -10822,12 +10829,12 @@
       <c r="N23" s="176"/>
       <c r="R23" s="175"/>
     </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="442" t="s">
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="441" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="443"/>
-      <c r="C24" s="443"/>
+      <c r="B24" s="442"/>
+      <c r="C24" s="442"/>
       <c r="D24" s="312"/>
       <c r="E24" s="312"/>
       <c r="F24" s="312"/>
@@ -10838,20 +10845,20 @@
       <c r="K24" s="314"/>
       <c r="R24" s="175"/>
     </row>
-    <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="433" t="s">
+    <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="432" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="434"/>
-      <c r="C25" s="434"/>
-      <c r="D25" s="434"/>
-      <c r="E25" s="434"/>
-      <c r="F25" s="434"/>
-      <c r="G25" s="434"/>
-      <c r="H25" s="434"/>
-      <c r="I25" s="434"/>
-      <c r="J25" s="434"/>
-      <c r="K25" s="435"/>
+      <c r="B25" s="433"/>
+      <c r="C25" s="433"/>
+      <c r="D25" s="433"/>
+      <c r="E25" s="433"/>
+      <c r="F25" s="433"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="433"/>
+      <c r="I25" s="433"/>
+      <c r="J25" s="433"/>
+      <c r="K25" s="434"/>
       <c r="L25" s="11">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -10860,7 +10867,7 @@
       <c r="N25" s="10"/>
       <c r="R25" s="172"/>
     </row>
-    <row r="26" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174"/>
       <c r="B26" s="174"/>
       <c r="C26" s="174"/>
@@ -10877,7 +10884,7 @@
       <c r="N26" s="10"/>
       <c r="R26" s="172"/>
     </row>
-    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="171"/>
       <c r="B27" s="171"/>
       <c r="C27" s="171"/>
@@ -10896,12 +10903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="168" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="157"/>
       <c r="C29" s="157"/>
       <c r="D29" s="157"/>
@@ -10910,7 +10917,7 @@
       <c r="I29" s="153"/>
       <c r="J29" s="166"/>
     </row>
-    <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="165"/>
       <c r="I30" s="164" t="s">
         <v>95</v>
@@ -10922,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="157"/>
       <c r="C31" s="157"/>
       <c r="D31" s="157"/>
@@ -10934,7 +10941,7 @@
       <c r="K31" s="153"/>
       <c r="L31" s="152"/>
     </row>
-    <row r="32" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="157"/>
       <c r="C32" s="157"/>
       <c r="D32" s="157"/>
@@ -10946,7 +10953,7 @@
       <c r="K32" s="153"/>
       <c r="L32" s="152"/>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="157"/>
       <c r="C33" s="157"/>
       <c r="D33" s="157"/>
@@ -10958,7 +10965,7 @@
       <c r="K33" s="153"/>
       <c r="L33" s="152"/>
     </row>
-    <row r="34" spans="1:12" s="158" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="158" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
@@ -10975,7 +10982,7 @@
       <c r="K34" s="135"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="157"/>
       <c r="C35" s="157"/>
       <c r="D35" s="157"/>
@@ -11022,6 +11029,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11087,15 +11103,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
@@ -11105,6 +11112,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11119,19 +11141,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF64F18F-372D-43EC-AE22-C51BFB121B01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
+++ b/mallar/Protokoll 2017 individuell klass_justerat 2017-05-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6025D8-81CB-4B36-9DA7-0569EF69B11E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EA182-F109-432D-860A-848413F674E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PdI6n2wWe1BCLpZSUVKb6Viv2S5eDDxdev/RLVBc6uGkqKIeSnzxpXt+L8Ip+7bcU/gK26fAQjqxcl2KM0Nr6Q==" workbookSaltValue="84UlA07g1xLdi6rLqV4A4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="966" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="7650" tabRatio="966" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="37" r:id="rId1"/>
@@ -99,12 +99,12 @@
     <definedName name="result" localSheetId="8">'Individuell tekniska övningar'!$L$30</definedName>
     <definedName name="result" localSheetId="9">'Individuellt tekniskt artistisk'!$L$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="192">
   <si>
     <t>Nation:</t>
   </si>
@@ -333,18 +333,6 @@
   </si>
   <si>
     <t>Sidhopp del 1</t>
-  </si>
-  <si>
-    <t>Grundövningar 3*</t>
-  </si>
-  <si>
-    <t>Grundövningar 2*</t>
-  </si>
-  <si>
-    <t>Grundövningar 1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individuell minior 1* </t>
   </si>
   <si>
     <t>Teknisk bedömning</t>
@@ -928,6 +916,12 @@
 • Stor variation av uttryck som speglar olika typer av musik samt förändringar i musiken
 • Komplext kroppsspråk samt gester och rörelser i många olika riktningar.</t>
     </r>
+  </si>
+  <si>
+    <t>Grundövningar</t>
+  </si>
+  <si>
+    <t>Individuell minior</t>
   </si>
 </sst>
 </file>
@@ -2869,6 +2863,105 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2878,15 +2971,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2896,102 +2980,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3016,6 +3010,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -3085,6 +3082,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3123,15 +3126,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3499,34 +3493,34 @@
   <sheetData>
     <row r="1" spans="1:8" s="320" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
       <c r="A1" s="319" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="320" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="320" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="320" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="320" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" s="283" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A7" s="283" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="208" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -3534,61 +3528,61 @@
     </row>
     <row r="11" spans="1:8" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="284" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="285" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="208"/>
       <c r="F12" s="285" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" s="284"/>
       <c r="F13" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="208" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B14" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G14" s="280" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H14" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3603,26 +3597,26 @@
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="208" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B16" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G16" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H16" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3637,26 +3631,26 @@
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="208" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D18" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" s="287"/>
       <c r="F18" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G18" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H18" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3671,40 +3665,40 @@
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E20" s="287"/>
       <c r="F20" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G20" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H20" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="333" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B21" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D21" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E21" s="286"/>
     </row>
@@ -3717,110 +3711,110 @@
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B23" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C23" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D23" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E23" s="287"/>
       <c r="F23" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G23" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H23" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="333" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B24" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D24" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E24" s="286"/>
     </row>
     <row r="26" spans="1:9" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="284" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="285" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C27" s="208"/>
       <c r="F27" s="285" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C28" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E28" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F28" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G28" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H28" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I28" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="208" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="280" t="s">
+      <c r="H29" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="280" t="s">
         <v>125</v>
-      </c>
-      <c r="E29" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="280" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="280" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3836,31 +3830,31 @@
     </row>
     <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="208" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B31" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C31" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="280" t="s">
+      <c r="H31" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="280" t="s">
         <v>126</v>
-      </c>
-      <c r="E31" s="280" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="280" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3876,31 +3870,31 @@
     </row>
     <row r="33" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="208" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C33" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="280" t="s">
-        <v>131</v>
-      </c>
       <c r="I33" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -3916,48 +3910,48 @@
     </row>
     <row r="35" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B35" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C35" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E35" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F35" s="282" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G35" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H35" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I35" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A36" s="333" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B36" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C36" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D36" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E36" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -3968,48 +3962,48 @@
     </row>
     <row r="38" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C38" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="280" t="s">
-        <v>131</v>
-      </c>
       <c r="I38" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A39" s="333" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D39" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -4026,106 +4020,106 @@
     </row>
     <row r="42" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A42" s="284" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="285" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" s="208"/>
       <c r="F44" s="285" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J44" s="285" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K44" s="208"/>
       <c r="N44" s="285" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D45" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E45" s="284"/>
       <c r="F45" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G45" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H45" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J45" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K45" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L45" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M45" s="284"/>
       <c r="N45" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O45" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P45" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="208" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B46" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C46" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D46" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="287"/>
       <c r="F46" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G46" s="280" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H46" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J46" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K46" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L46" s="280" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M46" s="287"/>
       <c r="N46" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O46" s="280" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P46" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4147,45 +4141,45 @@
     </row>
     <row r="48" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="208" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B48" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D48" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E48" s="287"/>
       <c r="F48" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G48" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H48" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J48" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K48" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L48" s="280" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M48" s="287"/>
       <c r="N48" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O48" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P48" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4207,45 +4201,45 @@
     </row>
     <row r="50" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="208" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B50" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C50" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E50" s="287"/>
       <c r="F50" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G50" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H50" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J50" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K50" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L50" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M50" s="287"/>
       <c r="N50" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O50" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P50" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4267,45 +4261,45 @@
     </row>
     <row r="52" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B52" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D52" s="280" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E52" s="287"/>
       <c r="F52" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G52" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H52" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J52" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K52" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L52" s="280" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M52" s="287"/>
       <c r="N52" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O52" s="280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P52" s="280" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -4317,126 +4311,126 @@
     </row>
     <row r="55" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A55" s="284" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="285" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C57" s="208"/>
       <c r="F57" s="285" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J57" s="285" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K57" s="208"/>
       <c r="N57" s="285" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C58" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D58" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E58" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F58" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G58" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H58" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I58" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J58" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K58" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L58" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M58" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N58" s="284" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O58" s="284" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P58" s="284" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q58" s="284" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="208" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B59" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="280" t="s">
+      <c r="H59" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="280" t="s">
+      <c r="J59" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="M59" s="280" t="s">
+        <v>121</v>
+      </c>
+      <c r="N59" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="O59" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G59" s="280" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I59" s="280" t="s">
-        <v>129</v>
-      </c>
-      <c r="J59" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="K59" s="280" t="s">
+      <c r="P59" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q59" s="280" t="s">
         <v>125</v>
-      </c>
-      <c r="L59" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="M59" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="N59" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="O59" s="280" t="s">
-        <v>129</v>
-      </c>
-      <c r="P59" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q59" s="280" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4460,55 +4454,55 @@
     </row>
     <row r="61" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="208" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B61" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="280" t="s">
+      <c r="H61" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="E61" s="280" t="s">
+      <c r="J61" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="K61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="L61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="M61" s="280" t="s">
+        <v>122</v>
+      </c>
+      <c r="N61" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="O61" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="J61" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="K61" s="280" t="s">
+      <c r="P61" s="280" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q61" s="280" t="s">
         <v>126</v>
-      </c>
-      <c r="L61" s="280" t="s">
-        <v>126</v>
-      </c>
-      <c r="M61" s="280" t="s">
-        <v>126</v>
-      </c>
-      <c r="N61" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="O61" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q61" s="280" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,55 +4526,55 @@
     </row>
     <row r="63" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="208" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B63" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="280" t="s">
+      <c r="I63" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="J63" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="M63" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="O63" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="P63" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="280" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="J63" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="K63" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="L63" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="M63" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="N63" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="O63" s="280" t="s">
-        <v>130</v>
-      </c>
-      <c r="P63" s="280" t="s">
-        <v>131</v>
-      </c>
       <c r="Q63" s="280" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4604,60 +4598,60 @@
     </row>
     <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="208" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B65" s="280" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C65" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="280" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="280" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="280" t="s">
+        <v>130</v>
+      </c>
+      <c r="J65" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="L65" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="280" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" s="280" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" s="280" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="280" t="s">
-        <v>134</v>
-      </c>
-      <c r="J65" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="K65" s="280" t="s">
+      <c r="M65" s="280" t="s">
+        <v>126</v>
+      </c>
+      <c r="N65" s="280" t="s">
+        <v>124</v>
+      </c>
+      <c r="O65" s="280" t="s">
         <v>130</v>
       </c>
-      <c r="L65" s="280" t="s">
+      <c r="P65" s="280" t="s">
         <v>131</v>
       </c>
-      <c r="M65" s="280" t="s">
+      <c r="Q65" s="280" t="s">
         <v>130</v>
-      </c>
-      <c r="N65" s="280" t="s">
-        <v>128</v>
-      </c>
-      <c r="O65" s="280" t="s">
-        <v>134</v>
-      </c>
-      <c r="P65" s="280" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q65" s="280" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="323" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A69" s="322" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="284" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
@@ -4665,79 +4659,79 @@
         <v>66</v>
       </c>
       <c r="B70" s="327" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C70" s="327" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D70" s="327" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E70" s="327" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F70" s="327" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="321" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B71" s="321" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C71" s="329" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D71" s="329" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E71" s="321" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F71" s="321" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="321" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B72" s="321" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="321" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="321" t="s">
-        <v>150</v>
-      </c>
       <c r="D72" s="321" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E72" s="321" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F72" s="321" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="321" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B73" s="321" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="321" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="321" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" s="321" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E73" s="321" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F73" s="321" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4747,7 +4741,7 @@
       <c r="D74" s="321"/>
       <c r="E74" s="321"/>
       <c r="F74" s="324" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4768,62 +4762,62 @@
     </row>
     <row r="78" spans="1:17" s="284" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A78" s="328" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B78" s="327" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C78" s="327" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D78" s="327" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E78" s="327" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F78" s="327" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="321" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B79" s="321" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C79" s="329" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="329" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E79" s="321" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F79" s="321" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="321" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B80" s="321" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="321" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="321" t="s">
-        <v>150</v>
-      </c>
       <c r="D80" s="321" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E80" s="321" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F80" s="321" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4833,7 +4827,7 @@
       <c r="D81" s="321"/>
       <c r="E81" s="321"/>
       <c r="F81" s="280" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="322" customFormat="1" ht="17.25" x14ac:dyDescent="0.45"/>
@@ -4849,7 +4843,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5440,24 +5434,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="151" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="449" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="449"/>
-      <c r="C2" s="449"/>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
+      <c r="A2" s="452" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
       <c r="J2" s="186"/>
       <c r="K2" s="186"/>
       <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" s="151" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5466,7 +5460,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -5484,7 +5478,7 @@
       <c r="G4" s="185"/>
       <c r="H4" s="141"/>
       <c r="I4" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="142"/>
@@ -5495,10 +5489,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="G5" s="185"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
@@ -5513,10 +5507,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="G6" s="184"/>
       <c r="H6" s="141"/>
       <c r="I6" s="17" t="s">
@@ -5565,10 +5559,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="G9" s="206"/>
       <c r="H9" s="183"/>
       <c r="I9" s="183"/>
@@ -5581,15 +5575,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="G10" s="206"/>
       <c r="H10" s="183"/>
       <c r="I10" s="183"/>
-      <c r="J10" s="445"/>
-      <c r="K10" s="445"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="448"/>
       <c r="L10" s="207"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5601,7 +5595,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="158" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H12" s="205"/>
       <c r="I12" s="205"/>
@@ -5611,38 +5605,38 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="343" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="453" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="454"/>
+      <c r="F13" s="343" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="343" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="343" t="s">
+      <c r="H13" s="344" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="450" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="451"/>
-      <c r="F13" s="343" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="343" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="344" t="s">
-        <v>184</v>
-      </c>
       <c r="I13" s="345" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="454" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="455"/>
+        <v>140</v>
+      </c>
+      <c r="J13" s="457" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="458"/>
       <c r="L13" s="205"/>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="368"/>
       <c r="C14" s="369"/>
-      <c r="D14" s="452"/>
-      <c r="E14" s="453"/>
+      <c r="D14" s="455"/>
+      <c r="E14" s="456"/>
       <c r="F14" s="369"/>
       <c r="G14" s="369"/>
       <c r="H14" s="370"/>
@@ -5650,11 +5644,11 @@
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="456">
+      <c r="J14" s="459">
         <f>I14/6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="457"/>
+      <c r="K14" s="460"/>
       <c r="L14" s="205"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5675,26 +5669,26 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="341" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="334" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="446" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="447"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="447"/>
-      <c r="H17" s="447"/>
-      <c r="I17" s="448"/>
+        <v>184</v>
+      </c>
+      <c r="B17" s="449" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="450"/>
+      <c r="D17" s="450"/>
+      <c r="E17" s="450"/>
+      <c r="F17" s="450"/>
+      <c r="G17" s="450"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="451"/>
       <c r="J17" s="203" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K17" s="315">
         <f>J14</f>
@@ -5706,21 +5700,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="458" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="424" t="s">
+      <c r="A18" s="446" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="425" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="426"/>
+      <c r="D18" s="426"/>
+      <c r="E18" s="426"/>
+      <c r="F18" s="426"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="426"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="203" t="s">
         <v>187</v>
-      </c>
-      <c r="C18" s="425"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="425"/>
-      <c r="G18" s="425"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="425"/>
-      <c r="J18" s="203" t="s">
-        <v>191</v>
       </c>
       <c r="K18" s="363"/>
       <c r="L18" s="202">
@@ -5729,19 +5723,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="459"/>
-      <c r="B19" s="426" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="427"/>
-      <c r="D19" s="427"/>
-      <c r="E19" s="427"/>
-      <c r="F19" s="427"/>
-      <c r="G19" s="427"/>
-      <c r="H19" s="427"/>
-      <c r="I19" s="427"/>
+      <c r="A19" s="447"/>
+      <c r="B19" s="427" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="428"/>
+      <c r="D19" s="428"/>
+      <c r="E19" s="428"/>
+      <c r="F19" s="428"/>
+      <c r="G19" s="428"/>
+      <c r="H19" s="428"/>
+      <c r="I19" s="428"/>
       <c r="J19" s="201" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K19" s="364"/>
       <c r="L19" s="200">
@@ -5783,7 +5777,7 @@
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="171"/>
       <c r="B22" s="198" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" s="197"/>
       <c r="D22" s="196"/>
@@ -5799,7 +5793,7 @@
     <row r="23" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I24" s="195" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J24" s="194"/>
       <c r="K24" s="194"/>
@@ -5869,12 +5863,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:I2"/>
@@ -5884,6 +5872,12 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5899,7 +5893,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5928,7 +5922,7 @@
       <c r="F1" s="132"/>
       <c r="H1" s="141"/>
       <c r="I1" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="142"/>
@@ -5940,7 +5934,7 @@
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -5968,10 +5962,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="s">
         <v>14</v>
@@ -5985,10 +5979,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6013,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
+      <c r="F7" s="388"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -6028,10 +6022,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="399"/>
-      <c r="D8" s="399"/>
-      <c r="E8" s="399"/>
-      <c r="F8" s="399"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="388"/>
+      <c r="E8" s="388"/>
+      <c r="F8" s="388"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6043,10 +6037,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6080,215 +6074,215 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="400" t="s">
+      <c r="H12" s="389" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="401"/>
-      <c r="J12" s="402" t="s">
+      <c r="I12" s="390"/>
+      <c r="J12" s="391" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="391"/>
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="376" t="s">
+      <c r="A13" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="382" t="s">
+      <c r="B13" s="395" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="382" t="s">
+      <c r="C13" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="391" t="s">
+      <c r="D13" s="395"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="392"/>
+      <c r="G13" s="398"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="393" t="s">
+      <c r="J13" s="379" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="409"/>
-      <c r="L13" s="405">
+      <c r="K13" s="381"/>
+      <c r="L13" s="375">
         <f>ROUND(K13*0.3,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="377"/>
-      <c r="B14" s="387"/>
-      <c r="C14" s="387" t="s">
+      <c r="A14" s="393"/>
+      <c r="B14" s="396"/>
+      <c r="C14" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="387"/>
-      <c r="E14" s="387"/>
-      <c r="F14" s="388" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="389"/>
+      <c r="D14" s="396"/>
+      <c r="E14" s="396"/>
+      <c r="F14" s="399" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="400"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="394"/>
-      <c r="K14" s="410"/>
-      <c r="L14" s="406"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="382"/>
+      <c r="L14" s="376"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="377"/>
-      <c r="B15" s="387"/>
-      <c r="C15" s="387" t="s">
+      <c r="A15" s="393"/>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="387"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="388" t="s">
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="399" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="389"/>
+      <c r="G15" s="400"/>
       <c r="H15" s="27"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="394"/>
-      <c r="K15" s="411"/>
-      <c r="L15" s="406"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="383"/>
+      <c r="L15" s="376"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="377"/>
-      <c r="B16" s="395" t="s">
+      <c r="A16" s="393"/>
+      <c r="B16" s="401" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="387" t="s">
+      <c r="C16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="387"/>
-      <c r="E16" s="387"/>
-      <c r="F16" s="388" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="389"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="399" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="400"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="394" t="s">
+      <c r="J16" s="380" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="404"/>
-      <c r="L16" s="406">
+      <c r="K16" s="374"/>
+      <c r="L16" s="376">
         <f>ROUND(K16*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="377"/>
-      <c r="B17" s="396"/>
-      <c r="C17" s="387" t="s">
+      <c r="A17" s="393"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="396" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="387"/>
-      <c r="E17" s="387"/>
-      <c r="F17" s="388" t="s">
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="389"/>
+      <c r="G17" s="400"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="394"/>
-      <c r="K17" s="404"/>
-      <c r="L17" s="406"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="376"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="378"/>
-      <c r="B18" s="397"/>
-      <c r="C18" s="390" t="s">
+      <c r="A18" s="394"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="385" t="s">
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="386" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="386"/>
+      <c r="G18" s="387"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="413"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="384"/>
+      <c r="L18" s="385"/>
     </row>
     <row r="19" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="376" t="s">
+      <c r="A19" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="379" t="s">
+      <c r="B19" s="409" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="382" t="s">
+      <c r="C19" s="395" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="382"/>
-      <c r="E19" s="382"/>
-      <c r="F19" s="383" t="s">
+      <c r="D19" s="395"/>
+      <c r="E19" s="395"/>
+      <c r="F19" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="384"/>
+      <c r="G19" s="413"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="393" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="403"/>
-      <c r="L19" s="405">
+      <c r="J19" s="379" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="373"/>
+      <c r="L19" s="375">
         <f>ROUND(K19*0.25,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="377"/>
-      <c r="B20" s="380"/>
-      <c r="C20" s="387" t="s">
+      <c r="A20" s="393"/>
+      <c r="B20" s="410"/>
+      <c r="C20" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="387"/>
-      <c r="E20" s="387"/>
-      <c r="F20" s="388" t="s">
+      <c r="D20" s="396"/>
+      <c r="E20" s="396"/>
+      <c r="F20" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="389"/>
+      <c r="G20" s="400"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="394"/>
-      <c r="K20" s="404"/>
-      <c r="L20" s="406"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="374"/>
+      <c r="L20" s="376"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="377"/>
-      <c r="B21" s="381"/>
-      <c r="C21" s="387" t="s">
+      <c r="A21" s="393"/>
+      <c r="B21" s="411"/>
+      <c r="C21" s="396" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="388" t="s">
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="399" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="389"/>
+      <c r="G21" s="400"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="394"/>
-      <c r="K21" s="404"/>
-      <c r="L21" s="406"/>
+      <c r="J21" s="380"/>
+      <c r="K21" s="374"/>
+      <c r="L21" s="376"/>
     </row>
     <row r="22" spans="1:12" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="378"/>
+      <c r="A22" s="394"/>
       <c r="B22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="385" t="s">
+      <c r="C22" s="405"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="386"/>
+      <c r="G22" s="387"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
       <c r="J22" s="38" t="s">
@@ -6305,21 +6299,21 @@
         <v>37</v>
       </c>
       <c r="B23" s="144" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="373" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="406" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="373"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="374" t="s">
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="407" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="375"/>
+      <c r="G23" s="408"/>
       <c r="H23" s="40"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K23" s="352"/>
       <c r="L23" s="43">
@@ -6354,11 +6348,11 @@
         <v>6</v>
       </c>
       <c r="J25" s="46"/>
-      <c r="K25" s="407">
+      <c r="K25" s="377">
         <f>SUM(L13:L23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="408"/>
+      <c r="L25" s="378"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26" s="331"/>
@@ -6385,22 +6379,18 @@
     <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:E13"/>
@@ -6417,18 +6407,22 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6444,8 +6438,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6472,7 +6466,7 @@
       </c>
       <c r="H2" s="211"/>
       <c r="I2" s="212" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="213"/>
       <c r="K2" s="214"/>
@@ -6480,11 +6474,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="215" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="H3" s="211"/>
       <c r="I3" s="212" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="213"/>
       <c r="K3" s="214"/>
@@ -6908,8 +6902,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6936,7 +6930,7 @@
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -6944,11 +6938,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -6976,10 +6970,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -6993,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7036,10 +7030,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7051,10 +7045,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7376,8 +7370,8 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7404,7 +7398,7 @@
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -7412,11 +7406,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -7444,10 +7438,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -7461,10 +7455,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7504,10 +7498,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -7519,10 +7513,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -7683,7 +7677,7 @@
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="300" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="298"/>
       <c r="C22" s="298"/>
@@ -7843,8 +7837,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7866,11 +7860,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="210" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="H2" s="211"/>
       <c r="I2" s="212" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="213"/>
       <c r="K2" s="214"/>
@@ -7878,11 +7872,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="215" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H3" s="211"/>
       <c r="I3" s="212" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="213"/>
       <c r="K3" s="214"/>
@@ -8004,7 +7998,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="223" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="224"/>
       <c r="C12" s="224"/>
@@ -8064,7 +8058,7 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="236" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="228"/>
       <c r="C16" s="228"/>
@@ -8089,7 +8083,7 @@
       <c r="I17" s="238"/>
       <c r="J17" s="228"/>
       <c r="K17" s="239" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L17" s="228"/>
     </row>
@@ -8179,12 +8173,12 @@
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="215" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -8198,13 +8192,13 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="243" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" s="244"/>
       <c r="D26" s="245"/>
       <c r="E26" s="356"/>
       <c r="F26" s="243" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" s="245"/>
       <c r="H26" s="357"/>
@@ -8272,7 +8266,7 @@
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="250" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" s="213"/>
       <c r="I31" s="213"/>
@@ -8288,7 +8282,7 @@
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="221" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J33" s="253"/>
       <c r="K33" s="253"/>
@@ -8340,7 +8334,7 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -8994,11 +8988,11 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -9006,11 +9000,11 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -9038,10 +9032,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -9055,10 +9049,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9102,10 +9096,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -9117,10 +9111,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -9136,7 +9130,7 @@
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
@@ -9196,7 +9190,7 @@
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -9218,7 +9212,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="97"/>
       <c r="H17" s="99" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="100"/>
       <c r="K17" s="101" t="s">
@@ -9227,7 +9221,7 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="102" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="81"/>
@@ -9248,7 +9242,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="102" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="81"/>
@@ -9269,7 +9263,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="102" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="81"/>
@@ -9290,13 +9284,13 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="102" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
       <c r="E21" s="359"/>
       <c r="F21" s="147" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G21" s="104"/>
       <c r="H21" s="101"/>
@@ -9308,7 +9302,7 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="107"/>
       <c r="D22" s="107"/>
@@ -9319,7 +9313,7 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G23" s="109" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
@@ -9334,12 +9328,12 @@
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -9353,13 +9347,13 @@
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="137" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="139"/>
       <c r="E26" s="356"/>
       <c r="F26" s="137" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" s="139"/>
       <c r="H26" s="123">
@@ -9427,7 +9421,7 @@
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="120" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -9443,7 +9437,7 @@
     <row r="32" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I33" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
@@ -9491,7 +9485,7 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
@@ -10082,11 +10076,11 @@
     <row r="1" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -10094,11 +10088,11 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -10126,10 +10120,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10143,10 +10137,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10190,10 +10184,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -10205,10 +10199,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -10235,16 +10229,16 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="417" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B14" s="419" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" s="420"/>
       <c r="D14" s="420"/>
@@ -10254,7 +10248,7 @@
       <c r="H14" s="420"/>
       <c r="I14" s="421"/>
       <c r="J14" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K14" s="361"/>
       <c r="L14" s="335">
@@ -10265,18 +10259,18 @@
     </row>
     <row r="15" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="418"/>
-      <c r="B15" s="460" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="422"/>
-      <c r="D15" s="422"/>
-      <c r="E15" s="422"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="422"/>
-      <c r="H15" s="422"/>
-      <c r="I15" s="422"/>
+      <c r="B15" s="422" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="423"/>
+      <c r="D15" s="423"/>
+      <c r="E15" s="423"/>
+      <c r="F15" s="423"/>
+      <c r="G15" s="423"/>
+      <c r="H15" s="423"/>
+      <c r="I15" s="423"/>
       <c r="J15" s="38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K15" s="362"/>
       <c r="L15" s="339">
@@ -10286,20 +10280,20 @@
     </row>
     <row r="16" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="417" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="424" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="425"/>
-      <c r="D16" s="425"/>
-      <c r="E16" s="425"/>
-      <c r="F16" s="425"/>
-      <c r="G16" s="425"/>
-      <c r="H16" s="425"/>
-      <c r="I16" s="425"/>
+        <v>174</v>
+      </c>
+      <c r="B16" s="425" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="426"/>
+      <c r="D16" s="426"/>
+      <c r="E16" s="426"/>
+      <c r="F16" s="426"/>
+      <c r="G16" s="426"/>
+      <c r="H16" s="426"/>
+      <c r="I16" s="426"/>
       <c r="J16" s="23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K16" s="363"/>
       <c r="L16" s="336">
@@ -10308,17 +10302,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="423"/>
-      <c r="B17" s="426" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="427"/>
-      <c r="D17" s="427"/>
-      <c r="E17" s="427"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="427"/>
-      <c r="H17" s="427"/>
-      <c r="I17" s="427"/>
+      <c r="A17" s="424"/>
+      <c r="B17" s="427" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="428"/>
+      <c r="G17" s="428"/>
+      <c r="H17" s="428"/>
+      <c r="I17" s="428"/>
       <c r="J17" s="26" t="s">
         <v>4</v>
       </c>
@@ -10330,18 +10324,18 @@
     </row>
     <row r="18" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="418"/>
-      <c r="B18" s="428" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="422"/>
-      <c r="D18" s="422"/>
-      <c r="E18" s="422"/>
-      <c r="F18" s="422"/>
-      <c r="G18" s="422"/>
-      <c r="H18" s="422"/>
-      <c r="I18" s="422"/>
+      <c r="B18" s="429" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="423"/>
+      <c r="D18" s="423"/>
+      <c r="E18" s="423"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="423"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="423"/>
       <c r="J18" s="38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K18" s="365"/>
       <c r="L18" s="338">
@@ -10385,7 +10379,7 @@
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="82"/>
@@ -10402,7 +10396,7 @@
     <row r="22" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I23" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
@@ -10458,6 +10452,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
@@ -10465,11 +10464,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10487,7 +10481,7 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -10508,11 +10502,11 @@
     <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="142"/>
@@ -10520,11 +10514,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H3" s="141"/>
       <c r="I3" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="142"/>
@@ -10552,10 +10546,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="H5" s="141"/>
       <c r="I5" s="17" t="s">
         <v>14</v>
@@ -10569,10 +10563,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
+      <c r="C6" s="388"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="388"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10612,10 +10606,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
+      <c r="E9" s="388"/>
+      <c r="F9" s="388"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -10627,10 +10621,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="388"/>
+      <c r="F10" s="388"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -10660,7 +10654,7 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B14" s="149"/>
       <c r="C14" s="149"/>
@@ -10680,14 +10674,14 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="429" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="430"/>
-      <c r="C15" s="430"/>
-      <c r="D15" s="430"/>
-      <c r="E15" s="430"/>
-      <c r="F15" s="431"/>
+      <c r="A15" s="430" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="431"/>
+      <c r="C15" s="431"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="432"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="14"/>
@@ -10696,14 +10690,14 @@
       <c r="L15" s="354"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="430"/>
-      <c r="C16" s="430"/>
-      <c r="D16" s="430"/>
-      <c r="E16" s="430"/>
-      <c r="F16" s="431"/>
+      <c r="A16" s="430" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="431"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="432"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="14"/>
@@ -10713,7 +10707,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="300" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B17" s="301"/>
       <c r="C17" s="301"/>
@@ -10729,7 +10723,7 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="300" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="301"/>
       <c r="C18" s="301"/>
@@ -10745,7 +10739,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="300" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="301"/>
       <c r="C19" s="301"/>
@@ -10764,27 +10758,27 @@
       <c r="L20" s="182"/>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="435" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="436"/>
-      <c r="C21" s="436"/>
-      <c r="D21" s="436"/>
-      <c r="E21" s="436"/>
-      <c r="F21" s="436"/>
-      <c r="G21" s="436"/>
-      <c r="H21" s="436"/>
-      <c r="I21" s="436"/>
+      <c r="A21" s="436" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="437"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
+      <c r="G21" s="437"/>
+      <c r="H21" s="437"/>
+      <c r="I21" s="437"/>
       <c r="J21" s="181"/>
       <c r="K21" s="180"/>
       <c r="L21" s="10"/>
       <c r="R21" s="175"/>
     </row>
     <row r="22" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="443" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="444"/>
+      <c r="A22" s="444" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="445"/>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
@@ -10799,28 +10793,28 @@
       <c r="R22" s="175"/>
     </row>
     <row r="23" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="439" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="440"/>
+      <c r="A23" s="440" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="441"/>
       <c r="C23" s="366"/>
-      <c r="D23" s="437" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="438"/>
+      <c r="D23" s="438" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="439"/>
       <c r="F23" s="367"/>
       <c r="G23" s="308" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H23" s="309">
         <f>IFERROR(IF(ROUND(C23/F23,3)&gt;10,10,ROUND(C23/F23,3)),10)</f>
         <v>10</v>
       </c>
       <c r="I23" s="310" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J23" s="308" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K23" s="311">
         <f>10-H23</f>
@@ -10830,11 +10824,11 @@
       <c r="R23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="441" t="s">
+      <c r="A24" s="442" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="442"/>
-      <c r="C24" s="442"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
       <c r="D24" s="312"/>
       <c r="E24" s="312"/>
       <c r="F24" s="312"/>
@@ -10846,19 +10840,19 @@
       <c r="R24" s="175"/>
     </row>
     <row r="25" spans="1:18" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="432" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="433"/>
-      <c r="C25" s="433"/>
-      <c r="D25" s="433"/>
-      <c r="E25" s="433"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="433"/>
-      <c r="H25" s="433"/>
-      <c r="I25" s="433"/>
-      <c r="J25" s="433"/>
-      <c r="K25" s="434"/>
+      <c r="A25" s="433" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="434"/>
+      <c r="C25" s="434"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="434"/>
+      <c r="F25" s="434"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="434"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="434"/>
+      <c r="K25" s="435"/>
       <c r="L25" s="11">
         <f>IFERROR(K23-K24,0)</f>
         <v>0</v>
@@ -10905,7 +10899,7 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="168" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10920,7 +10914,7 @@
     <row r="30" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="165"/>
       <c r="I30" s="164" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J30" s="163"/>
       <c r="K30" s="162"/>
@@ -11020,24 +11014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11103,10 +11079,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11127,18 +11130,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>